--- a/TITN/TITN.xlsx
+++ b/TITN/TITN.xlsx
@@ -8,24 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32906c935fa0eb4f/models/TITN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32464ADF-BE6B-418D-9E97-37453E43D3F1}"/>
+  <xr:revisionPtr revIDLastSave="471" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C43F05D-D6D1-4552-915C-6A23D4F57DBC}"/>
   <bookViews>
-    <workbookView xWindow="17850" yWindow="3270" windowWidth="17190" windowHeight="15850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19070" yWindow="5070" windowWidth="17190" windowHeight="15850" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
+    <sheet name="model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="107">
   <si>
     <t>Headquarters: West Fargo, ND</t>
   </si>
@@ -34,14 +46,338 @@
   </si>
   <si>
     <t>One of the largest dealers of agricultural and construction equipment, largest dealer for CNH in the world.</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>Parts</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Rental and other</t>
+  </si>
+  <si>
+    <t>Total Rev</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Equip COGS</t>
+  </si>
+  <si>
+    <t>Parts COGS</t>
+  </si>
+  <si>
+    <t>Service COGS</t>
+  </si>
+  <si>
+    <t>Rental COGS</t>
+  </si>
+  <si>
+    <t>Total COGS</t>
+  </si>
+  <si>
+    <t>Equip GM</t>
+  </si>
+  <si>
+    <t>Parts GM</t>
+  </si>
+  <si>
+    <t>Service GM</t>
+  </si>
+  <si>
+    <t>Rental GM</t>
+  </si>
+  <si>
+    <t>Total GM</t>
+  </si>
+  <si>
+    <t>OpEx</t>
+  </si>
+  <si>
+    <t>OpInc</t>
+  </si>
+  <si>
+    <t>Int and other income</t>
+  </si>
+  <si>
+    <t>Other int exp</t>
+  </si>
+  <si>
+    <t>Floorplan int exp</t>
+  </si>
+  <si>
+    <t>PreTax Inc</t>
+  </si>
+  <si>
+    <t>Ag Equip Rev</t>
+  </si>
+  <si>
+    <t>Const Equip Rev</t>
+  </si>
+  <si>
+    <t>Ag Service Rev</t>
+  </si>
+  <si>
+    <t>Europe Equip Rev</t>
+  </si>
+  <si>
+    <t>Austrailia Equip Rev</t>
+  </si>
+  <si>
+    <t>Total Equip</t>
+  </si>
+  <si>
+    <t>Europe Service Rev</t>
+  </si>
+  <si>
+    <t>Austrailia Service Rev</t>
+  </si>
+  <si>
+    <t>Total Service</t>
+  </si>
+  <si>
+    <t>Ag Parts Rev</t>
+  </si>
+  <si>
+    <t>Const Parts Rev</t>
+  </si>
+  <si>
+    <t>Europe Parts Rev</t>
+  </si>
+  <si>
+    <t>Australia Parts Rev</t>
+  </si>
+  <si>
+    <t>Total Parts</t>
+  </si>
+  <si>
+    <t>Ag Other Rev</t>
+  </si>
+  <si>
+    <t>Const Other Rev</t>
+  </si>
+  <si>
+    <t>Const Service Rev</t>
+  </si>
+  <si>
+    <t>Total Other</t>
+  </si>
+  <si>
+    <t>Europe Other Rev</t>
+  </si>
+  <si>
+    <t>Australia Other Rev</t>
+  </si>
+  <si>
+    <t>Ag Rental</t>
+  </si>
+  <si>
+    <t>Const Rental</t>
+  </si>
+  <si>
+    <t>Europe Rental</t>
+  </si>
+  <si>
+    <t>Australia Rental</t>
+  </si>
+  <si>
+    <t>Total Rental</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t>Def IncTax</t>
+  </si>
+  <si>
+    <t>Stock-based comp</t>
+  </si>
+  <si>
+    <t>Non-cash int</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Delta AR</t>
+  </si>
+  <si>
+    <t>Delta Prepays and other</t>
+  </si>
+  <si>
+    <t>Delta Inventories</t>
+  </si>
+  <si>
+    <t>Delta Floorplan payable</t>
+  </si>
+  <si>
+    <t>Delta def rev</t>
+  </si>
+  <si>
+    <t>Delta AP</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>Prov for IncTax</t>
+  </si>
+  <si>
+    <t>Net income</t>
+  </si>
+  <si>
+    <t>EPS Basic</t>
+  </si>
+  <si>
+    <t>EPS Diluted</t>
+  </si>
+  <si>
+    <t>Basic Shares</t>
+  </si>
+  <si>
+    <t>Diluted Shares</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Inv</t>
+  </si>
+  <si>
+    <t>Prepays</t>
+  </si>
+  <si>
+    <t>Current Assets</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>PPE</t>
+  </si>
+  <si>
+    <t>OpLease Assets</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>Intangibles</t>
+  </si>
+  <si>
+    <t>Total Noncurrent</t>
+  </si>
+  <si>
+    <t>Total Assets</t>
+  </si>
+  <si>
+    <t>Balance Sheet</t>
+  </si>
+  <si>
+    <t>Cash flow</t>
+  </si>
+  <si>
+    <t>Inc Statement</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Floorplan</t>
+  </si>
+  <si>
+    <t>CPLTD</t>
+  </si>
+  <si>
+    <t>Curr OpLease</t>
+  </si>
+  <si>
+    <t>Def Rev</t>
+  </si>
+  <si>
+    <t>Accrued Exp</t>
+  </si>
+  <si>
+    <t>Current Libs</t>
+  </si>
+  <si>
+    <t>LTD</t>
+  </si>
+  <si>
+    <t>OpLease</t>
+  </si>
+  <si>
+    <t>Other LT Libs</t>
+  </si>
+  <si>
+    <t>Total LT Libs</t>
+  </si>
+  <si>
+    <t>Total Libs</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Ret Earnings</t>
+  </si>
+  <si>
+    <t>Other Inc</t>
+  </si>
+  <si>
+    <t>Total Equity</t>
+  </si>
+  <si>
+    <t>Lib+Equity</t>
+  </si>
+  <si>
+    <t>Floorplan Margin</t>
+  </si>
+  <si>
+    <t>Floorplan Ratio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -69,8 +405,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -86,6 +430,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -353,7 +701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -377,4 +725,1818 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49AC6758-3054-45BD-A746-0979BE500444}">
+  <dimension ref="A1:F114"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H93" sqref="H93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.90625" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2">
+        <v>325660</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2">
+        <v>338713</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45458</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2">
+        <v>47095</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2">
+        <v>58258</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
+        <v>47499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
+        <v>34782</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3">
+        <f>SUM(B3:B6)</f>
+        <v>429376</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" ref="C7:F7" si="0">SUM(C3:C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>468089</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="5">
+        <v>69547</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5">
+        <v>74965</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="5">
+        <v>13664</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5">
+        <v>11830</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="5">
+        <v>13395</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5">
+        <v>14524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5">
+        <v>6907</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="3">
+        <f>SUM(B8:B11)</f>
+        <v>96606</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" ref="C12:F12" si="1">SUM(C8:C11)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="1"/>
+        <v>108226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2">
+        <v>26266</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
+        <v>32943</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="2">
+        <v>6336</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2331</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="3">
+        <f>SUM(B13:B16)</f>
+        <v>34933</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" ref="C17:F17" si="2">SUM(C13:C16)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="2"/>
+        <v>45079</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1167</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="5">
+        <v>360</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="5">
+        <v>359</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="3">
+        <f>SUM(B18:B21)</f>
+        <v>1886</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" ref="C22:F22" si="3">SUM(C18:C21)</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="3"/>
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="5">
+        <v>555</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="5">
+        <v>6178</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5">
+        <v>5451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="5">
+        <v>97</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="3">
+        <f>SUM(B23:B26)</f>
+        <v>6830</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" ref="C27:F27" si="4">SUM(C23:C26)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="4"/>
+        <v>5814</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="3">
+        <f>B27+B22+B17+B12+B7</f>
+        <v>569631</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" ref="C28:F28" si="5">C27+C22+C17+C12+C7</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="5"/>
+        <v>628703</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="1" t="str">
+        <f>B1</f>
+        <v>Q123</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f t="shared" ref="C30:E30" si="6">C1</f>
+        <v>Q223</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Q323</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Q423</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <f>F1</f>
+        <v>Q124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="2">
+        <v>429376</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2">
+        <v>468089</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="2">
+        <v>96606</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2">
+        <v>108226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="2">
+        <v>34933</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2">
+        <v>45079</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="2">
+        <v>8716</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2">
+        <v>7309</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="3">
+        <f>SUM(B33:B36)</f>
+        <v>569631</v>
+      </c>
+      <c r="C37" s="3">
+        <f t="shared" ref="C37:F37" si="7">SUM(C33:C36)</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <f t="shared" si="7"/>
+        <v>628703</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="2">
+        <v>368262</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2">
+        <v>412239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="2">
+        <v>65103</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2">
+        <v>73151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="2">
+        <v>12409</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2">
+        <v>16776</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="2">
+        <v>5277</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2">
+        <v>4782</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="3">
+        <f>SUM(B38:B41)</f>
+        <v>451051</v>
+      </c>
+      <c r="C42" s="3">
+        <f t="shared" ref="C42:F42" si="8">SUM(C38:C41)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="8"/>
+        <v>506948</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="2">
+        <f>B33-B38</f>
+        <v>61114</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2">
+        <f>F33-F38</f>
+        <v>55850</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="2">
+        <f t="shared" ref="B44:F46" si="9">B34-B39</f>
+        <v>31503</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2">
+        <f t="shared" si="9"/>
+        <v>35075</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="2">
+        <f t="shared" si="9"/>
+        <v>22524</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2">
+        <f t="shared" si="9"/>
+        <v>28303</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="2">
+        <f t="shared" si="9"/>
+        <v>3439</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2">
+        <f t="shared" si="9"/>
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="3">
+        <f>SUM(B43:B46)</f>
+        <v>118580</v>
+      </c>
+      <c r="C47" s="3">
+        <f t="shared" ref="C47:F47" si="10">SUM(C43:C46)</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <f t="shared" si="10"/>
+        <v>121755</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="2">
+        <v>81315</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2">
+        <v>99158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="3">
+        <f>B47-B48</f>
+        <v>37265</v>
+      </c>
+      <c r="C49" s="3">
+        <f t="shared" ref="C49:F49" si="11">C47-C48</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <f t="shared" si="11"/>
+        <v>22597</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="5">
+        <v>720</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5">
+        <v>-288</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="5">
+        <v>-1272</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5">
+        <v>-7064</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="5">
+        <v>-1274</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5">
+        <v>-2459</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" s="3">
+        <f>B49+SUM(B50:B52)</f>
+        <v>35439</v>
+      </c>
+      <c r="C53" s="3">
+        <f t="shared" ref="C53:F53" si="12">C49+SUM(C50:C52)</f>
+        <v>0</v>
+      </c>
+      <c r="D53" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E53" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F53" s="3">
+        <f t="shared" si="12"/>
+        <v>12786</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="5">
+        <v>8474</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" s="3">
+        <f>B53-B54</f>
+        <v>26965</v>
+      </c>
+      <c r="C55" s="3">
+        <f t="shared" ref="C55:F55" si="13">C53-C54</f>
+        <v>0</v>
+      </c>
+      <c r="D55" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E55" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <f t="shared" si="13"/>
+        <v>9441</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" s="7">
+        <f>B55/B60</f>
+        <v>1.2015952943273474</v>
+      </c>
+      <c r="C57" s="7" t="e">
+        <f t="shared" ref="C57:F57" si="14">C55/C60</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D57" s="7" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E57" s="7" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F57" s="7">
+        <f t="shared" si="14"/>
+        <v>0.41881820601543784</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" s="7">
+        <f>B55/B61</f>
+        <v>1.201220598717035</v>
+      </c>
+      <c r="C58" s="7" t="e">
+        <f t="shared" ref="C58:F58" si="15">C55/C61</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D58" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E58" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F58" s="7">
+        <f t="shared" si="15"/>
+        <v>0.41874390135722522</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" s="6">
+        <v>22441</v>
+      </c>
+      <c r="F60" s="6">
+        <v>22542</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" s="6">
+        <v>22448</v>
+      </c>
+      <c r="F61" s="6">
+        <v>22546</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="1" t="str">
+        <f>B30</f>
+        <v>Q123</v>
+      </c>
+      <c r="C63" s="1" t="str">
+        <f t="shared" ref="C63:F63" si="16">C30</f>
+        <v>Q223</v>
+      </c>
+      <c r="D63" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>Q323</v>
+      </c>
+      <c r="E63" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>Q423</v>
+      </c>
+      <c r="F63" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>Q124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>52</v>
+      </c>
+      <c r="B65" s="2">
+        <v>26965</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2">
+        <v>9441</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" s="5">
+        <v>6948</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5">
+        <v>8715</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B67" s="5">
+        <v>-904</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5">
+        <v>-379</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B68" s="5">
+        <v>659</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B69" s="5">
+        <v>64</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" s="5">
+        <v>1663</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5">
+        <v>3767</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B71" s="5">
+        <v>-32307</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5">
+        <v>20115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B72" s="5">
+        <v>1274</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5">
+        <v>6815</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B73" s="5">
+        <v>-140107</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5">
+        <v>-137760</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B74" s="5">
+        <v>86259</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5">
+        <v>92084</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B75" s="5">
+        <v>-23987</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5">
+        <v>-30670</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B76" s="5">
+        <v>-4231</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5">
+        <v>-5407</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B77" s="3">
+        <f>SUM(B65:B76)</f>
+        <v>-77704</v>
+      </c>
+      <c r="C77" s="3">
+        <f t="shared" ref="C77:F77" si="17">SUM(C65:C76)</f>
+        <v>0</v>
+      </c>
+      <c r="D77" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E77" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F77" s="3">
+        <f t="shared" si="17"/>
+        <v>-32354</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="1" t="str">
+        <f>B63</f>
+        <v>Q123</v>
+      </c>
+      <c r="C79" s="1" t="str">
+        <f t="shared" ref="C79:F79" si="18">C63</f>
+        <v>Q223</v>
+      </c>
+      <c r="D79" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>Q323</v>
+      </c>
+      <c r="E79" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>Q423</v>
+      </c>
+      <c r="F79" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>Q124</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5">
+        <v>38066</v>
+      </c>
+      <c r="F81" s="5">
+        <v>35684</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>72</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2">
+        <v>153657</v>
+      </c>
+      <c r="F82" s="2">
+        <v>134142</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>73</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2">
+        <v>1303030</v>
+      </c>
+      <c r="F83" s="2">
+        <v>1429762</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>74</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2">
+        <v>24262</v>
+      </c>
+      <c r="F84" s="2">
+        <v>15301</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B85" s="3">
+        <f>SUM(B81:B84)</f>
+        <v>0</v>
+      </c>
+      <c r="C85" s="3">
+        <f t="shared" ref="C85:F85" si="19">SUM(C81:C84)</f>
+        <v>0</v>
+      </c>
+      <c r="D85" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E85" s="3">
+        <f>SUM(E81:E84)</f>
+        <v>1519015</v>
+      </c>
+      <c r="F85" s="3">
+        <f t="shared" si="19"/>
+        <v>1614889</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>79</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2">
+        <v>298774</v>
+      </c>
+      <c r="F86" s="2">
+        <v>304472</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>80</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2">
+        <v>54699</v>
+      </c>
+      <c r="F87" s="2">
+        <v>51858</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>54</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2">
+        <v>529</v>
+      </c>
+      <c r="F88" s="2">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>81</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2">
+        <v>64105</v>
+      </c>
+      <c r="F89" s="2">
+        <v>62979</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>82</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2">
+        <v>53356</v>
+      </c>
+      <c r="F90" s="2">
+        <v>51301</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>57</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2">
+        <v>1783</v>
+      </c>
+      <c r="F91" s="2">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B92" s="3">
+        <f>SUM(B86:B91)</f>
+        <v>0</v>
+      </c>
+      <c r="C92" s="3">
+        <f t="shared" ref="C92:F92" si="20">SUM(C86:C91)</f>
+        <v>0</v>
+      </c>
+      <c r="D92" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E92" s="3">
+        <f t="shared" si="20"/>
+        <v>473246</v>
+      </c>
+      <c r="F92" s="3">
+        <f t="shared" si="20"/>
+        <v>472778</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B93" s="3">
+        <f>B85+B92</f>
+        <v>0</v>
+      </c>
+      <c r="C93" s="3">
+        <f t="shared" ref="C93:E93" si="21">C85+C92</f>
+        <v>0</v>
+      </c>
+      <c r="D93" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E93" s="3">
+        <f t="shared" si="21"/>
+        <v>1992261</v>
+      </c>
+      <c r="F93" s="3">
+        <f>F85+F92</f>
+        <v>2087667</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>88</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2">
+        <v>43846</v>
+      </c>
+      <c r="F94" s="2">
+        <v>47629</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>89</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2">
+        <v>893846</v>
+      </c>
+      <c r="F95" s="2">
+        <v>1024999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>90</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2">
+        <v>13706</v>
+      </c>
+      <c r="F96" s="2">
+        <v>13890</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>91</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2">
+        <v>10751</v>
+      </c>
+      <c r="F97" s="2">
+        <v>10918</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>92</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2">
+        <v>115852</v>
+      </c>
+      <c r="F98" s="2">
+        <v>84900</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>93</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2">
+        <v>74400</v>
+      </c>
+      <c r="F99" s="2">
+        <v>65402</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B100" s="3">
+        <f t="shared" ref="B100:E100" si="22">SUM(B94:B99)</f>
+        <v>0</v>
+      </c>
+      <c r="C100" s="3">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="D100" s="3">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <f t="shared" si="22"/>
+        <v>1152401</v>
+      </c>
+      <c r="F100" s="3">
+        <f>SUM(F94:F99)</f>
+        <v>1247738</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>95</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2">
+        <v>106407</v>
+      </c>
+      <c r="F101" s="2">
+        <v>105440</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>96</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2">
+        <v>50964</v>
+      </c>
+      <c r="F102" s="2">
+        <v>47693</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>54</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2">
+        <v>22607</v>
+      </c>
+      <c r="F103" s="2">
+        <v>21740</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>97</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2">
+        <v>2240</v>
+      </c>
+      <c r="F104" s="2">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B105" s="3">
+        <f>SUM(B101:B104)</f>
+        <v>0</v>
+      </c>
+      <c r="C105" s="3">
+        <f t="shared" ref="C105:F105" si="23">SUM(C101:C104)</f>
+        <v>0</v>
+      </c>
+      <c r="D105" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="E105" s="3">
+        <f t="shared" si="23"/>
+        <v>182218</v>
+      </c>
+      <c r="F105" s="3">
+        <f t="shared" si="23"/>
+        <v>177328</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B106" s="3">
+        <f>B105+B100</f>
+        <v>0</v>
+      </c>
+      <c r="C106" s="3">
+        <f t="shared" ref="C106:F106" si="24">C105+C100</f>
+        <v>0</v>
+      </c>
+      <c r="D106" s="3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E106" s="3">
+        <f t="shared" si="24"/>
+        <v>1334619</v>
+      </c>
+      <c r="F106" s="3">
+        <f t="shared" si="24"/>
+        <v>1425066</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>100</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2">
+        <v>258657</v>
+      </c>
+      <c r="F107" s="2">
+        <v>258700</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>101</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2">
+        <v>397225</v>
+      </c>
+      <c r="F108" s="2">
+        <v>406666</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>102</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2">
+        <v>1760</v>
+      </c>
+      <c r="F109" s="2">
+        <v>-2765</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B110" s="3">
+        <f>SUM(B107:B109)</f>
+        <v>0</v>
+      </c>
+      <c r="C110" s="3">
+        <f t="shared" ref="C110:F110" si="25">SUM(C107:C109)</f>
+        <v>0</v>
+      </c>
+      <c r="D110" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E110" s="3">
+        <f t="shared" si="25"/>
+        <v>657642</v>
+      </c>
+      <c r="F110" s="3">
+        <f t="shared" si="25"/>
+        <v>662601</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B111" s="3">
+        <f>B110+B106</f>
+        <v>0</v>
+      </c>
+      <c r="C111" s="3">
+        <f t="shared" ref="C111:F111" si="26">C110+C106</f>
+        <v>0</v>
+      </c>
+      <c r="D111" s="3">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E111" s="3">
+        <f t="shared" si="26"/>
+        <v>1992261</v>
+      </c>
+      <c r="F111" s="3">
+        <f t="shared" si="26"/>
+        <v>2087667</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B113" s="3">
+        <f>B83-B95</f>
+        <v>0</v>
+      </c>
+      <c r="C113" s="3">
+        <f t="shared" ref="C113:F113" si="27">C83-C95</f>
+        <v>0</v>
+      </c>
+      <c r="D113" s="3">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="E113" s="3">
+        <f t="shared" si="27"/>
+        <v>409184</v>
+      </c>
+      <c r="F113" s="3">
+        <f t="shared" si="27"/>
+        <v>404763</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B114" s="8" t="e">
+        <f>B83/B95</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C114" s="8" t="e">
+        <f t="shared" ref="C114:F114" si="28">C83/C95</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D114" s="8" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E114" s="8">
+        <f t="shared" si="28"/>
+        <v>1.4577790805127506</v>
+      </c>
+      <c r="F114" s="8">
+        <f t="shared" si="28"/>
+        <v>1.3948911169669433</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TITN/TITN.xlsx
+++ b/TITN/TITN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32906c935fa0eb4f/models/TITN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="471" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C43F05D-D6D1-4552-915C-6A23D4F57DBC}"/>
+  <xr:revisionPtr revIDLastSave="703" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9521A47-189F-485D-A0D1-808FFE15CCB1}"/>
   <bookViews>
-    <workbookView xWindow="19070" yWindow="5070" windowWidth="17190" windowHeight="15850" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19070" yWindow="5030" windowWidth="17190" windowHeight="15850" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="115">
   <si>
     <t>Headquarters: West Fargo, ND</t>
   </si>
@@ -358,6 +358,30 @@
   </si>
   <si>
     <t>Floorplan Ratio</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Impairment of Goodwill</t>
+  </si>
+  <si>
+    <t>Impairment of Intangible</t>
+  </si>
+  <si>
+    <t>Impairment</t>
+  </si>
+  <si>
+    <t>Sale-Leaseback finance mod</t>
+  </si>
+  <si>
+    <t>Gain on extinguishment of debt</t>
   </si>
 </sst>
 </file>
@@ -410,11 +434,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -729,22 +753,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49AC6758-3054-45BD-A746-0979BE500444}">
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:O119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H93" sqref="H93"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.90625" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
@@ -760,50 +785,110 @@
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="2">
         <v>325660</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2">
+        <v>352533</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2">
         <v>338713</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3" s="2">
+        <v>312556</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="K3" s="2">
+        <f>SUM(B3:E3)</f>
+        <v>678193</v>
+      </c>
+      <c r="L3" s="2">
+        <f>SUM(F3:I3)</f>
+        <v>651269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="2">
         <v>45458</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2">
+        <v>53697</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2">
         <v>47095</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4" s="2">
+        <v>52844</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="K4" s="2">
+        <f t="shared" ref="K4:K70" si="0">SUM(B4:E4)</f>
+        <v>99155</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" ref="L4:L70" si="1">SUM(F4:I4)</f>
+        <v>99939</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="2">
         <v>58258</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>73892</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
         <v>47499</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5" s="2">
+        <v>49146</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="K5" s="2">
+        <f t="shared" si="0"/>
+        <v>132150</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="1"/>
+        <v>96645</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -814,8 +899,21 @@
       <c r="F6" s="2">
         <v>34782</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="2">
+        <v>50687</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="K6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="1"/>
+        <v>85469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -824,77 +922,155 @@
         <v>429376</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" ref="C7:F7" si="0">SUM(C3:C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C7:I7" si="2">SUM(C3:C6)</f>
+        <v>480122</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>468089</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="G7" s="3">
+        <f t="shared" si="2"/>
+        <v>465233</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="0"/>
+        <v>909498</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="1"/>
+        <v>933322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="2">
         <v>69547</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5">
+      <c r="C8" s="2">
+        <v>82246</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
         <v>74965</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="G8" s="2">
+        <v>75430</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="K8" s="2">
+        <f t="shared" si="0"/>
+        <v>151793</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="1"/>
+        <v>150395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="2">
         <v>13664</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5">
+      <c r="C9" s="2">
+        <v>12537</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2">
         <v>11830</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+      <c r="G9" s="2">
+        <v>11049</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="K9" s="2">
+        <f t="shared" si="0"/>
+        <v>26201</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="1"/>
+        <v>22879</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="2">
         <v>13395</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5">
+      <c r="C10" s="2">
+        <v>13727</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
         <v>14524</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+      <c r="G10" s="2">
+        <v>15407</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="K10" s="2">
+        <f t="shared" si="0"/>
+        <v>27122</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="1"/>
+        <v>29931</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2">
         <v>6907</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G11" s="2">
+        <v>7919</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="K11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="1"/>
+        <v>14826</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
@@ -903,65 +1079,130 @@
         <v>96606</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" ref="C12:F12" si="1">SUM(C8:C11)</f>
-        <v>0</v>
+        <f t="shared" ref="C12:I12" si="3">SUM(C8:C11)</f>
+        <v>108510</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>108226</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G12" s="3">
+        <f t="shared" si="3"/>
+        <v>109805</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="0"/>
+        <v>205116</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="1"/>
+        <v>218031</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="2">
         <v>26266</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2">
+        <v>32526</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2">
         <v>32943</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G13" s="2">
+        <v>34570</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="K13" s="2">
+        <f t="shared" si="0"/>
+        <v>58792</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="1"/>
+        <v>67513</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="2">
         <v>6336</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2">
+        <v>7347</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2">
         <v>6800</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G14" s="2">
+        <v>7214</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="K14" s="2">
+        <f t="shared" si="0"/>
+        <v>13683</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="1"/>
+        <v>14014</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="2">
         <v>2331</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2">
+        <v>2605</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2">
         <v>2757</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G15" s="2">
+        <v>3076</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="K15" s="2">
+        <f t="shared" si="0"/>
+        <v>4936</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="1"/>
+        <v>5833</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -972,8 +1213,21 @@
       <c r="F16" s="2">
         <v>2579</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G16" s="2">
+        <v>2408</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="K16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="1"/>
+        <v>4987</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -982,77 +1236,155 @@
         <v>34933</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" ref="C17:F17" si="2">SUM(C13:C16)</f>
-        <v>0</v>
+        <f t="shared" ref="C17:I17" si="4">SUM(C13:C16)</f>
+        <v>42478</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>45079</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
+      <c r="G17" s="3">
+        <f t="shared" si="4"/>
+        <v>47268</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="0"/>
+        <v>77411</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="1"/>
+        <v>92347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="2">
         <v>1167</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5">
+      <c r="C18" s="2">
+        <v>1235</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2">
         <v>875</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
+      <c r="G18" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="K18" s="2">
+        <f t="shared" si="0"/>
+        <v>2402</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="1"/>
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="2">
         <v>360</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5">
+      <c r="C19" s="2">
+        <v>588</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2">
         <v>316</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
+      <c r="G19" s="2">
+        <v>520</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="K19" s="2">
+        <f t="shared" si="0"/>
+        <v>948</v>
+      </c>
+      <c r="L19" s="2">
+        <f t="shared" si="1"/>
+        <v>836</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="2">
         <v>359</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5">
+      <c r="C20" s="2">
+        <v>193</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2">
         <v>153</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
+      <c r="G20" s="2">
+        <v>198</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="K20" s="2">
+        <f t="shared" si="0"/>
+        <v>552</v>
+      </c>
+      <c r="L20" s="2">
+        <f t="shared" si="1"/>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2">
         <v>151</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G21" s="2">
+        <v>284</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="K21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" si="1"/>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -1061,77 +1393,152 @@
         <v>1886</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" ref="C22:F22" si="3">SUM(C18:C21)</f>
-        <v>0</v>
+        <f t="shared" ref="C22:I22" si="5">SUM(C18:C21)</f>
+        <v>2016</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1495</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
+      <c r="G22" s="3">
+        <f t="shared" si="5"/>
+        <v>2002</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="0"/>
+        <v>3902</v>
+      </c>
+      <c r="L22" s="3">
+        <f t="shared" si="1"/>
+        <v>3497</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="2">
         <v>555</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5">
+      <c r="C23" s="2">
+        <v>529</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2">
         <v>191</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
+      <c r="G23" s="2">
+        <v>480</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="K23" s="2">
+        <f t="shared" si="0"/>
+        <v>1084</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" si="1"/>
+        <v>671</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="2">
         <v>6178</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5">
+      <c r="C24" s="2">
+        <v>8694</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2">
         <v>5451</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
+      <c r="G24" s="2">
+        <v>8564</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="K24" s="2">
+        <f t="shared" si="0"/>
+        <v>14872</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="1"/>
+        <v>14015</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="2">
         <v>97</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5">
+      <c r="C25" s="2">
+        <v>219</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2">
         <v>172</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
+      <c r="G25" s="2">
+        <v>322</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="K25" s="2">
+        <f t="shared" si="0"/>
+        <v>316</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="1"/>
+        <v>494</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="K26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
@@ -1140,23 +1547,43 @@
         <v>6830</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" ref="C27:F27" si="4">SUM(C23:C26)</f>
-        <v>0</v>
+        <f t="shared" ref="C27:F27" si="6">SUM(C23:C26)</f>
+        <v>9442</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5814</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G27" s="3">
+        <f>SUM(G23:G26)</f>
+        <v>9366</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" ref="G27:I27" si="7">SUM(H23:H26)</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <f t="shared" si="0"/>
+        <v>16272</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" si="1"/>
+        <v>15180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -1165,114 +1592,211 @@
         <v>569631</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" ref="C28:F28" si="5">C27+C22+C17+C12+C7</f>
-        <v>0</v>
+        <f t="shared" ref="C28:F28" si="8">C27+C22+C17+C12+C7</f>
+        <v>642568</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>628703</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G28" s="3">
+        <f t="shared" ref="G28:I28" si="9">G27+G22+G17+G12+G7</f>
+        <v>633674</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" si="0"/>
+        <v>1212199</v>
+      </c>
+      <c r="L28" s="3">
+        <f t="shared" si="1"/>
+        <v>1262377</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B30" s="1" t="str">
         <f>B1</f>
         <v>Q123</v>
       </c>
       <c r="C30" s="1" t="str">
-        <f t="shared" ref="C30:E30" si="6">C1</f>
+        <f t="shared" ref="C30:E30" si="10">C1</f>
         <v>Q223</v>
       </c>
       <c r="D30" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Q323</v>
       </c>
       <c r="E30" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Q423</v>
       </c>
       <c r="F30" s="1" t="str">
         <f>F1</f>
         <v>Q124</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G30" s="1" t="str">
+        <f t="shared" ref="G30:L30" si="11">G1</f>
+        <v>Q224</v>
+      </c>
+      <c r="H30" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>Q324</v>
+      </c>
+      <c r="I30" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>Q424</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="11"/>
+        <v>2023</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="11"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="2">
         <v>429376</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="C33" s="2">
+        <v>480122</v>
+      </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2">
         <v>468089</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G33" s="2">
+        <v>465233</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="K33" s="2">
+        <f t="shared" si="0"/>
+        <v>909498</v>
+      </c>
+      <c r="L33" s="2">
+        <f t="shared" si="1"/>
+        <v>933322</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="2">
         <v>96606</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="2">
+        <v>108510</v>
+      </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2">
         <v>108226</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G34" s="2">
+        <v>109805</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="K34" s="2">
+        <f t="shared" si="0"/>
+        <v>205116</v>
+      </c>
+      <c r="L34" s="2">
+        <f t="shared" si="1"/>
+        <v>218031</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>6</v>
       </c>
       <c r="B35" s="2">
         <v>34933</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" s="2">
+        <v>42478</v>
+      </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2">
         <v>45079</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G35" s="2">
+        <v>47268</v>
+      </c>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="K35" s="2">
+        <f t="shared" si="0"/>
+        <v>77411</v>
+      </c>
+      <c r="L35" s="2">
+        <f t="shared" si="1"/>
+        <v>92347</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>7</v>
       </c>
       <c r="B36" s="2">
         <v>8716</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2">
+        <v>11458</v>
+      </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2">
         <v>7309</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G36" s="2">
+        <v>11368</v>
+      </c>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="K36" s="2">
+        <f t="shared" si="0"/>
+        <v>20174</v>
+      </c>
+      <c r="L36" s="2">
+        <f t="shared" si="1"/>
+        <v>18677</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -1281,79 +1805,151 @@
         <v>569631</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" ref="C37:F37" si="7">SUM(C33:C36)</f>
-        <v>0</v>
+        <f t="shared" ref="C37:I37" si="12">SUM(C33:C36)</f>
+        <v>642568</v>
       </c>
       <c r="D37" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>628703</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G37" s="3">
+        <f t="shared" si="12"/>
+        <v>633674</v>
+      </c>
+      <c r="H37" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="3">
+        <f t="shared" si="0"/>
+        <v>1212199</v>
+      </c>
+      <c r="L37" s="3">
+        <f t="shared" si="1"/>
+        <v>1262377</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>11</v>
       </c>
       <c r="B38" s="2">
         <v>368262</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" s="2">
+        <v>414800</v>
+      </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2">
         <v>412239</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G38" s="2">
+        <v>422236</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" si="0"/>
+        <v>783062</v>
+      </c>
+      <c r="L38" s="2">
+        <f t="shared" si="1"/>
+        <v>834475</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="2">
         <v>65103</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="C39" s="2">
+        <v>73086</v>
+      </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2">
         <v>73151</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G39" s="2">
+        <v>74239</v>
+      </c>
+      <c r="K39" s="2">
+        <f t="shared" si="0"/>
+        <v>138189</v>
+      </c>
+      <c r="L39" s="2">
+        <f t="shared" si="1"/>
+        <v>147390</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>13</v>
       </c>
       <c r="B40" s="2">
         <v>12409</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="2">
+        <v>14208</v>
+      </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2">
         <v>16776</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G40" s="2">
+        <v>16144</v>
+      </c>
+      <c r="K40" s="2">
+        <f t="shared" si="0"/>
+        <v>26617</v>
+      </c>
+      <c r="L40" s="2">
+        <f t="shared" si="1"/>
+        <v>32920</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>14</v>
       </c>
       <c r="B41" s="2">
         <v>5277</v>
       </c>
-      <c r="C41" s="2"/>
+      <c r="C41" s="2">
+        <v>7075</v>
+      </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2">
         <v>4782</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G41" s="2">
+        <v>8676</v>
+      </c>
+      <c r="K41" s="2">
+        <f t="shared" si="0"/>
+        <v>12352</v>
+      </c>
+      <c r="L41" s="2">
+        <f t="shared" si="1"/>
+        <v>13458</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>15</v>
       </c>
@@ -1362,87 +1958,239 @@
         <v>451051</v>
       </c>
       <c r="C42" s="3">
-        <f t="shared" ref="C42:F42" si="8">SUM(C38:C41)</f>
-        <v>0</v>
+        <f t="shared" ref="C42:I42" si="13">SUM(C38:C41)</f>
+        <v>509169</v>
       </c>
       <c r="D42" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>506948</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="G42" s="3">
+        <f t="shared" si="13"/>
+        <v>521295</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
+        <f t="shared" si="0"/>
+        <v>960220</v>
+      </c>
+      <c r="L42" s="3">
+        <f t="shared" si="1"/>
+        <v>1028243</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="3">
         <f>B33-B38</f>
         <v>61114</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2">
-        <f>F33-F38</f>
+      <c r="C43" s="3">
+        <f t="shared" ref="C43:L43" si="14">C33-C38</f>
+        <v>65322</v>
+      </c>
+      <c r="D43" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <f t="shared" si="14"/>
         <v>55850</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="G43" s="3">
+        <f t="shared" si="14"/>
+        <v>42997</v>
+      </c>
+      <c r="H43" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <f t="shared" si="14"/>
+        <v>126436</v>
+      </c>
+      <c r="L43" s="3">
+        <f t="shared" si="14"/>
+        <v>98847</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="2">
-        <f t="shared" ref="B44:F46" si="9">B34-B39</f>
+      <c r="B44" s="3">
+        <f t="shared" ref="B44:B46" si="15">B34-B39</f>
         <v>31503</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2">
-        <f t="shared" si="9"/>
+      <c r="C44" s="3">
+        <f t="shared" ref="C44:L44" si="16">C34-C39</f>
+        <v>35424</v>
+      </c>
+      <c r="D44" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" si="16"/>
         <v>35075</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="G44" s="3">
+        <f t="shared" si="16"/>
+        <v>35566</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
+        <f t="shared" si="16"/>
+        <v>66927</v>
+      </c>
+      <c r="L44" s="3">
+        <f t="shared" si="16"/>
+        <v>70641</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="2">
-        <f t="shared" si="9"/>
+      <c r="B45" s="3">
+        <f t="shared" si="15"/>
         <v>22524</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2">
-        <f t="shared" si="9"/>
+      <c r="C45" s="3">
+        <f t="shared" ref="C45:L45" si="17">C35-C40</f>
+        <v>28270</v>
+      </c>
+      <c r="D45" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" si="17"/>
         <v>28303</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="G45" s="3">
+        <f t="shared" si="17"/>
+        <v>31124</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <f t="shared" si="17"/>
+        <v>50794</v>
+      </c>
+      <c r="L45" s="3">
+        <f t="shared" si="17"/>
+        <v>59427</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="2">
-        <f t="shared" si="9"/>
+      <c r="B46" s="3">
+        <f t="shared" si="15"/>
         <v>3439</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2">
-        <f t="shared" si="9"/>
+      <c r="C46" s="3">
+        <f t="shared" ref="C46:L46" si="18">C36-C41</f>
+        <v>4383</v>
+      </c>
+      <c r="D46" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <f t="shared" si="18"/>
         <v>2527</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G46" s="3">
+        <f t="shared" si="18"/>
+        <v>2692</v>
+      </c>
+      <c r="H46" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <f t="shared" si="18"/>
+        <v>7822</v>
+      </c>
+      <c r="L46" s="3">
+        <f t="shared" si="18"/>
+        <v>5219</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>20</v>
       </c>
@@ -1451,1089 +2199,2169 @@
         <v>118580</v>
       </c>
       <c r="C47" s="3">
-        <f t="shared" ref="C47:F47" si="10">SUM(C43:C46)</f>
-        <v>0</v>
+        <f t="shared" ref="C47:I47" si="19">SUM(C43:C46)</f>
+        <v>133399</v>
       </c>
       <c r="D47" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F47" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>121755</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G47" s="3">
+        <f t="shared" si="19"/>
+        <v>112379</v>
+      </c>
+      <c r="H47" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <f t="shared" si="0"/>
+        <v>251979</v>
+      </c>
+      <c r="L47" s="3">
+        <f t="shared" si="1"/>
+        <v>234134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>21</v>
       </c>
       <c r="B48" s="2">
         <v>81315</v>
       </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
+      <c r="C48" s="2">
+        <v>88751</v>
+      </c>
       <c r="F48" s="2">
         <v>99158</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
+      <c r="G48" s="2">
+        <v>95156</v>
+      </c>
+      <c r="K48" s="2">
+        <f>SUM(B48:E48)</f>
+        <v>170066</v>
+      </c>
+      <c r="L48" s="2">
+        <f>SUM(F48:I48)</f>
+        <v>194314</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7">
+        <v>531</v>
+      </c>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="K49" s="2">
+        <f t="shared" ref="K49:K50" si="20">SUM(B49:E49)</f>
+        <v>0</v>
+      </c>
+      <c r="L49" s="2">
+        <f t="shared" ref="L49:L50" si="21">SUM(F49:I49)</f>
+        <v>531</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G50" s="6">
+        <v>942</v>
+      </c>
+      <c r="K50" s="2">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="2">
+        <f t="shared" si="21"/>
+        <v>942</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="3">
-        <f>B47-B48</f>
+      <c r="B51" s="3">
+        <f>B47-B48-B49-B50</f>
         <v>37265</v>
       </c>
-      <c r="C49" s="3">
-        <f t="shared" ref="C49:F49" si="11">C47-C48</f>
-        <v>0</v>
-      </c>
-      <c r="D49" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <f t="shared" si="11"/>
+      <c r="C51" s="3">
+        <f t="shared" ref="C51:L51" si="22">C47-C48-C49-C50</f>
+        <v>44648</v>
+      </c>
+      <c r="D51" s="3">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E51" s="3">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="3">
+        <f t="shared" si="22"/>
         <v>22597</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="4" t="s">
+      <c r="G51" s="3">
+        <f t="shared" si="22"/>
+        <v>15750</v>
+      </c>
+      <c r="H51" s="3">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="3">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3">
+        <f t="shared" si="22"/>
+        <v>81913</v>
+      </c>
+      <c r="L51" s="3">
+        <f t="shared" si="22"/>
+        <v>38347</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B52" s="2">
         <v>720</v>
       </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5">
+      <c r="C52" s="2">
+        <v>641</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2">
         <v>-288</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="4" t="s">
+      <c r="G52" s="2">
+        <v>-7048</v>
+      </c>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2">
+        <f t="shared" si="0"/>
+        <v>1361</v>
+      </c>
+      <c r="L52" s="2">
+        <f t="shared" si="1"/>
+        <v>-7336</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>25</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B53" s="2">
         <v>-1272</v>
       </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5">
+      <c r="C53" s="2">
+        <v>-2457</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2">
         <v>-7064</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="s">
+      <c r="G53" s="2">
+        <v>-9218</v>
+      </c>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2">
+        <f t="shared" si="0"/>
+        <v>-3729</v>
+      </c>
+      <c r="L53" s="2">
+        <f t="shared" si="1"/>
+        <v>-16282</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>24</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B54" s="2">
         <v>-1274</v>
       </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5">
+      <c r="C54" s="2">
+        <v>-1241</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2">
         <v>-2459</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
+      <c r="G54" s="2">
+        <v>-3734</v>
+      </c>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2">
+        <f t="shared" si="0"/>
+        <v>-2515</v>
+      </c>
+      <c r="L54" s="2">
+        <f t="shared" si="1"/>
+        <v>-6193</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+    </row>
+    <row r="55" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B53" s="3">
-        <f>B49+SUM(B50:B52)</f>
+      <c r="B55" s="3">
+        <f>B51+SUM(B52:B54)</f>
         <v>35439</v>
       </c>
-      <c r="C53" s="3">
-        <f t="shared" ref="C53:F53" si="12">C49+SUM(C50:C52)</f>
-        <v>0</v>
-      </c>
-      <c r="D53" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E53" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F53" s="3">
-        <f t="shared" si="12"/>
+      <c r="C55" s="3">
+        <f t="shared" ref="C55:I55" si="23">C51+SUM(C52:C54)</f>
+        <v>41591</v>
+      </c>
+      <c r="D55" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="E55" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <f t="shared" si="23"/>
         <v>12786</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="s">
+      <c r="G55" s="3">
+        <f t="shared" si="23"/>
+        <v>-4250</v>
+      </c>
+      <c r="H55" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="3">
+        <f t="shared" si="0"/>
+        <v>77030</v>
+      </c>
+      <c r="L55" s="3">
+        <f t="shared" si="1"/>
+        <v>8536</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>65</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B56" s="2">
         <v>8474</v>
       </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5">
+      <c r="C56" s="2">
+        <v>10270</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2">
         <v>3345</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
+      <c r="G56" s="2">
+        <v>54</v>
+      </c>
+      <c r="K56" s="2">
+        <f t="shared" si="0"/>
+        <v>18744</v>
+      </c>
+      <c r="L56" s="2">
+        <f t="shared" si="1"/>
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B55" s="3">
-        <f>B53-B54</f>
+      <c r="B57" s="3">
+        <f>B55-B56</f>
         <v>26965</v>
       </c>
-      <c r="C55" s="3">
-        <f t="shared" ref="C55:F55" si="13">C53-C54</f>
-        <v>0</v>
-      </c>
-      <c r="D55" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E55" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F55" s="3">
-        <f t="shared" si="13"/>
+      <c r="C57" s="3">
+        <f t="shared" ref="C57:I57" si="24">C55-C56</f>
+        <v>31321</v>
+      </c>
+      <c r="D57" s="3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <f t="shared" si="24"/>
         <v>9441</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
+      <c r="G57" s="3">
+        <f t="shared" si="24"/>
+        <v>-4304</v>
+      </c>
+      <c r="H57" s="3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
+        <f t="shared" si="0"/>
+        <v>58286</v>
+      </c>
+      <c r="L57" s="3">
+        <f t="shared" si="1"/>
+        <v>5137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B57" s="7">
-        <f>B55/B60</f>
+      <c r="B59" s="5">
+        <f>B57/B62</f>
         <v>1.2015952943273474</v>
       </c>
-      <c r="C57" s="7" t="e">
-        <f t="shared" ref="C57:F57" si="14">C55/C60</f>
+      <c r="C59" s="5">
+        <f t="shared" ref="C59:F59" si="25">C57/C62</f>
+        <v>1.3935308773803168</v>
+      </c>
+      <c r="D59" s="5" t="e">
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D57" s="7" t="e">
-        <f t="shared" si="14"/>
+      <c r="E59" s="5" t="e">
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E57" s="7" t="e">
-        <f t="shared" si="14"/>
+      <c r="F59" s="5">
+        <f t="shared" si="25"/>
+        <v>0.41881820601543784</v>
+      </c>
+      <c r="G59" s="5">
+        <f t="shared" ref="G59:I59" si="26">G57/G62</f>
+        <v>-0.19029933236061369</v>
+      </c>
+      <c r="H59" s="5" t="e">
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F57" s="7">
-        <f t="shared" si="14"/>
-        <v>0.41881820601543784</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
+      <c r="I59" s="5" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K59" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L59" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B58" s="7">
-        <f>B55/B61</f>
+      <c r="B60" s="5">
+        <f>B57/B63</f>
         <v>1.201220598717035</v>
       </c>
-      <c r="C58" s="7" t="e">
-        <f t="shared" ref="C58:F58" si="15">C55/C61</f>
+      <c r="C60" s="5">
+        <f t="shared" ref="C60:F60" si="27">C57/C63</f>
+        <v>1.3930350471446362</v>
+      </c>
+      <c r="D60" s="5" t="e">
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="7" t="e">
-        <f t="shared" si="15"/>
+      <c r="E60" s="5" t="e">
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E58" s="7" t="e">
-        <f t="shared" si="15"/>
+      <c r="F60" s="5">
+        <f t="shared" si="27"/>
+        <v>0.41874390135722522</v>
+      </c>
+      <c r="G60" s="5">
+        <f t="shared" ref="G60:I60" si="28">G57/G63</f>
+        <v>-0.19029933236061369</v>
+      </c>
+      <c r="H60" s="5" t="e">
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F58" s="7">
-        <f t="shared" si="15"/>
-        <v>0.41874390135722522</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-    </row>
-    <row r="60" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="4" t="s">
+      <c r="I60" s="5" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K60" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L60" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>69</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B62" s="4">
         <v>22441</v>
       </c>
-      <c r="F60" s="6">
+      <c r="C62" s="4">
+        <v>22476</v>
+      </c>
+      <c r="F62" s="4">
         <v>22542</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="4" t="s">
+      <c r="G62" s="4">
+        <v>22617</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>70</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B63" s="4">
         <v>22448</v>
       </c>
-      <c r="F61" s="6">
+      <c r="C63" s="4">
+        <v>22484</v>
+      </c>
+      <c r="F63" s="4">
         <v>22546</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-    </row>
-    <row r="63" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="1" t="str">
+      <c r="G63" s="4">
+        <v>22617</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="1" t="str">
         <f>B30</f>
         <v>Q123</v>
       </c>
-      <c r="C63" s="1" t="str">
-        <f t="shared" ref="C63:F63" si="16">C30</f>
+      <c r="C65" s="1" t="str">
+        <f t="shared" ref="C65:L65" si="29">C30</f>
         <v>Q223</v>
       </c>
-      <c r="D63" s="1" t="str">
-        <f t="shared" si="16"/>
+      <c r="D65" s="1" t="str">
+        <f t="shared" si="29"/>
         <v>Q323</v>
       </c>
-      <c r="E63" s="1" t="str">
-        <f t="shared" si="16"/>
+      <c r="E65" s="1" t="str">
+        <f t="shared" si="29"/>
         <v>Q423</v>
       </c>
-      <c r="F63" s="1" t="str">
-        <f t="shared" si="16"/>
+      <c r="F65" s="1" t="str">
+        <f t="shared" si="29"/>
         <v>Q124</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
+      <c r="G65" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>Q224</v>
+      </c>
+      <c r="H65" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>Q324</v>
+      </c>
+      <c r="I65" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>Q424</v>
+      </c>
+      <c r="K65" s="1">
+        <f t="shared" si="29"/>
+        <v>2023</v>
+      </c>
+      <c r="L65" s="1">
+        <f t="shared" si="29"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>52</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B67" s="2">
         <v>26965</v>
       </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2">
+      <c r="C67" s="2">
+        <f>58287-B67</f>
+        <v>31322</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2">
         <v>9441</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="4" t="s">
+      <c r="G67" s="2">
+        <f>5136-F67</f>
+        <v>-4305</v>
+      </c>
+      <c r="K67" s="2">
+        <f t="shared" si="0"/>
+        <v>58287</v>
+      </c>
+      <c r="L67" s="2">
+        <f t="shared" si="1"/>
+        <v>5136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>53</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B68" s="2">
         <v>6948</v>
       </c>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5">
+      <c r="C68" s="2">
+        <f>14637-B68</f>
+        <v>7689</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2">
         <v>8715</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="4" t="s">
+      <c r="G68" s="2">
+        <f>18413-F68</f>
+        <v>9698</v>
+      </c>
+      <c r="K68" s="2">
+        <f t="shared" si="0"/>
+        <v>14637</v>
+      </c>
+      <c r="L68" s="2">
+        <f t="shared" si="1"/>
+        <v>18413</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B69" s="7">
+        <v>0</v>
+      </c>
+      <c r="C69" s="7">
+        <v>0</v>
+      </c>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7">
+        <f>1473-F69</f>
+        <v>1473</v>
+      </c>
+      <c r="K69" s="2">
+        <f t="shared" ref="K69:K119" si="30">SUM(B69:E69)</f>
+        <v>0</v>
+      </c>
+      <c r="L69" s="2">
+        <f t="shared" ref="L69:L119" si="31">SUM(F69:I69)</f>
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>54</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B70" s="2">
         <v>-904</v>
       </c>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5">
+      <c r="C70" s="2">
+        <f>-2495-B70</f>
+        <v>-1591</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2">
         <v>-379</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="4" t="s">
+      <c r="G70" s="2">
+        <f>-650-F70</f>
+        <v>-271</v>
+      </c>
+      <c r="K70" s="2">
+        <f t="shared" si="30"/>
+        <v>-2495</v>
+      </c>
+      <c r="L70" s="2">
+        <f t="shared" si="31"/>
+        <v>-650</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>55</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B71" s="2">
         <v>659</v>
       </c>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5">
+      <c r="C71" s="2">
+        <f>1443-B71</f>
+        <v>784</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2">
         <v>837</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="4" t="s">
+      <c r="G71" s="2">
+        <f>2099-F71</f>
+        <v>1262</v>
+      </c>
+      <c r="K71" s="2">
+        <f t="shared" si="30"/>
+        <v>1443</v>
+      </c>
+      <c r="L71" s="2">
+        <f t="shared" si="31"/>
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>56</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B72" s="2">
         <v>64</v>
       </c>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5">
+      <c r="C72" s="2">
+        <f>129-B72</f>
+        <v>65</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2">
         <v>88</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="4" t="s">
+      <c r="G72" s="2">
+        <f>493-F72</f>
+        <v>405</v>
+      </c>
+      <c r="K72" s="2">
+        <f t="shared" si="30"/>
+        <v>129</v>
+      </c>
+      <c r="L72" s="2">
+        <f t="shared" si="31"/>
+        <v>493</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>113</v>
+      </c>
+      <c r="B73" s="2">
+        <v>0</v>
+      </c>
+      <c r="C73" s="2">
+        <v>0</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2">
+        <f>11159-F73</f>
+        <v>11159</v>
+      </c>
+      <c r="K73" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="L73" s="2">
+        <f t="shared" si="31"/>
+        <v>11159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>114</v>
+      </c>
+      <c r="B74" s="2">
+        <v>0</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2">
+        <f>-3585-F74</f>
+        <v>-3585</v>
+      </c>
+      <c r="K74" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="L74" s="2">
+        <f t="shared" si="31"/>
+        <v>-3585</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>57</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B75" s="2">
         <v>1663</v>
       </c>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5">
+      <c r="C75" s="2">
+        <f>3250-B75</f>
+        <v>1587</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2">
         <v>3767</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="4" t="s">
+      <c r="G75" s="2">
+        <f>7319-F75</f>
+        <v>3552</v>
+      </c>
+      <c r="K75" s="2">
+        <f t="shared" si="30"/>
+        <v>3250</v>
+      </c>
+      <c r="L75" s="2">
+        <f t="shared" si="31"/>
+        <v>7319</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>58</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B76" s="2">
         <v>-32307</v>
       </c>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5">
+      <c r="C76" s="2">
+        <f>-20623-B76</f>
+        <v>11684</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2">
         <v>20115</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="4" t="s">
+      <c r="G76" s="2">
+        <f>18499-F76</f>
+        <v>-1616</v>
+      </c>
+      <c r="K76" s="2">
+        <f t="shared" si="30"/>
+        <v>-20623</v>
+      </c>
+      <c r="L76" s="2">
+        <f t="shared" si="31"/>
+        <v>18499</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>59</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B77" s="2">
         <v>1274</v>
       </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5">
+      <c r="C77" s="2">
+        <f>7540-B77</f>
+        <v>6266</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2">
         <v>6815</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="4" t="s">
+      <c r="G77" s="2">
+        <f>9301-F77</f>
+        <v>2486</v>
+      </c>
+      <c r="K77" s="2">
+        <f t="shared" si="30"/>
+        <v>7540</v>
+      </c>
+      <c r="L77" s="2">
+        <f t="shared" si="31"/>
+        <v>9301</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>60</v>
       </c>
-      <c r="B73" s="5">
+      <c r="B78" s="2">
         <v>-140107</v>
       </c>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5">
+      <c r="C78" s="2">
+        <f>-263121-B78</f>
+        <v>-123014</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2">
         <v>-137760</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="4" t="s">
+      <c r="G78" s="2">
+        <f>-242113-F78</f>
+        <v>-104353</v>
+      </c>
+      <c r="K78" s="2">
+        <f t="shared" si="30"/>
+        <v>-263121</v>
+      </c>
+      <c r="L78" s="2">
+        <f t="shared" si="31"/>
+        <v>-242113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
         <v>61</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B79" s="2">
         <v>86259</v>
       </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5">
+      <c r="C79" s="2">
+        <f>150906-B79</f>
+        <v>64647</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2">
         <v>92084</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="4" t="s">
+      <c r="G79" s="2">
+        <f>206103-F79</f>
+        <v>114019</v>
+      </c>
+      <c r="K79" s="2">
+        <f t="shared" si="30"/>
+        <v>150906</v>
+      </c>
+      <c r="L79" s="2">
+        <f t="shared" si="31"/>
+        <v>206103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>62</v>
       </c>
-      <c r="B75" s="5">
+      <c r="B80" s="2">
         <v>-23987</v>
       </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5">
+      <c r="C80" s="2">
+        <f>-58482-B80</f>
+        <v>-34495</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2">
         <v>-30670</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="4" t="s">
+      <c r="G80" s="2">
+        <f>-58326-F80</f>
+        <v>-27656</v>
+      </c>
+      <c r="K80" s="2">
+        <f t="shared" si="30"/>
+        <v>-58482</v>
+      </c>
+      <c r="L80" s="2">
+        <f t="shared" si="31"/>
+        <v>-58326</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>63</v>
       </c>
-      <c r="B76" s="5">
+      <c r="B81" s="2">
         <v>-4231</v>
       </c>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5">
+      <c r="C81" s="2">
+        <f>-14166-B81</f>
+        <v>-9935</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2">
         <v>-5407</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="1" t="s">
+      <c r="G81" s="2">
+        <f>-22688-F81</f>
+        <v>-17281</v>
+      </c>
+      <c r="K81" s="2">
+        <f t="shared" si="30"/>
+        <v>-14166</v>
+      </c>
+      <c r="L81" s="2">
+        <f t="shared" si="31"/>
+        <v>-22688</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B77" s="3">
-        <f>SUM(B65:B76)</f>
+      <c r="B82" s="3">
+        <f>SUM(B67:B81)</f>
         <v>-77704</v>
       </c>
-      <c r="C77" s="3">
-        <f t="shared" ref="C77:F77" si="17">SUM(C65:C76)</f>
-        <v>0</v>
-      </c>
-      <c r="D77" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E77" s="3">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="F77" s="3">
-        <f t="shared" si="17"/>
+      <c r="C82" s="3">
+        <f t="shared" ref="C82:I82" si="32">SUM(C67:C81)</f>
+        <v>-44991</v>
+      </c>
+      <c r="D82" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E82" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="F82" s="3">
+        <f t="shared" si="32"/>
         <v>-32354</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-    </row>
-    <row r="79" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="1" t="str">
-        <f>B63</f>
+      <c r="G82" s="3">
+        <f t="shared" si="32"/>
+        <v>-15013</v>
+      </c>
+      <c r="H82" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I82" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="K82" s="3">
+        <f t="shared" si="30"/>
+        <v>-122695</v>
+      </c>
+      <c r="L82" s="3">
+        <f t="shared" si="31"/>
+        <v>-47367</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="1" t="str">
+        <f>B65</f>
         <v>Q123</v>
       </c>
-      <c r="C79" s="1" t="str">
-        <f t="shared" ref="C79:F79" si="18">C63</f>
+      <c r="C84" s="1" t="str">
+        <f t="shared" ref="C84:L84" si="33">C65</f>
         <v>Q223</v>
       </c>
-      <c r="D79" s="1" t="str">
-        <f t="shared" si="18"/>
+      <c r="D84" s="1" t="str">
+        <f t="shared" si="33"/>
         <v>Q323</v>
       </c>
-      <c r="E79" s="1" t="str">
-        <f t="shared" si="18"/>
+      <c r="E84" s="1" t="str">
+        <f t="shared" si="33"/>
         <v>Q423</v>
       </c>
-      <c r="F79" s="1" t="str">
-        <f t="shared" si="18"/>
+      <c r="F84" s="1" t="str">
+        <f t="shared" si="33"/>
         <v>Q124</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="1" t="s">
+      <c r="G84" s="1" t="str">
+        <f t="shared" si="33"/>
+        <v>Q224</v>
+      </c>
+      <c r="H84" s="1" t="str">
+        <f t="shared" si="33"/>
+        <v>Q324</v>
+      </c>
+      <c r="I84" s="1" t="str">
+        <f t="shared" si="33"/>
+        <v>Q424</v>
+      </c>
+      <c r="K84" s="1">
+        <f t="shared" si="33"/>
+        <v>2023</v>
+      </c>
+      <c r="L84" s="1">
+        <f t="shared" si="33"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-    </row>
-    <row r="81" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="4" t="s">
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
         <v>71</v>
-      </c>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5">
-        <v>38066</v>
-      </c>
-      <c r="F81" s="5">
-        <v>35684</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>72</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2">
-        <v>153657</v>
-      </c>
-      <c r="F82" s="2">
-        <v>134142</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>73</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2">
-        <v>1303030</v>
-      </c>
-      <c r="F83" s="2">
-        <v>1429762</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>74</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2">
-        <v>24262</v>
-      </c>
-      <c r="F84" s="2">
-        <v>15301</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B85" s="3">
-        <f>SUM(B81:B84)</f>
-        <v>0</v>
-      </c>
-      <c r="C85" s="3">
-        <f t="shared" ref="C85:F85" si="19">SUM(C81:C84)</f>
-        <v>0</v>
-      </c>
-      <c r="D85" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E85" s="3">
-        <f>SUM(E81:E84)</f>
-        <v>1519015</v>
-      </c>
-      <c r="F85" s="3">
-        <f t="shared" si="19"/>
-        <v>1614889</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>79</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2">
-        <v>298774</v>
+        <v>38066</v>
       </c>
       <c r="F86" s="2">
-        <v>304472</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+        <v>35684</v>
+      </c>
+      <c r="G86" s="2">
+        <v>31219</v>
+      </c>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="K86" s="2">
+        <f t="shared" si="30"/>
+        <v>38066</v>
+      </c>
+      <c r="L86" s="2">
+        <f t="shared" si="31"/>
+        <v>66903</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2">
-        <v>54699</v>
+        <v>153657</v>
       </c>
       <c r="F87" s="2">
-        <v>51858</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+        <v>134142</v>
+      </c>
+      <c r="G87" s="2">
+        <v>131776</v>
+      </c>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="K87" s="2">
+        <f t="shared" si="30"/>
+        <v>153657</v>
+      </c>
+      <c r="L87" s="2">
+        <f t="shared" si="31"/>
+        <v>265918</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2">
-        <v>529</v>
+        <v>1303030</v>
       </c>
       <c r="F88" s="2">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1429762</v>
+      </c>
+      <c r="G88" s="2">
+        <v>1527758</v>
+      </c>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="K88" s="2">
+        <f t="shared" si="30"/>
+        <v>1303030</v>
+      </c>
+      <c r="L88" s="2">
+        <f t="shared" si="31"/>
+        <v>2957520</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2">
-        <v>64105</v>
+        <v>24262</v>
       </c>
       <c r="F89" s="2">
-        <v>62979</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>82</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2">
-        <v>53356</v>
-      </c>
-      <c r="F90" s="2">
-        <v>51301</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+        <v>15301</v>
+      </c>
+      <c r="G89" s="2">
+        <v>18347</v>
+      </c>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="K89" s="2">
+        <f t="shared" si="30"/>
+        <v>24262</v>
+      </c>
+      <c r="L89" s="2">
+        <f t="shared" si="31"/>
+        <v>33648</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B90" s="3">
+        <f>SUM(B86:B89)</f>
+        <v>0</v>
+      </c>
+      <c r="C90" s="3">
+        <f t="shared" ref="C90:I90" si="34">SUM(C86:C89)</f>
+        <v>0</v>
+      </c>
+      <c r="D90" s="3">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E90" s="3">
+        <f>SUM(E86:E89)</f>
+        <v>1519015</v>
+      </c>
+      <c r="F90" s="3">
+        <f t="shared" si="34"/>
+        <v>1614889</v>
+      </c>
+      <c r="G90" s="3">
+        <f t="shared" si="34"/>
+        <v>1709100</v>
+      </c>
+      <c r="H90" s="3">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="I90" s="3">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="K90" s="3">
+        <f t="shared" si="30"/>
+        <v>1519015</v>
+      </c>
+      <c r="L90" s="3">
+        <f t="shared" si="31"/>
+        <v>3323989</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2">
-        <v>1783</v>
+        <v>298774</v>
       </c>
       <c r="F91" s="2">
-        <v>1651</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B92" s="3">
-        <f>SUM(B86:B91)</f>
-        <v>0</v>
-      </c>
-      <c r="C92" s="3">
-        <f t="shared" ref="C92:F92" si="20">SUM(C86:C91)</f>
-        <v>0</v>
-      </c>
-      <c r="D92" s="3">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E92" s="3">
-        <f t="shared" si="20"/>
-        <v>473246</v>
-      </c>
-      <c r="F92" s="3">
-        <f t="shared" si="20"/>
-        <v>472778</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B93" s="3">
-        <f>B85+B92</f>
-        <v>0</v>
-      </c>
-      <c r="C93" s="3">
-        <f t="shared" ref="C93:E93" si="21">C85+C92</f>
-        <v>0</v>
-      </c>
-      <c r="D93" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E93" s="3">
-        <f t="shared" si="21"/>
-        <v>1992261</v>
-      </c>
-      <c r="F93" s="3">
-        <f>F85+F92</f>
-        <v>2087667</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+        <v>304472</v>
+      </c>
+      <c r="G91" s="2">
+        <v>357346</v>
+      </c>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="K91" s="2">
+        <f t="shared" si="30"/>
+        <v>298774</v>
+      </c>
+      <c r="L91" s="2">
+        <f t="shared" si="31"/>
+        <v>661818</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>80</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2">
+        <v>54699</v>
+      </c>
+      <c r="F92" s="2">
+        <v>51858</v>
+      </c>
+      <c r="G92" s="2">
+        <v>37643</v>
+      </c>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="K92" s="2">
+        <f t="shared" si="30"/>
+        <v>54699</v>
+      </c>
+      <c r="L92" s="2">
+        <f t="shared" si="31"/>
+        <v>89501</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>54</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2">
+        <v>529</v>
+      </c>
+      <c r="F93" s="2">
+        <v>517</v>
+      </c>
+      <c r="G93" s="2">
+        <v>512</v>
+      </c>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="K93" s="2">
+        <f t="shared" si="30"/>
+        <v>529</v>
+      </c>
+      <c r="L93" s="2">
+        <f t="shared" si="31"/>
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2">
-        <v>43846</v>
+        <v>64105</v>
       </c>
       <c r="F94" s="2">
-        <v>47629</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+        <v>62979</v>
+      </c>
+      <c r="G94" s="2">
+        <v>62929</v>
+      </c>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="K94" s="2">
+        <f t="shared" si="30"/>
+        <v>64105</v>
+      </c>
+      <c r="L94" s="2">
+        <f t="shared" si="31"/>
+        <v>125908</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2">
-        <v>893846</v>
+        <v>53356</v>
       </c>
       <c r="F95" s="2">
-        <v>1024999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+        <v>51301</v>
+      </c>
+      <c r="G95" s="2">
+        <v>51367</v>
+      </c>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="K95" s="2">
+        <f t="shared" si="30"/>
+        <v>53356</v>
+      </c>
+      <c r="L95" s="2">
+        <f t="shared" si="31"/>
+        <v>102668</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2">
-        <v>13706</v>
+        <v>1783</v>
       </c>
       <c r="F96" s="2">
-        <v>13890</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>91</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2">
-        <v>10751</v>
-      </c>
-      <c r="F97" s="2">
-        <v>10918</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>92</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2">
-        <v>115852</v>
-      </c>
-      <c r="F98" s="2">
-        <v>84900</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1651</v>
+      </c>
+      <c r="G96" s="2">
+        <v>1652</v>
+      </c>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="K96" s="2">
+        <f t="shared" si="30"/>
+        <v>1783</v>
+      </c>
+      <c r="L96" s="2">
+        <f t="shared" si="31"/>
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B97" s="3">
+        <f>SUM(B91:B96)</f>
+        <v>0</v>
+      </c>
+      <c r="C97" s="3">
+        <f t="shared" ref="C97:F97" si="35">SUM(C91:C96)</f>
+        <v>0</v>
+      </c>
+      <c r="D97" s="3">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="E97" s="3">
+        <f t="shared" si="35"/>
+        <v>473246</v>
+      </c>
+      <c r="F97" s="3">
+        <f t="shared" si="35"/>
+        <v>472778</v>
+      </c>
+      <c r="G97" s="3">
+        <f t="shared" ref="G97:I97" si="36">SUM(G91:G96)</f>
+        <v>511449</v>
+      </c>
+      <c r="H97" s="3">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="I97" s="3">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="K97" s="3">
+        <f t="shared" si="30"/>
+        <v>473246</v>
+      </c>
+      <c r="L97" s="3">
+        <f t="shared" si="31"/>
+        <v>984227</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B98" s="3">
+        <f>B90+B97</f>
+        <v>0</v>
+      </c>
+      <c r="C98" s="3">
+        <f t="shared" ref="C98:E98" si="37">C90+C97</f>
+        <v>0</v>
+      </c>
+      <c r="D98" s="3">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="E98" s="3">
+        <f t="shared" si="37"/>
+        <v>1992261</v>
+      </c>
+      <c r="F98" s="3">
+        <f>F90+F97</f>
+        <v>2087667</v>
+      </c>
+      <c r="G98" s="3">
+        <f t="shared" ref="G98:I98" si="38">G90+G97</f>
+        <v>2220549</v>
+      </c>
+      <c r="H98" s="3">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="I98" s="3">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="K98" s="3">
+        <f t="shared" si="30"/>
+        <v>1992261</v>
+      </c>
+      <c r="L98" s="3">
+        <f t="shared" si="31"/>
+        <v>4308216</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2">
-        <v>74400</v>
+        <v>43846</v>
       </c>
       <c r="F99" s="2">
-        <v>65402</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B100" s="3">
-        <f t="shared" ref="B100:E100" si="22">SUM(B94:B99)</f>
-        <v>0</v>
-      </c>
-      <c r="C100" s="3">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="D100" s="3">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <f t="shared" si="22"/>
-        <v>1152401</v>
-      </c>
-      <c r="F100" s="3">
-        <f>SUM(F94:F99)</f>
-        <v>1247738</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+        <v>47629</v>
+      </c>
+      <c r="G99" s="2">
+        <v>40434</v>
+      </c>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="K99" s="2">
+        <f t="shared" si="30"/>
+        <v>43846</v>
+      </c>
+      <c r="L99" s="2">
+        <f t="shared" si="31"/>
+        <v>88063</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>89</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2">
+        <v>893846</v>
+      </c>
+      <c r="F100" s="2">
+        <v>1024999</v>
+      </c>
+      <c r="G100" s="2">
+        <v>1168440</v>
+      </c>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="K100" s="2">
+        <f t="shared" si="30"/>
+        <v>893846</v>
+      </c>
+      <c r="L100" s="2">
+        <f t="shared" si="31"/>
+        <v>2193439</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2">
-        <v>106407</v>
+        <v>13706</v>
       </c>
       <c r="F101" s="2">
-        <v>105440</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+        <v>13890</v>
+      </c>
+      <c r="G101" s="2">
+        <v>9940</v>
+      </c>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="K101" s="2">
+        <f t="shared" si="30"/>
+        <v>13706</v>
+      </c>
+      <c r="L101" s="2">
+        <f t="shared" si="31"/>
+        <v>23830</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2">
-        <v>50964</v>
+        <v>10751</v>
       </c>
       <c r="F102" s="2">
-        <v>47693</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+        <v>10918</v>
+      </c>
+      <c r="G102" s="2">
+        <v>7912</v>
+      </c>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="K102" s="2">
+        <f t="shared" si="30"/>
+        <v>10751</v>
+      </c>
+      <c r="L102" s="2">
+        <f t="shared" si="31"/>
+        <v>18830</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2">
-        <v>22607</v>
+        <v>115852</v>
       </c>
       <c r="F103" s="2">
-        <v>21740</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+        <v>84900</v>
+      </c>
+      <c r="G103" s="2">
+        <v>57802</v>
+      </c>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="K103" s="2">
+        <f t="shared" si="30"/>
+        <v>115852</v>
+      </c>
+      <c r="L103" s="2">
+        <f t="shared" si="31"/>
+        <v>142702</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2">
-        <v>2240</v>
+        <v>74400</v>
       </c>
       <c r="F104" s="2">
-        <v>2455</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>65402</v>
+      </c>
+      <c r="G104" s="2">
+        <v>58892</v>
+      </c>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="K104" s="2">
+        <f t="shared" si="30"/>
+        <v>74400</v>
+      </c>
+      <c r="L104" s="2">
+        <f t="shared" si="31"/>
+        <v>124294</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B105" s="3">
-        <f>SUM(B101:B104)</f>
+        <f t="shared" ref="B105:E105" si="39">SUM(B99:B104)</f>
         <v>0</v>
       </c>
       <c r="C105" s="3">
-        <f t="shared" ref="C105:F105" si="23">SUM(C101:C104)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="D105" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="E105" s="3">
-        <f t="shared" si="23"/>
-        <v>182218</v>
+        <f t="shared" si="39"/>
+        <v>1152401</v>
       </c>
       <c r="F105" s="3">
-        <f t="shared" si="23"/>
-        <v>177328</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B106" s="3">
-        <f>B105+B100</f>
-        <v>0</v>
-      </c>
-      <c r="C106" s="3">
-        <f t="shared" ref="C106:F106" si="24">C105+C100</f>
-        <v>0</v>
-      </c>
-      <c r="D106" s="3">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="E106" s="3">
-        <f t="shared" si="24"/>
-        <v>1334619</v>
-      </c>
-      <c r="F106" s="3">
-        <f t="shared" si="24"/>
-        <v>1425066</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+        <f>SUM(F99:F104)</f>
+        <v>1247738</v>
+      </c>
+      <c r="G105" s="3">
+        <f t="shared" ref="G105:I105" si="40">SUM(G99:G104)</f>
+        <v>1343420</v>
+      </c>
+      <c r="H105" s="3">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="I105" s="3">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="K105" s="3">
+        <f t="shared" si="30"/>
+        <v>1152401</v>
+      </c>
+      <c r="L105" s="3">
+        <f t="shared" si="31"/>
+        <v>2591158</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>95</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2">
+        <v>106407</v>
+      </c>
+      <c r="F106" s="2">
+        <v>105440</v>
+      </c>
+      <c r="G106" s="2">
+        <v>116666</v>
+      </c>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="K106" s="2">
+        <f t="shared" si="30"/>
+        <v>106407</v>
+      </c>
+      <c r="L106" s="2">
+        <f t="shared" si="31"/>
+        <v>222106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2">
-        <v>258657</v>
+        <v>50964</v>
       </c>
       <c r="F107" s="2">
-        <v>258700</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+        <v>47693</v>
+      </c>
+      <c r="G107" s="2">
+        <v>35415</v>
+      </c>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="K107" s="2">
+        <f t="shared" si="30"/>
+        <v>50964</v>
+      </c>
+      <c r="L107" s="2">
+        <f t="shared" si="31"/>
+        <v>83108</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2">
-        <v>397225</v>
+        <v>22607</v>
       </c>
       <c r="F108" s="2">
-        <v>406666</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+        <v>21740</v>
+      </c>
+      <c r="G108" s="2">
+        <v>21662</v>
+      </c>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="K108" s="2">
+        <f t="shared" si="30"/>
+        <v>22607</v>
+      </c>
+      <c r="L108" s="2">
+        <f t="shared" si="31"/>
+        <v>43402</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2">
+        <v>2240</v>
+      </c>
+      <c r="F109" s="2">
+        <v>2455</v>
+      </c>
+      <c r="G109" s="2">
+        <v>43820</v>
+      </c>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="K109" s="2">
+        <f t="shared" si="30"/>
+        <v>2240</v>
+      </c>
+      <c r="L109" s="2">
+        <f t="shared" si="31"/>
+        <v>46275</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B110" s="3">
+        <f>SUM(B106:B109)</f>
+        <v>0</v>
+      </c>
+      <c r="C110" s="3">
+        <f t="shared" ref="C110:F110" si="41">SUM(C106:C109)</f>
+        <v>0</v>
+      </c>
+      <c r="D110" s="3">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="E110" s="3">
+        <f t="shared" si="41"/>
+        <v>182218</v>
+      </c>
+      <c r="F110" s="3">
+        <f t="shared" si="41"/>
+        <v>177328</v>
+      </c>
+      <c r="G110" s="3">
+        <f t="shared" ref="G110:I110" si="42">SUM(G106:G109)</f>
+        <v>217563</v>
+      </c>
+      <c r="H110" s="3">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="I110" s="3">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="K110" s="3">
+        <f t="shared" si="30"/>
+        <v>182218</v>
+      </c>
+      <c r="L110" s="3">
+        <f t="shared" si="31"/>
+        <v>394891</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B111" s="3">
+        <f>B110+B105</f>
+        <v>0</v>
+      </c>
+      <c r="C111" s="3">
+        <f t="shared" ref="C111:F111" si="43">C110+C105</f>
+        <v>0</v>
+      </c>
+      <c r="D111" s="3">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="E111" s="3">
+        <f t="shared" si="43"/>
+        <v>1334619</v>
+      </c>
+      <c r="F111" s="3">
+        <f t="shared" si="43"/>
+        <v>1425066</v>
+      </c>
+      <c r="G111" s="3">
+        <f t="shared" ref="G111:I111" si="44">G110+G105</f>
+        <v>1560983</v>
+      </c>
+      <c r="H111" s="3">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="I111" s="3">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="K111" s="3">
+        <f t="shared" si="30"/>
+        <v>1334619</v>
+      </c>
+      <c r="L111" s="3">
+        <f t="shared" si="31"/>
+        <v>2986049</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>100</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2">
+        <v>258657</v>
+      </c>
+      <c r="F112" s="2">
+        <v>258700</v>
+      </c>
+      <c r="G112" s="2">
+        <v>259911</v>
+      </c>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="K112" s="2">
+        <f t="shared" si="30"/>
+        <v>258657</v>
+      </c>
+      <c r="L112" s="2">
+        <f t="shared" si="31"/>
+        <v>518611</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>101</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2">
+        <v>397225</v>
+      </c>
+      <c r="F113" s="2">
+        <v>406666</v>
+      </c>
+      <c r="G113" s="2">
+        <v>402362</v>
+      </c>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="K113" s="2">
+        <f t="shared" si="30"/>
+        <v>397225</v>
+      </c>
+      <c r="L113" s="2">
+        <f t="shared" si="31"/>
+        <v>809028</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>102</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2">
         <v>1760</v>
       </c>
-      <c r="F109" s="2">
+      <c r="F114" s="2">
         <v>-2765</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="1" t="s">
+      <c r="G114" s="2">
+        <v>-2707</v>
+      </c>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="K114" s="2">
+        <f t="shared" si="30"/>
+        <v>1760</v>
+      </c>
+      <c r="L114" s="2">
+        <f t="shared" si="31"/>
+        <v>-5472</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B110" s="3">
-        <f>SUM(B107:B109)</f>
-        <v>0</v>
-      </c>
-      <c r="C110" s="3">
-        <f t="shared" ref="C110:F110" si="25">SUM(C107:C109)</f>
-        <v>0</v>
-      </c>
-      <c r="D110" s="3">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="E110" s="3">
-        <f t="shared" si="25"/>
+      <c r="B115" s="3">
+        <f>SUM(B112:B114)</f>
+        <v>0</v>
+      </c>
+      <c r="C115" s="3">
+        <f t="shared" ref="C115:F115" si="45">SUM(C112:C114)</f>
+        <v>0</v>
+      </c>
+      <c r="D115" s="3">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="E115" s="3">
+        <f t="shared" si="45"/>
         <v>657642</v>
       </c>
-      <c r="F110" s="3">
-        <f t="shared" si="25"/>
+      <c r="F115" s="3">
+        <f t="shared" si="45"/>
         <v>662601</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="1" t="s">
+      <c r="G115" s="3">
+        <f t="shared" ref="G115:I115" si="46">SUM(G112:G114)</f>
+        <v>659566</v>
+      </c>
+      <c r="H115" s="3">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="I115" s="3">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="K115" s="3">
+        <f t="shared" si="30"/>
+        <v>657642</v>
+      </c>
+      <c r="L115" s="3">
+        <f t="shared" si="31"/>
+        <v>1322167</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B111" s="3">
-        <f>B110+B106</f>
-        <v>0</v>
-      </c>
-      <c r="C111" s="3">
-        <f t="shared" ref="C111:F111" si="26">C110+C106</f>
-        <v>0</v>
-      </c>
-      <c r="D111" s="3">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E111" s="3">
-        <f t="shared" si="26"/>
+      <c r="B116" s="3">
+        <f>B115+B111</f>
+        <v>0</v>
+      </c>
+      <c r="C116" s="3">
+        <f t="shared" ref="C116:F116" si="47">C115+C111</f>
+        <v>0</v>
+      </c>
+      <c r="D116" s="3">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="E116" s="3">
+        <f t="shared" si="47"/>
         <v>1992261</v>
       </c>
-      <c r="F111" s="3">
-        <f t="shared" si="26"/>
+      <c r="F116" s="3">
+        <f t="shared" si="47"/>
         <v>2087667</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="1" t="s">
+      <c r="G116" s="3">
+        <f t="shared" ref="G116:I116" si="48">G115+G111</f>
+        <v>2220549</v>
+      </c>
+      <c r="H116" s="3">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="I116" s="3">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="K116" s="3">
+        <f t="shared" si="30"/>
+        <v>1992261</v>
+      </c>
+      <c r="L116" s="3">
+        <f t="shared" si="31"/>
+        <v>4308216</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B113" s="3">
-        <f>B83-B95</f>
-        <v>0</v>
-      </c>
-      <c r="C113" s="3">
-        <f t="shared" ref="C113:F113" si="27">C83-C95</f>
-        <v>0</v>
-      </c>
-      <c r="D113" s="3">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="E113" s="3">
-        <f t="shared" si="27"/>
+      <c r="B118" s="3">
+        <f>B88-B100</f>
+        <v>0</v>
+      </c>
+      <c r="C118" s="3">
+        <f t="shared" ref="C118:F118" si="49">C88-C100</f>
+        <v>0</v>
+      </c>
+      <c r="D118" s="3">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="E118" s="3">
+        <f t="shared" si="49"/>
         <v>409184</v>
       </c>
-      <c r="F113" s="3">
-        <f t="shared" si="27"/>
+      <c r="F118" s="3">
+        <f t="shared" si="49"/>
         <v>404763</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A114" s="1" t="s">
+      <c r="G118" s="3">
+        <f t="shared" ref="G118:I118" si="50">G88-G100</f>
+        <v>359318</v>
+      </c>
+      <c r="H118" s="3">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="I118" s="3">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="K118" s="3">
+        <f t="shared" si="30"/>
+        <v>409184</v>
+      </c>
+      <c r="L118" s="3">
+        <f t="shared" si="31"/>
+        <v>764081</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B114" s="8" t="e">
-        <f>B83/B95</f>
+      <c r="B119" s="8" t="e">
+        <f>B88/B100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C114" s="8" t="e">
-        <f t="shared" ref="C114:F114" si="28">C83/C95</f>
+      <c r="C119" s="8" t="e">
+        <f t="shared" ref="C119:F119" si="51">C88/C100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D114" s="8" t="e">
-        <f t="shared" si="28"/>
+      <c r="D119" s="8" t="e">
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E114" s="8">
-        <f t="shared" si="28"/>
+      <c r="E119" s="8">
+        <f t="shared" si="51"/>
         <v>1.4577790805127506</v>
       </c>
-      <c r="F114" s="8">
-        <f t="shared" si="28"/>
+      <c r="F119" s="8">
+        <f t="shared" si="51"/>
         <v>1.3948911169669433</v>
+      </c>
+      <c r="G119" s="8">
+        <f t="shared" ref="G119:I119" si="52">G88/G100</f>
+        <v>1.3075194276128856</v>
+      </c>
+      <c r="H119" s="8" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I119" s="8" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K119" s="8" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L119" s="8" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/TITN/TITN.xlsx
+++ b/TITN/TITN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32906c935fa0eb4f/models/TITN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1076" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FB40B10-298F-4E9C-B25E-49C2B5719DE6}"/>
+  <xr:revisionPtr revIDLastSave="1080" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F37D250C-1888-4147-8CBE-42736F317F21}"/>
   <bookViews>
     <workbookView xWindow="19070" yWindow="5030" windowWidth="17190" windowHeight="15850" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,12 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="119">
   <si>
     <t>Headquarters: West Fargo, ND</t>
-  </si>
-  <si>
-    <t># of Dealerships: 151 (2024)</t>
   </si>
   <si>
     <t>One of the largest dealers of agricultural and construction equipment, largest dealer for CNH in the world.</t>
@@ -444,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -453,8 +450,6 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -739,27 +734,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:B4"/>
+  <dimension ref="B2:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -772,7 +762,7 @@
   <dimension ref="A1:Q125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -791,28 +781,28 @@
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L1" s="1">
         <v>2023</v>
@@ -822,25 +812,33 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="9">
+        <v>118</v>
+      </c>
+      <c r="E3">
         <v>148</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L3">
+        <f>E3</f>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E4" s="8">
+        <v>117</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3338</v>
+      </c>
+      <c r="L4" s="4">
+        <f>E4</f>
         <v>3338</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2">
         <v>325660</v>
@@ -880,7 +878,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2">
         <v>45458</v>
@@ -920,7 +918,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2">
         <v>58258</v>
@@ -960,7 +958,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -994,7 +992,7 @@
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="3">
         <f>SUM(B6:B9)</f>
@@ -1047,7 +1045,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="2">
         <v>69547</v>
@@ -1087,7 +1085,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="2">
         <v>13664</v>
@@ -1127,7 +1125,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2">
         <v>13395</v>
@@ -1167,7 +1165,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1201,7 +1199,7 @@
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="3">
         <f>SUM(B11:B14)</f>
@@ -1251,7 +1249,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2">
         <v>26266</v>
@@ -1291,7 +1289,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="2">
         <v>6336</v>
@@ -1331,7 +1329,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2">
         <v>2331</v>
@@ -1371,7 +1369,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1405,7 +1403,7 @@
     </row>
     <row r="20" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="3">
         <f>SUM(B16:B19)</f>
@@ -1455,7 +1453,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2">
         <v>1167</v>
@@ -1495,7 +1493,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2">
         <v>360</v>
@@ -1535,7 +1533,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2">
         <v>359</v>
@@ -1575,7 +1573,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1609,7 +1607,7 @@
     </row>
     <row r="25" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="3">
         <f>SUM(B21:B24)</f>
@@ -1659,7 +1657,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" s="2">
         <v>555</v>
@@ -1699,7 +1697,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27" s="2">
         <v>6178</v>
@@ -1739,7 +1737,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="2">
         <v>97</v>
@@ -1779,7 +1777,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1806,7 +1804,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" s="3">
         <f>SUM(B26:B29)</f>
@@ -1856,7 +1854,7 @@
     </row>
     <row r="31" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" s="3">
         <f>B30+B25+B20+B15+B10</f>
@@ -1951,17 +1949,17 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36" s="2">
         <v>429376</v>
@@ -2001,7 +1999,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B37" s="2">
         <v>96606</v>
@@ -2041,7 +2039,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38" s="2">
         <v>34933</v>
@@ -2081,7 +2079,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B39" s="2">
         <v>8716</v>
@@ -2121,7 +2119,7 @@
     </row>
     <row r="40" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B40" s="3">
         <f>SUM(B36:B39)</f>
@@ -2171,7 +2169,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B41" s="2">
         <v>368262</v>
@@ -2210,7 +2208,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B42" s="2">
         <v>65103</v>
@@ -2249,7 +2247,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B43" s="2">
         <v>12409</v>
@@ -2288,7 +2286,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B44" s="2">
         <v>5277</v>
@@ -2327,7 +2325,7 @@
     </row>
     <row r="45" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B45" s="3">
         <f>SUM(B41:B44)</f>
@@ -2377,7 +2375,7 @@
     </row>
     <row r="46" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B46" s="3">
         <f>B36-B41</f>
@@ -2428,7 +2426,7 @@
     </row>
     <row r="47" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B47" s="3">
         <f t="shared" ref="B47:B49" si="24">B37-B42</f>
@@ -2479,7 +2477,7 @@
     </row>
     <row r="48" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B48" s="3">
         <f t="shared" si="24"/>
@@ -2530,7 +2528,7 @@
     </row>
     <row r="49" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B49" s="3">
         <f t="shared" si="24"/>
@@ -2581,7 +2579,7 @@
     </row>
     <row r="50" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B50" s="3">
         <f>SUM(B46:B49)</f>
@@ -2631,7 +2629,7 @@
     </row>
     <row r="51" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B51" s="2">
         <v>81315</v>
@@ -2669,7 +2667,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2693,7 +2691,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E53" s="2"/>
       <c r="G53">
@@ -2714,7 +2712,7 @@
     </row>
     <row r="54" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B54" s="3">
         <f>B50-B51-B52-B53</f>
@@ -2765,7 +2763,7 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B55" s="2">
         <v>720</v>
@@ -2809,7 +2807,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B56" s="2">
         <v>-1272</v>
@@ -2853,7 +2851,7 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B57" s="2">
         <v>-1274</v>
@@ -2897,7 +2895,7 @@
     </row>
     <row r="58" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B58" s="3">
         <f>B54+SUM(B55:B57)</f>
@@ -2947,7 +2945,7 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B59" s="2">
         <v>8474</v>
@@ -2986,7 +2984,7 @@
     </row>
     <row r="60" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B60" s="3">
         <f>B58-B59</f>
@@ -3046,7 +3044,7 @@
     </row>
     <row r="62" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B62" s="5">
         <f>B60/B65</f>
@@ -3091,7 +3089,7 @@
     </row>
     <row r="63" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B63" s="5">
         <f>B60/B66</f>
@@ -3146,7 +3144,7 @@
     </row>
     <row r="65" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" s="4">
         <v>22441</v>
@@ -3175,7 +3173,7 @@
     </row>
     <row r="66" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" s="4">
         <v>22448</v>
@@ -3256,12 +3254,12 @@
     </row>
     <row r="69" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B70" s="2">
         <v>26965</v>
@@ -3304,7 +3302,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B71" s="2">
         <v>6948</v>
@@ -3347,7 +3345,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B72" s="2">
         <v>0</v>
@@ -3387,7 +3385,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B73" s="2">
         <v>-904</v>
@@ -3430,7 +3428,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B74" s="2">
         <v>659</v>
@@ -3473,7 +3471,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B75" s="2">
         <v>64</v>
@@ -3516,7 +3514,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3537,7 +3535,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -3570,7 +3568,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B78" s="2">
         <v>0</v>
@@ -3610,7 +3608,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B79" s="2">
         <v>0</v>
@@ -3650,7 +3648,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B80" s="2">
         <v>1663</v>
@@ -3694,7 +3692,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B81" s="2">
         <v>-32307</v>
@@ -3737,7 +3735,7 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B82" s="2">
         <v>1274</v>
@@ -3780,7 +3778,7 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B83" s="2">
         <v>-140107</v>
@@ -3823,7 +3821,7 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B84" s="2">
         <v>86259</v>
@@ -3866,7 +3864,7 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B85" s="2">
         <v>-23987</v>
@@ -3909,7 +3907,7 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B86" s="2">
         <v>-4231</v>
@@ -3952,7 +3950,7 @@
     </row>
     <row r="87" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B87" s="3">
         <f>SUM(B70:B86)</f>
@@ -4054,7 +4052,7 @@
     </row>
     <row r="90" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -4067,7 +4065,7 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B91" s="2">
         <v>38357</v>
@@ -4103,7 +4101,7 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B92" s="2">
         <v>131284</v>
@@ -4139,7 +4137,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B93" s="2">
         <v>854154</v>
@@ -4175,7 +4173,7 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B94" s="2">
         <v>19792</v>
@@ -4211,7 +4209,7 @@
     </row>
     <row r="95" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B95" s="3">
         <f>SUM(B91:B94)</f>
@@ -4257,7 +4255,7 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B96" s="2">
         <v>233830</v>
@@ -4293,7 +4291,7 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B97" s="2">
         <v>47684</v>
@@ -4329,7 +4327,7 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B98" s="2">
         <v>2169</v>
@@ -4365,7 +4363,7 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B99" s="2">
         <v>30691</v>
@@ -4401,7 +4399,7 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B100" s="2">
         <v>18330</v>
@@ -4437,7 +4435,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B101" s="2">
         <v>1814</v>
@@ -4473,7 +4471,7 @@
     </row>
     <row r="102" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B102" s="3">
         <f>SUM(B96:B101)</f>
@@ -4519,7 +4517,7 @@
     </row>
     <row r="103" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B103" s="3">
         <f>B95+B102</f>
@@ -4565,7 +4563,7 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B104" s="2">
         <v>43195</v>
@@ -4601,7 +4599,7 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B105" s="2">
         <v>442950</v>
@@ -4637,7 +4635,7 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B106" s="2">
         <v>7481</v>
@@ -4673,7 +4671,7 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B107" s="2">
         <v>9888</v>
@@ -4709,7 +4707,7 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B108" s="2">
         <v>97532</v>
@@ -4745,7 +4743,7 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B109" s="2">
         <v>48042</v>
@@ -4781,7 +4779,7 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B110" s="2">
         <v>11151</v>
@@ -4806,7 +4804,7 @@
     </row>
     <row r="111" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B111" s="3">
         <f t="shared" ref="B111:I111" si="63">SUM(B104:B110)</f>
@@ -4852,7 +4850,7 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B112" s="2">
         <v>93445</v>
@@ -4888,7 +4886,7 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B113" s="2">
         <v>45770</v>
@@ -4924,7 +4922,7 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B114" s="2">
         <v>9567</v>
@@ -4960,7 +4958,7 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B115" s="2">
         <v>5051</v>
@@ -4996,7 +4994,7 @@
     </row>
     <row r="116" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B116" s="3">
         <f>SUM(B112:B115)</f>
@@ -5042,7 +5040,7 @@
     </row>
     <row r="117" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B117" s="3">
         <f>B116+B111</f>
@@ -5088,7 +5086,7 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B118" s="2">
         <v>256207</v>
@@ -5124,7 +5122,7 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B119" s="2">
         <v>311749</v>
@@ -5160,7 +5158,7 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B120" s="2">
         <v>-3923</v>
@@ -5196,7 +5194,7 @@
     </row>
     <row r="121" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B121" s="3">
         <f>SUM(B118:B120)</f>
@@ -5242,7 +5240,7 @@
     </row>
     <row r="122" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B122" s="3">
         <f>B121+B117</f>
@@ -5288,7 +5286,7 @@
     </row>
     <row r="124" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B124" s="3">
         <f>B93-B105</f>
@@ -5334,7 +5332,7 @@
     </row>
     <row r="125" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B125" s="6">
         <f>B93/B105</f>

--- a/TITN/TITN.xlsx
+++ b/TITN/TITN.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32906c935fa0eb4f/models/TITN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1080" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F37D250C-1888-4147-8CBE-42736F317F21}"/>
+  <xr:revisionPtr revIDLastSave="1106" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46B564C4-FCFD-4566-9979-0C521EFB9AE0}"/>
   <bookViews>
-    <workbookView xWindow="19070" yWindow="5030" windowWidth="17190" windowHeight="15850" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20770" yWindow="4940" windowWidth="17190" windowHeight="15850" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
-    <sheet name="model" sheetId="2" r:id="rId2"/>
+    <sheet name="todo" sheetId="4" r:id="rId2"/>
+    <sheet name="M&amp;A" sheetId="5" r:id="rId3"/>
+    <sheet name="model" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="124">
   <si>
     <t>Headquarters: West Fargo, ND</t>
   </si>
@@ -394,6 +396,21 @@
   </si>
   <si>
     <t>Locations</t>
+  </si>
+  <si>
+    <t>Python script to show some graphs - histograms, delta of revenues, CFFO, other useful ratios.</t>
+  </si>
+  <si>
+    <t>Web framework to view everything: Notes, models, etc. - 'real time' stock price and/or news feed on stock ticker/business.</t>
+  </si>
+  <si>
+    <t>Purchased J.J. O'Connor &amp; Sons Pty. Ltd. 15 CaseIH dealerships located in Australia. $66.5M cash paid - financed through available cash resources and LOC.</t>
+  </si>
+  <si>
+    <t>*Purchase of JJ O'Connor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchaed Heartland Agriculture, LLC, Heartland Solutions, LLC, and Heartland Leveraged Lender, LLC. 12 CaseIH commercial application ag locations. Opportunities for synergies due to overlap of footprints to package deals that include both commercial application equipment and other ag equipment to commercial customers. Purchased for $94.4M, financed through cash resources and LOC availability. </t>
   </si>
 </sst>
 </file>
@@ -441,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -450,6 +467,9 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -758,11 +778,77 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A532B8A9-72BD-4CFE-8449-3B24FC76CA39}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="8"/>
+    <col min="2" max="2" width="104.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="8">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="8">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EA54E0-299A-42E8-83C7-403ECF34C403}">
+  <dimension ref="B2:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49AC6758-3054-45BD-A746-0979BE500444}">
   <dimension ref="A1:Q125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -836,6 +922,11 @@
         <v>3338</v>
       </c>
     </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>122</v>
+      </c>
+    </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>26</v>

--- a/TITN/TITN.xlsx
+++ b/TITN/TITN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32906c935fa0eb4f/models/TITN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1106" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46B564C4-FCFD-4566-9979-0C521EFB9AE0}"/>
+  <xr:revisionPtr revIDLastSave="1113" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D860C53E-34DB-4C27-8F25-8BF930E2F9D3}"/>
   <bookViews>
-    <workbookView xWindow="20770" yWindow="4940" windowWidth="17190" windowHeight="15850" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20770" yWindow="4940" windowWidth="17190" windowHeight="15850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="130">
   <si>
     <t>Headquarters: West Fargo, ND</t>
   </si>
@@ -411,6 +411,24 @@
   </si>
   <si>
     <t xml:space="preserve">Purchaed Heartland Agriculture, LLC, Heartland Solutions, LLC, and Heartland Leveraged Lender, LLC. 12 CaseIH commercial application ag locations. Opportunities for synergies due to overlap of footprints to package deals that include both commercial application equipment and other ag equipment to commercial customers. Purchased for $94.4M, financed through cash resources and LOC availability. </t>
+  </si>
+  <si>
+    <t>Beyond equipment sales: Rentals, equipment transportation, farm data management products, GPS signal subscriptions, and CNH Industrial Finance/Insurance products.</t>
+  </si>
+  <si>
+    <t>Peer Group:</t>
+  </si>
+  <si>
+    <t>ALTG</t>
+  </si>
+  <si>
+    <t>IPW</t>
+  </si>
+  <si>
+    <t>iPower - consumer grade</t>
+  </si>
+  <si>
+    <t>Alta Equipment Group, Inc - Construction</t>
   </si>
 </sst>
 </file>
@@ -754,22 +772,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:B3"/>
+  <dimension ref="B2:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -816,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EA54E0-299A-42E8-83C7-403ECF34C403}">
   <dimension ref="B2:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/TITN/TITN.xlsx
+++ b/TITN/TITN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32906c935fa0eb4f/models/TITN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1113" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D860C53E-34DB-4C27-8F25-8BF930E2F9D3}"/>
+  <xr:revisionPtr revIDLastSave="1187" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4166AFA-5F11-465F-957D-DB08D3ABFB96}"/>
   <bookViews>
-    <workbookView xWindow="20770" yWindow="4940" windowWidth="17190" windowHeight="15850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22750" yWindow="4020" windowWidth="15080" windowHeight="15850" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="146">
   <si>
     <t>Headquarters: West Fargo, ND</t>
   </si>
@@ -416,9 +416,6 @@
     <t>Beyond equipment sales: Rentals, equipment transportation, farm data management products, GPS signal subscriptions, and CNH Industrial Finance/Insurance products.</t>
   </si>
   <si>
-    <t>Peer Group:</t>
-  </si>
-  <si>
     <t>ALTG</t>
   </si>
   <si>
@@ -429,17 +426,90 @@
   </si>
   <si>
     <t>Alta Equipment Group, Inc - Construction</t>
+  </si>
+  <si>
+    <t>Inventory Turnover (Model)</t>
+  </si>
+  <si>
+    <t>Inventory Turnover (Reported)</t>
+  </si>
+  <si>
+    <t>Absorption</t>
+  </si>
+  <si>
+    <t>Same-store sales increase</t>
+  </si>
+  <si>
+    <t>Inventory Equity (Model)</t>
+  </si>
+  <si>
+    <t>Inventory Equity (Reported)</t>
+  </si>
+  <si>
+    <t>RDO Equipment Co.</t>
+  </si>
+  <si>
+    <t>Butler Machinery Co.</t>
+  </si>
+  <si>
+    <t>Zieler Inc.</t>
+  </si>
+  <si>
+    <t>Brandt Holdints Co.</t>
+  </si>
+  <si>
+    <t>Wagner Equipment Co.</t>
+  </si>
+  <si>
+    <r>
+      <t>21</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Century Equipment, LLC</t>
+    </r>
+  </si>
+  <si>
+    <t>AKRS Equipment Solutions, Inc.</t>
+  </si>
+  <si>
+    <t>C&amp;B Operations, LLC</t>
+  </si>
+  <si>
+    <t>Van Wall Equipment, Inc.</t>
+  </si>
+  <si>
+    <t>Competition: Multi-location, regional operators.</t>
+  </si>
+  <si>
+    <t>Peer Group (according to some guy on seeking alpha):</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,6 +524,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -476,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -488,6 +571,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="39" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -772,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D11"/>
+  <dimension ref="B2:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -797,23 +885,73 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" t="s">
         <v>127</v>
       </c>
-      <c r="D11" t="s">
-        <v>128</v>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="C19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -889,10 +1027,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49AC6758-3054-45BD-A746-0979BE500444}">
-  <dimension ref="A1:Q125"/>
+  <dimension ref="A1:R132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A97" sqref="A97"/>
+      <selection pane="topRight" activeCell="M113" sqref="M113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -903,13 +1043,14 @@
     <col min="5" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.90625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.90625" customWidth="1"/>
-    <col min="14" max="14" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" customWidth="1"/>
+    <col min="12" max="12" width="9.90625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.90625" customWidth="1"/>
+    <col min="15" max="15" width="9.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -934,2816 +1075,2715 @@
       <c r="I1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L1" s="1">
+      <c r="K1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="M1" s="1">
         <v>2023</v>
       </c>
-      <c r="N1" s="1">
+      <c r="O1" s="1">
         <v>2024</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>118</v>
       </c>
       <c r="E3">
         <v>148</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <f>E3</f>
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>117</v>
       </c>
       <c r="E4" s="4">
         <v>3338</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
         <f>E4</f>
         <v>3338</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="E5" t="s">
+    <row r="5" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="12">
+        <f>(M48+M49)/AVERAGE(B100:E100)</f>
+        <v>2.0386239605066807</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="M5" s="12">
+        <f>E5</f>
+        <v>2.0386239605066807</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K6" s="9">
+        <v>3.3</v>
+      </c>
+      <c r="M6" s="9">
+        <f>E6</f>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="13">
+        <f>(B100-B112)/B100</f>
+        <v>0.48141670003301512</v>
+      </c>
+      <c r="C7" s="13">
+        <f>(C100-C112)/C100</f>
+        <v>0.39175865072128907</v>
+      </c>
+      <c r="D7" s="13">
+        <f>(D100-D112)/D100</f>
+        <v>0.34122126286542281</v>
+      </c>
+      <c r="E7" s="13">
+        <f>(E100-E112)/E100</f>
+        <v>0.31402500326162869</v>
+      </c>
+      <c r="F7" s="13">
+        <f>(F100-F112)/F100</f>
+        <v>0.28309816598846521</v>
+      </c>
+      <c r="G7" s="13">
+        <f>(G100-G112)/G100</f>
+        <v>0.23519300831676221</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="M7" s="13">
+        <f>E7</f>
+        <v>0.31402500326162869</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11">
+        <v>0.182</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="K8" s="11">
+        <v>51.7</v>
+      </c>
+      <c r="M8" s="11">
+        <f>E8</f>
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.79</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="M9" s="9">
+        <f>E9</f>
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="K10" s="10"/>
+      <c r="M10" s="10">
+        <f>E10</f>
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E12" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B13" s="2">
         <v>325660</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C13" s="2">
         <v>352533</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D13" s="2">
         <v>408648</v>
       </c>
-      <c r="E6" s="2">
-        <f>K6-D6-C6-B6</f>
+      <c r="E13" s="2">
+        <f>L13-D13-C13-B13</f>
         <v>537169</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F13" s="2">
         <v>338713</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G13" s="2">
         <v>312556</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H13" s="2">
         <v>358430</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="K6" s="2">
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="L13" s="2">
         <v>1624010</v>
       </c>
-      <c r="L6" s="2">
-        <f>SUM(B6:E6)</f>
+      <c r="M13" s="2">
+        <f>SUM(B13:E13)</f>
         <v>1624010</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2">
-        <f>SUM(F6:I6)</f>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2">
+        <f>SUM(F13:I13)</f>
         <v>1009699</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B14" s="2">
         <v>45458</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C14" s="2">
         <v>53697</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D14" s="2">
         <v>47364</v>
       </c>
-      <c r="E7" s="2">
-        <f t="shared" ref="E7:E29" si="0">K7-D7-C7-B7</f>
+      <c r="E14" s="2">
+        <f t="shared" ref="E14:E36" si="0">L14-D14-C14-B14</f>
         <v>74621</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F14" s="2">
         <v>47095</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G14" s="2">
         <v>52844</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H14" s="2">
         <v>53770</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="K7" s="2">
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="L14" s="2">
         <v>221140</v>
       </c>
-      <c r="L7" s="2">
-        <f t="shared" ref="L7:L71" si="1">SUM(B7:E7)</f>
+      <c r="M14" s="2">
+        <f t="shared" ref="M14:M78" si="1">SUM(B14:E14)</f>
         <v>221140</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2">
-        <f t="shared" ref="N7:N71" si="2">SUM(F7:I7)</f>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2">
+        <f t="shared" ref="O14:O78" si="2">SUM(F14:I14)</f>
         <v>153709</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B15" s="2">
         <v>58258</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C15" s="2">
         <v>73892</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D15" s="2">
         <v>65763</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E15" s="2">
         <f t="shared" si="0"/>
         <v>47510</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F15" s="2">
         <v>47499</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G15" s="2">
         <v>49146</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H15" s="2">
         <v>41893</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="K8" s="2">
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="L15" s="2">
         <v>245423</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M15" s="2">
         <f t="shared" si="1"/>
         <v>245423</v>
       </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2">
+      <c r="N15" s="2"/>
+      <c r="O15" s="2">
         <f t="shared" si="2"/>
         <v>138538</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2">
         <f t="shared" si="0"/>
         <v>54743</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F16" s="2">
         <v>34782</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G16" s="2">
         <v>50687</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H16" s="2">
         <v>41054</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="K9" s="2">
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="L16" s="2">
         <v>54743</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M16" s="2">
         <f t="shared" si="1"/>
         <v>54743</v>
       </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2">
+      <c r="N16" s="2"/>
+      <c r="O16" s="2">
         <f t="shared" si="2"/>
         <v>126523</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="17" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="3">
-        <f>SUM(B6:B9)</f>
+      <c r="B17" s="3">
+        <f>SUM(B13:B16)</f>
         <v>429376</v>
       </c>
-      <c r="C10" s="3">
-        <f t="shared" ref="C10:I10" si="3">SUM(C6:C9)</f>
+      <c r="C17" s="3">
+        <f t="shared" ref="C17:I17" si="3">SUM(C13:C16)</f>
         <v>480122</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D17" s="3">
         <f t="shared" si="3"/>
         <v>521775</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E17" s="3">
         <f t="shared" si="3"/>
         <v>714043</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F17" s="3">
         <f t="shared" si="3"/>
         <v>468089</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G17" s="3">
         <f t="shared" si="3"/>
         <v>465233</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H17" s="3">
         <f t="shared" si="3"/>
         <v>495147</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I17" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K10" s="3">
-        <f>SUM(K6:K9)</f>
+      <c r="J17" s="3"/>
+      <c r="L17" s="3">
+        <f>SUM(L13:L16)</f>
         <v>2145316</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M17" s="3">
         <f t="shared" si="1"/>
         <v>2145316</v>
       </c>
-      <c r="M10" s="3">
-        <f>SUM(M6:M9)</f>
+      <c r="N17" s="3">
+        <f>SUM(N13:N16)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O17" s="3">
         <f t="shared" si="2"/>
         <v>1428469</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B18" s="2">
         <v>69547</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C18" s="2">
         <v>82246</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D18" s="2">
         <v>86173</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E18" s="2">
         <f t="shared" si="0"/>
         <v>55588</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F18" s="2">
         <v>74965</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G18" s="2">
         <v>75430</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H18" s="2">
         <v>84763</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="K11" s="2">
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="L18" s="2">
         <v>293554</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M18" s="2">
         <f t="shared" si="1"/>
         <v>293554</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2">
+      <c r="N18" s="2"/>
+      <c r="O18" s="2">
         <f t="shared" si="2"/>
         <v>235158</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B19" s="2">
         <v>13664</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C19" s="2">
         <v>12537</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D19" s="2">
         <v>12943</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E19" s="2">
         <f t="shared" si="0"/>
         <v>11875</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F19" s="2">
         <v>11830</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G19" s="2">
         <v>11049</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H19" s="2">
         <v>13704</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="K12" s="2">
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="L19" s="2">
         <v>51019</v>
       </c>
-      <c r="L12" s="2">
+      <c r="M19" s="2">
         <f t="shared" si="1"/>
         <v>51019</v>
       </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2">
+      <c r="N19" s="2"/>
+      <c r="O19" s="2">
         <f t="shared" si="2"/>
         <v>36583</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B20" s="2">
         <v>13395</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C20" s="2">
         <v>13727</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D20" s="2">
         <v>15846</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E20" s="2">
         <f t="shared" si="0"/>
         <v>11388</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F20" s="2">
         <v>14524</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G20" s="2">
         <v>15407</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H20" s="2">
         <v>16290</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="K13" s="2">
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="L20" s="2">
         <v>54356</v>
       </c>
-      <c r="L13" s="2">
+      <c r="M20" s="2">
         <f t="shared" si="1"/>
         <v>54356</v>
       </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2">
+      <c r="N20" s="2"/>
+      <c r="O20" s="2">
         <f t="shared" si="2"/>
         <v>46221</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2">
         <f t="shared" si="0"/>
         <v>11912</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F21" s="2">
         <v>6907</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G21" s="2">
         <v>7919</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H21" s="2">
         <v>6329</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="K14" s="2">
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="L21" s="2">
         <v>11912</v>
       </c>
-      <c r="L14" s="2">
+      <c r="M21" s="2">
         <f t="shared" si="1"/>
         <v>11912</v>
       </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2">
+      <c r="N21" s="2"/>
+      <c r="O21" s="2">
         <f t="shared" si="2"/>
         <v>21155</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="3">
-        <f>SUM(B11:B14)</f>
+      <c r="B22" s="3">
+        <f>SUM(B18:B21)</f>
         <v>96606</v>
       </c>
-      <c r="C15" s="3">
-        <f t="shared" ref="C15:I15" si="4">SUM(C11:C14)</f>
+      <c r="C22" s="3">
+        <f t="shared" ref="C22:I22" si="4">SUM(C18:C21)</f>
         <v>108510</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D22" s="3">
         <f t="shared" si="4"/>
         <v>114962</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E22" s="3">
         <f t="shared" si="4"/>
         <v>90763</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F22" s="3">
         <f t="shared" si="4"/>
         <v>108226</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G22" s="3">
         <f t="shared" si="4"/>
         <v>109805</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H22" s="3">
         <f t="shared" si="4"/>
         <v>121086</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I22" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K15" s="3">
-        <f t="shared" ref="K15" si="5">SUM(K11:K14)</f>
+      <c r="J22" s="3"/>
+      <c r="L22" s="3">
+        <f t="shared" ref="L22" si="5">SUM(L18:L21)</f>
         <v>410841</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M22" s="3">
         <f t="shared" si="1"/>
         <v>410841</v>
       </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3">
+      <c r="N22" s="3"/>
+      <c r="O22" s="3">
         <f t="shared" si="2"/>
         <v>339117</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B23" s="2">
         <v>26266</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C23" s="2">
         <v>32526</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D23" s="2">
         <v>34718</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E23" s="2">
         <f t="shared" si="0"/>
         <v>23577</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F23" s="2">
         <v>32943</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G23" s="2">
         <v>34570</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H23" s="2">
         <v>37275</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="K16" s="2">
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="L23" s="2">
         <v>117087</v>
       </c>
-      <c r="L16" s="2">
+      <c r="M23" s="2">
         <f t="shared" si="1"/>
         <v>117087</v>
       </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2">
+      <c r="N23" s="2"/>
+      <c r="O23" s="2">
         <f t="shared" si="2"/>
         <v>104788</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B24" s="2">
         <v>6336</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C24" s="2">
         <v>7347</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D24" s="2">
         <v>7084</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E24" s="2">
         <f t="shared" si="0"/>
         <v>6146</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F24" s="2">
         <v>6800</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G24" s="2">
         <v>7214</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H24" s="2">
         <v>7730</v>
       </c>
-      <c r="I17" s="2"/>
-      <c r="K17" s="2">
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="L24" s="2">
         <v>26913</v>
       </c>
-      <c r="L17" s="2">
+      <c r="M24" s="2">
         <f t="shared" si="1"/>
         <v>26913</v>
       </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2">
+      <c r="N24" s="2"/>
+      <c r="O24" s="2">
         <f t="shared" si="2"/>
         <v>21744</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B25" s="2">
         <v>2331</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C25" s="2">
         <v>2605</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D25" s="2">
         <v>2965</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E25" s="2">
         <f t="shared" si="0"/>
         <v>2536</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F25" s="2">
         <v>2757</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G25" s="2">
         <v>3076</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H25" s="2">
         <v>3516</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="K18" s="2">
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="L25" s="2">
         <v>10437</v>
       </c>
-      <c r="L18" s="2">
+      <c r="M25" s="2">
         <f t="shared" si="1"/>
         <v>10437</v>
       </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2">
+      <c r="N25" s="2"/>
+      <c r="O25" s="2">
         <f t="shared" si="2"/>
         <v>9349</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2">
         <f t="shared" si="0"/>
         <v>2878</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F26" s="2">
         <v>2579</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G26" s="2">
         <v>2408</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H26" s="2">
         <v>2601</v>
       </c>
-      <c r="I19" s="2"/>
-      <c r="K19" s="2">
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="L26" s="2">
         <v>2878</v>
       </c>
-      <c r="L19" s="2">
+      <c r="M26" s="2">
         <f t="shared" si="1"/>
         <v>2878</v>
       </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2">
+      <c r="N26" s="2"/>
+      <c r="O26" s="2">
         <f t="shared" si="2"/>
         <v>7588</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+    <row r="27" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="3">
-        <f>SUM(B16:B19)</f>
+      <c r="B27" s="3">
+        <f>SUM(B23:B26)</f>
         <v>34933</v>
       </c>
-      <c r="C20" s="3">
-        <f t="shared" ref="C20:I20" si="6">SUM(C16:C19)</f>
+      <c r="C27" s="3">
+        <f t="shared" ref="C27:I27" si="6">SUM(C23:C26)</f>
         <v>42478</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D27" s="3">
         <f t="shared" si="6"/>
         <v>44767</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E27" s="3">
         <f t="shared" si="6"/>
         <v>35137</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F27" s="3">
         <f t="shared" si="6"/>
         <v>45079</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G27" s="3">
         <f t="shared" si="6"/>
         <v>47268</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H27" s="3">
         <f t="shared" si="6"/>
         <v>51122</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I27" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K20" s="3">
-        <f t="shared" ref="K20" si="7">SUM(K16:K19)</f>
+      <c r="J27" s="3"/>
+      <c r="L27" s="3">
+        <f t="shared" ref="L27" si="7">SUM(L23:L26)</f>
         <v>157315</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M27" s="3">
         <f t="shared" si="1"/>
         <v>157315</v>
       </c>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3">
+      <c r="N27" s="3"/>
+      <c r="O27" s="3">
         <f t="shared" si="2"/>
         <v>143469</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B28" s="2">
         <v>1167</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C28" s="2">
         <v>1235</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D28" s="2">
         <v>1333</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E28" s="2">
         <f t="shared" si="0"/>
         <v>1445</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F28" s="2">
         <v>875</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G28" s="2">
         <v>1000</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H28" s="2">
         <v>1056</v>
       </c>
-      <c r="I21" s="2"/>
-      <c r="K21" s="2">
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="L28" s="2">
         <v>5180</v>
       </c>
-      <c r="L21" s="2">
+      <c r="M28" s="2">
         <f t="shared" si="1"/>
         <v>5180</v>
       </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2">
+      <c r="N28" s="2"/>
+      <c r="O28" s="2">
         <f t="shared" si="2"/>
         <v>2931</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B29" s="2">
         <v>360</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C29" s="2">
         <v>588</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D29" s="2">
         <v>547</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E29" s="2">
         <f t="shared" si="0"/>
         <v>503</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F29" s="2">
         <v>316</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G29" s="2">
         <v>520</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H29" s="2">
         <v>490</v>
       </c>
-      <c r="I22" s="2"/>
-      <c r="K22" s="2">
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="L29" s="2">
         <v>1998</v>
       </c>
-      <c r="L22" s="2">
+      <c r="M29" s="2">
         <f t="shared" si="1"/>
         <v>1998</v>
       </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2">
+      <c r="N29" s="2"/>
+      <c r="O29" s="2">
         <f t="shared" si="2"/>
         <v>1326</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B30" s="2">
         <v>359</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C30" s="2">
         <v>193</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D30" s="2">
         <v>318</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E30" s="2">
         <f t="shared" si="0"/>
         <v>-110</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F30" s="2">
         <v>153</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G30" s="2">
         <v>198</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H30" s="2">
         <v>196</v>
       </c>
-      <c r="I23" s="2"/>
-      <c r="K23" s="2">
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="L30" s="2">
         <v>760</v>
       </c>
-      <c r="L23" s="2">
+      <c r="M30" s="2">
         <f t="shared" si="1"/>
         <v>760</v>
       </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2">
+      <c r="N30" s="2"/>
+      <c r="O30" s="2">
         <f t="shared" si="2"/>
         <v>547</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2">
         <f t="shared" si="0"/>
         <v>276</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F31" s="2">
         <v>151</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G31" s="2">
         <v>284</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H31" s="2">
         <v>151</v>
       </c>
-      <c r="I24" s="2"/>
-      <c r="K24" s="2">
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="L31" s="2">
         <v>276</v>
       </c>
-      <c r="L24" s="2">
+      <c r="M31" s="2">
         <f t="shared" si="1"/>
         <v>276</v>
       </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2">
+      <c r="N31" s="2"/>
+      <c r="O31" s="2">
         <f t="shared" si="2"/>
         <v>586</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+    <row r="32" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="3">
-        <f>SUM(B21:B24)</f>
+      <c r="B32" s="3">
+        <f>SUM(B28:B31)</f>
         <v>1886</v>
       </c>
-      <c r="C25" s="3">
-        <f t="shared" ref="C25:I25" si="8">SUM(C21:C24)</f>
+      <c r="C32" s="3">
+        <f t="shared" ref="C32:I32" si="8">SUM(C28:C31)</f>
         <v>2016</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D32" s="3">
         <f t="shared" si="8"/>
         <v>2198</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E32" s="3">
         <f t="shared" si="8"/>
         <v>2114</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F32" s="3">
         <f t="shared" si="8"/>
         <v>1495</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G32" s="3">
         <f t="shared" si="8"/>
         <v>2002</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H32" s="3">
         <f t="shared" si="8"/>
         <v>1893</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I32" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K25" s="3">
-        <f t="shared" ref="K25" si="9">SUM(K21:K24)</f>
+      <c r="J32" s="3"/>
+      <c r="L32" s="3">
+        <f t="shared" ref="L32" si="9">SUM(L28:L31)</f>
         <v>8214</v>
       </c>
-      <c r="L25" s="3">
+      <c r="M32" s="3">
         <f t="shared" si="1"/>
         <v>8214</v>
       </c>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3">
+      <c r="N32" s="3"/>
+      <c r="O32" s="3">
         <f t="shared" si="2"/>
         <v>5390</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B33" s="2">
         <v>555</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C33" s="2">
         <v>529</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D33" s="2">
         <v>532</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E33" s="2">
         <f t="shared" si="0"/>
         <v>2816</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F33" s="2">
         <v>191</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G33" s="2">
         <v>480</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H33" s="2">
         <v>498</v>
       </c>
-      <c r="I26" s="2"/>
-      <c r="K26" s="2">
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="L33" s="2">
         <v>4432</v>
       </c>
-      <c r="L26" s="2">
+      <c r="M33" s="2">
         <f t="shared" si="1"/>
         <v>4432</v>
       </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2">
+      <c r="N33" s="2"/>
+      <c r="O33" s="2">
         <f t="shared" si="2"/>
         <v>1169</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B34" s="2">
         <v>6178</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C34" s="2">
         <v>8694</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D34" s="2">
         <v>9570</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E34" s="2">
         <f t="shared" si="0"/>
         <v>6951</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F34" s="2">
         <v>5451</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G34" s="2">
         <v>8564</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H34" s="2">
         <v>9591</v>
       </c>
-      <c r="I27" s="2"/>
-      <c r="K27" s="2">
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="L34" s="2">
         <v>31393</v>
       </c>
-      <c r="L27" s="2">
+      <c r="M34" s="2">
         <f t="shared" si="1"/>
         <v>31393</v>
       </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2">
+      <c r="N34" s="2"/>
+      <c r="O34" s="2">
         <f t="shared" si="2"/>
         <v>23606</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B35" s="2">
         <v>97</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C35" s="2">
         <v>219</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D35" s="2">
         <v>311</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E35" s="2">
         <f t="shared" si="0"/>
         <v>307</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F35" s="2">
         <v>172</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G35" s="2">
         <v>322</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H35" s="2">
         <v>487</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="K28" s="2">
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="L35" s="2">
         <v>934</v>
       </c>
-      <c r="L28" s="2">
+      <c r="M35" s="2">
         <f t="shared" si="1"/>
         <v>934</v>
       </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2">
+      <c r="N35" s="2"/>
+      <c r="O35" s="2">
         <f t="shared" si="2"/>
         <v>981</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F36" s="2">
         <v>0</v>
       </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2">
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2">
+      <c r="N36" s="2"/>
+      <c r="O36" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="3">
-        <f>SUM(B26:B29)</f>
+      <c r="B37" s="3">
+        <f>SUM(B33:B36)</f>
         <v>6830</v>
       </c>
-      <c r="C30" s="3">
-        <f t="shared" ref="C30:F30" si="10">SUM(C26:C29)</f>
+      <c r="C37" s="3">
+        <f t="shared" ref="C37:F37" si="10">SUM(C33:C36)</f>
         <v>9442</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D37" s="3">
         <f t="shared" si="10"/>
         <v>10413</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E37" s="3">
         <f t="shared" si="10"/>
         <v>10074</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F37" s="3">
         <f t="shared" si="10"/>
         <v>5814</v>
       </c>
-      <c r="G30" s="3">
-        <f>SUM(G26:G29)</f>
+      <c r="G37" s="3">
+        <f>SUM(G33:G36)</f>
         <v>9366</v>
       </c>
-      <c r="H30" s="3">
-        <f t="shared" ref="H30:I30" si="11">SUM(H26:H29)</f>
+      <c r="H37" s="3">
+        <f t="shared" ref="H37:I37" si="11">SUM(H33:H36)</f>
         <v>10576</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I37" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K30" s="3">
-        <f t="shared" ref="K30" si="12">SUM(K26:K29)</f>
+      <c r="J37" s="3"/>
+      <c r="L37" s="3">
+        <f t="shared" ref="L37" si="12">SUM(L33:L36)</f>
         <v>36759</v>
       </c>
-      <c r="L30" s="3">
+      <c r="M37" s="3">
         <f t="shared" si="1"/>
         <v>36759</v>
       </c>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3">
+      <c r="N37" s="3"/>
+      <c r="O37" s="3">
         <f t="shared" si="2"/>
         <v>25756</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+    <row r="38" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="3">
-        <f>B30+B25+B20+B15+B10</f>
+      <c r="B38" s="3">
+        <f>B37+B32+B27+B22+B17</f>
         <v>569631</v>
       </c>
-      <c r="C31" s="3">
-        <f t="shared" ref="C31:F31" si="13">C30+C25+C20+C15+C10</f>
+      <c r="C38" s="3">
+        <f t="shared" ref="C38:F38" si="13">C37+C32+C27+C22+C17</f>
         <v>642568</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D38" s="3">
         <f t="shared" si="13"/>
         <v>694115</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E38" s="3">
         <f t="shared" si="13"/>
         <v>852131</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F38" s="3">
         <f t="shared" si="13"/>
         <v>628703</v>
       </c>
-      <c r="G31" s="3">
-        <f t="shared" ref="G31:N31" si="14">G30+G25+G20+G15+G10</f>
+      <c r="G38" s="3">
+        <f t="shared" ref="G38:O38" si="14">G37+G32+G27+G22+G17</f>
         <v>633674</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H38" s="3">
         <f t="shared" si="14"/>
         <v>679824</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I38" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K31" s="3">
-        <f t="shared" ref="K31" si="15">K30+K25+K20+K15+K10</f>
+      <c r="J38" s="3"/>
+      <c r="L38" s="3">
+        <f t="shared" ref="L38" si="15">L37+L32+L27+L22+L17</f>
         <v>2758445</v>
       </c>
-      <c r="L31" s="3">
+      <c r="M38" s="3">
         <f t="shared" si="14"/>
         <v>2758445</v>
       </c>
-      <c r="M31" s="3">
+      <c r="N38" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N31" s="3">
+      <c r="O38" s="3">
         <f t="shared" si="14"/>
         <v>1942201</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="1" t="str">
+    <row r="40" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="1" t="str">
         <f>B1</f>
         <v>Q123</v>
       </c>
-      <c r="C33" s="1" t="str">
-        <f t="shared" ref="C33:E33" si="16">C1</f>
+      <c r="C40" s="1" t="str">
+        <f t="shared" ref="C40:E40" si="16">C1</f>
         <v>Q223</v>
       </c>
-      <c r="D33" s="1" t="str">
+      <c r="D40" s="1" t="str">
         <f t="shared" si="16"/>
         <v>Q323</v>
       </c>
-      <c r="E33" s="1" t="str">
+      <c r="E40" s="1" t="str">
         <f t="shared" si="16"/>
         <v>Q423</v>
       </c>
-      <c r="F33" s="1" t="str">
+      <c r="F40" s="1" t="str">
         <f>F1</f>
         <v>Q124</v>
       </c>
-      <c r="G33" s="1" t="str">
-        <f t="shared" ref="G33:N33" si="17">G1</f>
+      <c r="G40" s="1" t="str">
+        <f t="shared" ref="G40:O40" si="17">G1</f>
         <v>Q224</v>
       </c>
-      <c r="H33" s="1" t="str">
+      <c r="H40" s="1" t="str">
         <f t="shared" si="17"/>
         <v>Q324</v>
       </c>
-      <c r="I33" s="1" t="str">
+      <c r="I40" s="1" t="str">
         <f t="shared" si="17"/>
         <v>Q424</v>
       </c>
-      <c r="L33" s="1">
+      <c r="M40" s="1">
         <f t="shared" si="17"/>
         <v>2023</v>
       </c>
-      <c r="N33" s="1">
+      <c r="O40" s="1">
         <f t="shared" si="17"/>
         <v>2024</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+    <row r="42" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B43" s="2">
         <v>429376</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C43" s="2">
         <v>480122</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D43" s="2">
         <v>521775</v>
       </c>
-      <c r="E36" s="2">
-        <f>K36-D36-C36-B36</f>
+      <c r="E43" s="2">
+        <f>L43-D43-C43-B43</f>
         <v>714043</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F43" s="2">
         <v>468089</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G43" s="2">
         <v>465233</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H43" s="2">
         <v>495147</v>
       </c>
-      <c r="I36" s="2"/>
-      <c r="K36" s="2">
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="L43" s="2">
         <v>2145316</v>
       </c>
-      <c r="L36" s="2">
+      <c r="M43" s="2">
         <f t="shared" si="1"/>
         <v>2145316</v>
       </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2">
+      <c r="N43" s="2"/>
+      <c r="O43" s="2">
         <f t="shared" si="2"/>
         <v>1428469</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B44" s="2">
         <v>96606</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C44" s="2">
         <v>108510</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D44" s="2">
         <v>114962</v>
       </c>
-      <c r="E37" s="2">
-        <f t="shared" ref="E37:E39" si="18">K37-D37-C37-B37</f>
+      <c r="E44" s="2">
+        <f t="shared" ref="E44:E46" si="18">L44-D44-C44-B44</f>
         <v>90763</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F44" s="2">
         <v>108226</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G44" s="2">
         <v>109805</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H44" s="2">
         <v>121086</v>
       </c>
-      <c r="I37" s="2"/>
-      <c r="K37" s="2">
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="L44" s="2">
         <v>410841</v>
       </c>
-      <c r="L37" s="2">
+      <c r="M44" s="2">
         <f t="shared" si="1"/>
         <v>410841</v>
       </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2">
+      <c r="N44" s="2"/>
+      <c r="O44" s="2">
         <f t="shared" si="2"/>
         <v>339117</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B45" s="2">
         <v>34933</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C45" s="2">
         <v>42478</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D45" s="2">
         <v>44767</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E45" s="2">
         <f t="shared" si="18"/>
         <v>35137</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F45" s="2">
         <v>45079</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G45" s="2">
         <v>47268</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H45" s="2">
         <v>51122</v>
       </c>
-      <c r="I38" s="2"/>
-      <c r="K38" s="2">
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="L45" s="2">
         <v>157315</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M45" s="2">
         <f t="shared" si="1"/>
         <v>157315</v>
       </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2">
+      <c r="N45" s="2"/>
+      <c r="O45" s="2">
         <f t="shared" si="2"/>
         <v>143469</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B46" s="2">
         <v>8716</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C46" s="2">
         <v>11458</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D46" s="2">
         <v>12611</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E46" s="2">
         <f t="shared" si="18"/>
         <v>12188</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F46" s="2">
         <v>7309</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G46" s="2">
         <v>11368</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H46" s="2">
         <v>12469</v>
       </c>
-      <c r="I39" s="2"/>
-      <c r="K39" s="2">
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="L46" s="2">
         <v>44973</v>
       </c>
-      <c r="L39" s="2">
+      <c r="M46" s="2">
         <f t="shared" si="1"/>
         <v>44973</v>
       </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2">
+      <c r="N46" s="2"/>
+      <c r="O46" s="2">
         <f t="shared" si="2"/>
         <v>31146</v>
       </c>
     </row>
-    <row r="40" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+    <row r="47" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="3">
-        <f>SUM(B36:B39)</f>
+      <c r="B47" s="3">
+        <f>SUM(B43:B46)</f>
         <v>569631</v>
       </c>
-      <c r="C40" s="3">
-        <f t="shared" ref="C40:I40" si="19">SUM(C36:C39)</f>
+      <c r="C47" s="3">
+        <f t="shared" ref="C47:I47" si="19">SUM(C43:C46)</f>
         <v>642568</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D47" s="3">
         <f t="shared" si="19"/>
         <v>694115</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E47" s="3">
         <f t="shared" si="19"/>
         <v>852131</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F47" s="3">
         <f t="shared" si="19"/>
         <v>628703</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G47" s="3">
         <f t="shared" si="19"/>
         <v>633674</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H47" s="3">
         <f t="shared" si="19"/>
         <v>679824</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I47" s="3">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="K40" s="3">
-        <f>SUM(K36:K39)</f>
+      <c r="J47" s="3"/>
+      <c r="L47" s="3">
+        <f>SUM(L43:L46)</f>
         <v>2758445</v>
       </c>
-      <c r="L40" s="3">
+      <c r="M47" s="3">
         <f t="shared" si="1"/>
         <v>2758445</v>
       </c>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3">
+      <c r="N47" s="3"/>
+      <c r="O47" s="3">
         <f t="shared" si="2"/>
         <v>1942201</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B48" s="2">
         <v>368262</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C48" s="2">
         <v>414800</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D48" s="2">
         <v>454598</v>
       </c>
-      <c r="E41" s="2">
-        <f>K41-D41-C41-B41</f>
+      <c r="E48" s="2">
+        <f>L48-D48-C48-B48</f>
         <v>626898</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F48" s="2">
         <v>412239</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G48" s="2">
         <v>422236</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H48" s="2">
         <v>458345</v>
       </c>
-      <c r="K41" s="2">
+      <c r="L48" s="2">
         <v>1864558</v>
       </c>
-      <c r="L41" s="2">
+      <c r="M48" s="2">
         <f t="shared" si="1"/>
         <v>1864558</v>
       </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2">
+      <c r="N48" s="2"/>
+      <c r="O48" s="2">
         <f t="shared" si="2"/>
         <v>1292820</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B49" s="2">
         <v>65103</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C49" s="2">
         <v>73086</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D49" s="2">
         <v>78585</v>
       </c>
-      <c r="E42" s="2">
-        <f t="shared" ref="E42:E44" si="20">K42-D42-C42-B42</f>
+      <c r="E49" s="2">
+        <f t="shared" ref="E49:E51" si="20">L49-D49-C49-B49</f>
         <v>63147</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F49" s="2">
         <v>73151</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G49" s="2">
         <v>74239</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H49" s="2">
         <v>83542</v>
       </c>
-      <c r="K42" s="2">
+      <c r="L49" s="2">
         <v>279921</v>
       </c>
-      <c r="L42" s="2">
+      <c r="M49" s="2">
         <f t="shared" si="1"/>
         <v>279921</v>
       </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2">
+      <c r="N49" s="2"/>
+      <c r="O49" s="2">
         <f t="shared" si="2"/>
         <v>230932</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B50" s="2">
         <v>12409</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C50" s="2">
         <v>14208</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D50" s="2">
         <v>14393</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E50" s="2">
         <f t="shared" si="20"/>
         <v>12971</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F50" s="2">
         <v>16776</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G50" s="2">
         <v>16144</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H50" s="2">
         <v>17833</v>
       </c>
-      <c r="K43" s="2">
+      <c r="L50" s="2">
         <v>53981</v>
       </c>
-      <c r="L43" s="2">
+      <c r="M50" s="2">
         <f t="shared" si="1"/>
         <v>53981</v>
       </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2">
+      <c r="N50" s="2"/>
+      <c r="O50" s="2">
         <f t="shared" si="2"/>
         <v>50753</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B51" s="2">
         <v>5277</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C51" s="2">
         <v>7075</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D51" s="2">
         <v>8198</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E51" s="2">
         <f t="shared" si="20"/>
         <v>8081</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F51" s="2">
         <v>4782</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G51" s="2">
         <v>8676</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H51" s="2">
         <v>9610</v>
       </c>
-      <c r="K44" s="2">
+      <c r="L51" s="2">
         <v>28631</v>
       </c>
-      <c r="L44" s="2">
+      <c r="M51" s="2">
         <f t="shared" si="1"/>
         <v>28631</v>
       </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2">
+      <c r="N51" s="2"/>
+      <c r="O51" s="2">
         <f t="shared" si="2"/>
         <v>23068</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
+    <row r="52" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="3">
-        <f>SUM(B41:B44)</f>
+      <c r="B52" s="3">
+        <f>SUM(B48:B51)</f>
         <v>451051</v>
       </c>
-      <c r="C45" s="3">
-        <f t="shared" ref="C45:I45" si="21">SUM(C41:C44)</f>
+      <c r="C52" s="3">
+        <f t="shared" ref="C52:I52" si="21">SUM(C48:C51)</f>
         <v>509169</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D52" s="3">
         <f t="shared" si="21"/>
         <v>555774</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E52" s="3">
         <f t="shared" si="21"/>
         <v>711097</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F52" s="3">
         <f t="shared" si="21"/>
         <v>506948</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G52" s="3">
         <f t="shared" si="21"/>
         <v>521295</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H52" s="3">
         <f t="shared" si="21"/>
         <v>569330</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I52" s="3">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="K45" s="3">
-        <f>SUM(K41:K44)</f>
+      <c r="J52" s="3"/>
+      <c r="L52" s="3">
+        <f>SUM(L48:L51)</f>
         <v>2227091</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M52" s="3">
         <f t="shared" si="1"/>
         <v>2227091</v>
       </c>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3">
+      <c r="N52" s="3"/>
+      <c r="O52" s="3">
         <f t="shared" si="2"/>
         <v>1597573</v>
       </c>
     </row>
-    <row r="46" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
+    <row r="53" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="3">
-        <f>B36-B41</f>
+      <c r="B53" s="3">
+        <f>B43-B48</f>
         <v>61114</v>
       </c>
-      <c r="C46" s="3">
-        <f t="shared" ref="C46:N46" si="22">C36-C41</f>
+      <c r="C53" s="3">
+        <f t="shared" ref="C53:O53" si="22">C43-C48</f>
         <v>65322</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D53" s="3">
         <f t="shared" si="22"/>
         <v>67177</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E53" s="3">
         <f t="shared" si="22"/>
         <v>87145</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F53" s="3">
         <f t="shared" si="22"/>
         <v>55850</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G53" s="3">
         <f t="shared" si="22"/>
         <v>42997</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H53" s="3">
         <f t="shared" si="22"/>
         <v>36802</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I53" s="3">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3">
-        <f t="shared" ref="K46" si="23">K36-K41</f>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3">
+        <f t="shared" ref="L53" si="23">L43-L48</f>
         <v>280758</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M53" s="3">
         <f t="shared" si="22"/>
         <v>280758</v>
       </c>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3">
+      <c r="N53" s="3"/>
+      <c r="O53" s="3">
         <f t="shared" si="22"/>
         <v>135649</v>
       </c>
     </row>
-    <row r="47" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
+    <row r="54" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="3">
-        <f t="shared" ref="B47:B49" si="24">B37-B42</f>
+      <c r="B54" s="3">
+        <f t="shared" ref="B54:B56" si="24">B44-B49</f>
         <v>31503</v>
       </c>
-      <c r="C47" s="3">
-        <f t="shared" ref="C47:N47" si="25">C37-C42</f>
+      <c r="C54" s="3">
+        <f t="shared" ref="C54:O54" si="25">C44-C49</f>
         <v>35424</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D54" s="3">
         <f t="shared" si="25"/>
         <v>36377</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E54" s="3">
         <f t="shared" si="25"/>
         <v>27616</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F54" s="3">
         <f t="shared" si="25"/>
         <v>35075</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G54" s="3">
         <f t="shared" si="25"/>
         <v>35566</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H54" s="3">
         <f t="shared" si="25"/>
         <v>37544</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I54" s="3">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3">
-        <f t="shared" ref="K47" si="26">K37-K42</f>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3">
+        <f t="shared" ref="L54" si="26">L44-L49</f>
         <v>130920</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M54" s="3">
         <f t="shared" si="25"/>
         <v>130920</v>
       </c>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3">
+      <c r="N54" s="3"/>
+      <c r="O54" s="3">
         <f t="shared" si="25"/>
         <v>108185</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
+    <row r="55" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B55" s="3">
         <f t="shared" si="24"/>
         <v>22524</v>
       </c>
-      <c r="C48" s="3">
-        <f t="shared" ref="C48:N48" si="27">C38-C43</f>
+      <c r="C55" s="3">
+        <f t="shared" ref="C55:O55" si="27">C45-C50</f>
         <v>28270</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D55" s="3">
         <f t="shared" si="27"/>
         <v>30374</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E55" s="3">
         <f t="shared" si="27"/>
         <v>22166</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F55" s="3">
         <f t="shared" si="27"/>
         <v>28303</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G55" s="3">
         <f t="shared" si="27"/>
         <v>31124</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H55" s="3">
         <f t="shared" si="27"/>
         <v>33289</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I55" s="3">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3">
-        <f t="shared" ref="K48" si="28">K38-K43</f>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3">
+        <f t="shared" ref="L55" si="28">L45-L50</f>
         <v>103334</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M55" s="3">
         <f t="shared" si="27"/>
         <v>103334</v>
       </c>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3">
         <f t="shared" si="27"/>
         <v>92716</v>
       </c>
     </row>
-    <row r="49" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
+    <row r="56" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B56" s="3">
         <f t="shared" si="24"/>
         <v>3439</v>
       </c>
-      <c r="C49" s="3">
-        <f t="shared" ref="C49:N49" si="29">C39-C44</f>
+      <c r="C56" s="3">
+        <f t="shared" ref="C56:O56" si="29">C46-C51</f>
         <v>4383</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D56" s="3">
         <f t="shared" si="29"/>
         <v>4413</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E56" s="3">
         <f t="shared" si="29"/>
         <v>4107</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F56" s="3">
         <f t="shared" si="29"/>
         <v>2527</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G56" s="3">
         <f t="shared" si="29"/>
         <v>2692</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H56" s="3">
         <f t="shared" si="29"/>
         <v>2859</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I56" s="3">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3">
-        <f t="shared" ref="K49" si="30">K39-K44</f>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3">
+        <f t="shared" ref="L56" si="30">L46-L51</f>
         <v>16342</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M56" s="3">
         <f t="shared" si="29"/>
         <v>16342</v>
       </c>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3">
         <f t="shared" si="29"/>
         <v>8078</v>
       </c>
     </row>
-    <row r="50" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
+    <row r="57" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B50" s="3">
-        <f>SUM(B46:B49)</f>
+      <c r="B57" s="3">
+        <f>SUM(B53:B56)</f>
         <v>118580</v>
       </c>
-      <c r="C50" s="3">
-        <f t="shared" ref="C50:I50" si="31">SUM(C46:C49)</f>
+      <c r="C57" s="3">
+        <f t="shared" ref="C57:I57" si="31">SUM(C53:C56)</f>
         <v>133399</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D57" s="3">
         <f t="shared" si="31"/>
         <v>138341</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E57" s="3">
         <f t="shared" si="31"/>
         <v>141034</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F57" s="3">
         <f t="shared" si="31"/>
         <v>121755</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G57" s="3">
         <f t="shared" si="31"/>
         <v>112379</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H57" s="3">
         <f t="shared" si="31"/>
         <v>110494</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I57" s="3">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="K50" s="3">
-        <f t="shared" ref="K50" si="32">SUM(K46:K49)</f>
+      <c r="J57" s="3"/>
+      <c r="L57" s="3">
+        <f t="shared" ref="L57" si="32">SUM(L53:L56)</f>
         <v>531354</v>
       </c>
-      <c r="L50" s="3">
+      <c r="M57" s="3">
         <f t="shared" si="1"/>
         <v>531354</v>
       </c>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3">
+      <c r="N57" s="3"/>
+      <c r="O57" s="3">
         <f t="shared" si="2"/>
         <v>344628</v>
       </c>
     </row>
-    <row r="51" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+    <row r="58" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B58" s="2">
         <v>81315</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C58" s="2">
         <v>88751</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D58" s="2">
         <v>92115</v>
       </c>
-      <c r="E51" s="2">
-        <f t="shared" ref="E51" si="33">K51-D51-C51-B51</f>
+      <c r="E58" s="2">
+        <f t="shared" ref="E58" si="33">L58-D58-C58-B58</f>
         <v>100328</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F58" s="2">
         <v>99158</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G58" s="2">
         <v>95156</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H58" s="2">
         <v>98773</v>
       </c>
-      <c r="K51" s="2">
+      <c r="L58" s="2">
         <v>362509</v>
       </c>
-      <c r="L51" s="2">
-        <f>SUM(B51:E51)</f>
+      <c r="M58" s="2">
+        <f>SUM(B58:E58)</f>
         <v>362509</v>
       </c>
-      <c r="N51" s="2">
-        <f>SUM(F51:I51)</f>
+      <c r="O58" s="2">
+        <f>SUM(F58:I58)</f>
         <v>293087</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>108</v>
       </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2">
         <v>531</v>
       </c>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="L52" s="2">
-        <f t="shared" ref="L52:L53" si="34">SUM(B52:E52)</f>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="M59" s="2">
+        <f t="shared" ref="M59:M60" si="34">SUM(B59:E59)</f>
         <v>0</v>
       </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2">
-        <f t="shared" ref="N52:N53" si="35">SUM(F52:I52)</f>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2">
+        <f t="shared" ref="O59:O60" si="35">SUM(F59:I59)</f>
         <v>531</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>109</v>
       </c>
-      <c r="E53" s="2"/>
-      <c r="G53">
+      <c r="E60" s="2"/>
+      <c r="G60">
         <v>942</v>
       </c>
-      <c r="H53">
+      <c r="H60">
         <v>264</v>
       </c>
-      <c r="L53" s="2">
+      <c r="M60" s="2">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2">
+      <c r="N60" s="2"/>
+      <c r="O60" s="2">
         <f t="shared" si="35"/>
         <v>1206</v>
       </c>
     </row>
-    <row r="54" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
+    <row r="61" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B54" s="3">
-        <f>B50-B51-B52-B53</f>
+      <c r="B61" s="3">
+        <f>B57-B58-B59-B60</f>
         <v>37265</v>
       </c>
-      <c r="C54" s="3">
-        <f t="shared" ref="C54:N54" si="36">C50-C51-C52-C53</f>
+      <c r="C61" s="3">
+        <f t="shared" ref="C61:O61" si="36">C57-C58-C59-C60</f>
         <v>44648</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D61" s="3">
         <f t="shared" si="36"/>
         <v>46226</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E61" s="3">
         <f t="shared" si="36"/>
         <v>40706</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F61" s="3">
         <f t="shared" si="36"/>
         <v>22597</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G61" s="3">
         <f t="shared" si="36"/>
         <v>15750</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H61" s="3">
         <f t="shared" si="36"/>
         <v>11457</v>
       </c>
-      <c r="I54" s="3">
+      <c r="I61" s="3">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3">
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3">
         <f t="shared" si="36"/>
         <v>168845</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M61" s="3">
         <f t="shared" si="36"/>
         <v>168845</v>
       </c>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3">
+      <c r="N61" s="3"/>
+      <c r="O61" s="3">
         <f t="shared" si="36"/>
         <v>49804</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>22</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B62" s="2">
         <v>720</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C62" s="2">
         <v>641</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D62" s="2">
         <v>-235</v>
       </c>
-      <c r="E55" s="2">
-        <f t="shared" ref="E55:E59" si="37">K55-D55-C55-B55</f>
+      <c r="E62" s="2">
+        <f t="shared" ref="E62:E66" si="37">L62-D62-C62-B62</f>
         <v>2174</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F62" s="2">
         <v>-288</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G62" s="2">
         <v>-7048</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H62" s="2">
         <v>3097</v>
       </c>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2">
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2">
         <v>3300</v>
       </c>
-      <c r="L55" s="2">
+      <c r="M62" s="2">
         <f t="shared" si="1"/>
         <v>3300</v>
       </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2">
+      <c r="N62" s="2"/>
+      <c r="O62" s="2">
         <f t="shared" si="2"/>
         <v>-4239</v>
       </c>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>24</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B63" s="2">
         <v>-1272</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C63" s="2">
         <v>-2457</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D63" s="2">
         <v>-4045</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E63" s="2">
         <f t="shared" si="37"/>
         <v>-6028</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F63" s="2">
         <v>-7064</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G63" s="2">
         <v>-9218</v>
       </c>
-      <c r="H56" s="2">
+      <c r="H63" s="2">
         <v>-9993</v>
       </c>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2">
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2">
         <v>-13802</v>
       </c>
-      <c r="L56" s="2">
+      <c r="M63" s="2">
         <f t="shared" si="1"/>
         <v>-13802</v>
       </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2">
+      <c r="N63" s="2"/>
+      <c r="O63" s="2">
         <f t="shared" si="2"/>
         <v>-26275</v>
       </c>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>23</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B64" s="2">
         <v>-1274</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C64" s="2">
         <v>-1241</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D64" s="2">
         <v>-1494</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E64" s="2">
         <f t="shared" si="37"/>
         <v>-3294</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F64" s="2">
         <v>-2459</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G64" s="2">
         <v>-3734</v>
       </c>
-      <c r="H57" s="2">
+      <c r="H64" s="2">
         <v>-4286</v>
       </c>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2">
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2">
         <v>-7303</v>
       </c>
-      <c r="L57" s="2">
+      <c r="M64" s="2">
         <f t="shared" si="1"/>
         <v>-7303</v>
       </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2">
+      <c r="N64" s="2"/>
+      <c r="O64" s="2">
         <f t="shared" si="2"/>
         <v>-10479</v>
       </c>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-    </row>
-    <row r="58" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+    </row>
+    <row r="65" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B58" s="3">
-        <f>B54+SUM(B55:B57)</f>
+      <c r="B65" s="3">
+        <f>B61+SUM(B62:B64)</f>
         <v>35439</v>
       </c>
-      <c r="C58" s="3">
-        <f t="shared" ref="C58:K58" si="38">C54+SUM(C55:C57)</f>
+      <c r="C65" s="3">
+        <f t="shared" ref="C65:L65" si="38">C61+SUM(C62:C64)</f>
         <v>41591</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D65" s="3">
         <f t="shared" si="38"/>
         <v>40452</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E65" s="3">
         <f t="shared" si="38"/>
         <v>33558</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F65" s="3">
         <f t="shared" si="38"/>
         <v>12786</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G65" s="3">
         <f t="shared" si="38"/>
         <v>-4250</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H65" s="3">
         <f t="shared" si="38"/>
         <v>275</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I65" s="3">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="K58" s="3">
+      <c r="J65" s="3"/>
+      <c r="L65" s="3">
         <f t="shared" si="38"/>
         <v>151040</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M65" s="3">
         <f t="shared" si="1"/>
         <v>151040</v>
       </c>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3">
+      <c r="N65" s="3"/>
+      <c r="O65" s="3">
         <f t="shared" si="2"/>
         <v>8811</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B66" s="2">
         <v>8474</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C66" s="2">
         <v>10270</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D66" s="2">
         <v>10259</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E66" s="2">
         <f t="shared" si="37"/>
         <v>9596</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F66" s="2">
         <v>3345</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G66" s="2">
         <v>54</v>
       </c>
-      <c r="H59" s="2">
+      <c r="H66" s="2">
         <v>-1438</v>
       </c>
-      <c r="K59" s="2">
+      <c r="L66" s="2">
         <v>38599</v>
       </c>
-      <c r="L59" s="2">
+      <c r="M66" s="2">
         <f t="shared" si="1"/>
         <v>38599</v>
       </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2">
+      <c r="N66" s="2"/>
+      <c r="O66" s="2">
         <f t="shared" si="2"/>
         <v>1961</v>
       </c>
     </row>
-    <row r="60" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
+    <row r="67" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="3">
-        <f>B58-B59</f>
+      <c r="B67" s="3">
+        <f>B65-B66</f>
         <v>26965</v>
       </c>
-      <c r="C60" s="3">
-        <f t="shared" ref="C60:K60" si="39">C58-C59</f>
+      <c r="C67" s="3">
+        <f t="shared" ref="C67:L67" si="39">C65-C66</f>
         <v>31321</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D67" s="3">
         <f t="shared" si="39"/>
         <v>30193</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E67" s="3">
         <f t="shared" si="39"/>
         <v>23962</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F67" s="3">
         <f t="shared" si="39"/>
         <v>9441</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G67" s="3">
         <f t="shared" si="39"/>
         <v>-4304</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H67" s="3">
         <f t="shared" si="39"/>
         <v>1713</v>
       </c>
-      <c r="I60" s="3">
+      <c r="I67" s="3">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="K60" s="3">
+      <c r="J67" s="3"/>
+      <c r="L67" s="3">
         <f t="shared" si="39"/>
         <v>112441</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M67" s="3">
         <f t="shared" si="1"/>
         <v>112441</v>
       </c>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3">
         <f t="shared" si="2"/>
         <v>6850</v>
       </c>
     </row>
-    <row r="61" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
+    <row r="68" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="5">
-        <f>B60/B65</f>
+      <c r="B69" s="5">
+        <f>B67/B72</f>
         <v>1.2015952943273474</v>
       </c>
-      <c r="C62" s="5">
-        <f t="shared" ref="C62:F62" si="40">C60/C65</f>
+      <c r="C69" s="5">
+        <f t="shared" ref="C69:F69" si="40">C67/C72</f>
         <v>1.3935308773803168</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D69" s="5">
         <f t="shared" si="40"/>
         <v>1.3411958066808813</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E69" s="5">
         <f t="shared" si="40"/>
         <v>1.0653092073089405</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F69" s="5">
         <f t="shared" si="40"/>
         <v>0.41881820601543784</v>
       </c>
-      <c r="G62" s="5">
-        <f t="shared" ref="G62:I62" si="41">G60/G65</f>
+      <c r="G69" s="5">
+        <f t="shared" ref="G69:I69" si="41">G67/G72</f>
         <v>-0.19029933236061369</v>
       </c>
-      <c r="H62" s="5">
+      <c r="H69" s="5">
         <f t="shared" si="41"/>
         <v>7.569263399761389E-2</v>
       </c>
-      <c r="I62" s="5" t="e">
+      <c r="I69" s="5" t="e">
         <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L62" s="5">
-        <f t="shared" ref="L62" si="42">L60/L65</f>
+      <c r="M69" s="5">
+        <f t="shared" ref="M69" si="42">M67/M72</f>
         <v>4.998933001378207</v>
       </c>
-      <c r="N62" s="5" t="e">
+      <c r="O69" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
+    <row r="70" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B63" s="5">
-        <f>B60/B66</f>
+      <c r="B70" s="5">
+        <f>B67/B73</f>
         <v>1.201220598717035</v>
       </c>
-      <c r="C63" s="5">
-        <f t="shared" ref="C63:F63" si="43">C60/C66</f>
+      <c r="C70" s="5">
+        <f t="shared" ref="C70:F70" si="43">C67/C73</f>
         <v>1.3930350471446362</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D70" s="5">
         <f t="shared" si="43"/>
         <v>1.3408979881867034</v>
       </c>
-      <c r="E63" s="5">
+      <c r="E70" s="5">
         <f t="shared" si="43"/>
         <v>1.0650251122272101</v>
       </c>
-      <c r="F63" s="5">
+      <c r="F70" s="5">
         <f t="shared" si="43"/>
         <v>0.41874390135722522</v>
       </c>
-      <c r="G63" s="5">
-        <f t="shared" ref="G63:I63" si="44">G60/G66</f>
+      <c r="G70" s="5">
+        <f t="shared" ref="G70:I70" si="44">G67/G73</f>
         <v>-0.19029933236061369</v>
       </c>
-      <c r="H63" s="5">
+      <c r="H70" s="5">
         <f t="shared" si="44"/>
         <v>7.569263399761389E-2</v>
       </c>
-      <c r="I63" s="5" t="e">
+      <c r="I70" s="5" t="e">
         <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L63" s="5">
-        <f t="shared" ref="L63" si="45">L60/L66</f>
+      <c r="M70" s="5">
+        <f t="shared" ref="M70" si="45">M67/M73</f>
         <v>4.9975998933285926</v>
       </c>
-      <c r="N63" s="5" t="e">
+      <c r="O70" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+    <row r="71" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B72" s="4">
         <v>22441</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C72" s="4">
         <v>22476</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D72" s="4">
         <v>22512</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E72" s="4">
         <v>22493</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F72" s="4">
         <v>22542</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G72" s="4">
         <v>22617</v>
       </c>
-      <c r="H65" s="4">
+      <c r="H72" s="4">
         <v>22631</v>
       </c>
-      <c r="L65" s="4">
+      <c r="M72" s="4">
         <v>22493</v>
       </c>
     </row>
-    <row r="66" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+    <row r="73" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B73" s="4">
         <v>22448</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C73" s="4">
         <v>22484</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D73" s="4">
         <v>22517</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E73" s="4">
         <v>22499</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F73" s="4">
         <v>22546</v>
       </c>
-      <c r="G66" s="4">
+      <c r="G73" s="4">
         <v>22617</v>
       </c>
-      <c r="H66" s="4">
+      <c r="H73" s="4">
         <v>22631</v>
       </c>
-      <c r="L66" s="4">
+      <c r="M73" s="4">
         <v>22499</v>
       </c>
     </row>
-    <row r="67" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="1" t="str">
-        <f>B33</f>
+    <row r="74" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="1" t="str">
+        <f>B40</f>
         <v>Q123</v>
       </c>
-      <c r="C68" s="1" t="str">
-        <f t="shared" ref="C68:N68" si="46">C33</f>
+      <c r="C75" s="1" t="str">
+        <f t="shared" ref="C75:O75" si="46">C40</f>
         <v>Q223</v>
       </c>
-      <c r="D68" s="1" t="str">
+      <c r="D75" s="1" t="str">
         <f t="shared" si="46"/>
         <v>Q323</v>
       </c>
-      <c r="E68" s="1" t="str">
+      <c r="E75" s="1" t="str">
         <f t="shared" si="46"/>
         <v>Q423</v>
       </c>
-      <c r="F68" s="1" t="str">
+      <c r="F75" s="1" t="str">
         <f t="shared" si="46"/>
         <v>Q124</v>
       </c>
-      <c r="G68" s="1" t="str">
+      <c r="G75" s="1" t="str">
         <f t="shared" si="46"/>
         <v>Q224</v>
       </c>
-      <c r="H68" s="1" t="str">
+      <c r="H75" s="1" t="str">
         <f t="shared" si="46"/>
         <v>Q324</v>
       </c>
-      <c r="I68" s="1" t="str">
+      <c r="I75" s="1" t="str">
         <f t="shared" si="46"/>
         <v>Q424</v>
       </c>
-      <c r="L68" s="1">
+      <c r="M75" s="1">
         <f t="shared" si="46"/>
         <v>2023</v>
       </c>
-      <c r="N68" s="1">
+      <c r="O75" s="1">
         <f t="shared" si="46"/>
         <v>2024</v>
       </c>
     </row>
-    <row r="69" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="1" t="s">
+    <row r="76" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>51</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B77" s="2">
         <v>26965</v>
       </c>
-      <c r="C70" s="2">
-        <f>58287-B70</f>
+      <c r="C77" s="2">
+        <f>58287-B77</f>
         <v>31322</v>
       </c>
-      <c r="D70" s="2">
-        <f>88479-C70-B70</f>
+      <c r="D77" s="2">
+        <f>88479-C77-B77</f>
         <v>30192</v>
       </c>
-      <c r="E70" s="2">
-        <f t="shared" ref="E70:E86" si="47">K70-D70-C70-B70</f>
+      <c r="E77" s="2">
+        <f t="shared" ref="E77:E93" si="47">L77-D77-C77-B77</f>
         <v>23962</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F77" s="2">
         <v>9441</v>
       </c>
-      <c r="G70" s="2">
-        <f>5136-F70</f>
+      <c r="G77" s="2">
+        <f>5136-F77</f>
         <v>-4305</v>
       </c>
-      <c r="H70" s="2">
-        <f>6850-G70-F70</f>
+      <c r="H77" s="2">
+        <f>6850-G77-F77</f>
         <v>1714</v>
       </c>
-      <c r="K70" s="2">
+      <c r="L77" s="2">
         <v>112441</v>
       </c>
-      <c r="L70" s="2">
+      <c r="M77" s="2">
         <f t="shared" si="1"/>
         <v>112441</v>
       </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2">
+      <c r="N77" s="2"/>
+      <c r="O77" s="2">
         <f t="shared" si="2"/>
         <v>6850</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>52</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B78" s="2">
         <v>6948</v>
       </c>
-      <c r="C71" s="2">
-        <f>14637-B71</f>
+      <c r="C78" s="2">
+        <f>14637-B78</f>
         <v>7689</v>
       </c>
-      <c r="D71" s="2">
-        <f>22871-C71-B71</f>
+      <c r="D78" s="2">
+        <f>22871-C78-B78</f>
         <v>8234</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E78" s="2">
         <f t="shared" si="47"/>
         <v>8608</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F78" s="2">
         <v>8715</v>
       </c>
-      <c r="G71" s="2">
-        <f>18413-F71</f>
+      <c r="G78" s="2">
+        <f>18413-F78</f>
         <v>9698</v>
       </c>
-      <c r="H71" s="2">
-        <f>28687-G71-F71</f>
+      <c r="H78" s="2">
+        <f>28687-G78-F78</f>
         <v>10274</v>
       </c>
-      <c r="K71" s="2">
+      <c r="L78" s="2">
         <v>31479</v>
       </c>
-      <c r="L71" s="2">
+      <c r="M78" s="2">
         <f t="shared" si="1"/>
         <v>31479</v>
       </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2">
+      <c r="N78" s="2"/>
+      <c r="O78" s="2">
         <f t="shared" si="2"/>
         <v>28687</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
         <v>110</v>
-      </c>
-      <c r="B72" s="2">
-        <v>0</v>
-      </c>
-      <c r="C72" s="2">
-        <v>0</v>
-      </c>
-      <c r="D72" s="2">
-        <f>0-C72-B72</f>
-        <v>0</v>
-      </c>
-      <c r="E72" s="2">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2">
-        <f>1473-F72</f>
-        <v>1473</v>
-      </c>
-      <c r="H72" s="2">
-        <f>1737-G72-F72</f>
-        <v>264</v>
-      </c>
-      <c r="K72" s="2">
-        <v>0</v>
-      </c>
-      <c r="L72" s="2">
-        <f t="shared" ref="L72:L122" si="48">SUM(B72:E72)</f>
-        <v>0</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2">
-        <f t="shared" ref="N72:N125" si="49">SUM(F72:I72)</f>
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>53</v>
-      </c>
-      <c r="B73" s="2">
-        <v>-904</v>
-      </c>
-      <c r="C73" s="2">
-        <f>-2495-B73</f>
-        <v>-1591</v>
-      </c>
-      <c r="D73" s="2">
-        <f>-3731-C73-B73</f>
-        <v>-1236</v>
-      </c>
-      <c r="E73" s="2">
-        <f t="shared" si="47"/>
-        <v>6641</v>
-      </c>
-      <c r="F73" s="2">
-        <v>-379</v>
-      </c>
-      <c r="G73" s="2">
-        <f>-650-F73</f>
-        <v>-271</v>
-      </c>
-      <c r="H73" s="2">
-        <f>-3003-G73-F73</f>
-        <v>-2353</v>
-      </c>
-      <c r="K73" s="2">
-        <v>2910</v>
-      </c>
-      <c r="L73" s="2">
-        <f t="shared" si="48"/>
-        <v>2910</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2">
-        <f t="shared" si="49"/>
-        <v>-3003</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>54</v>
-      </c>
-      <c r="B74" s="2">
-        <v>659</v>
-      </c>
-      <c r="C74" s="2">
-        <f>1443-B74</f>
-        <v>784</v>
-      </c>
-      <c r="D74" s="2">
-        <f>2339-C74-B74</f>
-        <v>896</v>
-      </c>
-      <c r="E74" s="2">
-        <f t="shared" si="47"/>
-        <v>781</v>
-      </c>
-      <c r="F74" s="2">
-        <v>837</v>
-      </c>
-      <c r="G74" s="2">
-        <f>2099-F74</f>
-        <v>1262</v>
-      </c>
-      <c r="H74" s="2">
-        <f>3203-G74-F74</f>
-        <v>1104</v>
-      </c>
-      <c r="K74" s="2">
-        <v>3120</v>
-      </c>
-      <c r="L74" s="2">
-        <f t="shared" si="48"/>
-        <v>3120</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2">
-        <f t="shared" si="49"/>
-        <v>3203</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>114</v>
-      </c>
-      <c r="B75" s="2">
-        <v>64</v>
-      </c>
-      <c r="C75" s="2">
-        <f>129-B75</f>
-        <v>65</v>
-      </c>
-      <c r="D75" s="2">
-        <f>206-C75-B75</f>
-        <v>77</v>
-      </c>
-      <c r="E75" s="2">
-        <f t="shared" si="47"/>
-        <v>86</v>
-      </c>
-      <c r="F75" s="2">
-        <v>88</v>
-      </c>
-      <c r="G75" s="2">
-        <f>493-F75</f>
-        <v>405</v>
-      </c>
-      <c r="H75" s="2">
-        <f>537-G75-F75</f>
-        <v>44</v>
-      </c>
-      <c r="K75" s="2">
-        <v>292</v>
-      </c>
-      <c r="L75" s="2">
-        <f t="shared" si="48"/>
-        <v>292</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2">
-        <f t="shared" si="49"/>
-        <v>537</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>115</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2">
-        <f t="shared" si="47"/>
-        <v>-1349</v>
-      </c>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="K76" s="2">
-        <v>-1349</v>
-      </c>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>113</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2">
-        <f>7004-C77-B77</f>
-        <v>7004</v>
-      </c>
-      <c r="E77" s="2">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2">
-        <f>6532-G77-F77</f>
-        <v>6532</v>
-      </c>
-      <c r="K77" s="2">
-        <v>7004</v>
-      </c>
-      <c r="L77" s="2">
-        <f t="shared" si="48"/>
-        <v>7004</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2">
-        <f t="shared" si="49"/>
-        <v>6532</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>111</v>
-      </c>
-      <c r="B78" s="2">
-        <v>0</v>
-      </c>
-      <c r="C78" s="2">
-        <v>0</v>
-      </c>
-      <c r="D78" s="2">
-        <f>0-C78-B78</f>
-        <v>0</v>
-      </c>
-      <c r="E78" s="2">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2">
-        <f>11159-F78</f>
-        <v>11159</v>
-      </c>
-      <c r="H78" s="2">
-        <f>11159-G78-F78</f>
-        <v>0</v>
-      </c>
-      <c r="K78" s="2">
-        <v>0</v>
-      </c>
-      <c r="L78" s="2">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2">
-        <f t="shared" si="49"/>
-        <v>11159</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>112</v>
       </c>
       <c r="B79" s="2">
         <v>0</v>
@@ -3761,1752 +3801,2050 @@
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2">
-        <f>-3585-F79</f>
-        <v>-3585</v>
+        <f>1473-F79</f>
+        <v>1473</v>
       </c>
       <c r="H79" s="2">
-        <f>-3585-G79-F79</f>
+        <f>1737-G79-F79</f>
+        <v>264</v>
+      </c>
+      <c r="L79" s="2">
         <v>0</v>
       </c>
-      <c r="K79" s="2">
+      <c r="M79" s="2">
+        <f t="shared" ref="M79:M129" si="48">SUM(B79:E79)</f>
         <v>0</v>
       </c>
-      <c r="L79" s="2">
+      <c r="N79" s="2"/>
+      <c r="O79" s="2">
+        <f t="shared" ref="O79:O132" si="49">SUM(F79:I79)</f>
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>53</v>
+      </c>
+      <c r="B80" s="2">
+        <v>-904</v>
+      </c>
+      <c r="C80" s="2">
+        <f>-2495-B80</f>
+        <v>-1591</v>
+      </c>
+      <c r="D80" s="2">
+        <f>-3731-C80-B80</f>
+        <v>-1236</v>
+      </c>
+      <c r="E80" s="2">
+        <f t="shared" si="47"/>
+        <v>6641</v>
+      </c>
+      <c r="F80" s="2">
+        <v>-379</v>
+      </c>
+      <c r="G80" s="2">
+        <f>-650-F80</f>
+        <v>-271</v>
+      </c>
+      <c r="H80" s="2">
+        <f>-3003-G80-F80</f>
+        <v>-2353</v>
+      </c>
+      <c r="L80" s="2">
+        <v>2910</v>
+      </c>
+      <c r="M80" s="2">
+        <f t="shared" si="48"/>
+        <v>2910</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2">
+        <f t="shared" si="49"/>
+        <v>-3003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>54</v>
+      </c>
+      <c r="B81" s="2">
+        <v>659</v>
+      </c>
+      <c r="C81" s="2">
+        <f>1443-B81</f>
+        <v>784</v>
+      </c>
+      <c r="D81" s="2">
+        <f>2339-C81-B81</f>
+        <v>896</v>
+      </c>
+      <c r="E81" s="2">
+        <f t="shared" si="47"/>
+        <v>781</v>
+      </c>
+      <c r="F81" s="2">
+        <v>837</v>
+      </c>
+      <c r="G81" s="2">
+        <f>2099-F81</f>
+        <v>1262</v>
+      </c>
+      <c r="H81" s="2">
+        <f>3203-G81-F81</f>
+        <v>1104</v>
+      </c>
+      <c r="L81" s="2">
+        <v>3120</v>
+      </c>
+      <c r="M81" s="2">
+        <f t="shared" si="48"/>
+        <v>3120</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2">
+        <f t="shared" si="49"/>
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>114</v>
+      </c>
+      <c r="B82" s="2">
+        <v>64</v>
+      </c>
+      <c r="C82" s="2">
+        <f>129-B82</f>
+        <v>65</v>
+      </c>
+      <c r="D82" s="2">
+        <f>206-C82-B82</f>
+        <v>77</v>
+      </c>
+      <c r="E82" s="2">
+        <f t="shared" si="47"/>
+        <v>86</v>
+      </c>
+      <c r="F82" s="2">
+        <v>88</v>
+      </c>
+      <c r="G82" s="2">
+        <f>493-F82</f>
+        <v>405</v>
+      </c>
+      <c r="H82" s="2">
+        <f>537-G82-F82</f>
+        <v>44</v>
+      </c>
+      <c r="L82" s="2">
+        <v>292</v>
+      </c>
+      <c r="M82" s="2">
+        <f t="shared" si="48"/>
+        <v>292</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2">
+        <f t="shared" si="49"/>
+        <v>537</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>115</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2">
+        <f t="shared" si="47"/>
+        <v>-1349</v>
+      </c>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="L83" s="2">
+        <v>-1349</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>113</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2">
+        <f>7004-C84-B84</f>
+        <v>7004</v>
+      </c>
+      <c r="E84" s="2">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2">
+        <f>6532-G84-F84</f>
+        <v>6532</v>
+      </c>
+      <c r="L84" s="2">
+        <v>7004</v>
+      </c>
+      <c r="M84" s="2">
+        <f t="shared" si="48"/>
+        <v>7004</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2">
+        <f t="shared" si="49"/>
+        <v>6532</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>111</v>
+      </c>
+      <c r="B85" s="2">
+        <v>0</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0</v>
+      </c>
+      <c r="D85" s="2">
+        <f>0-C85-B85</f>
+        <v>0</v>
+      </c>
+      <c r="E85" s="2">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2">
+        <f>11159-F85</f>
+        <v>11159</v>
+      </c>
+      <c r="H85" s="2">
+        <f>11159-G85-F85</f>
+        <v>0</v>
+      </c>
+      <c r="L85" s="2">
+        <v>0</v>
+      </c>
+      <c r="M85" s="2">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2">
+      <c r="N85" s="2"/>
+      <c r="O85" s="2">
+        <f t="shared" si="49"/>
+        <v>11159</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>112</v>
+      </c>
+      <c r="B86" s="2">
+        <v>0</v>
+      </c>
+      <c r="C86" s="2">
+        <v>0</v>
+      </c>
+      <c r="D86" s="2">
+        <f>0-C86-B86</f>
+        <v>0</v>
+      </c>
+      <c r="E86" s="2">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2">
+        <f>-3585-F86</f>
+        <v>-3585</v>
+      </c>
+      <c r="H86" s="2">
+        <f>-3585-G86-F86</f>
+        <v>0</v>
+      </c>
+      <c r="L86" s="2">
+        <v>0</v>
+      </c>
+      <c r="M86" s="2">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2">
         <f t="shared" si="49"/>
         <v>-3585</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
         <v>55</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B87" s="2">
         <v>1663</v>
       </c>
-      <c r="C80" s="2">
-        <f>3250-B80</f>
+      <c r="C87" s="2">
+        <f>3250-B87</f>
         <v>1587</v>
       </c>
-      <c r="D80" s="2">
-        <f>-1376-C80-B80</f>
+      <c r="D87" s="2">
+        <f>-1376-C87-B87</f>
         <v>-4626</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E87" s="2">
         <f t="shared" si="47"/>
         <v>2340</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F87" s="2">
         <v>3767</v>
       </c>
-      <c r="G80" s="2">
-        <f>7319-F80</f>
+      <c r="G87" s="2">
+        <f>7319-F87</f>
         <v>3552</v>
       </c>
-      <c r="H80" s="2">
-        <f>-1255-G80-F80</f>
+      <c r="H87" s="2">
+        <f>-1255-G87-F87</f>
         <v>-8574</v>
       </c>
-      <c r="K80" s="2">
-        <f>7968-L77</f>
+      <c r="L87" s="2">
+        <f>7968-M84</f>
         <v>964</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M87" s="2">
         <f t="shared" si="48"/>
         <v>964</v>
       </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2">
+      <c r="N87" s="2"/>
+      <c r="O87" s="2">
         <f t="shared" si="49"/>
         <v>-1255</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
         <v>56</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B88" s="2">
         <v>-32307</v>
       </c>
-      <c r="C81" s="2">
-        <f>-20623-B81</f>
+      <c r="C88" s="2">
+        <f>-20623-B88</f>
         <v>11684</v>
       </c>
-      <c r="D81" s="2">
-        <f>-31947-C81-B81</f>
+      <c r="D88" s="2">
+        <f>-31947-C88-B88</f>
         <v>-11324</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E88" s="2">
         <f t="shared" si="47"/>
         <v>-16144</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F88" s="2">
         <v>20115</v>
       </c>
-      <c r="G81" s="2">
-        <f>18499-F81</f>
+      <c r="G88" s="2">
+        <f>18499-F88</f>
         <v>-1616</v>
       </c>
-      <c r="H81" s="2">
-        <f>12541-G81-F81</f>
+      <c r="H88" s="2">
+        <f>12541-G88-F88</f>
         <v>-5958</v>
       </c>
-      <c r="K81" s="2">
+      <c r="L88" s="2">
         <v>-48091</v>
       </c>
-      <c r="L81" s="2">
+      <c r="M88" s="2">
         <f t="shared" si="48"/>
         <v>-48091</v>
       </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2">
+      <c r="N88" s="2"/>
+      <c r="O88" s="2">
         <f t="shared" si="49"/>
         <v>12541</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
         <v>57</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B89" s="2">
         <v>1274</v>
       </c>
-      <c r="C82" s="2">
-        <f>7540-B82</f>
+      <c r="C89" s="2">
+        <f>7540-B89</f>
         <v>6266</v>
       </c>
-      <c r="D82" s="2">
-        <f>5774-C82-B82</f>
+      <c r="D89" s="2">
+        <f>5774-C89-B89</f>
         <v>-1766</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E89" s="2">
         <f t="shared" si="47"/>
         <v>-5159</v>
       </c>
-      <c r="F82" s="2">
+      <c r="F89" s="2">
         <v>6815</v>
       </c>
-      <c r="G82" s="2">
-        <f>9301-F82</f>
+      <c r="G89" s="2">
+        <f>9301-F89</f>
         <v>2486</v>
       </c>
-      <c r="H82" s="2">
-        <f>9124-G82-F82</f>
+      <c r="H89" s="2">
+        <f>9124-G89-F89</f>
         <v>-177</v>
       </c>
-      <c r="K82" s="2">
+      <c r="L89" s="2">
         <v>615</v>
       </c>
-      <c r="L82" s="2">
+      <c r="M89" s="2">
         <f t="shared" si="48"/>
         <v>615</v>
       </c>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2">
+      <c r="N89" s="2"/>
+      <c r="O89" s="2">
         <f t="shared" si="49"/>
         <v>9124</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
         <v>58</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B90" s="2">
         <v>-140107</v>
       </c>
-      <c r="C83" s="2">
-        <f>-263121-B83</f>
+      <c r="C90" s="2">
+        <f>-263121-B90</f>
         <v>-123014</v>
       </c>
-      <c r="D83" s="2">
-        <f>-358837-C83-B83</f>
+      <c r="D90" s="2">
+        <f>-358837-C90-B90</f>
         <v>-95716</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E90" s="2">
         <f t="shared" si="47"/>
         <v>-117552</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F90" s="2">
         <v>-137760</v>
       </c>
-      <c r="G83" s="2">
-        <f>-242113-F83</f>
+      <c r="G90" s="2">
+        <f>-242113-F90</f>
         <v>-104353</v>
       </c>
-      <c r="H83" s="2">
-        <f>-114485-G83-F83</f>
+      <c r="H90" s="2">
+        <f>-114485-G90-F90</f>
         <v>127628</v>
       </c>
-      <c r="K83" s="2">
+      <c r="L90" s="2">
         <v>-476389</v>
       </c>
-      <c r="L83" s="2">
+      <c r="M90" s="2">
         <f t="shared" si="48"/>
         <v>-476389</v>
       </c>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2">
+      <c r="N90" s="2"/>
+      <c r="O90" s="2">
         <f t="shared" si="49"/>
         <v>-114485</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
         <v>59</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B91" s="2">
         <v>86259</v>
       </c>
-      <c r="C84" s="2">
-        <f>150906-B84</f>
+      <c r="C91" s="2">
+        <f>150906-B91</f>
         <v>64647</v>
       </c>
-      <c r="D84" s="2">
-        <f>274968-C84-B84</f>
+      <c r="D91" s="2">
+        <f>274968-C91-B91</f>
         <v>124062</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E91" s="2">
         <f t="shared" si="47"/>
         <v>93143</v>
       </c>
-      <c r="F84" s="2">
+      <c r="F91" s="2">
         <v>92084</v>
       </c>
-      <c r="G84" s="2">
-        <f>206103-F84</f>
+      <c r="G91" s="2">
+        <f>206103-F91</f>
         <v>114019</v>
       </c>
-      <c r="H84" s="2">
-        <f>78714-G84-F84</f>
+      <c r="H91" s="2">
+        <f>78714-G91-F91</f>
         <v>-127389</v>
       </c>
-      <c r="K84" s="2">
+      <c r="L91" s="2">
         <v>368111</v>
       </c>
-      <c r="L84" s="2">
+      <c r="M91" s="2">
         <f t="shared" si="48"/>
         <v>368111</v>
       </c>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2">
+      <c r="N91" s="2"/>
+      <c r="O91" s="2">
         <f t="shared" si="49"/>
         <v>78714</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
         <v>60</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B92" s="2">
         <v>-23987</v>
       </c>
-      <c r="C85" s="2">
-        <f>-58482-B85</f>
+      <c r="C92" s="2">
+        <f>-58482-B92</f>
         <v>-34495</v>
       </c>
-      <c r="D85" s="2">
-        <f>-77425-C85-B85</f>
+      <c r="D92" s="2">
+        <f>-77425-C92-B92</f>
         <v>-18943</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E92" s="2">
         <f t="shared" si="47"/>
         <v>61883</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F92" s="2">
         <v>-30670</v>
       </c>
-      <c r="G85" s="2">
-        <f>-58326-F85</f>
+      <c r="G92" s="2">
+        <f>-58326-F92</f>
         <v>-27656</v>
       </c>
-      <c r="H85" s="2">
-        <f>-76838-G85-F85</f>
+      <c r="H92" s="2">
+        <f>-76838-G92-F92</f>
         <v>-18512</v>
       </c>
-      <c r="K85" s="2">
+      <c r="L92" s="2">
         <v>-15542</v>
       </c>
-      <c r="L85" s="2">
+      <c r="M92" s="2">
         <f t="shared" si="48"/>
         <v>-15542</v>
       </c>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2">
+      <c r="N92" s="2"/>
+      <c r="O92" s="2">
         <f t="shared" si="49"/>
         <v>-76838</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
         <v>61</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B93" s="2">
         <v>-4231</v>
       </c>
-      <c r="C86" s="2">
-        <f>-14166-B86</f>
+      <c r="C93" s="2">
+        <f>-14166-B93</f>
         <v>-9935</v>
       </c>
-      <c r="D86" s="2">
-        <f>-10386-C86-B86</f>
+      <c r="D93" s="2">
+        <f>-10386-C93-B93</f>
         <v>3780</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E93" s="2">
         <f t="shared" si="47"/>
         <v>-7459</v>
       </c>
-      <c r="F86" s="2">
+      <c r="F93" s="2">
         <v>-5407</v>
       </c>
-      <c r="G86" s="2">
-        <f>-22688-F86</f>
+      <c r="G93" s="2">
+        <f>-22688-F93</f>
         <v>-17281</v>
       </c>
-      <c r="H86" s="2">
-        <f>-16113-G86-F86</f>
+      <c r="H93" s="2">
+        <f>-16113-G93-F93</f>
         <v>6575</v>
       </c>
-      <c r="K86" s="2">
+      <c r="L93" s="2">
         <v>-17845</v>
       </c>
-      <c r="L86" s="2">
+      <c r="M93" s="2">
         <f t="shared" si="48"/>
         <v>-17845</v>
       </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2">
+      <c r="N93" s="2"/>
+      <c r="O93" s="2">
         <f t="shared" si="49"/>
         <v>-16113</v>
       </c>
     </row>
-    <row r="87" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="1" t="s">
+    <row r="94" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B87" s="3">
-        <f>SUM(B70:B86)</f>
+      <c r="B94" s="3">
+        <f>SUM(B77:B93)</f>
         <v>-77704</v>
       </c>
-      <c r="C87" s="3">
-        <f t="shared" ref="C87:K87" si="50">SUM(C70:C86)</f>
+      <c r="C94" s="3">
+        <f t="shared" ref="C94:L94" si="50">SUM(C77:C93)</f>
         <v>-44991</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D94" s="3">
         <f t="shared" si="50"/>
         <v>40634</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E94" s="3">
         <f t="shared" si="50"/>
         <v>49781</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F94" s="3">
         <f t="shared" si="50"/>
         <v>-32354</v>
       </c>
-      <c r="G87" s="3">
+      <c r="G94" s="3">
         <f t="shared" si="50"/>
         <v>-15013</v>
       </c>
-      <c r="H87" s="3">
+      <c r="H94" s="3">
         <f t="shared" si="50"/>
         <v>-8828</v>
       </c>
-      <c r="I87" s="3">
+      <c r="I94" s="3">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="K87" s="3">
+      <c r="J94" s="3"/>
+      <c r="L94" s="3">
         <f t="shared" si="50"/>
         <v>-32280</v>
       </c>
-      <c r="L87" s="3">
+      <c r="M94" s="3">
         <f t="shared" si="48"/>
         <v>-32280</v>
       </c>
-      <c r="M87" s="3"/>
-      <c r="N87" s="3">
+      <c r="N94" s="3"/>
+      <c r="O94" s="3">
         <f t="shared" si="49"/>
         <v>-56195</v>
       </c>
     </row>
-    <row r="88" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="L88" s="3"/>
-      <c r="M88" s="3"/>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="1" t="str">
-        <f>B68</f>
+    <row r="95" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="1" t="str">
+        <f>B75</f>
         <v>Q123</v>
       </c>
-      <c r="C89" s="1" t="str">
-        <f t="shared" ref="C89:N89" si="51">C68</f>
+      <c r="C96" s="1" t="str">
+        <f t="shared" ref="C96:O96" si="51">C75</f>
         <v>Q223</v>
       </c>
-      <c r="D89" s="1" t="str">
+      <c r="D96" s="1" t="str">
         <f t="shared" si="51"/>
         <v>Q323</v>
       </c>
-      <c r="E89" s="1" t="str">
+      <c r="E96" s="1" t="str">
         <f t="shared" si="51"/>
         <v>Q423</v>
       </c>
-      <c r="F89" s="1" t="str">
+      <c r="F96" s="1" t="str">
         <f t="shared" si="51"/>
         <v>Q124</v>
       </c>
-      <c r="G89" s="1" t="str">
+      <c r="G96" s="1" t="str">
         <f t="shared" si="51"/>
         <v>Q224</v>
       </c>
-      <c r="H89" s="1" t="str">
+      <c r="H96" s="1" t="str">
         <f t="shared" si="51"/>
         <v>Q324</v>
       </c>
-      <c r="I89" s="1" t="str">
+      <c r="I96" s="1" t="str">
         <f t="shared" si="51"/>
         <v>Q424</v>
       </c>
-      <c r="L89" s="1">
+      <c r="M96" s="1">
         <f t="shared" si="51"/>
         <v>2023</v>
       </c>
-      <c r="N89" s="1">
+      <c r="O96" s="1">
         <f t="shared" si="51"/>
         <v>2024</v>
       </c>
     </row>
-    <row r="90" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="1" t="s">
+    <row r="97" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="L90" s="3"/>
-      <c r="M90" s="3"/>
-      <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
         <v>69</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B98" s="2">
         <v>38357</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C98" s="2">
         <v>52765</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D98" s="2">
         <v>69981</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E98" s="2">
         <v>38066</v>
       </c>
-      <c r="F91" s="2">
+      <c r="F98" s="2">
         <v>35684</v>
       </c>
-      <c r="G91" s="2">
+      <c r="G98" s="2">
         <v>31219</v>
       </c>
-      <c r="H91" s="2">
+      <c r="H98" s="2">
         <v>23420</v>
       </c>
-      <c r="I91" s="2"/>
-      <c r="L91" s="2">
-        <f>E91</f>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="M98" s="2">
+        <f>E98</f>
         <v>38066</v>
       </c>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2">
+      <c r="N98" s="2"/>
+      <c r="O98" s="2">
         <f t="shared" si="49"/>
         <v>90323</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
         <v>70</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B99" s="2">
         <v>131284</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C99" s="2">
         <v>119753</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D99" s="2">
         <v>129399</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E99" s="2">
         <v>153657</v>
       </c>
-      <c r="F92" s="2">
+      <c r="F99" s="2">
         <v>134142</v>
       </c>
-      <c r="G92" s="2">
+      <c r="G99" s="2">
         <v>131776</v>
       </c>
-      <c r="H92" s="2">
+      <c r="H99" s="2">
         <v>140295</v>
       </c>
-      <c r="I92" s="2"/>
-      <c r="L92" s="2">
-        <f t="shared" ref="L92:L94" si="52">E92</f>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="M99" s="2">
+        <f t="shared" ref="M99:M101" si="52">E99</f>
         <v>153657</v>
       </c>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2">
+      <c r="N99" s="2"/>
+      <c r="O99" s="2">
         <f t="shared" si="49"/>
         <v>406213</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
         <v>71</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B100" s="2">
         <v>854154</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C100" s="2">
         <v>979427</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D100" s="2">
         <v>1071088</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E100" s="2">
         <v>1303030</v>
       </c>
-      <c r="F93" s="2">
+      <c r="F100" s="2">
         <v>1429762</v>
       </c>
-      <c r="G93" s="2">
+      <c r="G100" s="2">
         <v>1527758</v>
       </c>
-      <c r="H93" s="2">
+      <c r="H100" s="2">
         <v>1413088</v>
       </c>
-      <c r="I93" s="2"/>
-      <c r="L93" s="2">
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="M100" s="2">
         <f t="shared" si="52"/>
         <v>1303030</v>
       </c>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2">
+      <c r="N100" s="2"/>
+      <c r="O100" s="2">
         <f t="shared" si="49"/>
         <v>4370608</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
         <v>72</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B101" s="2">
         <v>19792</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C101" s="2">
         <v>13543</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D101" s="2">
         <v>15080</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E101" s="2">
         <v>24262</v>
       </c>
-      <c r="F94" s="2">
+      <c r="F101" s="2">
         <v>15301</v>
       </c>
-      <c r="G94" s="2">
+      <c r="G101" s="2">
         <v>18347</v>
       </c>
-      <c r="H94" s="2">
+      <c r="H101" s="2">
         <v>19896</v>
       </c>
-      <c r="I94" s="2"/>
-      <c r="L94" s="2">
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="M101" s="2">
         <f t="shared" si="52"/>
         <v>24262</v>
       </c>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2">
+      <c r="N101" s="2"/>
+      <c r="O101" s="2">
         <f t="shared" si="49"/>
         <v>53544</v>
       </c>
     </row>
-    <row r="95" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
+    <row r="102" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B95" s="3">
-        <f>SUM(B91:B94)</f>
+      <c r="B102" s="3">
+        <f>SUM(B98:B101)</f>
         <v>1043587</v>
       </c>
-      <c r="C95" s="3">
-        <f t="shared" ref="C95:I95" si="53">SUM(C91:C94)</f>
+      <c r="C102" s="3">
+        <f t="shared" ref="C102:I102" si="53">SUM(C98:C101)</f>
         <v>1165488</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D102" s="3">
         <f t="shared" si="53"/>
         <v>1285548</v>
       </c>
-      <c r="E95" s="3">
-        <f>SUM(E91:E94)</f>
+      <c r="E102" s="3">
+        <f>SUM(E98:E101)</f>
         <v>1519015</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F102" s="3">
         <f t="shared" si="53"/>
         <v>1614889</v>
       </c>
-      <c r="G95" s="3">
+      <c r="G102" s="3">
         <f t="shared" si="53"/>
         <v>1709100</v>
       </c>
-      <c r="H95" s="3">
+      <c r="H102" s="3">
         <f t="shared" si="53"/>
         <v>1596699</v>
       </c>
-      <c r="I95" s="3">
+      <c r="I102" s="3">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
-      <c r="L95" s="3">
-        <f t="shared" ref="L95" si="54">SUM(L91:L94)</f>
+      <c r="J102" s="3"/>
+      <c r="M102" s="3">
+        <f t="shared" ref="M102" si="54">SUM(M98:M101)</f>
         <v>1519015</v>
       </c>
-      <c r="M95" s="3"/>
-      <c r="N95" s="3">
+      <c r="N102" s="3"/>
+      <c r="O102" s="3">
         <f t="shared" si="49"/>
         <v>4920688</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
         <v>77</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B103" s="2">
         <v>233830</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C103" s="2">
         <v>252187</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D103" s="2">
         <v>267155</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E103" s="2">
         <v>298774</v>
       </c>
-      <c r="F96" s="2">
+      <c r="F103" s="2">
         <v>304472</v>
       </c>
-      <c r="G96" s="2">
+      <c r="G103" s="2">
         <v>357346</v>
       </c>
-      <c r="H96" s="2">
+      <c r="H103" s="2">
         <v>357056</v>
       </c>
-      <c r="I96" s="2"/>
-      <c r="L96" s="2">
-        <f t="shared" ref="L96:L101" si="55">E96</f>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="M103" s="2">
+        <f t="shared" ref="M103:M108" si="55">E103</f>
         <v>298774</v>
       </c>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2">
+      <c r="N103" s="2"/>
+      <c r="O103" s="2">
         <f t="shared" si="49"/>
         <v>1018874</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
         <v>78</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B104" s="2">
         <v>47684</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C104" s="2">
         <v>44241</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D104" s="2">
         <v>40835</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E104" s="2">
         <v>54699</v>
       </c>
-      <c r="F97" s="2">
+      <c r="F104" s="2">
         <v>51858</v>
       </c>
-      <c r="G97" s="2">
+      <c r="G104" s="2">
         <v>37643</v>
       </c>
-      <c r="H97" s="2">
+      <c r="H104" s="2">
         <v>37520</v>
       </c>
-      <c r="I97" s="2"/>
-      <c r="L97" s="2">
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="M104" s="2">
         <f t="shared" si="55"/>
         <v>54699</v>
       </c>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2">
+      <c r="N104" s="2"/>
+      <c r="O104" s="2">
         <f t="shared" si="49"/>
         <v>127021</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
         <v>53</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B105" s="2">
         <v>2169</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C105" s="2">
         <v>3769</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D105" s="2">
         <v>4969</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E105" s="2">
         <v>529</v>
       </c>
-      <c r="F98" s="2">
+      <c r="F105" s="2">
         <v>517</v>
       </c>
-      <c r="G98" s="2">
+      <c r="G105" s="2">
         <v>512</v>
       </c>
-      <c r="H98" s="2">
+      <c r="H105" s="2">
         <v>535</v>
       </c>
-      <c r="I98" s="2"/>
-      <c r="L98" s="2">
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="M105" s="2">
         <f t="shared" si="55"/>
         <v>529</v>
       </c>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2">
+      <c r="N105" s="2"/>
+      <c r="O105" s="2">
         <f t="shared" si="49"/>
         <v>1564</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
         <v>79</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B106" s="2">
         <v>30691</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C106" s="2">
         <v>31157</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D106" s="2">
         <v>31144</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E106" s="2">
         <v>64105</v>
       </c>
-      <c r="F99" s="2">
+      <c r="F106" s="2">
         <v>62979</v>
       </c>
-      <c r="G99" s="2">
+      <c r="G106" s="2">
         <v>62929</v>
       </c>
-      <c r="H99" s="2">
+      <c r="H106" s="2">
         <v>63865</v>
       </c>
-      <c r="I99" s="2"/>
-      <c r="L99" s="2">
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="M106" s="2">
         <f t="shared" si="55"/>
         <v>64105</v>
       </c>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2">
+      <c r="N106" s="2"/>
+      <c r="O106" s="2">
         <f t="shared" si="49"/>
         <v>189773</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
         <v>80</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B107" s="2">
         <v>18330</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C107" s="2">
         <v>18354</v>
       </c>
-      <c r="D100" s="2">
+      <c r="D107" s="2">
         <v>18266</v>
       </c>
-      <c r="E100" s="2">
+      <c r="E107" s="2">
         <v>53356</v>
       </c>
-      <c r="F100" s="2">
+      <c r="F107" s="2">
         <v>51301</v>
       </c>
-      <c r="G100" s="2">
+      <c r="G107" s="2">
         <v>51367</v>
       </c>
-      <c r="H100" s="2">
+      <c r="H107" s="2">
         <v>52074</v>
       </c>
-      <c r="I100" s="2"/>
-      <c r="L100" s="2">
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="M107" s="2">
         <f t="shared" si="55"/>
         <v>53356</v>
       </c>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2">
+      <c r="N107" s="2"/>
+      <c r="O107" s="2">
         <f t="shared" si="49"/>
         <v>154742</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
         <v>55</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B108" s="2">
         <v>1814</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C108" s="2">
         <v>1820</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D108" s="2">
         <v>1821</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E108" s="2">
         <v>1783</v>
       </c>
-      <c r="F101" s="2">
+      <c r="F108" s="2">
         <v>1651</v>
       </c>
-      <c r="G101" s="2">
+      <c r="G108" s="2">
         <v>1652</v>
       </c>
-      <c r="H101" s="2">
+      <c r="H108" s="2">
         <v>1654</v>
       </c>
-      <c r="I101" s="2"/>
-      <c r="L101" s="2">
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="M108" s="2">
         <f t="shared" si="55"/>
         <v>1783</v>
       </c>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2">
+      <c r="N108" s="2"/>
+      <c r="O108" s="2">
         <f t="shared" si="49"/>
         <v>4957</v>
       </c>
     </row>
-    <row r="102" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="1" t="s">
+    <row r="109" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B102" s="3">
-        <f>SUM(B96:B101)</f>
+      <c r="B109" s="3">
+        <f>SUM(B103:B108)</f>
         <v>334518</v>
       </c>
-      <c r="C102" s="3">
-        <f t="shared" ref="C102:F102" si="56">SUM(C96:C101)</f>
+      <c r="C109" s="3">
+        <f t="shared" ref="C109:F109" si="56">SUM(C103:C108)</f>
         <v>351528</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D109" s="3">
         <f t="shared" si="56"/>
         <v>364190</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E109" s="3">
         <f t="shared" si="56"/>
         <v>473246</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F109" s="3">
         <f t="shared" si="56"/>
         <v>472778</v>
       </c>
-      <c r="G102" s="3">
-        <f t="shared" ref="G102:I102" si="57">SUM(G96:G101)</f>
+      <c r="G109" s="3">
+        <f t="shared" ref="G109:I109" si="57">SUM(G103:G108)</f>
         <v>511449</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H109" s="3">
         <f t="shared" si="57"/>
         <v>512704</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I109" s="3">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="L102" s="3">
-        <f t="shared" ref="L102" si="58">SUM(L96:L101)</f>
+      <c r="J109" s="3"/>
+      <c r="M109" s="3">
+        <f t="shared" ref="M109" si="58">SUM(M103:M108)</f>
         <v>473246</v>
       </c>
-      <c r="M102" s="3"/>
-      <c r="N102" s="3">
+      <c r="N109" s="3"/>
+      <c r="O109" s="3">
         <f t="shared" si="49"/>
         <v>1496931</v>
       </c>
     </row>
-    <row r="103" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="1" t="s">
+    <row r="110" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B103" s="3">
-        <f>B95+B102</f>
+      <c r="B110" s="3">
+        <f>B102+B109</f>
         <v>1378105</v>
       </c>
-      <c r="C103" s="3">
-        <f t="shared" ref="C103:E103" si="59">C95+C102</f>
+      <c r="C110" s="3">
+        <f t="shared" ref="C110:E110" si="59">C102+C109</f>
         <v>1517016</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D110" s="3">
         <f t="shared" si="59"/>
         <v>1649738</v>
       </c>
-      <c r="E103" s="3">
+      <c r="E110" s="3">
         <f t="shared" si="59"/>
         <v>1992261</v>
       </c>
-      <c r="F103" s="3">
-        <f>F95+F102</f>
+      <c r="F110" s="3">
+        <f>F102+F109</f>
         <v>2087667</v>
       </c>
-      <c r="G103" s="3">
-        <f t="shared" ref="G103:I103" si="60">G95+G102</f>
+      <c r="G110" s="3">
+        <f t="shared" ref="G110:I110" si="60">G102+G109</f>
         <v>2220549</v>
       </c>
-      <c r="H103" s="3">
+      <c r="H110" s="3">
         <f t="shared" si="60"/>
         <v>2109403</v>
       </c>
-      <c r="I103" s="3">
+      <c r="I110" s="3">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="L103" s="3">
-        <f t="shared" ref="L103" si="61">L95+L102</f>
+      <c r="J110" s="3"/>
+      <c r="M110" s="3">
+        <f t="shared" ref="M110" si="61">M102+M109</f>
         <v>1992261</v>
       </c>
-      <c r="M103" s="3"/>
-      <c r="N103" s="3">
+      <c r="N110" s="3"/>
+      <c r="O110" s="3">
         <f t="shared" si="49"/>
         <v>6417619</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
         <v>86</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B111" s="2">
         <v>43195</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C111" s="2">
         <v>41254</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D111" s="2">
         <v>38016</v>
       </c>
-      <c r="E104" s="2">
+      <c r="E111" s="2">
         <v>43846</v>
       </c>
-      <c r="F104" s="2">
+      <c r="F111" s="2">
         <v>47629</v>
       </c>
-      <c r="G104" s="2">
+      <c r="G111" s="2">
         <v>40434</v>
       </c>
-      <c r="H104" s="2">
+      <c r="H111" s="2">
         <v>44689</v>
       </c>
-      <c r="I104" s="2"/>
-      <c r="L104" s="2">
-        <f t="shared" ref="L104:L110" si="62">E104</f>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="M111" s="2">
+        <f t="shared" ref="M111:M117" si="62">E111</f>
         <v>43846</v>
       </c>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2">
+      <c r="N111" s="2"/>
+      <c r="O111" s="2">
         <f t="shared" si="49"/>
         <v>132752</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
         <v>87</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B112" s="2">
         <v>442950</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C112" s="2">
         <v>595728</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D112" s="2">
         <v>705610</v>
       </c>
-      <c r="E105" s="2">
+      <c r="E112" s="2">
         <v>893846</v>
       </c>
-      <c r="F105" s="2">
+      <c r="F112" s="2">
         <v>1024999</v>
       </c>
-      <c r="G105" s="2">
+      <c r="G112" s="2">
         <v>1168440</v>
       </c>
-      <c r="H105" s="2">
+      <c r="H112" s="2">
         <v>1048221</v>
       </c>
-      <c r="I105" s="2"/>
-      <c r="L105" s="2">
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="M112" s="2">
         <f t="shared" si="62"/>
         <v>893846</v>
       </c>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2">
+      <c r="N112" s="2"/>
+      <c r="O112" s="2">
         <f t="shared" si="49"/>
         <v>3241660</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
         <v>88</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B113" s="2">
         <v>7481</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C113" s="2">
         <v>11174</v>
       </c>
-      <c r="D106" s="2">
+      <c r="D113" s="2">
         <v>11586</v>
       </c>
-      <c r="E106" s="2">
+      <c r="E113" s="2">
         <v>13706</v>
       </c>
-      <c r="F106" s="2">
+      <c r="F113" s="2">
         <v>13890</v>
       </c>
-      <c r="G106" s="2">
+      <c r="G113" s="2">
         <v>9940</v>
       </c>
-      <c r="H106" s="2">
+      <c r="H113" s="2">
         <v>9500</v>
       </c>
-      <c r="I106" s="2"/>
-      <c r="L106" s="2">
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="M113" s="2">
         <f t="shared" si="62"/>
         <v>13706</v>
       </c>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2">
+      <c r="N113" s="2"/>
+      <c r="O113" s="2">
         <f t="shared" si="49"/>
         <v>33330</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
         <v>89</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B114" s="2">
         <v>9888</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C114" s="2">
         <v>9533</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D114" s="2">
         <v>9395</v>
       </c>
-      <c r="E107" s="2">
+      <c r="E114" s="2">
         <v>10751</v>
       </c>
-      <c r="F107" s="2">
+      <c r="F114" s="2">
         <v>10918</v>
       </c>
-      <c r="G107" s="2">
+      <c r="G114" s="2">
         <v>7912</v>
       </c>
-      <c r="H107" s="2">
+      <c r="H114" s="2">
         <v>8178</v>
       </c>
-      <c r="I107" s="2"/>
-      <c r="L107" s="2">
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="M114" s="2">
         <f t="shared" si="62"/>
         <v>10751</v>
       </c>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2">
+      <c r="N114" s="2"/>
+      <c r="O114" s="2">
         <f t="shared" si="49"/>
         <v>27008</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
         <v>90</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B115" s="2">
         <v>97532</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C115" s="2">
         <v>63083</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D115" s="2">
         <v>43964</v>
       </c>
-      <c r="E108" s="2">
+      <c r="E115" s="2">
         <v>115852</v>
       </c>
-      <c r="F108" s="2">
+      <c r="F115" s="2">
         <v>84900</v>
       </c>
-      <c r="G108" s="2">
+      <c r="G115" s="2">
         <v>57802</v>
       </c>
-      <c r="H108" s="2">
+      <c r="H115" s="2">
         <v>41979</v>
       </c>
-      <c r="I108" s="2"/>
-      <c r="L108" s="2">
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="M115" s="2">
         <f t="shared" si="62"/>
         <v>115852</v>
       </c>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2">
+      <c r="N115" s="2"/>
+      <c r="O115" s="2">
         <f t="shared" si="49"/>
         <v>184681</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
         <v>91</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B116" s="2">
         <v>48042</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C116" s="2">
         <v>49360</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D116" s="2">
         <v>71211</v>
       </c>
-      <c r="E109" s="2">
+      <c r="E116" s="2">
         <v>74400</v>
       </c>
-      <c r="F109" s="2">
+      <c r="F116" s="2">
         <v>65402</v>
       </c>
-      <c r="G109" s="2">
+      <c r="G116" s="2">
         <v>58892</v>
       </c>
-      <c r="H109" s="2">
+      <c r="H116" s="2">
         <v>59460</v>
       </c>
-      <c r="I109" s="2"/>
-      <c r="L109" s="2">
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="M116" s="2">
         <f t="shared" si="62"/>
         <v>74400</v>
       </c>
-      <c r="M109" s="2"/>
-      <c r="N109" s="2">
+      <c r="N116" s="2"/>
+      <c r="O116" s="2">
         <f t="shared" si="49"/>
         <v>183754</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
         <v>116</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B117" s="2">
         <v>11151</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C117" s="2">
         <v>7870</v>
       </c>
-      <c r="D110" s="2">
+      <c r="D117" s="2">
         <v>5622</v>
       </c>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="2"/>
-      <c r="L110" s="2">
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="M117" s="2">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
-    </row>
-    <row r="111" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="1" t="s">
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+    </row>
+    <row r="118" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B111" s="3">
-        <f t="shared" ref="B111:I111" si="63">SUM(B104:B110)</f>
+      <c r="B118" s="3">
+        <f t="shared" ref="B118:I118" si="63">SUM(B111:B117)</f>
         <v>660239</v>
       </c>
-      <c r="C111" s="3">
+      <c r="C118" s="3">
         <f t="shared" si="63"/>
         <v>778002</v>
       </c>
-      <c r="D111" s="3">
+      <c r="D118" s="3">
         <f t="shared" si="63"/>
         <v>885404</v>
       </c>
-      <c r="E111" s="3">
+      <c r="E118" s="3">
         <f t="shared" si="63"/>
         <v>1152401</v>
       </c>
-      <c r="F111" s="3">
+      <c r="F118" s="3">
         <f t="shared" si="63"/>
         <v>1247738</v>
       </c>
-      <c r="G111" s="3">
+      <c r="G118" s="3">
         <f t="shared" si="63"/>
         <v>1343420</v>
       </c>
-      <c r="H111" s="3">
+      <c r="H118" s="3">
         <f t="shared" si="63"/>
         <v>1212027</v>
       </c>
-      <c r="I111" s="3">
+      <c r="I118" s="3">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
-      <c r="L111" s="3">
-        <f>SUM(L104:L110)</f>
+      <c r="J118" s="3"/>
+      <c r="M118" s="3">
+        <f>SUM(M111:M117)</f>
         <v>1152401</v>
       </c>
-      <c r="M111" s="3"/>
-      <c r="N111" s="3">
-        <f>SUM(N104:N110)</f>
+      <c r="N118" s="3"/>
+      <c r="O118" s="3">
+        <f>SUM(O111:O117)</f>
         <v>3803185</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
         <v>93</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B119" s="2">
         <v>93445</v>
       </c>
-      <c r="C112" s="2">
+      <c r="C119" s="2">
         <v>87052</v>
       </c>
-      <c r="D112" s="2">
+      <c r="D119" s="2">
         <v>87591</v>
       </c>
-      <c r="E112" s="2">
+      <c r="E119" s="2">
         <v>106407</v>
       </c>
-      <c r="F112" s="2">
+      <c r="F119" s="2">
         <v>105440</v>
       </c>
-      <c r="G112" s="2">
+      <c r="G119" s="2">
         <v>116666</v>
       </c>
-      <c r="H112" s="2">
+      <c r="H119" s="2">
         <v>131134</v>
       </c>
-      <c r="I112" s="2"/>
-      <c r="L112" s="2">
-        <f t="shared" ref="L112:L115" si="64">E112</f>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="M119" s="2">
+        <f t="shared" ref="M119:M122" si="64">E119</f>
         <v>106407</v>
       </c>
-      <c r="M112" s="2"/>
-      <c r="N112" s="2">
+      <c r="N119" s="2"/>
+      <c r="O119" s="2">
         <f t="shared" si="49"/>
         <v>353240</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
         <v>94</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B120" s="2">
         <v>45770</v>
       </c>
-      <c r="C113" s="2">
+      <c r="C120" s="2">
         <v>42168</v>
       </c>
-      <c r="D113" s="2">
+      <c r="D120" s="2">
         <v>38688</v>
       </c>
-      <c r="E113" s="2">
+      <c r="E120" s="2">
         <v>50964</v>
       </c>
-      <c r="F113" s="2">
+      <c r="F120" s="2">
         <v>47693</v>
       </c>
-      <c r="G113" s="2">
+      <c r="G120" s="2">
         <v>35415</v>
       </c>
-      <c r="H113" s="2">
+      <c r="H120" s="2">
         <v>34814</v>
       </c>
-      <c r="I113" s="2"/>
-      <c r="L113" s="2">
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="M120" s="2">
         <f t="shared" si="64"/>
         <v>50964</v>
       </c>
-      <c r="M113" s="2"/>
-      <c r="N113" s="2">
+      <c r="N120" s="2"/>
+      <c r="O120" s="2">
         <f t="shared" si="49"/>
         <v>117922</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
         <v>53</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B121" s="2">
         <v>9567</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C121" s="2">
         <v>9569</v>
       </c>
-      <c r="D114" s="2">
+      <c r="D121" s="2">
         <v>9561</v>
       </c>
-      <c r="E114" s="2">
+      <c r="E121" s="2">
         <v>22607</v>
       </c>
-      <c r="F114" s="2">
+      <c r="F121" s="2">
         <v>21740</v>
       </c>
-      <c r="G114" s="2">
+      <c r="G121" s="2">
         <v>21662</v>
       </c>
-      <c r="H114" s="2">
+      <c r="H121" s="2">
         <v>19701</v>
       </c>
-      <c r="I114" s="2"/>
-      <c r="L114" s="2">
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+      <c r="M121" s="2">
         <f t="shared" si="64"/>
         <v>22607</v>
       </c>
-      <c r="M114" s="2"/>
-      <c r="N114" s="2">
+      <c r="N121" s="2"/>
+      <c r="O121" s="2">
         <f t="shared" si="49"/>
         <v>63103</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
         <v>95</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B122" s="2">
         <v>5051</v>
       </c>
-      <c r="C115" s="2">
+      <c r="C122" s="2">
         <v>3543</v>
       </c>
-      <c r="D115" s="2">
+      <c r="D122" s="2">
         <v>2661</v>
       </c>
-      <c r="E115" s="2">
+      <c r="E122" s="2">
         <v>2240</v>
       </c>
-      <c r="F115" s="2">
+      <c r="F122" s="2">
         <v>2455</v>
       </c>
-      <c r="G115" s="2">
+      <c r="G122" s="2">
         <v>43820</v>
       </c>
-      <c r="H115" s="2">
+      <c r="H122" s="2">
         <v>43527</v>
       </c>
-      <c r="I115" s="2"/>
-      <c r="L115" s="2">
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
+      <c r="M122" s="2">
         <f t="shared" si="64"/>
         <v>2240</v>
       </c>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2">
+      <c r="N122" s="2"/>
+      <c r="O122" s="2">
         <f t="shared" si="49"/>
         <v>89802</v>
       </c>
     </row>
-    <row r="116" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="1" t="s">
+    <row r="123" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B116" s="3">
-        <f>SUM(B112:B115)</f>
+      <c r="B123" s="3">
+        <f>SUM(B119:B122)</f>
         <v>153833</v>
       </c>
-      <c r="C116" s="3">
-        <f t="shared" ref="C116:F116" si="65">SUM(C112:C115)</f>
+      <c r="C123" s="3">
+        <f t="shared" ref="C123:F123" si="65">SUM(C119:C122)</f>
         <v>142332</v>
       </c>
-      <c r="D116" s="3">
+      <c r="D123" s="3">
         <f t="shared" si="65"/>
         <v>138501</v>
       </c>
-      <c r="E116" s="3">
+      <c r="E123" s="3">
         <f t="shared" si="65"/>
         <v>182218</v>
       </c>
-      <c r="F116" s="3">
+      <c r="F123" s="3">
         <f t="shared" si="65"/>
         <v>177328</v>
       </c>
-      <c r="G116" s="3">
-        <f t="shared" ref="G116:I116" si="66">SUM(G112:G115)</f>
+      <c r="G123" s="3">
+        <f t="shared" ref="G123:I123" si="66">SUM(G119:G122)</f>
         <v>217563</v>
       </c>
-      <c r="H116" s="3">
+      <c r="H123" s="3">
         <f t="shared" si="66"/>
         <v>229176</v>
       </c>
-      <c r="I116" s="3">
+      <c r="I123" s="3">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="L116" s="3">
-        <f t="shared" ref="L116" si="67">SUM(L112:L115)</f>
+      <c r="J123" s="3"/>
+      <c r="M123" s="3">
+        <f t="shared" ref="M123" si="67">SUM(M119:M122)</f>
         <v>182218</v>
       </c>
-      <c r="M116" s="3"/>
-      <c r="N116" s="3">
+      <c r="N123" s="3"/>
+      <c r="O123" s="3">
         <f t="shared" si="49"/>
         <v>624067</v>
       </c>
     </row>
-    <row r="117" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="1" t="s">
+    <row r="124" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B117" s="3">
-        <f>B116+B111</f>
+      <c r="B124" s="3">
+        <f>B123+B118</f>
         <v>814072</v>
       </c>
-      <c r="C117" s="3">
-        <f t="shared" ref="C117:F117" si="68">C116+C111</f>
+      <c r="C124" s="3">
+        <f t="shared" ref="C124:F124" si="68">C123+C118</f>
         <v>920334</v>
       </c>
-      <c r="D117" s="3">
+      <c r="D124" s="3">
         <f t="shared" si="68"/>
         <v>1023905</v>
       </c>
-      <c r="E117" s="3">
+      <c r="E124" s="3">
         <f t="shared" si="68"/>
         <v>1334619</v>
       </c>
-      <c r="F117" s="3">
+      <c r="F124" s="3">
         <f t="shared" si="68"/>
         <v>1425066</v>
       </c>
-      <c r="G117" s="3">
-        <f t="shared" ref="G117:I117" si="69">G116+G111</f>
+      <c r="G124" s="3">
+        <f t="shared" ref="G124:I124" si="69">G123+G118</f>
         <v>1560983</v>
       </c>
-      <c r="H117" s="3">
+      <c r="H124" s="3">
         <f t="shared" si="69"/>
         <v>1441203</v>
       </c>
-      <c r="I117" s="3">
+      <c r="I124" s="3">
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="L117" s="3">
-        <f t="shared" ref="L117" si="70">L116+L111</f>
+      <c r="J124" s="3"/>
+      <c r="M124" s="3">
+        <f t="shared" ref="M124" si="70">M123+M118</f>
         <v>1334619</v>
       </c>
-      <c r="M117" s="3"/>
-      <c r="N117" s="3">
+      <c r="N124" s="3"/>
+      <c r="O124" s="3">
         <f t="shared" si="49"/>
         <v>4427252</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
         <v>98</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B125" s="2">
         <v>256207</v>
       </c>
-      <c r="C118" s="2">
+      <c r="C125" s="2">
         <v>256984</v>
       </c>
-      <c r="D118" s="2">
+      <c r="D125" s="2">
         <v>257881</v>
       </c>
-      <c r="E118" s="2">
+      <c r="E125" s="2">
         <v>258657</v>
       </c>
-      <c r="F118" s="2">
+      <c r="F125" s="2">
         <v>258700</v>
       </c>
-      <c r="G118" s="2">
+      <c r="G125" s="2">
         <v>259911</v>
       </c>
-      <c r="H118" s="2">
+      <c r="H125" s="2">
         <v>261011</v>
       </c>
-      <c r="I118" s="2"/>
-      <c r="L118" s="2">
-        <f t="shared" ref="L118:L120" si="71">E118</f>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="M125" s="2">
+        <f t="shared" ref="M125:M127" si="71">E125</f>
         <v>258657</v>
       </c>
-      <c r="M118" s="2"/>
-      <c r="N118" s="2">
+      <c r="N125" s="2"/>
+      <c r="O125" s="2">
         <f t="shared" si="49"/>
         <v>779622</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
         <v>99</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B126" s="2">
         <v>311749</v>
       </c>
-      <c r="C119" s="2">
+      <c r="C126" s="2">
         <v>343070</v>
       </c>
-      <c r="D119" s="2">
+      <c r="D126" s="2">
         <v>373263</v>
       </c>
-      <c r="E119" s="2">
+      <c r="E126" s="2">
         <v>397225</v>
       </c>
-      <c r="F119" s="2">
+      <c r="F126" s="2">
         <v>406666</v>
       </c>
-      <c r="G119" s="2">
+      <c r="G126" s="2">
         <v>402362</v>
       </c>
-      <c r="H119" s="2">
+      <c r="H126" s="2">
         <v>404075</v>
       </c>
-      <c r="I119" s="2"/>
-      <c r="L119" s="2">
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="M126" s="2">
         <f t="shared" si="71"/>
         <v>397225</v>
       </c>
-      <c r="M119" s="2"/>
-      <c r="N119" s="2">
+      <c r="N126" s="2"/>
+      <c r="O126" s="2">
         <f t="shared" si="49"/>
         <v>1213103</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
         <v>100</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B127" s="2">
         <v>-3923</v>
       </c>
-      <c r="C120" s="2">
+      <c r="C127" s="2">
         <v>-3373</v>
       </c>
-      <c r="D120" s="2">
+      <c r="D127" s="2">
         <v>-5311</v>
       </c>
-      <c r="E120" s="2">
+      <c r="E127" s="2">
         <v>1760</v>
       </c>
-      <c r="F120" s="2">
+      <c r="F127" s="2">
         <v>-2765</v>
       </c>
-      <c r="G120" s="2">
+      <c r="G127" s="2">
         <v>-2707</v>
       </c>
-      <c r="H120" s="2">
+      <c r="H127" s="2">
         <v>3114</v>
       </c>
-      <c r="I120" s="2"/>
-      <c r="L120" s="2">
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="M127" s="2">
         <f t="shared" si="71"/>
         <v>1760</v>
       </c>
-      <c r="M120" s="2"/>
-      <c r="N120" s="2">
+      <c r="N127" s="2"/>
+      <c r="O127" s="2">
         <f t="shared" si="49"/>
         <v>-2358</v>
       </c>
     </row>
-    <row r="121" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="1" t="s">
+    <row r="128" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B121" s="3">
-        <f>SUM(B118:B120)</f>
+      <c r="B128" s="3">
+        <f>SUM(B125:B127)</f>
         <v>564033</v>
       </c>
-      <c r="C121" s="3">
-        <f t="shared" ref="C121:F121" si="72">SUM(C118:C120)</f>
+      <c r="C128" s="3">
+        <f t="shared" ref="C128:F128" si="72">SUM(C125:C127)</f>
         <v>596681</v>
       </c>
-      <c r="D121" s="3">
+      <c r="D128" s="3">
         <f t="shared" si="72"/>
         <v>625833</v>
       </c>
-      <c r="E121" s="3">
+      <c r="E128" s="3">
         <f t="shared" si="72"/>
         <v>657642</v>
       </c>
-      <c r="F121" s="3">
+      <c r="F128" s="3">
         <f t="shared" si="72"/>
         <v>662601</v>
       </c>
-      <c r="G121" s="3">
-        <f t="shared" ref="G121:I121" si="73">SUM(G118:G120)</f>
+      <c r="G128" s="3">
+        <f t="shared" ref="G128:I128" si="73">SUM(G125:G127)</f>
         <v>659566</v>
       </c>
-      <c r="H121" s="3">
+      <c r="H128" s="3">
         <f t="shared" si="73"/>
         <v>668200</v>
       </c>
-      <c r="I121" s="3">
+      <c r="I128" s="3">
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="L121" s="3">
+      <c r="J128" s="3"/>
+      <c r="M128" s="3">
         <f t="shared" si="48"/>
         <v>2444189</v>
       </c>
-      <c r="M121" s="3"/>
-      <c r="N121" s="3">
+      <c r="N128" s="3"/>
+      <c r="O128" s="3">
         <f t="shared" si="49"/>
         <v>1990367</v>
       </c>
     </row>
-    <row r="122" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="1" t="s">
+    <row r="129" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B122" s="3">
-        <f>B121+B117</f>
+      <c r="B129" s="3">
+        <f>B128+B124</f>
         <v>1378105</v>
       </c>
-      <c r="C122" s="3">
-        <f t="shared" ref="C122:F122" si="74">C121+C117</f>
+      <c r="C129" s="3">
+        <f t="shared" ref="C129:F129" si="74">C128+C124</f>
         <v>1517015</v>
       </c>
-      <c r="D122" s="3">
+      <c r="D129" s="3">
         <f t="shared" si="74"/>
         <v>1649738</v>
       </c>
-      <c r="E122" s="3">
+      <c r="E129" s="3">
         <f t="shared" si="74"/>
         <v>1992261</v>
       </c>
-      <c r="F122" s="3">
+      <c r="F129" s="3">
         <f t="shared" si="74"/>
         <v>2087667</v>
       </c>
-      <c r="G122" s="3">
-        <f t="shared" ref="G122:I122" si="75">G121+G117</f>
+      <c r="G129" s="3">
+        <f t="shared" ref="G129:I129" si="75">G128+G124</f>
         <v>2220549</v>
       </c>
-      <c r="H122" s="3">
+      <c r="H129" s="3">
         <f t="shared" si="75"/>
         <v>2109403</v>
       </c>
-      <c r="I122" s="3">
+      <c r="I129" s="3">
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="L122" s="3">
+      <c r="J129" s="3"/>
+      <c r="M129" s="3">
         <f t="shared" si="48"/>
         <v>6537119</v>
       </c>
-      <c r="M122" s="3"/>
-      <c r="N122" s="3">
+      <c r="N129" s="3"/>
+      <c r="O129" s="3">
         <f t="shared" si="49"/>
         <v>6417619</v>
       </c>
     </row>
-    <row r="124" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="1" t="s">
+    <row r="131" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B124" s="3">
-        <f>B93-B105</f>
+      <c r="B131" s="3">
+        <f>B100-B112</f>
         <v>411204</v>
       </c>
-      <c r="C124" s="3">
-        <f t="shared" ref="C124:F124" si="76">C93-C105</f>
+      <c r="C131" s="3">
+        <f t="shared" ref="C131:F131" si="76">C100-C112</f>
         <v>383699</v>
       </c>
-      <c r="D124" s="3">
+      <c r="D131" s="3">
         <f t="shared" si="76"/>
         <v>365478</v>
       </c>
-      <c r="E124" s="3">
+      <c r="E131" s="3">
         <f t="shared" si="76"/>
         <v>409184</v>
       </c>
-      <c r="F124" s="3">
+      <c r="F131" s="3">
         <f t="shared" si="76"/>
         <v>404763</v>
       </c>
-      <c r="G124" s="3">
-        <f t="shared" ref="G124:I124" si="77">G93-G105</f>
+      <c r="G131" s="3">
+        <f t="shared" ref="G131:I131" si="77">G100-G112</f>
         <v>359318</v>
       </c>
-      <c r="H124" s="3">
+      <c r="H131" s="3">
         <f t="shared" si="77"/>
         <v>364867</v>
       </c>
-      <c r="I124" s="3">
+      <c r="I131" s="3">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="L124" s="3">
-        <f t="shared" ref="L124" si="78">L93-L105</f>
+      <c r="J131" s="3"/>
+      <c r="M131" s="3">
+        <f t="shared" ref="M131" si="78">M100-M112</f>
         <v>409184</v>
       </c>
-      <c r="M124" s="3"/>
-      <c r="N124" s="3">
+      <c r="N131" s="3"/>
+      <c r="O131" s="3">
         <f t="shared" si="49"/>
         <v>1128948</v>
       </c>
     </row>
-    <row r="125" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="1" t="s">
+    <row r="132" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B125" s="6">
-        <f>B93/B105</f>
+      <c r="B132" s="6">
+        <f>B100/B112</f>
         <v>1.9283305113443956</v>
       </c>
-      <c r="C125" s="6">
-        <f t="shared" ref="C125:F125" si="79">C93/C105</f>
+      <c r="C132" s="6">
+        <f t="shared" ref="C132:F132" si="79">C100/C112</f>
         <v>1.6440842129293907</v>
       </c>
-      <c r="D125" s="6">
+      <c r="D132" s="6">
         <f t="shared" si="79"/>
         <v>1.5179603463669733</v>
       </c>
-      <c r="E125" s="6">
+      <c r="E132" s="6">
         <f t="shared" si="79"/>
         <v>1.4577790805127506</v>
       </c>
-      <c r="F125" s="6">
+      <c r="F132" s="6">
         <f t="shared" si="79"/>
         <v>1.3948911169669433</v>
       </c>
-      <c r="G125" s="6">
-        <f t="shared" ref="G125:I125" si="80">G93/G105</f>
+      <c r="G132" s="6">
+        <f t="shared" ref="G132:I132" si="80">G100/G112</f>
         <v>1.3075194276128856</v>
       </c>
-      <c r="H125" s="6">
+      <c r="H132" s="6">
         <f t="shared" si="80"/>
         <v>1.3480821315352391</v>
       </c>
-      <c r="I125" s="6" t="e">
+      <c r="I132" s="6" t="e">
         <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L125" s="6">
-        <f t="shared" ref="L125" si="81">L93/L105</f>
+      <c r="J132" s="6"/>
+      <c r="M132" s="6">
+        <f t="shared" ref="M132" si="81">M100/M112</f>
         <v>1.4577790805127506</v>
       </c>
-      <c r="M125" s="6"/>
-      <c r="N125" s="6" t="e">
+      <c r="N132" s="6"/>
+      <c r="O132" s="6" t="e">
         <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>

--- a/TITN/TITN.xlsx
+++ b/TITN/TITN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32906c935fa0eb4f/models/TITN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1187" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4166AFA-5F11-465F-957D-DB08D3ABFB96}"/>
+  <xr:revisionPtr revIDLastSave="1198" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26474916-D6A4-4C89-B658-694697C9DD72}"/>
   <bookViews>
-    <workbookView xWindow="22750" yWindow="4020" windowWidth="15080" windowHeight="15850" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19800" yWindow="1330" windowWidth="17580" windowHeight="19410" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="150">
   <si>
     <t>Headquarters: West Fargo, ND</t>
   </si>
@@ -48,18 +48,6 @@
   </si>
   <si>
     <t>Revenue</t>
-  </si>
-  <si>
-    <t>Equipment</t>
-  </si>
-  <si>
-    <t>Parts</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Rental and other</t>
   </si>
   <si>
     <t>Total Rev</t>
@@ -499,6 +487,30 @@
   <si>
     <t>Peer Group (according to some guy on seeking alpha):</t>
   </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>use for scripting</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>Equipment Rev</t>
+  </si>
+  <si>
+    <t>Parts Rev</t>
+  </si>
+  <si>
+    <t>Service Rev</t>
+  </si>
+  <si>
+    <t>Rental and other Rev</t>
+  </si>
 </sst>
 </file>
 
@@ -507,7 +519,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -572,7 +584,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="39" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -880,78 +892,78 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="3:3" ht="18" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -978,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -986,7 +998,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1006,18 +1018,18 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1027,12 +1039,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49AC6758-3054-45BD-A746-0979BE500444}">
-  <dimension ref="A1:R132"/>
+  <dimension ref="A1:R133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A97" sqref="A97"/>
-      <selection pane="topRight" activeCell="M113" sqref="M113"/>
+      <selection pane="topRight" activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1050,1890 +1062,1870 @@
     <col min="15" max="15" width="9.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K1" s="1">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" s="1">
         <v>2022</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M2" s="1">
         <v>2023</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O2" s="1">
         <v>2024</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3">
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4">
         <v>148</v>
       </c>
-      <c r="M3">
-        <f>E3</f>
+      <c r="M4">
+        <f t="shared" ref="M4:M11" si="0">E4</f>
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" s="4">
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="4">
         <v>3338</v>
       </c>
-      <c r="M4" s="4">
-        <f>E4</f>
+      <c r="M5" s="4">
+        <f t="shared" si="0"/>
         <v>3338</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+    <row r="6" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="12">
+        <f>(M49+M50)/AVERAGE(B101:E101)</f>
+        <v>2.0386239605066807</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="M6" s="12">
+        <f t="shared" si="0"/>
+        <v>2.0386239605066807</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K7" s="9">
+        <v>3.3</v>
+      </c>
+      <c r="M7" s="9">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="12">
-        <f>(M48+M49)/AVERAGE(B100:E100)</f>
-        <v>2.0386239605066807</v>
-      </c>
-      <c r="K5" s="12"/>
-      <c r="M5" s="12">
-        <f>E5</f>
-        <v>2.0386239605066807</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" s="9">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="K6" s="9">
-        <v>3.3</v>
-      </c>
-      <c r="M6" s="9">
-        <f>E6</f>
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" s="13">
-        <f>(B100-B112)/B100</f>
+      <c r="B8" s="13">
+        <f t="shared" ref="B8:G8" si="1">(B101-B113)/B101</f>
         <v>0.48141670003301512</v>
       </c>
-      <c r="C7" s="13">
-        <f>(C100-C112)/C100</f>
+      <c r="C8" s="13">
+        <f t="shared" si="1"/>
         <v>0.39175865072128907</v>
       </c>
-      <c r="D7" s="13">
-        <f>(D100-D112)/D100</f>
+      <c r="D8" s="13">
+        <f t="shared" si="1"/>
         <v>0.34122126286542281</v>
       </c>
-      <c r="E7" s="13">
-        <f>(E100-E112)/E100</f>
+      <c r="E8" s="13">
+        <f t="shared" si="1"/>
         <v>0.31402500326162869</v>
       </c>
-      <c r="F7" s="13">
-        <f>(F100-F112)/F100</f>
+      <c r="F8" s="13">
+        <f t="shared" si="1"/>
         <v>0.28309816598846521</v>
       </c>
-      <c r="G7" s="13">
-        <f>(G100-G112)/G100</f>
+      <c r="G8" s="13">
+        <f t="shared" si="1"/>
         <v>0.23519300831676221</v>
       </c>
-      <c r="K7" s="13"/>
-      <c r="M7" s="13">
-        <f>E7</f>
+      <c r="K8" s="13"/>
+      <c r="M8" s="13">
+        <f t="shared" si="0"/>
         <v>0.31402500326162869</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11">
-        <v>0.182</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="K8" s="11">
-        <v>51.7</v>
-      </c>
-      <c r="M8" s="11">
-        <f>E8</f>
-        <v>0.182</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0.79</v>
-      </c>
-      <c r="K9" s="9">
-        <v>0.82699999999999996</v>
-      </c>
-      <c r="M9" s="9">
-        <f>E9</f>
-        <v>0.79</v>
+        <v>130</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11">
+        <v>0.182</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="K9" s="11">
+        <v>51.7</v>
+      </c>
+      <c r="M9" s="11">
+        <f t="shared" si="0"/>
+        <v>0.182</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E10" s="10">
+        <v>127</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.79</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="M10" s="9">
+        <f t="shared" si="0"/>
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="10">
         <v>0.10100000000000001</v>
       </c>
-      <c r="K10" s="10"/>
-      <c r="M10" s="10">
-        <f>E10</f>
+      <c r="K11" s="10"/>
+      <c r="M11" s="10">
+        <f t="shared" si="0"/>
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E12" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="2">
-        <v>325660</v>
-      </c>
-      <c r="C13" s="2">
-        <v>352533</v>
-      </c>
-      <c r="D13" s="2">
-        <v>408648</v>
-      </c>
-      <c r="E13" s="2">
-        <f>L13-D13-C13-B13</f>
-        <v>537169</v>
-      </c>
-      <c r="F13" s="2">
-        <v>338713</v>
-      </c>
-      <c r="G13" s="2">
-        <v>312556</v>
-      </c>
-      <c r="H13" s="2">
-        <v>358430</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="L13" s="2">
-        <v>1624010</v>
-      </c>
-      <c r="M13" s="2">
-        <f>SUM(B13:E13)</f>
-        <v>1624010</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2">
-        <f>SUM(F13:I13)</f>
-        <v>1009699</v>
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E13" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2">
-        <v>45458</v>
+        <v>325660</v>
       </c>
       <c r="C14" s="2">
-        <v>53697</v>
+        <v>352533</v>
       </c>
       <c r="D14" s="2">
-        <v>47364</v>
+        <v>408648</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" ref="E14:E36" si="0">L14-D14-C14-B14</f>
-        <v>74621</v>
+        <f>L14-D14-C14-B14</f>
+        <v>537169</v>
       </c>
       <c r="F14" s="2">
-        <v>47095</v>
+        <v>338713</v>
       </c>
       <c r="G14" s="2">
-        <v>52844</v>
+        <v>312556</v>
       </c>
       <c r="H14" s="2">
-        <v>53770</v>
+        <v>358430</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="L14" s="2">
-        <v>221140</v>
+        <v>1624010</v>
       </c>
       <c r="M14" s="2">
-        <f t="shared" ref="M14:M78" si="1">SUM(B14:E14)</f>
-        <v>221140</v>
+        <f>SUM(B14:E14)</f>
+        <v>1624010</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2">
-        <f t="shared" ref="O14:O78" si="2">SUM(F14:I14)</f>
-        <v>153709</v>
+        <f>SUM(F14:I14)</f>
+        <v>1009699</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2">
-        <v>58258</v>
+        <v>45458</v>
       </c>
       <c r="C15" s="2">
-        <v>73892</v>
+        <v>53697</v>
       </c>
       <c r="D15" s="2">
-        <v>65763</v>
+        <v>47364</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="0"/>
-        <v>47510</v>
+        <f t="shared" ref="E15:E37" si="2">L15-D15-C15-B15</f>
+        <v>74621</v>
       </c>
       <c r="F15" s="2">
-        <v>47499</v>
+        <v>47095</v>
       </c>
       <c r="G15" s="2">
-        <v>49146</v>
+        <v>52844</v>
       </c>
       <c r="H15" s="2">
-        <v>41893</v>
+        <v>53770</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="L15" s="2">
-        <v>245423</v>
+        <v>221140</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="1"/>
-        <v>245423</v>
+        <f t="shared" ref="M15:M79" si="3">SUM(B15:E15)</f>
+        <v>221140</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2">
-        <f t="shared" si="2"/>
-        <v>138538</v>
+        <f t="shared" ref="O15:O79" si="4">SUM(F15:I15)</f>
+        <v>153709</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B16" s="2">
+        <v>58258</v>
+      </c>
+      <c r="C16" s="2">
+        <v>73892</v>
+      </c>
+      <c r="D16" s="2">
+        <v>65763</v>
+      </c>
       <c r="E16" s="2">
-        <f t="shared" si="0"/>
-        <v>54743</v>
+        <f t="shared" si="2"/>
+        <v>47510</v>
       </c>
       <c r="F16" s="2">
-        <v>34782</v>
+        <v>47499</v>
       </c>
       <c r="G16" s="2">
-        <v>50687</v>
+        <v>49146</v>
       </c>
       <c r="H16" s="2">
-        <v>41054</v>
+        <v>41893</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="L16" s="2">
-        <v>54743</v>
+        <v>245423</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" si="1"/>
-        <v>54743</v>
+        <f t="shared" si="3"/>
+        <v>245423</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2">
+        <f t="shared" si="4"/>
+        <v>138538</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2">
         <f t="shared" si="2"/>
+        <v>54743</v>
+      </c>
+      <c r="F17" s="2">
+        <v>34782</v>
+      </c>
+      <c r="G17" s="2">
+        <v>50687</v>
+      </c>
+      <c r="H17" s="2">
+        <v>41054</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="L17" s="2">
+        <v>54743</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="3"/>
+        <v>54743</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2">
+        <f t="shared" si="4"/>
         <v>126523</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="3">
-        <f>SUM(B13:B16)</f>
+    <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="3">
+        <f>SUM(B14:B17)</f>
         <v>429376</v>
       </c>
-      <c r="C17" s="3">
-        <f t="shared" ref="C17:I17" si="3">SUM(C13:C16)</f>
+      <c r="C18" s="3">
+        <f t="shared" ref="C18:I18" si="5">SUM(C14:C17)</f>
         <v>480122</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D18" s="3">
+        <f t="shared" si="5"/>
+        <v>521775</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="5"/>
+        <v>714043</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="5"/>
+        <v>468089</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="5"/>
+        <v>465233</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="5"/>
+        <v>495147</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="L18" s="3">
+        <f>SUM(L14:L17)</f>
+        <v>2145316</v>
+      </c>
+      <c r="M18" s="3">
         <f t="shared" si="3"/>
-        <v>521775</v>
-      </c>
-      <c r="E17" s="3">
-        <f t="shared" si="3"/>
-        <v>714043</v>
-      </c>
-      <c r="F17" s="3">
-        <f t="shared" si="3"/>
-        <v>468089</v>
-      </c>
-      <c r="G17" s="3">
-        <f t="shared" si="3"/>
-        <v>465233</v>
-      </c>
-      <c r="H17" s="3">
-        <f t="shared" si="3"/>
-        <v>495147</v>
-      </c>
-      <c r="I17" s="3">
-        <f t="shared" si="3"/>
+        <v>2145316</v>
+      </c>
+      <c r="N18" s="3">
+        <f>SUM(N14:N17)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="L17" s="3">
-        <f>SUM(L13:L16)</f>
-        <v>2145316</v>
-      </c>
-      <c r="M17" s="3">
-        <f t="shared" si="1"/>
-        <v>2145316</v>
-      </c>
-      <c r="N17" s="3">
-        <f>SUM(N13:N16)</f>
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <f t="shared" si="2"/>
+      <c r="O18" s="3">
+        <f t="shared" si="4"/>
         <v>1428469</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="2">
-        <v>69547</v>
-      </c>
-      <c r="C18" s="2">
-        <v>82246</v>
-      </c>
-      <c r="D18" s="2">
-        <v>86173</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" si="0"/>
-        <v>55588</v>
-      </c>
-      <c r="F18" s="2">
-        <v>74965</v>
-      </c>
-      <c r="G18" s="2">
-        <v>75430</v>
-      </c>
-      <c r="H18" s="2">
-        <v>84763</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="L18" s="2">
-        <v>293554</v>
-      </c>
-      <c r="M18" s="2">
-        <f t="shared" si="1"/>
-        <v>293554</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2">
-        <f t="shared" si="2"/>
-        <v>235158</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2">
-        <v>13664</v>
+        <v>69547</v>
       </c>
       <c r="C19" s="2">
-        <v>12537</v>
+        <v>82246</v>
       </c>
       <c r="D19" s="2">
-        <v>12943</v>
+        <v>86173</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="0"/>
-        <v>11875</v>
+        <f t="shared" si="2"/>
+        <v>55588</v>
       </c>
       <c r="F19" s="2">
-        <v>11830</v>
+        <v>74965</v>
       </c>
       <c r="G19" s="2">
-        <v>11049</v>
+        <v>75430</v>
       </c>
       <c r="H19" s="2">
-        <v>13704</v>
+        <v>84763</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="L19" s="2">
-        <v>51019</v>
+        <v>293554</v>
       </c>
       <c r="M19" s="2">
-        <f t="shared" si="1"/>
-        <v>51019</v>
+        <f t="shared" si="3"/>
+        <v>293554</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2">
-        <f t="shared" si="2"/>
-        <v>36583</v>
+        <f t="shared" si="4"/>
+        <v>235158</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2">
-        <v>13395</v>
+        <v>13664</v>
       </c>
       <c r="C20" s="2">
-        <v>13727</v>
+        <v>12537</v>
       </c>
       <c r="D20" s="2">
-        <v>15846</v>
+        <v>12943</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="0"/>
-        <v>11388</v>
+        <f t="shared" si="2"/>
+        <v>11875</v>
       </c>
       <c r="F20" s="2">
-        <v>14524</v>
+        <v>11830</v>
       </c>
       <c r="G20" s="2">
-        <v>15407</v>
+        <v>11049</v>
       </c>
       <c r="H20" s="2">
-        <v>16290</v>
+        <v>13704</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="L20" s="2">
-        <v>54356</v>
+        <v>51019</v>
       </c>
       <c r="M20" s="2">
-        <f t="shared" si="1"/>
-        <v>54356</v>
+        <f t="shared" si="3"/>
+        <v>51019</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2">
-        <f t="shared" si="2"/>
-        <v>46221</v>
+        <f t="shared" si="4"/>
+        <v>36583</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="B21" s="2">
+        <v>13395</v>
+      </c>
+      <c r="C21" s="2">
+        <v>13727</v>
+      </c>
+      <c r="D21" s="2">
+        <v>15846</v>
+      </c>
       <c r="E21" s="2">
-        <f t="shared" si="0"/>
-        <v>11912</v>
+        <f t="shared" si="2"/>
+        <v>11388</v>
       </c>
       <c r="F21" s="2">
-        <v>6907</v>
+        <v>14524</v>
       </c>
       <c r="G21" s="2">
-        <v>7919</v>
+        <v>15407</v>
       </c>
       <c r="H21" s="2">
-        <v>6329</v>
+        <v>16290</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="L21" s="2">
-        <v>11912</v>
+        <v>54356</v>
       </c>
       <c r="M21" s="2">
-        <f t="shared" si="1"/>
-        <v>11912</v>
+        <f t="shared" si="3"/>
+        <v>54356</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2">
+        <f t="shared" si="4"/>
+        <v>46221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2">
         <f t="shared" si="2"/>
+        <v>11912</v>
+      </c>
+      <c r="F22" s="2">
+        <v>6907</v>
+      </c>
+      <c r="G22" s="2">
+        <v>7919</v>
+      </c>
+      <c r="H22" s="2">
+        <v>6329</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="L22" s="2">
+        <v>11912</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" si="3"/>
+        <v>11912</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2">
+        <f t="shared" si="4"/>
         <v>21155</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="3">
-        <f>SUM(B18:B21)</f>
+    <row r="23" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="3">
+        <f>SUM(B19:B22)</f>
         <v>96606</v>
       </c>
-      <c r="C22" s="3">
-        <f t="shared" ref="C22:I22" si="4">SUM(C18:C21)</f>
+      <c r="C23" s="3">
+        <f t="shared" ref="C23:I23" si="6">SUM(C19:C22)</f>
         <v>108510</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D23" s="3">
+        <f t="shared" si="6"/>
+        <v>114962</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="6"/>
+        <v>90763</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="6"/>
+        <v>108226</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="6"/>
+        <v>109805</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="6"/>
+        <v>121086</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="L23" s="3">
+        <f t="shared" ref="L23" si="7">SUM(L19:L22)</f>
+        <v>410841</v>
+      </c>
+      <c r="M23" s="3">
+        <f t="shared" si="3"/>
+        <v>410841</v>
+      </c>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3">
         <f t="shared" si="4"/>
-        <v>114962</v>
-      </c>
-      <c r="E22" s="3">
-        <f t="shared" si="4"/>
-        <v>90763</v>
-      </c>
-      <c r="F22" s="3">
-        <f t="shared" si="4"/>
-        <v>108226</v>
-      </c>
-      <c r="G22" s="3">
-        <f t="shared" si="4"/>
-        <v>109805</v>
-      </c>
-      <c r="H22" s="3">
-        <f t="shared" si="4"/>
-        <v>121086</v>
-      </c>
-      <c r="I22" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="3"/>
-      <c r="L22" s="3">
-        <f t="shared" ref="L22" si="5">SUM(L18:L21)</f>
-        <v>410841</v>
-      </c>
-      <c r="M22" s="3">
-        <f t="shared" si="1"/>
-        <v>410841</v>
-      </c>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3">
-        <f t="shared" si="2"/>
         <v>339117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="2">
-        <v>26266</v>
-      </c>
-      <c r="C23" s="2">
-        <v>32526</v>
-      </c>
-      <c r="D23" s="2">
-        <v>34718</v>
-      </c>
-      <c r="E23" s="2">
-        <f t="shared" si="0"/>
-        <v>23577</v>
-      </c>
-      <c r="F23" s="2">
-        <v>32943</v>
-      </c>
-      <c r="G23" s="2">
-        <v>34570</v>
-      </c>
-      <c r="H23" s="2">
-        <v>37275</v>
-      </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="L23" s="2">
-        <v>117087</v>
-      </c>
-      <c r="M23" s="2">
-        <f t="shared" si="1"/>
-        <v>117087</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2">
-        <f t="shared" si="2"/>
-        <v>104788</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>6336</v>
+        <v>26266</v>
       </c>
       <c r="C24" s="2">
-        <v>7347</v>
+        <v>32526</v>
       </c>
       <c r="D24" s="2">
-        <v>7084</v>
+        <v>34718</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="0"/>
-        <v>6146</v>
+        <f t="shared" si="2"/>
+        <v>23577</v>
       </c>
       <c r="F24" s="2">
-        <v>6800</v>
+        <v>32943</v>
       </c>
       <c r="G24" s="2">
-        <v>7214</v>
+        <v>34570</v>
       </c>
       <c r="H24" s="2">
-        <v>7730</v>
+        <v>37275</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="L24" s="2">
-        <v>26913</v>
+        <v>117087</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" si="1"/>
-        <v>26913</v>
+        <f t="shared" si="3"/>
+        <v>117087</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2">
-        <f t="shared" si="2"/>
-        <v>21744</v>
+        <f t="shared" si="4"/>
+        <v>104788</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2">
-        <v>2331</v>
+        <v>6336</v>
       </c>
       <c r="C25" s="2">
-        <v>2605</v>
+        <v>7347</v>
       </c>
       <c r="D25" s="2">
-        <v>2965</v>
+        <v>7084</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="0"/>
-        <v>2536</v>
+        <f t="shared" si="2"/>
+        <v>6146</v>
       </c>
       <c r="F25" s="2">
-        <v>2757</v>
+        <v>6800</v>
       </c>
       <c r="G25" s="2">
-        <v>3076</v>
+        <v>7214</v>
       </c>
       <c r="H25" s="2">
-        <v>3516</v>
+        <v>7730</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="L25" s="2">
-        <v>10437</v>
+        <v>26913</v>
       </c>
       <c r="M25" s="2">
-        <f t="shared" si="1"/>
-        <v>10437</v>
+        <f t="shared" si="3"/>
+        <v>26913</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2">
-        <f t="shared" si="2"/>
-        <v>9349</v>
+        <f t="shared" si="4"/>
+        <v>21744</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2331</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2605</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2965</v>
+      </c>
       <c r="E26" s="2">
-        <f t="shared" si="0"/>
-        <v>2878</v>
+        <f t="shared" si="2"/>
+        <v>2536</v>
       </c>
       <c r="F26" s="2">
-        <v>2579</v>
+        <v>2757</v>
       </c>
       <c r="G26" s="2">
-        <v>2408</v>
+        <v>3076</v>
       </c>
       <c r="H26" s="2">
-        <v>2601</v>
+        <v>3516</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="L26" s="2">
-        <v>2878</v>
+        <v>10437</v>
       </c>
       <c r="M26" s="2">
-        <f t="shared" si="1"/>
-        <v>2878</v>
+        <f t="shared" si="3"/>
+        <v>10437</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2">
+        <f t="shared" si="4"/>
+        <v>9349</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2">
         <f t="shared" si="2"/>
+        <v>2878</v>
+      </c>
+      <c r="F27" s="2">
+        <v>2579</v>
+      </c>
+      <c r="G27" s="2">
+        <v>2408</v>
+      </c>
+      <c r="H27" s="2">
+        <v>2601</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="L27" s="2">
+        <v>2878</v>
+      </c>
+      <c r="M27" s="2">
+        <f t="shared" si="3"/>
+        <v>2878</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2">
+        <f t="shared" si="4"/>
         <v>7588</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="3">
-        <f>SUM(B23:B26)</f>
+    <row r="28" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="3">
+        <f>SUM(B24:B27)</f>
         <v>34933</v>
       </c>
-      <c r="C27" s="3">
-        <f t="shared" ref="C27:I27" si="6">SUM(C23:C26)</f>
+      <c r="C28" s="3">
+        <f t="shared" ref="C28:I28" si="8">SUM(C24:C27)</f>
         <v>42478</v>
       </c>
-      <c r="D27" s="3">
-        <f t="shared" si="6"/>
+      <c r="D28" s="3">
+        <f t="shared" si="8"/>
         <v>44767</v>
       </c>
-      <c r="E27" s="3">
-        <f t="shared" si="6"/>
+      <c r="E28" s="3">
+        <f t="shared" si="8"/>
         <v>35137</v>
       </c>
-      <c r="F27" s="3">
-        <f t="shared" si="6"/>
+      <c r="F28" s="3">
+        <f t="shared" si="8"/>
         <v>45079</v>
       </c>
-      <c r="G27" s="3">
-        <f t="shared" si="6"/>
+      <c r="G28" s="3">
+        <f t="shared" si="8"/>
         <v>47268</v>
       </c>
-      <c r="H27" s="3">
-        <f t="shared" si="6"/>
+      <c r="H28" s="3">
+        <f t="shared" si="8"/>
         <v>51122</v>
       </c>
-      <c r="I27" s="3">
-        <f t="shared" si="6"/>
+      <c r="I28" s="3">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J27" s="3"/>
-      <c r="L27" s="3">
-        <f t="shared" ref="L27" si="7">SUM(L23:L26)</f>
+      <c r="J28" s="3"/>
+      <c r="L28" s="3">
+        <f t="shared" ref="L28" si="9">SUM(L24:L27)</f>
         <v>157315</v>
       </c>
-      <c r="M27" s="3">
-        <f t="shared" si="1"/>
+      <c r="M28" s="3">
+        <f t="shared" si="3"/>
         <v>157315</v>
       </c>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3">
-        <f t="shared" si="2"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3">
+        <f t="shared" si="4"/>
         <v>143469</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="2">
-        <v>1167</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1235</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1333</v>
-      </c>
-      <c r="E28" s="2">
-        <f t="shared" si="0"/>
-        <v>1445</v>
-      </c>
-      <c r="F28" s="2">
-        <v>875</v>
-      </c>
-      <c r="G28" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H28" s="2">
-        <v>1056</v>
-      </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="L28" s="2">
-        <v>5180</v>
-      </c>
-      <c r="M28" s="2">
-        <f t="shared" si="1"/>
-        <v>5180</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2">
-        <f t="shared" si="2"/>
-        <v>2931</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2">
-        <v>360</v>
+        <v>1167</v>
       </c>
       <c r="C29" s="2">
-        <v>588</v>
+        <v>1235</v>
       </c>
       <c r="D29" s="2">
-        <v>547</v>
+        <v>1333</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="0"/>
-        <v>503</v>
+        <f t="shared" si="2"/>
+        <v>1445</v>
       </c>
       <c r="F29" s="2">
-        <v>316</v>
+        <v>875</v>
       </c>
       <c r="G29" s="2">
-        <v>520</v>
+        <v>1000</v>
       </c>
       <c r="H29" s="2">
-        <v>490</v>
+        <v>1056</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="L29" s="2">
-        <v>1998</v>
+        <v>5180</v>
       </c>
       <c r="M29" s="2">
-        <f t="shared" si="1"/>
-        <v>1998</v>
+        <f t="shared" si="3"/>
+        <v>5180</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2">
-        <f t="shared" si="2"/>
-        <v>1326</v>
+        <f t="shared" si="4"/>
+        <v>2931</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C30" s="2">
-        <v>193</v>
+        <v>588</v>
       </c>
       <c r="D30" s="2">
-        <v>318</v>
+        <v>547</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="0"/>
-        <v>-110</v>
+        <f t="shared" si="2"/>
+        <v>503</v>
       </c>
       <c r="F30" s="2">
-        <v>153</v>
+        <v>316</v>
       </c>
       <c r="G30" s="2">
-        <v>198</v>
+        <v>520</v>
       </c>
       <c r="H30" s="2">
-        <v>196</v>
+        <v>490</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="L30" s="2">
-        <v>760</v>
+        <v>1998</v>
       </c>
       <c r="M30" s="2">
-        <f t="shared" si="1"/>
-        <v>760</v>
+        <f t="shared" si="3"/>
+        <v>1998</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2">
-        <f t="shared" si="2"/>
-        <v>547</v>
+        <f t="shared" si="4"/>
+        <v>1326</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="B31" s="2">
+        <v>359</v>
+      </c>
+      <c r="C31" s="2">
+        <v>193</v>
+      </c>
+      <c r="D31" s="2">
+        <v>318</v>
+      </c>
       <c r="E31" s="2">
-        <f t="shared" si="0"/>
-        <v>276</v>
+        <f t="shared" si="2"/>
+        <v>-110</v>
       </c>
       <c r="F31" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G31" s="2">
-        <v>284</v>
+        <v>198</v>
       </c>
       <c r="H31" s="2">
-        <v>151</v>
+        <v>196</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="L31" s="2">
-        <v>276</v>
+        <v>760</v>
       </c>
       <c r="M31" s="2">
-        <f t="shared" si="1"/>
-        <v>276</v>
+        <f t="shared" si="3"/>
+        <v>760</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2">
+        <f t="shared" si="4"/>
+        <v>547</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2">
         <f t="shared" si="2"/>
+        <v>276</v>
+      </c>
+      <c r="F32" s="2">
+        <v>151</v>
+      </c>
+      <c r="G32" s="2">
+        <v>284</v>
+      </c>
+      <c r="H32" s="2">
+        <v>151</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="L32" s="2">
+        <v>276</v>
+      </c>
+      <c r="M32" s="2">
+        <f t="shared" si="3"/>
+        <v>276</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2">
+        <f t="shared" si="4"/>
         <v>586</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="3">
-        <f>SUM(B28:B31)</f>
+    <row r="33" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="3">
+        <f>SUM(B29:B32)</f>
         <v>1886</v>
       </c>
-      <c r="C32" s="3">
-        <f t="shared" ref="C32:I32" si="8">SUM(C28:C31)</f>
+      <c r="C33" s="3">
+        <f t="shared" ref="C33:I33" si="10">SUM(C29:C32)</f>
         <v>2016</v>
       </c>
-      <c r="D32" s="3">
-        <f t="shared" si="8"/>
+      <c r="D33" s="3">
+        <f t="shared" si="10"/>
         <v>2198</v>
       </c>
-      <c r="E32" s="3">
-        <f t="shared" si="8"/>
+      <c r="E33" s="3">
+        <f t="shared" si="10"/>
         <v>2114</v>
       </c>
-      <c r="F32" s="3">
-        <f t="shared" si="8"/>
+      <c r="F33" s="3">
+        <f t="shared" si="10"/>
         <v>1495</v>
       </c>
-      <c r="G32" s="3">
-        <f t="shared" si="8"/>
+      <c r="G33" s="3">
+        <f t="shared" si="10"/>
         <v>2002</v>
       </c>
-      <c r="H32" s="3">
-        <f t="shared" si="8"/>
+      <c r="H33" s="3">
+        <f t="shared" si="10"/>
         <v>1893</v>
       </c>
-      <c r="I32" s="3">
-        <f t="shared" si="8"/>
+      <c r="I33" s="3">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J32" s="3"/>
-      <c r="L32" s="3">
-        <f t="shared" ref="L32" si="9">SUM(L28:L31)</f>
+      <c r="J33" s="3"/>
+      <c r="L33" s="3">
+        <f t="shared" ref="L33" si="11">SUM(L29:L32)</f>
         <v>8214</v>
       </c>
-      <c r="M32" s="3">
-        <f t="shared" si="1"/>
+      <c r="M33" s="3">
+        <f t="shared" si="3"/>
         <v>8214</v>
       </c>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3">
-        <f t="shared" si="2"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3">
+        <f t="shared" si="4"/>
         <v>5390</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="2">
-        <v>555</v>
-      </c>
-      <c r="C33" s="2">
-        <v>529</v>
-      </c>
-      <c r="D33" s="2">
-        <v>532</v>
-      </c>
-      <c r="E33" s="2">
-        <f t="shared" si="0"/>
-        <v>2816</v>
-      </c>
-      <c r="F33" s="2">
-        <v>191</v>
-      </c>
-      <c r="G33" s="2">
-        <v>480</v>
-      </c>
-      <c r="H33" s="2">
-        <v>498</v>
-      </c>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="L33" s="2">
-        <v>4432</v>
-      </c>
-      <c r="M33" s="2">
-        <f t="shared" si="1"/>
-        <v>4432</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2">
-        <f t="shared" si="2"/>
-        <v>1169</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2">
-        <v>6178</v>
+        <v>555</v>
       </c>
       <c r="C34" s="2">
-        <v>8694</v>
+        <v>529</v>
       </c>
       <c r="D34" s="2">
-        <v>9570</v>
+        <v>532</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="0"/>
-        <v>6951</v>
+        <f t="shared" si="2"/>
+        <v>2816</v>
       </c>
       <c r="F34" s="2">
-        <v>5451</v>
+        <v>191</v>
       </c>
       <c r="G34" s="2">
-        <v>8564</v>
+        <v>480</v>
       </c>
       <c r="H34" s="2">
-        <v>9591</v>
+        <v>498</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="L34" s="2">
-        <v>31393</v>
+        <v>4432</v>
       </c>
       <c r="M34" s="2">
-        <f t="shared" si="1"/>
-        <v>31393</v>
+        <f t="shared" si="3"/>
+        <v>4432</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2">
-        <f t="shared" si="2"/>
-        <v>23606</v>
+        <f t="shared" si="4"/>
+        <v>1169</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B35" s="2">
-        <v>97</v>
+        <v>6178</v>
       </c>
       <c r="C35" s="2">
-        <v>219</v>
+        <v>8694</v>
       </c>
       <c r="D35" s="2">
-        <v>311</v>
+        <v>9570</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="0"/>
-        <v>307</v>
+        <f t="shared" si="2"/>
+        <v>6951</v>
       </c>
       <c r="F35" s="2">
-        <v>172</v>
+        <v>5451</v>
       </c>
       <c r="G35" s="2">
-        <v>322</v>
+        <v>8564</v>
       </c>
       <c r="H35" s="2">
-        <v>487</v>
+        <v>9591</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="L35" s="2">
-        <v>934</v>
+        <v>31393</v>
       </c>
       <c r="M35" s="2">
-        <f t="shared" si="1"/>
-        <v>934</v>
+        <f t="shared" si="3"/>
+        <v>31393</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2">
-        <f t="shared" si="2"/>
-        <v>981</v>
+        <f t="shared" si="4"/>
+        <v>23606</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="B36" s="2">
+        <v>97</v>
+      </c>
+      <c r="C36" s="2">
+        <v>219</v>
+      </c>
+      <c r="D36" s="2">
+        <v>311</v>
+      </c>
       <c r="E36" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>307</v>
       </c>
       <c r="F36" s="2">
-        <v>0</v>
-      </c>
-      <c r="H36" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="G36" s="2">
+        <v>322</v>
+      </c>
+      <c r="H36" s="2">
+        <v>487</v>
+      </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="L36" s="2"/>
+      <c r="L36" s="2">
+        <v>934</v>
+      </c>
       <c r="M36" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>934</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2">
+        <f t="shared" si="4"/>
+        <v>981</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="3">
-        <f>SUM(B33:B36)</f>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="3">
+        <f>SUM(B34:B37)</f>
         <v>6830</v>
       </c>
-      <c r="C37" s="3">
-        <f t="shared" ref="C37:F37" si="10">SUM(C33:C36)</f>
+      <c r="C38" s="3">
+        <f t="shared" ref="C38:F38" si="12">SUM(C34:C37)</f>
         <v>9442</v>
       </c>
-      <c r="D37" s="3">
-        <f t="shared" si="10"/>
+      <c r="D38" s="3">
+        <f t="shared" si="12"/>
         <v>10413</v>
       </c>
-      <c r="E37" s="3">
-        <f t="shared" si="10"/>
+      <c r="E38" s="3">
+        <f t="shared" si="12"/>
         <v>10074</v>
       </c>
-      <c r="F37" s="3">
-        <f t="shared" si="10"/>
+      <c r="F38" s="3">
+        <f t="shared" si="12"/>
         <v>5814</v>
       </c>
-      <c r="G37" s="3">
-        <f>SUM(G33:G36)</f>
+      <c r="G38" s="3">
+        <f>SUM(G34:G37)</f>
         <v>9366</v>
       </c>
-      <c r="H37" s="3">
-        <f t="shared" ref="H37:I37" si="11">SUM(H33:H36)</f>
+      <c r="H38" s="3">
+        <f t="shared" ref="H38:I38" si="13">SUM(H34:H37)</f>
         <v>10576</v>
       </c>
-      <c r="I37" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="3"/>
-      <c r="L37" s="3">
-        <f t="shared" ref="L37" si="12">SUM(L33:L36)</f>
-        <v>36759</v>
-      </c>
-      <c r="M37" s="3">
-        <f t="shared" si="1"/>
-        <v>36759</v>
-      </c>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3">
-        <f t="shared" si="2"/>
-        <v>25756</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="3">
-        <f>B37+B32+B27+B22+B17</f>
-        <v>569631</v>
-      </c>
-      <c r="C38" s="3">
-        <f t="shared" ref="C38:F38" si="13">C37+C32+C27+C22+C17</f>
-        <v>642568</v>
-      </c>
-      <c r="D38" s="3">
+      <c r="I38" s="3">
         <f t="shared" si="13"/>
-        <v>694115</v>
-      </c>
-      <c r="E38" s="3">
-        <f t="shared" si="13"/>
-        <v>852131</v>
-      </c>
-      <c r="F38" s="3">
-        <f t="shared" si="13"/>
-        <v>628703</v>
-      </c>
-      <c r="G38" s="3">
-        <f t="shared" ref="G38:O38" si="14">G37+G32+G27+G22+G17</f>
-        <v>633674</v>
-      </c>
-      <c r="H38" s="3">
-        <f t="shared" si="14"/>
-        <v>679824</v>
-      </c>
-      <c r="I38" s="3">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J38" s="3"/>
       <c r="L38" s="3">
-        <f t="shared" ref="L38" si="15">L37+L32+L27+L22+L17</f>
+        <f t="shared" ref="L38" si="14">SUM(L34:L37)</f>
+        <v>36759</v>
+      </c>
+      <c r="M38" s="3">
+        <f t="shared" si="3"/>
+        <v>36759</v>
+      </c>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3">
+        <f t="shared" si="4"/>
+        <v>25756</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="3">
+        <f>B38+B33+B28+B23+B18</f>
+        <v>569631</v>
+      </c>
+      <c r="C39" s="3">
+        <f t="shared" ref="C39:F39" si="15">C38+C33+C28+C23+C18</f>
+        <v>642568</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" si="15"/>
+        <v>694115</v>
+      </c>
+      <c r="E39" s="3">
+        <f t="shared" si="15"/>
+        <v>852131</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="15"/>
+        <v>628703</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" ref="G39:O39" si="16">G38+G33+G28+G23+G18</f>
+        <v>633674</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" si="16"/>
+        <v>679824</v>
+      </c>
+      <c r="I39" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="3"/>
+      <c r="L39" s="3">
+        <f t="shared" ref="L39" si="17">L38+L33+L28+L23+L18</f>
         <v>2758445</v>
       </c>
-      <c r="M38" s="3">
-        <f t="shared" si="14"/>
+      <c r="M39" s="3">
+        <f t="shared" si="16"/>
         <v>2758445</v>
       </c>
-      <c r="N38" s="3">
-        <f t="shared" si="14"/>
+      <c r="N39" s="3">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O38" s="3">
-        <f t="shared" si="14"/>
+      <c r="O39" s="3">
+        <f t="shared" si="16"/>
         <v>1942201</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="1" t="str">
-        <f>B1</f>
+    <row r="41" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="1" t="str">
+        <f>B2</f>
         <v>Q123</v>
       </c>
-      <c r="C40" s="1" t="str">
-        <f t="shared" ref="C40:E40" si="16">C1</f>
+      <c r="C41" s="1" t="str">
+        <f t="shared" ref="C41:E41" si="18">C2</f>
         <v>Q223</v>
       </c>
-      <c r="D40" s="1" t="str">
-        <f t="shared" si="16"/>
+      <c r="D41" s="1" t="str">
+        <f t="shared" si="18"/>
         <v>Q323</v>
       </c>
-      <c r="E40" s="1" t="str">
-        <f t="shared" si="16"/>
+      <c r="E41" s="1" t="str">
+        <f t="shared" si="18"/>
         <v>Q423</v>
       </c>
-      <c r="F40" s="1" t="str">
-        <f>F1</f>
+      <c r="F41" s="1" t="str">
+        <f>F2</f>
         <v>Q124</v>
       </c>
-      <c r="G40" s="1" t="str">
-        <f t="shared" ref="G40:O40" si="17">G1</f>
+      <c r="G41" s="1" t="str">
+        <f t="shared" ref="G41:O41" si="19">G2</f>
         <v>Q224</v>
       </c>
-      <c r="H40" s="1" t="str">
-        <f t="shared" si="17"/>
+      <c r="H41" s="1" t="str">
+        <f t="shared" si="19"/>
         <v>Q324</v>
       </c>
-      <c r="I40" s="1" t="str">
-        <f t="shared" si="17"/>
+      <c r="I41" s="1" t="str">
+        <f t="shared" si="19"/>
         <v>Q424</v>
       </c>
-      <c r="M40" s="1">
-        <f t="shared" si="17"/>
+      <c r="M41" s="1">
+        <f t="shared" si="19"/>
         <v>2023</v>
       </c>
-      <c r="O40" s="1">
-        <f t="shared" si="17"/>
+      <c r="O41" s="1">
+        <f t="shared" si="19"/>
         <v>2024</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="2">
-        <v>429376</v>
-      </c>
-      <c r="C43" s="2">
-        <v>480122</v>
-      </c>
-      <c r="D43" s="2">
-        <v>521775</v>
-      </c>
-      <c r="E43" s="2">
-        <f>L43-D43-C43-B43</f>
-        <v>714043</v>
-      </c>
-      <c r="F43" s="2">
-        <v>468089</v>
-      </c>
-      <c r="G43" s="2">
-        <v>465233</v>
-      </c>
-      <c r="H43" s="2">
-        <v>495147</v>
-      </c>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="L43" s="2">
-        <v>2145316</v>
-      </c>
-      <c r="M43" s="2">
-        <f t="shared" si="1"/>
-        <v>2145316</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2">
-        <f t="shared" si="2"/>
-        <v>1428469</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="B44" s="2">
-        <v>96606</v>
+        <v>429376</v>
       </c>
       <c r="C44" s="2">
-        <v>108510</v>
+        <v>480122</v>
       </c>
       <c r="D44" s="2">
-        <v>114962</v>
+        <v>521775</v>
       </c>
       <c r="E44" s="2">
-        <f t="shared" ref="E44:E46" si="18">L44-D44-C44-B44</f>
-        <v>90763</v>
+        <f>L44-D44-C44-B44</f>
+        <v>714043</v>
       </c>
       <c r="F44" s="2">
-        <v>108226</v>
+        <v>468089</v>
       </c>
       <c r="G44" s="2">
-        <v>109805</v>
+        <v>465233</v>
       </c>
       <c r="H44" s="2">
-        <v>121086</v>
+        <v>495147</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="L44" s="2">
-        <v>410841</v>
+        <v>2145316</v>
       </c>
       <c r="M44" s="2">
-        <f t="shared" si="1"/>
-        <v>410841</v>
+        <f t="shared" si="3"/>
+        <v>2145316</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2">
-        <f t="shared" si="2"/>
-        <v>339117</v>
+        <f t="shared" si="4"/>
+        <v>1428469</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>147</v>
       </c>
       <c r="B45" s="2">
-        <v>34933</v>
+        <v>96606</v>
       </c>
       <c r="C45" s="2">
-        <v>42478</v>
+        <v>108510</v>
       </c>
       <c r="D45" s="2">
-        <v>44767</v>
+        <v>114962</v>
       </c>
       <c r="E45" s="2">
-        <f t="shared" si="18"/>
-        <v>35137</v>
+        <f t="shared" ref="E45:E47" si="20">L45-D45-C45-B45</f>
+        <v>90763</v>
       </c>
       <c r="F45" s="2">
-        <v>45079</v>
+        <v>108226</v>
       </c>
       <c r="G45" s="2">
-        <v>47268</v>
+        <v>109805</v>
       </c>
       <c r="H45" s="2">
-        <v>51122</v>
+        <v>121086</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="L45" s="2">
-        <v>157315</v>
+        <v>410841</v>
       </c>
       <c r="M45" s="2">
-        <f t="shared" si="1"/>
-        <v>157315</v>
+        <f t="shared" si="3"/>
+        <v>410841</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2">
-        <f t="shared" si="2"/>
-        <v>143469</v>
+        <f t="shared" si="4"/>
+        <v>339117</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>148</v>
       </c>
       <c r="B46" s="2">
-        <v>8716</v>
+        <v>34933</v>
       </c>
       <c r="C46" s="2">
-        <v>11458</v>
+        <v>42478</v>
       </c>
       <c r="D46" s="2">
-        <v>12611</v>
+        <v>44767</v>
       </c>
       <c r="E46" s="2">
-        <f t="shared" si="18"/>
-        <v>12188</v>
+        <f t="shared" si="20"/>
+        <v>35137</v>
       </c>
       <c r="F46" s="2">
-        <v>7309</v>
+        <v>45079</v>
       </c>
       <c r="G46" s="2">
-        <v>11368</v>
+        <v>47268</v>
       </c>
       <c r="H46" s="2">
-        <v>12469</v>
+        <v>51122</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="L46" s="2">
-        <v>44973</v>
+        <v>157315</v>
       </c>
       <c r="M46" s="2">
-        <f t="shared" si="1"/>
-        <v>44973</v>
+        <f t="shared" si="3"/>
+        <v>157315</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
+        <v>143469</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>149</v>
+      </c>
+      <c r="B47" s="2">
+        <v>8716</v>
+      </c>
+      <c r="C47" s="2">
+        <v>11458</v>
+      </c>
+      <c r="D47" s="2">
+        <v>12611</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="20"/>
+        <v>12188</v>
+      </c>
+      <c r="F47" s="2">
+        <v>7309</v>
+      </c>
+      <c r="G47" s="2">
+        <v>11368</v>
+      </c>
+      <c r="H47" s="2">
+        <v>12469</v>
+      </c>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="L47" s="2">
+        <v>44973</v>
+      </c>
+      <c r="M47" s="2">
+        <f t="shared" si="3"/>
+        <v>44973</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2">
+        <f t="shared" si="4"/>
         <v>31146</v>
       </c>
     </row>
-    <row r="47" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="3">
-        <f>SUM(B43:B46)</f>
+    <row r="48" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="3">
+        <f>SUM(B44:B47)</f>
         <v>569631</v>
       </c>
-      <c r="C47" s="3">
-        <f t="shared" ref="C47:I47" si="19">SUM(C43:C46)</f>
+      <c r="C48" s="3">
+        <f t="shared" ref="C48:I48" si="21">SUM(C44:C47)</f>
         <v>642568</v>
       </c>
-      <c r="D47" s="3">
-        <f t="shared" si="19"/>
+      <c r="D48" s="3">
+        <f t="shared" si="21"/>
         <v>694115</v>
       </c>
-      <c r="E47" s="3">
-        <f t="shared" si="19"/>
+      <c r="E48" s="3">
+        <f t="shared" si="21"/>
         <v>852131</v>
       </c>
-      <c r="F47" s="3">
-        <f t="shared" si="19"/>
+      <c r="F48" s="3">
+        <f t="shared" si="21"/>
         <v>628703</v>
       </c>
-      <c r="G47" s="3">
-        <f t="shared" si="19"/>
+      <c r="G48" s="3">
+        <f t="shared" si="21"/>
         <v>633674</v>
       </c>
-      <c r="H47" s="3">
-        <f t="shared" si="19"/>
+      <c r="H48" s="3">
+        <f t="shared" si="21"/>
         <v>679824</v>
       </c>
-      <c r="I47" s="3">
-        <f t="shared" si="19"/>
+      <c r="I48" s="3">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="J47" s="3"/>
-      <c r="L47" s="3">
-        <f>SUM(L43:L46)</f>
+      <c r="J48" s="3"/>
+      <c r="L48" s="3">
+        <f>SUM(L44:L47)</f>
         <v>2758445</v>
       </c>
-      <c r="M47" s="3">
-        <f t="shared" si="1"/>
+      <c r="M48" s="3">
+        <f t="shared" si="3"/>
         <v>2758445</v>
       </c>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3">
-        <f t="shared" si="2"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3">
+        <f t="shared" si="4"/>
         <v>1942201</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="2">
-        <v>368262</v>
-      </c>
-      <c r="C48" s="2">
-        <v>414800</v>
-      </c>
-      <c r="D48" s="2">
-        <v>454598</v>
-      </c>
-      <c r="E48" s="2">
-        <f>L48-D48-C48-B48</f>
-        <v>626898</v>
-      </c>
-      <c r="F48" s="2">
-        <v>412239</v>
-      </c>
-      <c r="G48" s="2">
-        <v>422236</v>
-      </c>
-      <c r="H48" s="2">
-        <v>458345</v>
-      </c>
-      <c r="L48" s="2">
-        <v>1864558</v>
-      </c>
-      <c r="M48" s="2">
-        <f t="shared" si="1"/>
-        <v>1864558</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2">
-        <f t="shared" si="2"/>
-        <v>1292820</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B49" s="2">
-        <v>65103</v>
+        <v>368262</v>
       </c>
       <c r="C49" s="2">
-        <v>73086</v>
+        <v>414800</v>
       </c>
       <c r="D49" s="2">
-        <v>78585</v>
+        <v>454598</v>
       </c>
       <c r="E49" s="2">
-        <f t="shared" ref="E49:E51" si="20">L49-D49-C49-B49</f>
-        <v>63147</v>
+        <f>L49-D49-C49-B49</f>
+        <v>626898</v>
       </c>
       <c r="F49" s="2">
-        <v>73151</v>
+        <v>412239</v>
       </c>
       <c r="G49" s="2">
-        <v>74239</v>
+        <v>422236</v>
       </c>
       <c r="H49" s="2">
-        <v>83542</v>
+        <v>458345</v>
       </c>
       <c r="L49" s="2">
-        <v>279921</v>
+        <v>1864558</v>
       </c>
       <c r="M49" s="2">
-        <f t="shared" si="1"/>
-        <v>279921</v>
+        <f t="shared" si="3"/>
+        <v>1864558</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2">
-        <f t="shared" si="2"/>
-        <v>230932</v>
+        <f t="shared" si="4"/>
+        <v>1292820</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B50" s="2">
-        <v>12409</v>
+        <v>65103</v>
       </c>
       <c r="C50" s="2">
-        <v>14208</v>
+        <v>73086</v>
       </c>
       <c r="D50" s="2">
-        <v>14393</v>
+        <v>78585</v>
       </c>
       <c r="E50" s="2">
-        <f t="shared" si="20"/>
-        <v>12971</v>
+        <f t="shared" ref="E50:E52" si="22">L50-D50-C50-B50</f>
+        <v>63147</v>
       </c>
       <c r="F50" s="2">
-        <v>16776</v>
+        <v>73151</v>
       </c>
       <c r="G50" s="2">
-        <v>16144</v>
+        <v>74239</v>
       </c>
       <c r="H50" s="2">
-        <v>17833</v>
+        <v>83542</v>
       </c>
       <c r="L50" s="2">
-        <v>53981</v>
+        <v>279921</v>
       </c>
       <c r="M50" s="2">
-        <f t="shared" si="1"/>
-        <v>53981</v>
+        <f t="shared" si="3"/>
+        <v>279921</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2">
-        <f t="shared" si="2"/>
-        <v>50753</v>
+        <f t="shared" si="4"/>
+        <v>230932</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B51" s="2">
-        <v>5277</v>
+        <v>12409</v>
       </c>
       <c r="C51" s="2">
-        <v>7075</v>
+        <v>14208</v>
       </c>
       <c r="D51" s="2">
-        <v>8198</v>
+        <v>14393</v>
       </c>
       <c r="E51" s="2">
-        <f t="shared" si="20"/>
-        <v>8081</v>
+        <f t="shared" si="22"/>
+        <v>12971</v>
       </c>
       <c r="F51" s="2">
-        <v>4782</v>
+        <v>16776</v>
       </c>
       <c r="G51" s="2">
-        <v>8676</v>
+        <v>16144</v>
       </c>
       <c r="H51" s="2">
-        <v>9610</v>
+        <v>17833</v>
       </c>
       <c r="L51" s="2">
-        <v>28631</v>
+        <v>53981</v>
       </c>
       <c r="M51" s="2">
-        <f t="shared" si="1"/>
-        <v>28631</v>
+        <f t="shared" si="3"/>
+        <v>53981</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
+        <v>50753</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="2">
+        <v>5277</v>
+      </c>
+      <c r="C52" s="2">
+        <v>7075</v>
+      </c>
+      <c r="D52" s="2">
+        <v>8198</v>
+      </c>
+      <c r="E52" s="2">
+        <f t="shared" si="22"/>
+        <v>8081</v>
+      </c>
+      <c r="F52" s="2">
+        <v>4782</v>
+      </c>
+      <c r="G52" s="2">
+        <v>8676</v>
+      </c>
+      <c r="H52" s="2">
+        <v>9610</v>
+      </c>
+      <c r="L52" s="2">
+        <v>28631</v>
+      </c>
+      <c r="M52" s="2">
+        <f t="shared" si="3"/>
+        <v>28631</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2">
+        <f t="shared" si="4"/>
         <v>23068</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52" s="3">
-        <f>SUM(B48:B51)</f>
-        <v>451051</v>
-      </c>
-      <c r="C52" s="3">
-        <f t="shared" ref="C52:I52" si="21">SUM(C48:C51)</f>
-        <v>509169</v>
-      </c>
-      <c r="D52" s="3">
-        <f t="shared" si="21"/>
-        <v>555774</v>
-      </c>
-      <c r="E52" s="3">
-        <f t="shared" si="21"/>
-        <v>711097</v>
-      </c>
-      <c r="F52" s="3">
-        <f t="shared" si="21"/>
-        <v>506948</v>
-      </c>
-      <c r="G52" s="3">
-        <f t="shared" si="21"/>
-        <v>521295</v>
-      </c>
-      <c r="H52" s="3">
-        <f t="shared" si="21"/>
-        <v>569330</v>
-      </c>
-      <c r="I52" s="3">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="J52" s="3"/>
-      <c r="L52" s="3">
-        <f>SUM(L48:L51)</f>
-        <v>2227091</v>
-      </c>
-      <c r="M52" s="3">
-        <f t="shared" si="1"/>
-        <v>2227091</v>
-      </c>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3">
-        <f t="shared" si="2"/>
-        <v>1597573</v>
       </c>
     </row>
     <row r="53" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B53" s="3">
-        <f>B43-B48</f>
-        <v>61114</v>
+        <f>SUM(B49:B52)</f>
+        <v>451051</v>
       </c>
       <c r="C53" s="3">
-        <f t="shared" ref="C53:O53" si="22">C43-C48</f>
-        <v>65322</v>
+        <f t="shared" ref="C53:I53" si="23">SUM(C49:C52)</f>
+        <v>509169</v>
       </c>
       <c r="D53" s="3">
-        <f t="shared" si="22"/>
-        <v>67177</v>
+        <f t="shared" si="23"/>
+        <v>555774</v>
       </c>
       <c r="E53" s="3">
-        <f t="shared" si="22"/>
-        <v>87145</v>
+        <f t="shared" si="23"/>
+        <v>711097</v>
       </c>
       <c r="F53" s="3">
-        <f t="shared" si="22"/>
-        <v>55850</v>
+        <f t="shared" si="23"/>
+        <v>506948</v>
       </c>
       <c r="G53" s="3">
-        <f t="shared" si="22"/>
-        <v>42997</v>
+        <f t="shared" si="23"/>
+        <v>521295</v>
       </c>
       <c r="H53" s="3">
-        <f t="shared" si="22"/>
-        <v>36802</v>
+        <f t="shared" si="23"/>
+        <v>569330</v>
       </c>
       <c r="I53" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
       <c r="L53" s="3">
-        <f t="shared" ref="L53" si="23">L43-L48</f>
-        <v>280758</v>
+        <f>SUM(L49:L52)</f>
+        <v>2227091</v>
       </c>
       <c r="M53" s="3">
-        <f t="shared" si="22"/>
-        <v>280758</v>
+        <f t="shared" si="3"/>
+        <v>2227091</v>
       </c>
       <c r="N53" s="3"/>
       <c r="O53" s="3">
-        <f t="shared" si="22"/>
-        <v>135649</v>
+        <f t="shared" si="4"/>
+        <v>1597573</v>
       </c>
     </row>
     <row r="54" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B54" s="3">
-        <f t="shared" ref="B54:B56" si="24">B44-B49</f>
-        <v>31503</v>
+        <f>B44-B49</f>
+        <v>61114</v>
       </c>
       <c r="C54" s="3">
-        <f t="shared" ref="C54:O54" si="25">C44-C49</f>
-        <v>35424</v>
+        <f t="shared" ref="C54:O54" si="24">C44-C49</f>
+        <v>65322</v>
       </c>
       <c r="D54" s="3">
-        <f t="shared" si="25"/>
-        <v>36377</v>
+        <f t="shared" si="24"/>
+        <v>67177</v>
       </c>
       <c r="E54" s="3">
-        <f t="shared" si="25"/>
-        <v>27616</v>
+        <f t="shared" si="24"/>
+        <v>87145</v>
       </c>
       <c r="F54" s="3">
-        <f t="shared" si="25"/>
-        <v>35075</v>
+        <f t="shared" si="24"/>
+        <v>55850</v>
       </c>
       <c r="G54" s="3">
-        <f t="shared" si="25"/>
-        <v>35566</v>
+        <f t="shared" si="24"/>
+        <v>42997</v>
       </c>
       <c r="H54" s="3">
-        <f t="shared" si="25"/>
-        <v>37544</v>
+        <f t="shared" si="24"/>
+        <v>36802</v>
       </c>
       <c r="I54" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3">
-        <f t="shared" ref="L54" si="26">L44-L49</f>
-        <v>130920</v>
+        <f t="shared" ref="L54" si="25">L44-L49</f>
+        <v>280758</v>
       </c>
       <c r="M54" s="3">
-        <f t="shared" si="25"/>
-        <v>130920</v>
+        <f t="shared" si="24"/>
+        <v>280758</v>
       </c>
       <c r="N54" s="3"/>
       <c r="O54" s="3">
-        <f t="shared" si="25"/>
-        <v>108185</v>
+        <f t="shared" si="24"/>
+        <v>135649</v>
       </c>
     </row>
     <row r="55" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B55" s="3">
-        <f t="shared" si="24"/>
-        <v>22524</v>
+        <f t="shared" ref="B55:B57" si="26">B45-B50</f>
+        <v>31503</v>
       </c>
       <c r="C55" s="3">
         <f t="shared" ref="C55:O55" si="27">C45-C50</f>
-        <v>28270</v>
+        <v>35424</v>
       </c>
       <c r="D55" s="3">
         <f t="shared" si="27"/>
-        <v>30374</v>
+        <v>36377</v>
       </c>
       <c r="E55" s="3">
         <f t="shared" si="27"/>
-        <v>22166</v>
+        <v>27616</v>
       </c>
       <c r="F55" s="3">
         <f t="shared" si="27"/>
-        <v>28303</v>
+        <v>35075</v>
       </c>
       <c r="G55" s="3">
         <f t="shared" si="27"/>
-        <v>31124</v>
+        <v>35566</v>
       </c>
       <c r="H55" s="3">
         <f t="shared" si="27"/>
-        <v>33289</v>
+        <v>37544</v>
       </c>
       <c r="I55" s="3">
         <f t="shared" si="27"/>
@@ -2943,49 +2935,49 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3">
         <f t="shared" ref="L55" si="28">L45-L50</f>
-        <v>103334</v>
+        <v>130920</v>
       </c>
       <c r="M55" s="3">
         <f t="shared" si="27"/>
-        <v>103334</v>
+        <v>130920</v>
       </c>
       <c r="N55" s="3"/>
       <c r="O55" s="3">
         <f t="shared" si="27"/>
-        <v>92716</v>
+        <v>108185</v>
       </c>
     </row>
     <row r="56" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B56" s="3">
-        <f t="shared" si="24"/>
-        <v>3439</v>
+        <f t="shared" si="26"/>
+        <v>22524</v>
       </c>
       <c r="C56" s="3">
         <f t="shared" ref="C56:O56" si="29">C46-C51</f>
-        <v>4383</v>
+        <v>28270</v>
       </c>
       <c r="D56" s="3">
         <f t="shared" si="29"/>
-        <v>4413</v>
+        <v>30374</v>
       </c>
       <c r="E56" s="3">
         <f t="shared" si="29"/>
-        <v>4107</v>
+        <v>22166</v>
       </c>
       <c r="F56" s="3">
         <f t="shared" si="29"/>
-        <v>2527</v>
+        <v>28303</v>
       </c>
       <c r="G56" s="3">
         <f t="shared" si="29"/>
-        <v>2692</v>
+        <v>31124</v>
       </c>
       <c r="H56" s="3">
         <f t="shared" si="29"/>
-        <v>2859</v>
+        <v>33289</v>
       </c>
       <c r="I56" s="3">
         <f t="shared" si="29"/>
@@ -2995,290 +2987,297 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3">
         <f t="shared" ref="L56" si="30">L46-L51</f>
-        <v>16342</v>
+        <v>103334</v>
       </c>
       <c r="M56" s="3">
         <f t="shared" si="29"/>
-        <v>16342</v>
+        <v>103334</v>
       </c>
       <c r="N56" s="3"/>
       <c r="O56" s="3">
         <f t="shared" si="29"/>
-        <v>8078</v>
+        <v>92716</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B57" s="3">
-        <f>SUM(B53:B56)</f>
-        <v>118580</v>
+        <f t="shared" si="26"/>
+        <v>3439</v>
       </c>
       <c r="C57" s="3">
-        <f t="shared" ref="C57:I57" si="31">SUM(C53:C56)</f>
-        <v>133399</v>
+        <f t="shared" ref="C57:O57" si="31">C47-C52</f>
+        <v>4383</v>
       </c>
       <c r="D57" s="3">
         <f t="shared" si="31"/>
-        <v>138341</v>
+        <v>4413</v>
       </c>
       <c r="E57" s="3">
         <f t="shared" si="31"/>
-        <v>141034</v>
+        <v>4107</v>
       </c>
       <c r="F57" s="3">
         <f t="shared" si="31"/>
-        <v>121755</v>
+        <v>2527</v>
       </c>
       <c r="G57" s="3">
         <f t="shared" si="31"/>
-        <v>112379</v>
+        <v>2692</v>
       </c>
       <c r="H57" s="3">
         <f t="shared" si="31"/>
-        <v>110494</v>
+        <v>2859</v>
       </c>
       <c r="I57" s="3">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
       <c r="L57" s="3">
-        <f t="shared" ref="L57" si="32">SUM(L53:L56)</f>
-        <v>531354</v>
+        <f t="shared" ref="L57" si="32">L47-L52</f>
+        <v>16342</v>
       </c>
       <c r="M57" s="3">
-        <f t="shared" si="1"/>
-        <v>531354</v>
+        <f t="shared" si="31"/>
+        <v>16342</v>
       </c>
       <c r="N57" s="3"/>
       <c r="O57" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="31"/>
+        <v>8078</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" s="3">
+        <f>SUM(B54:B57)</f>
+        <v>118580</v>
+      </c>
+      <c r="C58" s="3">
+        <f t="shared" ref="C58:I58" si="33">SUM(C54:C57)</f>
+        <v>133399</v>
+      </c>
+      <c r="D58" s="3">
+        <f t="shared" si="33"/>
+        <v>138341</v>
+      </c>
+      <c r="E58" s="3">
+        <f t="shared" si="33"/>
+        <v>141034</v>
+      </c>
+      <c r="F58" s="3">
+        <f t="shared" si="33"/>
+        <v>121755</v>
+      </c>
+      <c r="G58" s="3">
+        <f t="shared" si="33"/>
+        <v>112379</v>
+      </c>
+      <c r="H58" s="3">
+        <f t="shared" si="33"/>
+        <v>110494</v>
+      </c>
+      <c r="I58" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="3"/>
+      <c r="L58" s="3">
+        <f t="shared" ref="L58" si="34">SUM(L54:L57)</f>
+        <v>531354</v>
+      </c>
+      <c r="M58" s="3">
+        <f t="shared" si="3"/>
+        <v>531354</v>
+      </c>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3">
+        <f t="shared" si="4"/>
         <v>344628</v>
       </c>
     </row>
-    <row r="58" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B58" s="2">
+    <row r="59" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" s="2">
         <v>81315</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C59" s="2">
         <v>88751</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D59" s="2">
         <v>92115</v>
       </c>
-      <c r="E58" s="2">
-        <f t="shared" ref="E58" si="33">L58-D58-C58-B58</f>
+      <c r="E59" s="2">
+        <f t="shared" ref="E59" si="35">L59-D59-C59-B59</f>
         <v>100328</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F59" s="2">
         <v>99158</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G59" s="2">
         <v>95156</v>
       </c>
-      <c r="H58" s="2">
+      <c r="H59" s="2">
         <v>98773</v>
       </c>
-      <c r="L58" s="2">
+      <c r="L59" s="2">
         <v>362509</v>
       </c>
-      <c r="M58" s="2">
-        <f>SUM(B58:E58)</f>
+      <c r="M59" s="2">
+        <f>SUM(B59:E59)</f>
         <v>362509</v>
       </c>
-      <c r="O58" s="2">
-        <f>SUM(F58:I58)</f>
+      <c r="O59" s="2">
+        <f>SUM(F59:I59)</f>
         <v>293087</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>108</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2">
-        <v>531</v>
-      </c>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="M59" s="2">
-        <f t="shared" ref="M59:M60" si="34">SUM(B59:E59)</f>
-        <v>0</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2">
-        <f t="shared" ref="O59:O60" si="35">SUM(F59:I59)</f>
-        <v>531</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>109</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
       <c r="E60" s="2"/>
-      <c r="G60">
-        <v>942</v>
-      </c>
-      <c r="H60">
-        <v>264</v>
-      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2">
+        <v>531</v>
+      </c>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
       <c r="M60" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="M60:M61" si="36">SUM(B60:E60)</f>
         <v>0</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2">
-        <f t="shared" si="35"/>
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B61" s="3">
-        <f>B57-B58-B59-B60</f>
-        <v>37265</v>
-      </c>
-      <c r="C61" s="3">
-        <f t="shared" ref="C61:O61" si="36">C57-C58-C59-C60</f>
-        <v>44648</v>
-      </c>
-      <c r="D61" s="3">
-        <f t="shared" si="36"/>
-        <v>46226</v>
-      </c>
-      <c r="E61" s="3">
-        <f t="shared" si="36"/>
-        <v>40706</v>
-      </c>
-      <c r="F61" s="3">
-        <f t="shared" si="36"/>
-        <v>22597</v>
-      </c>
-      <c r="G61" s="3">
-        <f t="shared" si="36"/>
-        <v>15750</v>
-      </c>
-      <c r="H61" s="3">
-        <f t="shared" si="36"/>
-        <v>11457</v>
-      </c>
-      <c r="I61" s="3">
+        <f t="shared" ref="O60:O61" si="37">SUM(F60:I60)</f>
+        <v>531</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>105</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="G61">
+        <v>942</v>
+      </c>
+      <c r="H61">
+        <v>264</v>
+      </c>
+      <c r="M61" s="2">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3">
-        <f t="shared" si="36"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2">
+        <f t="shared" si="37"/>
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" s="3">
+        <f>B58-B59-B60-B61</f>
+        <v>37265</v>
+      </c>
+      <c r="C62" s="3">
+        <f t="shared" ref="C62:O62" si="38">C58-C59-C60-C61</f>
+        <v>44648</v>
+      </c>
+      <c r="D62" s="3">
+        <f t="shared" si="38"/>
+        <v>46226</v>
+      </c>
+      <c r="E62" s="3">
+        <f t="shared" si="38"/>
+        <v>40706</v>
+      </c>
+      <c r="F62" s="3">
+        <f t="shared" si="38"/>
+        <v>22597</v>
+      </c>
+      <c r="G62" s="3">
+        <f t="shared" si="38"/>
+        <v>15750</v>
+      </c>
+      <c r="H62" s="3">
+        <f t="shared" si="38"/>
+        <v>11457</v>
+      </c>
+      <c r="I62" s="3">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3">
+        <f t="shared" si="38"/>
         <v>168845</v>
       </c>
-      <c r="M61" s="3">
-        <f t="shared" si="36"/>
+      <c r="M62" s="3">
+        <f t="shared" si="38"/>
         <v>168845</v>
       </c>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3">
-        <f t="shared" si="36"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3">
+        <f t="shared" si="38"/>
         <v>49804</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>22</v>
-      </c>
-      <c r="B62" s="2">
-        <v>720</v>
-      </c>
-      <c r="C62" s="2">
-        <v>641</v>
-      </c>
-      <c r="D62" s="2">
-        <v>-235</v>
-      </c>
-      <c r="E62" s="2">
-        <f t="shared" ref="E62:E66" si="37">L62-D62-C62-B62</f>
-        <v>2174</v>
-      </c>
-      <c r="F62" s="2">
-        <v>-288</v>
-      </c>
-      <c r="G62" s="2">
-        <v>-7048</v>
-      </c>
-      <c r="H62" s="2">
-        <v>3097</v>
-      </c>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2">
-        <v>3300</v>
-      </c>
-      <c r="M62" s="2">
-        <f t="shared" si="1"/>
-        <v>3300</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2">
-        <f t="shared" si="2"/>
-        <v>-4239</v>
-      </c>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="2"/>
-      <c r="R62" s="2"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B63" s="2">
-        <v>-1272</v>
+        <v>720</v>
       </c>
       <c r="C63" s="2">
-        <v>-2457</v>
+        <v>641</v>
       </c>
       <c r="D63" s="2">
-        <v>-4045</v>
+        <v>-235</v>
       </c>
       <c r="E63" s="2">
-        <f t="shared" si="37"/>
-        <v>-6028</v>
+        <f t="shared" ref="E63:E67" si="39">L63-D63-C63-B63</f>
+        <v>2174</v>
       </c>
       <c r="F63" s="2">
-        <v>-7064</v>
+        <v>-288</v>
       </c>
       <c r="G63" s="2">
-        <v>-9218</v>
+        <v>-7048</v>
       </c>
       <c r="H63" s="2">
-        <v>-9993</v>
+        <v>3097</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2">
-        <v>-13802</v>
+        <v>3300</v>
       </c>
       <c r="M63" s="2">
-        <f t="shared" si="1"/>
-        <v>-13802</v>
+        <f t="shared" si="3"/>
+        <v>3300</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2">
-        <f t="shared" si="2"/>
-        <v>-26275</v>
+        <f t="shared" si="4"/>
+        <v>-4239</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
@@ -3286,347 +3285,363 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B64" s="2">
-        <v>-1274</v>
+        <v>-1272</v>
       </c>
       <c r="C64" s="2">
-        <v>-1241</v>
+        <v>-2457</v>
       </c>
       <c r="D64" s="2">
-        <v>-1494</v>
+        <v>-4045</v>
       </c>
       <c r="E64" s="2">
-        <f t="shared" si="37"/>
-        <v>-3294</v>
+        <f t="shared" si="39"/>
+        <v>-6028</v>
       </c>
       <c r="F64" s="2">
-        <v>-2459</v>
+        <v>-7064</v>
       </c>
       <c r="G64" s="2">
-        <v>-3734</v>
+        <v>-9218</v>
       </c>
       <c r="H64" s="2">
-        <v>-4286</v>
+        <v>-9993</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2">
-        <v>-7303</v>
+        <v>-13802</v>
       </c>
       <c r="M64" s="2">
-        <f t="shared" si="1"/>
-        <v>-7303</v>
+        <f t="shared" si="3"/>
+        <v>-13802</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2">
-        <f t="shared" si="2"/>
-        <v>-10479</v>
+        <f t="shared" si="4"/>
+        <v>-26275</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
     </row>
-    <row r="65" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B65" s="3">
-        <f>B61+SUM(B62:B64)</f>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>19</v>
+      </c>
+      <c r="B65" s="2">
+        <v>-1274</v>
+      </c>
+      <c r="C65" s="2">
+        <v>-1241</v>
+      </c>
+      <c r="D65" s="2">
+        <v>-1494</v>
+      </c>
+      <c r="E65" s="2">
+        <f t="shared" si="39"/>
+        <v>-3294</v>
+      </c>
+      <c r="F65" s="2">
+        <v>-2459</v>
+      </c>
+      <c r="G65" s="2">
+        <v>-3734</v>
+      </c>
+      <c r="H65" s="2">
+        <v>-4286</v>
+      </c>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2">
+        <v>-7303</v>
+      </c>
+      <c r="M65" s="2">
+        <f t="shared" si="3"/>
+        <v>-7303</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2">
+        <f t="shared" si="4"/>
+        <v>-10479</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+    </row>
+    <row r="66" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" s="3">
+        <f>B62+SUM(B63:B65)</f>
         <v>35439</v>
       </c>
-      <c r="C65" s="3">
-        <f t="shared" ref="C65:L65" si="38">C61+SUM(C62:C64)</f>
+      <c r="C66" s="3">
+        <f t="shared" ref="C66:L66" si="40">C62+SUM(C63:C65)</f>
         <v>41591</v>
       </c>
-      <c r="D65" s="3">
-        <f t="shared" si="38"/>
+      <c r="D66" s="3">
+        <f t="shared" si="40"/>
         <v>40452</v>
       </c>
-      <c r="E65" s="3">
-        <f t="shared" si="38"/>
+      <c r="E66" s="3">
+        <f t="shared" si="40"/>
         <v>33558</v>
       </c>
-      <c r="F65" s="3">
-        <f t="shared" si="38"/>
+      <c r="F66" s="3">
+        <f t="shared" si="40"/>
         <v>12786</v>
       </c>
-      <c r="G65" s="3">
-        <f t="shared" si="38"/>
+      <c r="G66" s="3">
+        <f t="shared" si="40"/>
         <v>-4250</v>
       </c>
-      <c r="H65" s="3">
-        <f t="shared" si="38"/>
+      <c r="H66" s="3">
+        <f t="shared" si="40"/>
         <v>275</v>
       </c>
-      <c r="I65" s="3">
-        <f t="shared" si="38"/>
+      <c r="I66" s="3">
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="J65" s="3"/>
-      <c r="L65" s="3">
-        <f t="shared" si="38"/>
+      <c r="J66" s="3"/>
+      <c r="L66" s="3">
+        <f t="shared" si="40"/>
         <v>151040</v>
       </c>
-      <c r="M65" s="3">
-        <f t="shared" si="1"/>
+      <c r="M66" s="3">
+        <f t="shared" si="3"/>
         <v>151040</v>
       </c>
-      <c r="N65" s="3"/>
-      <c r="O65" s="3">
-        <f t="shared" si="2"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3">
+        <f t="shared" si="4"/>
         <v>8811</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>59</v>
+      </c>
+      <c r="B67" s="2">
+        <v>8474</v>
+      </c>
+      <c r="C67" s="2">
+        <v>10270</v>
+      </c>
+      <c r="D67" s="2">
+        <v>10259</v>
+      </c>
+      <c r="E67" s="2">
+        <f t="shared" si="39"/>
+        <v>9596</v>
+      </c>
+      <c r="F67" s="2">
+        <v>3345</v>
+      </c>
+      <c r="G67" s="2">
+        <v>54</v>
+      </c>
+      <c r="H67" s="2">
+        <v>-1438</v>
+      </c>
+      <c r="L67" s="2">
+        <v>38599</v>
+      </c>
+      <c r="M67" s="2">
+        <f t="shared" si="3"/>
+        <v>38599</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2">
+        <f t="shared" si="4"/>
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B68" s="3">
+        <f>B66-B67</f>
+        <v>26965</v>
+      </c>
+      <c r="C68" s="3">
+        <f t="shared" ref="C68:L68" si="41">C66-C67</f>
+        <v>31321</v>
+      </c>
+      <c r="D68" s="3">
+        <f t="shared" si="41"/>
+        <v>30193</v>
+      </c>
+      <c r="E68" s="3">
+        <f t="shared" si="41"/>
+        <v>23962</v>
+      </c>
+      <c r="F68" s="3">
+        <f t="shared" si="41"/>
+        <v>9441</v>
+      </c>
+      <c r="G68" s="3">
+        <f t="shared" si="41"/>
+        <v>-4304</v>
+      </c>
+      <c r="H68" s="3">
+        <f t="shared" si="41"/>
+        <v>1713</v>
+      </c>
+      <c r="I68" s="3">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="3"/>
+      <c r="L68" s="3">
+        <f t="shared" si="41"/>
+        <v>112441</v>
+      </c>
+      <c r="M68" s="3">
+        <f t="shared" si="3"/>
+        <v>112441</v>
+      </c>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3">
+        <f t="shared" si="4"/>
+        <v>6850</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B70" s="5">
+        <f>B68/B73</f>
+        <v>1.2015952943273474</v>
+      </c>
+      <c r="C70" s="5">
+        <f t="shared" ref="C70:F70" si="42">C68/C73</f>
+        <v>1.3935308773803168</v>
+      </c>
+      <c r="D70" s="5">
+        <f t="shared" si="42"/>
+        <v>1.3411958066808813</v>
+      </c>
+      <c r="E70" s="5">
+        <f t="shared" si="42"/>
+        <v>1.0653092073089405</v>
+      </c>
+      <c r="F70" s="5">
+        <f t="shared" si="42"/>
+        <v>0.41881820601543784</v>
+      </c>
+      <c r="G70" s="5">
+        <f t="shared" ref="G70:I70" si="43">G68/G73</f>
+        <v>-0.19029933236061369</v>
+      </c>
+      <c r="H70" s="5">
+        <f t="shared" si="43"/>
+        <v>7.569263399761389E-2</v>
+      </c>
+      <c r="I70" s="5" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M70" s="5">
+        <f t="shared" ref="M70" si="44">M68/M73</f>
+        <v>4.998933001378207</v>
+      </c>
+      <c r="O70" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B71" s="5">
+        <f>B68/B74</f>
+        <v>1.201220598717035</v>
+      </c>
+      <c r="C71" s="5">
+        <f t="shared" ref="C71:F71" si="45">C68/C74</f>
+        <v>1.3930350471446362</v>
+      </c>
+      <c r="D71" s="5">
+        <f t="shared" si="45"/>
+        <v>1.3408979881867034</v>
+      </c>
+      <c r="E71" s="5">
+        <f t="shared" si="45"/>
+        <v>1.0650251122272101</v>
+      </c>
+      <c r="F71" s="5">
+        <f t="shared" si="45"/>
+        <v>0.41874390135722522</v>
+      </c>
+      <c r="G71" s="5">
+        <f t="shared" ref="G71:I71" si="46">G68/G74</f>
+        <v>-0.19029933236061369</v>
+      </c>
+      <c r="H71" s="5">
+        <f t="shared" si="46"/>
+        <v>7.569263399761389E-2</v>
+      </c>
+      <c r="I71" s="5" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M71" s="5">
+        <f t="shared" ref="M71" si="47">M68/M74</f>
+        <v>4.9975998933285926</v>
+      </c>
+      <c r="O71" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>63</v>
       </c>
-      <c r="B66" s="2">
-        <v>8474</v>
-      </c>
-      <c r="C66" s="2">
-        <v>10270</v>
-      </c>
-      <c r="D66" s="2">
-        <v>10259</v>
-      </c>
-      <c r="E66" s="2">
-        <f t="shared" si="37"/>
-        <v>9596</v>
-      </c>
-      <c r="F66" s="2">
-        <v>3345</v>
-      </c>
-      <c r="G66" s="2">
-        <v>54</v>
-      </c>
-      <c r="H66" s="2">
-        <v>-1438</v>
-      </c>
-      <c r="L66" s="2">
-        <v>38599</v>
-      </c>
-      <c r="M66" s="2">
-        <f t="shared" si="1"/>
-        <v>38599</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2">
-        <f t="shared" si="2"/>
-        <v>1961</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B67" s="3">
-        <f>B65-B66</f>
-        <v>26965</v>
-      </c>
-      <c r="C67" s="3">
-        <f t="shared" ref="C67:L67" si="39">C65-C66</f>
-        <v>31321</v>
-      </c>
-      <c r="D67" s="3">
-        <f t="shared" si="39"/>
-        <v>30193</v>
-      </c>
-      <c r="E67" s="3">
-        <f t="shared" si="39"/>
-        <v>23962</v>
-      </c>
-      <c r="F67" s="3">
-        <f t="shared" si="39"/>
-        <v>9441</v>
-      </c>
-      <c r="G67" s="3">
-        <f t="shared" si="39"/>
-        <v>-4304</v>
-      </c>
-      <c r="H67" s="3">
-        <f t="shared" si="39"/>
-        <v>1713</v>
-      </c>
-      <c r="I67" s="3">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="J67" s="3"/>
-      <c r="L67" s="3">
-        <f t="shared" si="39"/>
-        <v>112441</v>
-      </c>
-      <c r="M67" s="3">
-        <f t="shared" si="1"/>
-        <v>112441</v>
-      </c>
-      <c r="N67" s="3"/>
-      <c r="O67" s="3">
-        <f t="shared" si="2"/>
-        <v>6850</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B69" s="5">
-        <f>B67/B72</f>
-        <v>1.2015952943273474</v>
-      </c>
-      <c r="C69" s="5">
-        <f t="shared" ref="C69:F69" si="40">C67/C72</f>
-        <v>1.3935308773803168</v>
-      </c>
-      <c r="D69" s="5">
-        <f t="shared" si="40"/>
-        <v>1.3411958066808813</v>
-      </c>
-      <c r="E69" s="5">
-        <f t="shared" si="40"/>
-        <v>1.0653092073089405</v>
-      </c>
-      <c r="F69" s="5">
-        <f t="shared" si="40"/>
-        <v>0.41881820601543784</v>
-      </c>
-      <c r="G69" s="5">
-        <f t="shared" ref="G69:I69" si="41">G67/G72</f>
-        <v>-0.19029933236061369</v>
-      </c>
-      <c r="H69" s="5">
-        <f t="shared" si="41"/>
-        <v>7.569263399761389E-2</v>
-      </c>
-      <c r="I69" s="5" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M69" s="5">
-        <f t="shared" ref="M69" si="42">M67/M72</f>
-        <v>4.998933001378207</v>
-      </c>
-      <c r="O69" s="5" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B70" s="5">
-        <f>B67/B73</f>
-        <v>1.201220598717035</v>
-      </c>
-      <c r="C70" s="5">
-        <f t="shared" ref="C70:F70" si="43">C67/C73</f>
-        <v>1.3930350471446362</v>
-      </c>
-      <c r="D70" s="5">
-        <f t="shared" si="43"/>
-        <v>1.3408979881867034</v>
-      </c>
-      <c r="E70" s="5">
-        <f t="shared" si="43"/>
-        <v>1.0650251122272101</v>
-      </c>
-      <c r="F70" s="5">
-        <f t="shared" si="43"/>
-        <v>0.41874390135722522</v>
-      </c>
-      <c r="G70" s="5">
-        <f t="shared" ref="G70:I70" si="44">G67/G73</f>
-        <v>-0.19029933236061369</v>
-      </c>
-      <c r="H70" s="5">
-        <f t="shared" si="44"/>
-        <v>7.569263399761389E-2</v>
-      </c>
-      <c r="I70" s="5" t="e">
-        <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M70" s="5">
-        <f t="shared" ref="M70" si="45">M67/M73</f>
-        <v>4.9975998933285926</v>
-      </c>
-      <c r="O70" s="5" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>67</v>
-      </c>
-      <c r="B72" s="4">
+      <c r="B73" s="4">
         <v>22441</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C73" s="4">
         <v>22476</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D73" s="4">
         <v>22512</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E73" s="4">
         <v>22493</v>
       </c>
-      <c r="F72" s="4">
+      <c r="F73" s="4">
         <v>22542</v>
-      </c>
-      <c r="G72" s="4">
-        <v>22617</v>
-      </c>
-      <c r="H72" s="4">
-        <v>22631</v>
-      </c>
-      <c r="M72" s="4">
-        <v>22493</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>68</v>
-      </c>
-      <c r="B73" s="4">
-        <v>22448</v>
-      </c>
-      <c r="C73" s="4">
-        <v>22484</v>
-      </c>
-      <c r="D73" s="4">
-        <v>22517</v>
-      </c>
-      <c r="E73" s="4">
-        <v>22499</v>
-      </c>
-      <c r="F73" s="4">
-        <v>22546</v>
       </c>
       <c r="G73" s="4">
         <v>22617</v>
@@ -3635,418 +3650,407 @@
         <v>22631</v>
       </c>
       <c r="M73" s="4">
+        <v>22493</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>64</v>
+      </c>
+      <c r="B74" s="4">
+        <v>22448</v>
+      </c>
+      <c r="C74" s="4">
+        <v>22484</v>
+      </c>
+      <c r="D74" s="4">
+        <v>22517</v>
+      </c>
+      <c r="E74" s="4">
         <v>22499</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="M74" s="3"/>
-      <c r="N74" s="3"/>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="1" t="str">
-        <f>B40</f>
+      <c r="F74" s="4">
+        <v>22546</v>
+      </c>
+      <c r="G74" s="4">
+        <v>22617</v>
+      </c>
+      <c r="H74" s="4">
+        <v>22631</v>
+      </c>
+      <c r="M74" s="4">
+        <v>22499</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="1" t="str">
+        <f>B41</f>
         <v>Q123</v>
       </c>
-      <c r="C75" s="1" t="str">
-        <f t="shared" ref="C75:O75" si="46">C40</f>
+      <c r="C76" s="1" t="str">
+        <f t="shared" ref="C76:O76" si="48">C41</f>
         <v>Q223</v>
       </c>
-      <c r="D75" s="1" t="str">
-        <f t="shared" si="46"/>
+      <c r="D76" s="1" t="str">
+        <f t="shared" si="48"/>
         <v>Q323</v>
       </c>
-      <c r="E75" s="1" t="str">
-        <f t="shared" si="46"/>
+      <c r="E76" s="1" t="str">
+        <f t="shared" si="48"/>
         <v>Q423</v>
       </c>
-      <c r="F75" s="1" t="str">
-        <f t="shared" si="46"/>
+      <c r="F76" s="1" t="str">
+        <f t="shared" si="48"/>
         <v>Q124</v>
       </c>
-      <c r="G75" s="1" t="str">
-        <f t="shared" si="46"/>
+      <c r="G76" s="1" t="str">
+        <f t="shared" si="48"/>
         <v>Q224</v>
       </c>
-      <c r="H75" s="1" t="str">
-        <f t="shared" si="46"/>
+      <c r="H76" s="1" t="str">
+        <f t="shared" si="48"/>
         <v>Q324</v>
       </c>
-      <c r="I75" s="1" t="str">
-        <f t="shared" si="46"/>
+      <c r="I76" s="1" t="str">
+        <f t="shared" si="48"/>
         <v>Q424</v>
       </c>
-      <c r="M75" s="1">
-        <f t="shared" si="46"/>
+      <c r="M76" s="1">
+        <f t="shared" si="48"/>
         <v>2023</v>
       </c>
-      <c r="O75" s="1">
-        <f t="shared" si="46"/>
+      <c r="O76" s="1">
+        <f t="shared" si="48"/>
         <v>2024</v>
       </c>
     </row>
-    <row r="76" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>51</v>
-      </c>
-      <c r="B77" s="2">
+    <row r="77" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>47</v>
+      </c>
+      <c r="B78" s="2">
         <v>26965</v>
       </c>
-      <c r="C77" s="2">
-        <f>58287-B77</f>
+      <c r="C78" s="2">
+        <f>58287-B78</f>
         <v>31322</v>
       </c>
-      <c r="D77" s="2">
-        <f>88479-C77-B77</f>
+      <c r="D78" s="2">
+        <f>88479-C78-B78</f>
         <v>30192</v>
       </c>
-      <c r="E77" s="2">
-        <f t="shared" ref="E77:E93" si="47">L77-D77-C77-B77</f>
+      <c r="E78" s="2">
+        <f t="shared" ref="E78:E94" si="49">L78-D78-C78-B78</f>
         <v>23962</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F78" s="2">
         <v>9441</v>
       </c>
-      <c r="G77" s="2">
-        <f>5136-F77</f>
+      <c r="G78" s="2">
+        <f>5136-F78</f>
         <v>-4305</v>
       </c>
-      <c r="H77" s="2">
-        <f>6850-G77-F77</f>
+      <c r="H78" s="2">
+        <f>6850-G78-F78</f>
         <v>1714</v>
       </c>
-      <c r="L77" s="2">
+      <c r="L78" s="2">
         <v>112441</v>
       </c>
-      <c r="M77" s="2">
-        <f t="shared" si="1"/>
+      <c r="M78" s="2">
+        <f t="shared" si="3"/>
         <v>112441</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2">
-        <f t="shared" si="2"/>
-        <v>6850</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>52</v>
-      </c>
-      <c r="B78" s="2">
-        <v>6948</v>
-      </c>
-      <c r="C78" s="2">
-        <f>14637-B78</f>
-        <v>7689</v>
-      </c>
-      <c r="D78" s="2">
-        <f>22871-C78-B78</f>
-        <v>8234</v>
-      </c>
-      <c r="E78" s="2">
-        <f t="shared" si="47"/>
-        <v>8608</v>
-      </c>
-      <c r="F78" s="2">
-        <v>8715</v>
-      </c>
-      <c r="G78" s="2">
-        <f>18413-F78</f>
-        <v>9698</v>
-      </c>
-      <c r="H78" s="2">
-        <f>28687-G78-F78</f>
-        <v>10274</v>
-      </c>
-      <c r="L78" s="2">
-        <v>31479</v>
-      </c>
-      <c r="M78" s="2">
-        <f t="shared" si="1"/>
-        <v>31479</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2">
-        <f t="shared" si="2"/>
-        <v>28687</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>6850</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="B79" s="2">
-        <v>0</v>
+        <v>6948</v>
       </c>
       <c r="C79" s="2">
-        <v>0</v>
+        <f>14637-B79</f>
+        <v>7689</v>
       </c>
       <c r="D79" s="2">
-        <f>0-C79-B79</f>
-        <v>0</v>
+        <f>22871-C79-B79</f>
+        <v>8234</v>
       </c>
       <c r="E79" s="2">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="F79" s="2"/>
+        <f t="shared" si="49"/>
+        <v>8608</v>
+      </c>
+      <c r="F79" s="2">
+        <v>8715</v>
+      </c>
       <c r="G79" s="2">
-        <f>1473-F79</f>
-        <v>1473</v>
+        <f>18413-F79</f>
+        <v>9698</v>
       </c>
       <c r="H79" s="2">
-        <f>1737-G79-F79</f>
-        <v>264</v>
+        <f>28687-G79-F79</f>
+        <v>10274</v>
       </c>
       <c r="L79" s="2">
-        <v>0</v>
+        <v>31479</v>
       </c>
       <c r="M79" s="2">
-        <f t="shared" ref="M79:M129" si="48">SUM(B79:E79)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>31479</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2">
-        <f t="shared" ref="O79:O132" si="49">SUM(F79:I79)</f>
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>28687</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="B80" s="2">
-        <v>-904</v>
+        <v>0</v>
       </c>
       <c r="C80" s="2">
-        <f>-2495-B80</f>
-        <v>-1591</v>
+        <v>0</v>
       </c>
       <c r="D80" s="2">
-        <f>-3731-C80-B80</f>
-        <v>-1236</v>
+        <f>0-C80-B80</f>
+        <v>0</v>
       </c>
       <c r="E80" s="2">
-        <f t="shared" si="47"/>
-        <v>6641</v>
-      </c>
-      <c r="F80" s="2">
-        <v>-379</v>
-      </c>
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="F80" s="2"/>
       <c r="G80" s="2">
-        <f>-650-F80</f>
-        <v>-271</v>
+        <f>1473-F80</f>
+        <v>1473</v>
       </c>
       <c r="H80" s="2">
-        <f>-3003-G80-F80</f>
-        <v>-2353</v>
+        <f>1737-G80-F80</f>
+        <v>264</v>
       </c>
       <c r="L80" s="2">
-        <v>2910</v>
+        <v>0</v>
       </c>
       <c r="M80" s="2">
-        <f t="shared" si="48"/>
-        <v>2910</v>
+        <f t="shared" ref="M80:M130" si="50">SUM(B80:E80)</f>
+        <v>0</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2">
-        <f t="shared" si="49"/>
-        <v>-3003</v>
+        <f t="shared" ref="O80:O133" si="51">SUM(F80:I80)</f>
+        <v>1737</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B81" s="2">
-        <v>659</v>
+        <v>-904</v>
       </c>
       <c r="C81" s="2">
-        <f>1443-B81</f>
-        <v>784</v>
+        <f>-2495-B81</f>
+        <v>-1591</v>
       </c>
       <c r="D81" s="2">
-        <f>2339-C81-B81</f>
-        <v>896</v>
+        <f>-3731-C81-B81</f>
+        <v>-1236</v>
       </c>
       <c r="E81" s="2">
-        <f t="shared" si="47"/>
-        <v>781</v>
+        <f t="shared" si="49"/>
+        <v>6641</v>
       </c>
       <c r="F81" s="2">
-        <v>837</v>
+        <v>-379</v>
       </c>
       <c r="G81" s="2">
-        <f>2099-F81</f>
-        <v>1262</v>
+        <f>-650-F81</f>
+        <v>-271</v>
       </c>
       <c r="H81" s="2">
-        <f>3203-G81-F81</f>
-        <v>1104</v>
+        <f>-3003-G81-F81</f>
+        <v>-2353</v>
       </c>
       <c r="L81" s="2">
-        <v>3120</v>
+        <v>2910</v>
       </c>
       <c r="M81" s="2">
-        <f t="shared" si="48"/>
-        <v>3120</v>
+        <f t="shared" si="50"/>
+        <v>2910</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2">
-        <f t="shared" si="49"/>
-        <v>3203</v>
+        <f t="shared" si="51"/>
+        <v>-3003</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="B82" s="2">
-        <v>64</v>
+        <v>659</v>
       </c>
       <c r="C82" s="2">
-        <f>129-B82</f>
-        <v>65</v>
+        <f>1443-B82</f>
+        <v>784</v>
       </c>
       <c r="D82" s="2">
-        <f>206-C82-B82</f>
-        <v>77</v>
+        <f>2339-C82-B82</f>
+        <v>896</v>
       </c>
       <c r="E82" s="2">
-        <f t="shared" si="47"/>
-        <v>86</v>
+        <f t="shared" si="49"/>
+        <v>781</v>
       </c>
       <c r="F82" s="2">
-        <v>88</v>
+        <v>837</v>
       </c>
       <c r="G82" s="2">
-        <f>493-F82</f>
-        <v>405</v>
+        <f>2099-F82</f>
+        <v>1262</v>
       </c>
       <c r="H82" s="2">
-        <f>537-G82-F82</f>
-        <v>44</v>
+        <f>3203-G82-F82</f>
+        <v>1104</v>
       </c>
       <c r="L82" s="2">
-        <v>292</v>
+        <v>3120</v>
       </c>
       <c r="M82" s="2">
-        <f t="shared" si="48"/>
-        <v>292</v>
+        <f t="shared" si="50"/>
+        <v>3120</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2">
-        <f t="shared" si="49"/>
-        <v>537</v>
+        <f t="shared" si="51"/>
+        <v>3203</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>115</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="B83" s="2">
+        <v>64</v>
+      </c>
+      <c r="C83" s="2">
+        <f>129-B83</f>
+        <v>65</v>
+      </c>
+      <c r="D83" s="2">
+        <f>206-C83-B83</f>
+        <v>77</v>
+      </c>
       <c r="E83" s="2">
-        <f t="shared" si="47"/>
-        <v>-1349</v>
-      </c>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
+        <f t="shared" si="49"/>
+        <v>86</v>
+      </c>
+      <c r="F83" s="2">
+        <v>88</v>
+      </c>
+      <c r="G83" s="2">
+        <f>493-F83</f>
+        <v>405</v>
+      </c>
+      <c r="H83" s="2">
+        <f>537-G83-F83</f>
+        <v>44</v>
+      </c>
       <c r="L83" s="2">
-        <v>-1349</v>
-      </c>
-      <c r="M83" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="M83" s="2">
+        <f t="shared" si="50"/>
+        <v>292</v>
+      </c>
       <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
+      <c r="O83" s="2">
+        <f t="shared" si="51"/>
+        <v>537</v>
+      </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
-      <c r="D84" s="2">
-        <f>7004-C84-B84</f>
-        <v>7004</v>
-      </c>
+      <c r="D84" s="2"/>
       <c r="E84" s="2">
-        <f t="shared" si="47"/>
-        <v>0</v>
+        <f t="shared" si="49"/>
+        <v>-1349</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
-      <c r="H84" s="2">
-        <f>6532-G84-F84</f>
-        <v>6532</v>
-      </c>
+      <c r="H84" s="2"/>
       <c r="L84" s="2">
-        <v>7004</v>
-      </c>
-      <c r="M84" s="2">
-        <f t="shared" si="48"/>
-        <v>7004</v>
-      </c>
+        <v>-1349</v>
+      </c>
+      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
-      <c r="O84" s="2">
-        <f t="shared" si="49"/>
-        <v>6532</v>
-      </c>
+      <c r="O84" s="2"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>111</v>
-      </c>
-      <c r="B85" s="2">
+        <v>109</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2">
+        <f>7004-C85-B85</f>
+        <v>7004</v>
+      </c>
+      <c r="E85" s="2">
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="C85" s="2">
-        <v>0</v>
-      </c>
-      <c r="D85" s="2">
-        <f>0-C85-B85</f>
-        <v>0</v>
-      </c>
-      <c r="E85" s="2">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
       <c r="F85" s="2"/>
-      <c r="G85" s="2">
-        <f>11159-F85</f>
-        <v>11159</v>
-      </c>
+      <c r="G85" s="2"/>
       <c r="H85" s="2">
-        <f>11159-G85-F85</f>
-        <v>0</v>
+        <f>6532-G85-F85</f>
+        <v>6532</v>
       </c>
       <c r="L85" s="2">
-        <v>0</v>
+        <v>7004</v>
       </c>
       <c r="M85" s="2">
-        <f t="shared" si="48"/>
-        <v>0</v>
+        <f t="shared" si="50"/>
+        <v>7004</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2">
-        <f t="shared" si="49"/>
-        <v>11159</v>
+        <f t="shared" si="51"/>
+        <v>6532</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B86" s="2">
         <v>0</v>
@@ -4059,1686 +4063,1679 @@
         <v>0</v>
       </c>
       <c r="E86" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2">
-        <f>-3585-F86</f>
-        <v>-3585</v>
+        <f>11159-F86</f>
+        <v>11159</v>
       </c>
       <c r="H86" s="2">
-        <f>-3585-G86-F86</f>
+        <f>11159-G86-F86</f>
         <v>0</v>
       </c>
       <c r="L86" s="2">
         <v>0</v>
       </c>
       <c r="M86" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2">
-        <f t="shared" si="49"/>
-        <v>-3585</v>
+        <f t="shared" si="51"/>
+        <v>11159</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="B87" s="2">
-        <v>1663</v>
+        <v>0</v>
       </c>
       <c r="C87" s="2">
-        <f>3250-B87</f>
-        <v>1587</v>
+        <v>0</v>
       </c>
       <c r="D87" s="2">
-        <f>-1376-C87-B87</f>
-        <v>-4626</v>
+        <f>0-C87-B87</f>
+        <v>0</v>
       </c>
       <c r="E87" s="2">
-        <f t="shared" si="47"/>
-        <v>2340</v>
-      </c>
-      <c r="F87" s="2">
-        <v>3767</v>
-      </c>
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="F87" s="2"/>
       <c r="G87" s="2">
-        <f>7319-F87</f>
-        <v>3552</v>
+        <f>-3585-F87</f>
+        <v>-3585</v>
       </c>
       <c r="H87" s="2">
-        <f>-1255-G87-F87</f>
-        <v>-8574</v>
+        <f>-3585-G87-F87</f>
+        <v>0</v>
       </c>
       <c r="L87" s="2">
-        <f>7968-M84</f>
-        <v>964</v>
+        <v>0</v>
       </c>
       <c r="M87" s="2">
-        <f t="shared" si="48"/>
-        <v>964</v>
+        <f t="shared" si="50"/>
+        <v>0</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2">
-        <f t="shared" si="49"/>
-        <v>-1255</v>
+        <f t="shared" si="51"/>
+        <v>-3585</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B88" s="2">
-        <v>-32307</v>
+        <v>1663</v>
       </c>
       <c r="C88" s="2">
-        <f>-20623-B88</f>
-        <v>11684</v>
+        <f>3250-B88</f>
+        <v>1587</v>
       </c>
       <c r="D88" s="2">
-        <f>-31947-C88-B88</f>
-        <v>-11324</v>
+        <f>-1376-C88-B88</f>
+        <v>-4626</v>
       </c>
       <c r="E88" s="2">
-        <f t="shared" si="47"/>
-        <v>-16144</v>
+        <f t="shared" si="49"/>
+        <v>2340</v>
       </c>
       <c r="F88" s="2">
-        <v>20115</v>
+        <v>3767</v>
       </c>
       <c r="G88" s="2">
-        <f>18499-F88</f>
-        <v>-1616</v>
+        <f>7319-F88</f>
+        <v>3552</v>
       </c>
       <c r="H88" s="2">
-        <f>12541-G88-F88</f>
-        <v>-5958</v>
+        <f>-1255-G88-F88</f>
+        <v>-8574</v>
       </c>
       <c r="L88" s="2">
-        <v>-48091</v>
+        <f>7968-M85</f>
+        <v>964</v>
       </c>
       <c r="M88" s="2">
-        <f t="shared" si="48"/>
-        <v>-48091</v>
+        <f t="shared" si="50"/>
+        <v>964</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2">
-        <f t="shared" si="49"/>
-        <v>12541</v>
+        <f t="shared" si="51"/>
+        <v>-1255</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B89" s="2">
-        <v>1274</v>
+        <v>-32307</v>
       </c>
       <c r="C89" s="2">
-        <f>7540-B89</f>
-        <v>6266</v>
+        <f>-20623-B89</f>
+        <v>11684</v>
       </c>
       <c r="D89" s="2">
-        <f>5774-C89-B89</f>
-        <v>-1766</v>
+        <f>-31947-C89-B89</f>
+        <v>-11324</v>
       </c>
       <c r="E89" s="2">
-        <f t="shared" si="47"/>
-        <v>-5159</v>
+        <f t="shared" si="49"/>
+        <v>-16144</v>
       </c>
       <c r="F89" s="2">
-        <v>6815</v>
+        <v>20115</v>
       </c>
       <c r="G89" s="2">
-        <f>9301-F89</f>
-        <v>2486</v>
+        <f>18499-F89</f>
+        <v>-1616</v>
       </c>
       <c r="H89" s="2">
-        <f>9124-G89-F89</f>
-        <v>-177</v>
+        <f>12541-G89-F89</f>
+        <v>-5958</v>
       </c>
       <c r="L89" s="2">
-        <v>615</v>
+        <v>-48091</v>
       </c>
       <c r="M89" s="2">
-        <f t="shared" si="48"/>
-        <v>615</v>
+        <f t="shared" si="50"/>
+        <v>-48091</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2">
-        <f t="shared" si="49"/>
-        <v>9124</v>
+        <f t="shared" si="51"/>
+        <v>12541</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B90" s="2">
-        <v>-140107</v>
+        <v>1274</v>
       </c>
       <c r="C90" s="2">
-        <f>-263121-B90</f>
-        <v>-123014</v>
+        <f>7540-B90</f>
+        <v>6266</v>
       </c>
       <c r="D90" s="2">
-        <f>-358837-C90-B90</f>
-        <v>-95716</v>
+        <f>5774-C90-B90</f>
+        <v>-1766</v>
       </c>
       <c r="E90" s="2">
-        <f t="shared" si="47"/>
-        <v>-117552</v>
+        <f t="shared" si="49"/>
+        <v>-5159</v>
       </c>
       <c r="F90" s="2">
-        <v>-137760</v>
+        <v>6815</v>
       </c>
       <c r="G90" s="2">
-        <f>-242113-F90</f>
-        <v>-104353</v>
+        <f>9301-F90</f>
+        <v>2486</v>
       </c>
       <c r="H90" s="2">
-        <f>-114485-G90-F90</f>
-        <v>127628</v>
+        <f>9124-G90-F90</f>
+        <v>-177</v>
       </c>
       <c r="L90" s="2">
-        <v>-476389</v>
+        <v>615</v>
       </c>
       <c r="M90" s="2">
-        <f t="shared" si="48"/>
-        <v>-476389</v>
+        <f t="shared" si="50"/>
+        <v>615</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2">
-        <f t="shared" si="49"/>
-        <v>-114485</v>
+        <f t="shared" si="51"/>
+        <v>9124</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B91" s="2">
-        <v>86259</v>
+        <v>-140107</v>
       </c>
       <c r="C91" s="2">
-        <f>150906-B91</f>
-        <v>64647</v>
+        <f>-263121-B91</f>
+        <v>-123014</v>
       </c>
       <c r="D91" s="2">
-        <f>274968-C91-B91</f>
-        <v>124062</v>
+        <f>-358837-C91-B91</f>
+        <v>-95716</v>
       </c>
       <c r="E91" s="2">
-        <f t="shared" si="47"/>
-        <v>93143</v>
+        <f t="shared" si="49"/>
+        <v>-117552</v>
       </c>
       <c r="F91" s="2">
-        <v>92084</v>
+        <v>-137760</v>
       </c>
       <c r="G91" s="2">
-        <f>206103-F91</f>
-        <v>114019</v>
+        <f>-242113-F91</f>
+        <v>-104353</v>
       </c>
       <c r="H91" s="2">
-        <f>78714-G91-F91</f>
-        <v>-127389</v>
+        <f>-114485-G91-F91</f>
+        <v>127628</v>
       </c>
       <c r="L91" s="2">
-        <v>368111</v>
+        <v>-476389</v>
       </c>
       <c r="M91" s="2">
-        <f t="shared" si="48"/>
-        <v>368111</v>
+        <f t="shared" si="50"/>
+        <v>-476389</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2">
-        <f t="shared" si="49"/>
-        <v>78714</v>
+        <f t="shared" si="51"/>
+        <v>-114485</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B92" s="2">
-        <v>-23987</v>
+        <v>86259</v>
       </c>
       <c r="C92" s="2">
-        <f>-58482-B92</f>
-        <v>-34495</v>
+        <f>150906-B92</f>
+        <v>64647</v>
       </c>
       <c r="D92" s="2">
-        <f>-77425-C92-B92</f>
-        <v>-18943</v>
+        <f>274968-C92-B92</f>
+        <v>124062</v>
       </c>
       <c r="E92" s="2">
-        <f t="shared" si="47"/>
-        <v>61883</v>
+        <f t="shared" si="49"/>
+        <v>93143</v>
       </c>
       <c r="F92" s="2">
-        <v>-30670</v>
+        <v>92084</v>
       </c>
       <c r="G92" s="2">
-        <f>-58326-F92</f>
-        <v>-27656</v>
+        <f>206103-F92</f>
+        <v>114019</v>
       </c>
       <c r="H92" s="2">
-        <f>-76838-G92-F92</f>
-        <v>-18512</v>
+        <f>78714-G92-F92</f>
+        <v>-127389</v>
       </c>
       <c r="L92" s="2">
-        <v>-15542</v>
+        <v>368111</v>
       </c>
       <c r="M92" s="2">
-        <f t="shared" si="48"/>
-        <v>-15542</v>
+        <f t="shared" si="50"/>
+        <v>368111</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2">
-        <f t="shared" si="49"/>
-        <v>-76838</v>
+        <f t="shared" si="51"/>
+        <v>78714</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B93" s="2">
-        <v>-4231</v>
+        <v>-23987</v>
       </c>
       <c r="C93" s="2">
-        <f>-14166-B93</f>
-        <v>-9935</v>
+        <f>-58482-B93</f>
+        <v>-34495</v>
       </c>
       <c r="D93" s="2">
-        <f>-10386-C93-B93</f>
-        <v>3780</v>
+        <f>-77425-C93-B93</f>
+        <v>-18943</v>
       </c>
       <c r="E93" s="2">
-        <f t="shared" si="47"/>
-        <v>-7459</v>
+        <f t="shared" si="49"/>
+        <v>61883</v>
       </c>
       <c r="F93" s="2">
-        <v>-5407</v>
+        <v>-30670</v>
       </c>
       <c r="G93" s="2">
-        <f>-22688-F93</f>
-        <v>-17281</v>
+        <f>-58326-F93</f>
+        <v>-27656</v>
       </c>
       <c r="H93" s="2">
-        <f>-16113-G93-F93</f>
-        <v>6575</v>
+        <f>-76838-G93-F93</f>
+        <v>-18512</v>
       </c>
       <c r="L93" s="2">
-        <v>-17845</v>
+        <v>-15542</v>
       </c>
       <c r="M93" s="2">
-        <f t="shared" si="48"/>
-        <v>-17845</v>
+        <f t="shared" si="50"/>
+        <v>-15542</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2">
+        <f t="shared" si="51"/>
+        <v>-76838</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>57</v>
+      </c>
+      <c r="B94" s="2">
+        <v>-4231</v>
+      </c>
+      <c r="C94" s="2">
+        <f>-14166-B94</f>
+        <v>-9935</v>
+      </c>
+      <c r="D94" s="2">
+        <f>-10386-C94-B94</f>
+        <v>3780</v>
+      </c>
+      <c r="E94" s="2">
         <f t="shared" si="49"/>
+        <v>-7459</v>
+      </c>
+      <c r="F94" s="2">
+        <v>-5407</v>
+      </c>
+      <c r="G94" s="2">
+        <f>-22688-F94</f>
+        <v>-17281</v>
+      </c>
+      <c r="H94" s="2">
+        <f>-16113-G94-F94</f>
+        <v>6575</v>
+      </c>
+      <c r="L94" s="2">
+        <v>-17845</v>
+      </c>
+      <c r="M94" s="2">
+        <f t="shared" si="50"/>
+        <v>-17845</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2">
+        <f t="shared" si="51"/>
         <v>-16113</v>
       </c>
     </row>
-    <row r="94" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B94" s="3">
-        <f>SUM(B77:B93)</f>
+    <row r="95" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B95" s="3">
+        <f>SUM(B78:B94)</f>
         <v>-77704</v>
       </c>
-      <c r="C94" s="3">
-        <f t="shared" ref="C94:L94" si="50">SUM(C77:C93)</f>
+      <c r="C95" s="3">
+        <f t="shared" ref="C95:L95" si="52">SUM(C78:C94)</f>
         <v>-44991</v>
       </c>
-      <c r="D94" s="3">
-        <f t="shared" si="50"/>
+      <c r="D95" s="3">
+        <f t="shared" si="52"/>
         <v>40634</v>
       </c>
-      <c r="E94" s="3">
-        <f t="shared" si="50"/>
+      <c r="E95" s="3">
+        <f t="shared" si="52"/>
         <v>49781</v>
       </c>
-      <c r="F94" s="3">
-        <f t="shared" si="50"/>
+      <c r="F95" s="3">
+        <f t="shared" si="52"/>
         <v>-32354</v>
       </c>
-      <c r="G94" s="3">
-        <f t="shared" si="50"/>
+      <c r="G95" s="3">
+        <f t="shared" si="52"/>
         <v>-15013</v>
       </c>
-      <c r="H94" s="3">
-        <f t="shared" si="50"/>
+      <c r="H95" s="3">
+        <f t="shared" si="52"/>
         <v>-8828</v>
       </c>
-      <c r="I94" s="3">
-        <f t="shared" si="50"/>
+      <c r="I95" s="3">
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="J94" s="3"/>
-      <c r="L94" s="3">
+      <c r="J95" s="3"/>
+      <c r="L95" s="3">
+        <f t="shared" si="52"/>
+        <v>-32280</v>
+      </c>
+      <c r="M95" s="3">
         <f t="shared" si="50"/>
         <v>-32280</v>
       </c>
-      <c r="M94" s="3">
-        <f t="shared" si="48"/>
-        <v>-32280</v>
-      </c>
-      <c r="N94" s="3"/>
-      <c r="O94" s="3">
-        <f t="shared" si="49"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3">
+        <f t="shared" si="51"/>
         <v>-56195</v>
       </c>
     </row>
-    <row r="95" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="M95" s="3"/>
-      <c r="N95" s="3"/>
-      <c r="O95" s="3"/>
-    </row>
     <row r="96" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="1" t="str">
-        <f>B75</f>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B97" s="1" t="str">
+        <f>B76</f>
         <v>Q123</v>
       </c>
-      <c r="C96" s="1" t="str">
-        <f t="shared" ref="C96:O96" si="51">C75</f>
+      <c r="C97" s="1" t="str">
+        <f t="shared" ref="C97:O97" si="53">C76</f>
         <v>Q223</v>
       </c>
-      <c r="D96" s="1" t="str">
-        <f t="shared" si="51"/>
+      <c r="D97" s="1" t="str">
+        <f t="shared" si="53"/>
         <v>Q323</v>
       </c>
-      <c r="E96" s="1" t="str">
-        <f t="shared" si="51"/>
+      <c r="E97" s="1" t="str">
+        <f t="shared" si="53"/>
         <v>Q423</v>
       </c>
-      <c r="F96" s="1" t="str">
-        <f t="shared" si="51"/>
+      <c r="F97" s="1" t="str">
+        <f t="shared" si="53"/>
         <v>Q124</v>
       </c>
-      <c r="G96" s="1" t="str">
-        <f t="shared" si="51"/>
+      <c r="G97" s="1" t="str">
+        <f t="shared" si="53"/>
         <v>Q224</v>
       </c>
-      <c r="H96" s="1" t="str">
-        <f t="shared" si="51"/>
+      <c r="H97" s="1" t="str">
+        <f t="shared" si="53"/>
         <v>Q324</v>
       </c>
-      <c r="I96" s="1" t="str">
-        <f t="shared" si="51"/>
+      <c r="I97" s="1" t="str">
+        <f t="shared" si="53"/>
         <v>Q424</v>
       </c>
-      <c r="M96" s="1">
-        <f t="shared" si="51"/>
+      <c r="M97" s="1">
+        <f t="shared" si="53"/>
         <v>2023</v>
       </c>
-      <c r="O96" s="1">
-        <f t="shared" si="51"/>
+      <c r="O97" s="1">
+        <f t="shared" si="53"/>
         <v>2024</v>
       </c>
     </row>
-    <row r="97" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="M97" s="3"/>
-      <c r="N97" s="3"/>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>69</v>
-      </c>
-      <c r="B98" s="2">
-        <v>38357</v>
-      </c>
-      <c r="C98" s="2">
-        <v>52765</v>
-      </c>
-      <c r="D98" s="2">
-        <v>69981</v>
-      </c>
-      <c r="E98" s="2">
-        <v>38066</v>
-      </c>
-      <c r="F98" s="2">
-        <v>35684</v>
-      </c>
-      <c r="G98" s="2">
-        <v>31219</v>
-      </c>
-      <c r="H98" s="2">
-        <v>23420</v>
-      </c>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
-      <c r="M98" s="2">
-        <f>E98</f>
-        <v>38066</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2">
-        <f t="shared" si="49"/>
-        <v>90323</v>
-      </c>
+    <row r="98" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+      <c r="O98" s="3"/>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B99" s="2">
-        <v>131284</v>
+        <v>38357</v>
       </c>
       <c r="C99" s="2">
-        <v>119753</v>
+        <v>52765</v>
       </c>
       <c r="D99" s="2">
-        <v>129399</v>
+        <v>69981</v>
       </c>
       <c r="E99" s="2">
-        <v>153657</v>
+        <v>38066</v>
       </c>
       <c r="F99" s="2">
-        <v>134142</v>
+        <v>35684</v>
       </c>
       <c r="G99" s="2">
-        <v>131776</v>
+        <v>31219</v>
       </c>
       <c r="H99" s="2">
-        <v>140295</v>
+        <v>23420</v>
       </c>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
       <c r="M99" s="2">
-        <f t="shared" ref="M99:M101" si="52">E99</f>
-        <v>153657</v>
+        <f>E99</f>
+        <v>38066</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2">
-        <f t="shared" si="49"/>
-        <v>406213</v>
+        <f t="shared" si="51"/>
+        <v>90323</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B100" s="2">
-        <v>854154</v>
+        <v>131284</v>
       </c>
       <c r="C100" s="2">
-        <v>979427</v>
+        <v>119753</v>
       </c>
       <c r="D100" s="2">
-        <v>1071088</v>
+        <v>129399</v>
       </c>
       <c r="E100" s="2">
-        <v>1303030</v>
+        <v>153657</v>
       </c>
       <c r="F100" s="2">
-        <v>1429762</v>
+        <v>134142</v>
       </c>
       <c r="G100" s="2">
-        <v>1527758</v>
+        <v>131776</v>
       </c>
       <c r="H100" s="2">
-        <v>1413088</v>
+        <v>140295</v>
       </c>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
       <c r="M100" s="2">
-        <f t="shared" si="52"/>
-        <v>1303030</v>
+        <f t="shared" ref="M100:M102" si="54">E100</f>
+        <v>153657</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2">
-        <f t="shared" si="49"/>
-        <v>4370608</v>
+        <f t="shared" si="51"/>
+        <v>406213</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B101" s="2">
-        <v>19792</v>
+        <v>854154</v>
       </c>
       <c r="C101" s="2">
-        <v>13543</v>
+        <v>979427</v>
       </c>
       <c r="D101" s="2">
-        <v>15080</v>
+        <v>1071088</v>
       </c>
       <c r="E101" s="2">
-        <v>24262</v>
+        <v>1303030</v>
       </c>
       <c r="F101" s="2">
-        <v>15301</v>
+        <v>1429762</v>
       </c>
       <c r="G101" s="2">
-        <v>18347</v>
+        <v>1527758</v>
       </c>
       <c r="H101" s="2">
-        <v>19896</v>
+        <v>1413088</v>
       </c>
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
       <c r="M101" s="2">
-        <f t="shared" si="52"/>
-        <v>24262</v>
+        <f t="shared" si="54"/>
+        <v>1303030</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
+        <v>4370608</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>68</v>
+      </c>
+      <c r="B102" s="2">
+        <v>19792</v>
+      </c>
+      <c r="C102" s="2">
+        <v>13543</v>
+      </c>
+      <c r="D102" s="2">
+        <v>15080</v>
+      </c>
+      <c r="E102" s="2">
+        <v>24262</v>
+      </c>
+      <c r="F102" s="2">
+        <v>15301</v>
+      </c>
+      <c r="G102" s="2">
+        <v>18347</v>
+      </c>
+      <c r="H102" s="2">
+        <v>19896</v>
+      </c>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="M102" s="2">
+        <f t="shared" si="54"/>
+        <v>24262</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2">
+        <f t="shared" si="51"/>
         <v>53544</v>
       </c>
     </row>
-    <row r="102" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B102" s="3">
-        <f>SUM(B98:B101)</f>
+    <row r="103" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B103" s="3">
+        <f>SUM(B99:B102)</f>
         <v>1043587</v>
       </c>
-      <c r="C102" s="3">
-        <f t="shared" ref="C102:I102" si="53">SUM(C98:C101)</f>
+      <c r="C103" s="3">
+        <f t="shared" ref="C103:I103" si="55">SUM(C99:C102)</f>
         <v>1165488</v>
       </c>
-      <c r="D102" s="3">
-        <f t="shared" si="53"/>
+      <c r="D103" s="3">
+        <f t="shared" si="55"/>
         <v>1285548</v>
       </c>
-      <c r="E102" s="3">
-        <f>SUM(E98:E101)</f>
+      <c r="E103" s="3">
+        <f>SUM(E99:E102)</f>
         <v>1519015</v>
       </c>
-      <c r="F102" s="3">
-        <f t="shared" si="53"/>
+      <c r="F103" s="3">
+        <f t="shared" si="55"/>
         <v>1614889</v>
       </c>
-      <c r="G102" s="3">
-        <f t="shared" si="53"/>
+      <c r="G103" s="3">
+        <f t="shared" si="55"/>
         <v>1709100</v>
       </c>
-      <c r="H102" s="3">
-        <f t="shared" si="53"/>
+      <c r="H103" s="3">
+        <f t="shared" si="55"/>
         <v>1596699</v>
       </c>
-      <c r="I102" s="3">
-        <f t="shared" si="53"/>
+      <c r="I103" s="3">
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="J102" s="3"/>
-      <c r="M102" s="3">
-        <f t="shared" ref="M102" si="54">SUM(M98:M101)</f>
+      <c r="J103" s="3"/>
+      <c r="M103" s="3">
+        <f t="shared" ref="M103" si="56">SUM(M99:M102)</f>
         <v>1519015</v>
       </c>
-      <c r="N102" s="3"/>
-      <c r="O102" s="3">
-        <f t="shared" si="49"/>
+      <c r="N103" s="3"/>
+      <c r="O103" s="3">
+        <f t="shared" si="51"/>
         <v>4920688</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>77</v>
-      </c>
-      <c r="B103" s="2">
-        <v>233830</v>
-      </c>
-      <c r="C103" s="2">
-        <v>252187</v>
-      </c>
-      <c r="D103" s="2">
-        <v>267155</v>
-      </c>
-      <c r="E103" s="2">
-        <v>298774</v>
-      </c>
-      <c r="F103" s="2">
-        <v>304472</v>
-      </c>
-      <c r="G103" s="2">
-        <v>357346</v>
-      </c>
-      <c r="H103" s="2">
-        <v>357056</v>
-      </c>
-      <c r="I103" s="2"/>
-      <c r="J103" s="2"/>
-      <c r="M103" s="2">
-        <f t="shared" ref="M103:M108" si="55">E103</f>
-        <v>298774</v>
-      </c>
-      <c r="N103" s="2"/>
-      <c r="O103" s="2">
-        <f t="shared" si="49"/>
-        <v>1018874</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B104" s="2">
-        <v>47684</v>
+        <v>233830</v>
       </c>
       <c r="C104" s="2">
-        <v>44241</v>
+        <v>252187</v>
       </c>
       <c r="D104" s="2">
-        <v>40835</v>
+        <v>267155</v>
       </c>
       <c r="E104" s="2">
-        <v>54699</v>
+        <v>298774</v>
       </c>
       <c r="F104" s="2">
-        <v>51858</v>
+        <v>304472</v>
       </c>
       <c r="G104" s="2">
-        <v>37643</v>
+        <v>357346</v>
       </c>
       <c r="H104" s="2">
-        <v>37520</v>
+        <v>357056</v>
       </c>
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
       <c r="M104" s="2">
-        <f t="shared" si="55"/>
-        <v>54699</v>
+        <f t="shared" ref="M104:M109" si="57">E104</f>
+        <v>298774</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2">
-        <f t="shared" si="49"/>
-        <v>127021</v>
+        <f t="shared" si="51"/>
+        <v>1018874</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B105" s="2">
-        <v>2169</v>
+        <v>47684</v>
       </c>
       <c r="C105" s="2">
-        <v>3769</v>
+        <v>44241</v>
       </c>
       <c r="D105" s="2">
-        <v>4969</v>
+        <v>40835</v>
       </c>
       <c r="E105" s="2">
-        <v>529</v>
+        <v>54699</v>
       </c>
       <c r="F105" s="2">
-        <v>517</v>
+        <v>51858</v>
       </c>
       <c r="G105" s="2">
-        <v>512</v>
+        <v>37643</v>
       </c>
       <c r="H105" s="2">
-        <v>535</v>
+        <v>37520</v>
       </c>
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
       <c r="M105" s="2">
-        <f t="shared" si="55"/>
-        <v>529</v>
+        <f t="shared" si="57"/>
+        <v>54699</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2">
-        <f t="shared" si="49"/>
-        <v>1564</v>
+        <f t="shared" si="51"/>
+        <v>127021</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="B106" s="2">
-        <v>30691</v>
+        <v>2169</v>
       </c>
       <c r="C106" s="2">
-        <v>31157</v>
+        <v>3769</v>
       </c>
       <c r="D106" s="2">
-        <v>31144</v>
+        <v>4969</v>
       </c>
       <c r="E106" s="2">
-        <v>64105</v>
+        <v>529</v>
       </c>
       <c r="F106" s="2">
-        <v>62979</v>
+        <v>517</v>
       </c>
       <c r="G106" s="2">
-        <v>62929</v>
+        <v>512</v>
       </c>
       <c r="H106" s="2">
-        <v>63865</v>
+        <v>535</v>
       </c>
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
       <c r="M106" s="2">
-        <f t="shared" si="55"/>
-        <v>64105</v>
+        <f t="shared" si="57"/>
+        <v>529</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2">
-        <f t="shared" si="49"/>
-        <v>189773</v>
+        <f t="shared" si="51"/>
+        <v>1564</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B107" s="2">
-        <v>18330</v>
+        <v>30691</v>
       </c>
       <c r="C107" s="2">
-        <v>18354</v>
+        <v>31157</v>
       </c>
       <c r="D107" s="2">
-        <v>18266</v>
+        <v>31144</v>
       </c>
       <c r="E107" s="2">
-        <v>53356</v>
+        <v>64105</v>
       </c>
       <c r="F107" s="2">
-        <v>51301</v>
+        <v>62979</v>
       </c>
       <c r="G107" s="2">
-        <v>51367</v>
+        <v>62929</v>
       </c>
       <c r="H107" s="2">
-        <v>52074</v>
+        <v>63865</v>
       </c>
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
       <c r="M107" s="2">
-        <f t="shared" si="55"/>
-        <v>53356</v>
+        <f t="shared" si="57"/>
+        <v>64105</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2">
-        <f t="shared" si="49"/>
-        <v>154742</v>
+        <f t="shared" si="51"/>
+        <v>189773</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="B108" s="2">
-        <v>1814</v>
+        <v>18330</v>
       </c>
       <c r="C108" s="2">
-        <v>1820</v>
+        <v>18354</v>
       </c>
       <c r="D108" s="2">
-        <v>1821</v>
+        <v>18266</v>
       </c>
       <c r="E108" s="2">
-        <v>1783</v>
+        <v>53356</v>
       </c>
       <c r="F108" s="2">
-        <v>1651</v>
+        <v>51301</v>
       </c>
       <c r="G108" s="2">
-        <v>1652</v>
+        <v>51367</v>
       </c>
       <c r="H108" s="2">
-        <v>1654</v>
+        <v>52074</v>
       </c>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
       <c r="M108" s="2">
-        <f t="shared" si="55"/>
-        <v>1783</v>
+        <f t="shared" si="57"/>
+        <v>53356</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
+        <v>154742</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>51</v>
+      </c>
+      <c r="B109" s="2">
+        <v>1814</v>
+      </c>
+      <c r="C109" s="2">
+        <v>1820</v>
+      </c>
+      <c r="D109" s="2">
+        <v>1821</v>
+      </c>
+      <c r="E109" s="2">
+        <v>1783</v>
+      </c>
+      <c r="F109" s="2">
+        <v>1651</v>
+      </c>
+      <c r="G109" s="2">
+        <v>1652</v>
+      </c>
+      <c r="H109" s="2">
+        <v>1654</v>
+      </c>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="M109" s="2">
+        <f t="shared" si="57"/>
+        <v>1783</v>
+      </c>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2">
+        <f t="shared" si="51"/>
         <v>4957</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B109" s="3">
-        <f>SUM(B103:B108)</f>
-        <v>334518</v>
-      </c>
-      <c r="C109" s="3">
-        <f t="shared" ref="C109:F109" si="56">SUM(C103:C108)</f>
-        <v>351528</v>
-      </c>
-      <c r="D109" s="3">
-        <f t="shared" si="56"/>
-        <v>364190</v>
-      </c>
-      <c r="E109" s="3">
-        <f t="shared" si="56"/>
-        <v>473246</v>
-      </c>
-      <c r="F109" s="3">
-        <f t="shared" si="56"/>
-        <v>472778</v>
-      </c>
-      <c r="G109" s="3">
-        <f t="shared" ref="G109:I109" si="57">SUM(G103:G108)</f>
-        <v>511449</v>
-      </c>
-      <c r="H109" s="3">
-        <f t="shared" si="57"/>
-        <v>512704</v>
-      </c>
-      <c r="I109" s="3">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="J109" s="3"/>
-      <c r="M109" s="3">
-        <f t="shared" ref="M109" si="58">SUM(M103:M108)</f>
-        <v>473246</v>
-      </c>
-      <c r="N109" s="3"/>
-      <c r="O109" s="3">
-        <f t="shared" si="49"/>
-        <v>1496931</v>
       </c>
     </row>
     <row r="110" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B110" s="3">
-        <f>B102+B109</f>
-        <v>1378105</v>
+        <f>SUM(B104:B109)</f>
+        <v>334518</v>
       </c>
       <c r="C110" s="3">
-        <f t="shared" ref="C110:E110" si="59">C102+C109</f>
-        <v>1517016</v>
+        <f t="shared" ref="C110:F110" si="58">SUM(C104:C109)</f>
+        <v>351528</v>
       </c>
       <c r="D110" s="3">
+        <f t="shared" si="58"/>
+        <v>364190</v>
+      </c>
+      <c r="E110" s="3">
+        <f t="shared" si="58"/>
+        <v>473246</v>
+      </c>
+      <c r="F110" s="3">
+        <f t="shared" si="58"/>
+        <v>472778</v>
+      </c>
+      <c r="G110" s="3">
+        <f t="shared" ref="G110:I110" si="59">SUM(G104:G109)</f>
+        <v>511449</v>
+      </c>
+      <c r="H110" s="3">
         <f t="shared" si="59"/>
-        <v>1649738</v>
-      </c>
-      <c r="E110" s="3">
+        <v>512704</v>
+      </c>
+      <c r="I110" s="3">
         <f t="shared" si="59"/>
-        <v>1992261</v>
-      </c>
-      <c r="F110" s="3">
-        <f>F102+F109</f>
-        <v>2087667</v>
-      </c>
-      <c r="G110" s="3">
-        <f t="shared" ref="G110:I110" si="60">G102+G109</f>
-        <v>2220549</v>
-      </c>
-      <c r="H110" s="3">
-        <f t="shared" si="60"/>
-        <v>2109403</v>
-      </c>
-      <c r="I110" s="3">
-        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="J110" s="3"/>
       <c r="M110" s="3">
-        <f t="shared" ref="M110" si="61">M102+M109</f>
-        <v>1992261</v>
+        <f t="shared" ref="M110" si="60">SUM(M104:M109)</f>
+        <v>473246</v>
       </c>
       <c r="N110" s="3"/>
       <c r="O110" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
+        <v>1496931</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B111" s="3">
+        <f>B103+B110</f>
+        <v>1378105</v>
+      </c>
+      <c r="C111" s="3">
+        <f t="shared" ref="C111:E111" si="61">C103+C110</f>
+        <v>1517016</v>
+      </c>
+      <c r="D111" s="3">
+        <f t="shared" si="61"/>
+        <v>1649738</v>
+      </c>
+      <c r="E111" s="3">
+        <f t="shared" si="61"/>
+        <v>1992261</v>
+      </c>
+      <c r="F111" s="3">
+        <f>F103+F110</f>
+        <v>2087667</v>
+      </c>
+      <c r="G111" s="3">
+        <f t="shared" ref="G111:I111" si="62">G103+G110</f>
+        <v>2220549</v>
+      </c>
+      <c r="H111" s="3">
+        <f t="shared" si="62"/>
+        <v>2109403</v>
+      </c>
+      <c r="I111" s="3">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="J111" s="3"/>
+      <c r="M111" s="3">
+        <f t="shared" ref="M111" si="63">M103+M110</f>
+        <v>1992261</v>
+      </c>
+      <c r="N111" s="3"/>
+      <c r="O111" s="3">
+        <f t="shared" si="51"/>
         <v>6417619</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>86</v>
-      </c>
-      <c r="B111" s="2">
-        <v>43195</v>
-      </c>
-      <c r="C111" s="2">
-        <v>41254</v>
-      </c>
-      <c r="D111" s="2">
-        <v>38016</v>
-      </c>
-      <c r="E111" s="2">
-        <v>43846</v>
-      </c>
-      <c r="F111" s="2">
-        <v>47629</v>
-      </c>
-      <c r="G111" s="2">
-        <v>40434</v>
-      </c>
-      <c r="H111" s="2">
-        <v>44689</v>
-      </c>
-      <c r="I111" s="2"/>
-      <c r="J111" s="2"/>
-      <c r="M111" s="2">
-        <f t="shared" ref="M111:M117" si="62">E111</f>
-        <v>43846</v>
-      </c>
-      <c r="N111" s="2"/>
-      <c r="O111" s="2">
-        <f t="shared" si="49"/>
-        <v>132752</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B112" s="2">
-        <v>442950</v>
+        <v>43195</v>
       </c>
       <c r="C112" s="2">
-        <v>595728</v>
+        <v>41254</v>
       </c>
       <c r="D112" s="2">
-        <v>705610</v>
+        <v>38016</v>
       </c>
       <c r="E112" s="2">
-        <v>893846</v>
+        <v>43846</v>
       </c>
       <c r="F112" s="2">
-        <v>1024999</v>
+        <v>47629</v>
       </c>
       <c r="G112" s="2">
-        <v>1168440</v>
+        <v>40434</v>
       </c>
       <c r="H112" s="2">
-        <v>1048221</v>
+        <v>44689</v>
       </c>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
       <c r="M112" s="2">
-        <f t="shared" si="62"/>
-        <v>893846</v>
+        <f t="shared" ref="M112:M118" si="64">E112</f>
+        <v>43846</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2">
-        <f t="shared" si="49"/>
-        <v>3241660</v>
+        <f t="shared" si="51"/>
+        <v>132752</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B113" s="2">
-        <v>7481</v>
+        <v>442950</v>
       </c>
       <c r="C113" s="2">
-        <v>11174</v>
+        <v>595728</v>
       </c>
       <c r="D113" s="2">
-        <v>11586</v>
+        <v>705610</v>
       </c>
       <c r="E113" s="2">
-        <v>13706</v>
+        <v>893846</v>
       </c>
       <c r="F113" s="2">
-        <v>13890</v>
+        <v>1024999</v>
       </c>
       <c r="G113" s="2">
-        <v>9940</v>
+        <v>1168440</v>
       </c>
       <c r="H113" s="2">
-        <v>9500</v>
+        <v>1048221</v>
       </c>
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
       <c r="M113" s="2">
-        <f t="shared" si="62"/>
-        <v>13706</v>
+        <f t="shared" si="64"/>
+        <v>893846</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2">
-        <f t="shared" si="49"/>
-        <v>33330</v>
+        <f t="shared" si="51"/>
+        <v>3241660</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B114" s="2">
-        <v>9888</v>
+        <v>7481</v>
       </c>
       <c r="C114" s="2">
-        <v>9533</v>
+        <v>11174</v>
       </c>
       <c r="D114" s="2">
-        <v>9395</v>
+        <v>11586</v>
       </c>
       <c r="E114" s="2">
-        <v>10751</v>
+        <v>13706</v>
       </c>
       <c r="F114" s="2">
-        <v>10918</v>
+        <v>13890</v>
       </c>
       <c r="G114" s="2">
-        <v>7912</v>
+        <v>9940</v>
       </c>
       <c r="H114" s="2">
-        <v>8178</v>
+        <v>9500</v>
       </c>
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
       <c r="M114" s="2">
-        <f t="shared" si="62"/>
-        <v>10751</v>
+        <f t="shared" si="64"/>
+        <v>13706</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2">
-        <f t="shared" si="49"/>
-        <v>27008</v>
+        <f t="shared" si="51"/>
+        <v>33330</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B115" s="2">
-        <v>97532</v>
+        <v>9888</v>
       </c>
       <c r="C115" s="2">
-        <v>63083</v>
+        <v>9533</v>
       </c>
       <c r="D115" s="2">
-        <v>43964</v>
+        <v>9395</v>
       </c>
       <c r="E115" s="2">
-        <v>115852</v>
+        <v>10751</v>
       </c>
       <c r="F115" s="2">
-        <v>84900</v>
+        <v>10918</v>
       </c>
       <c r="G115" s="2">
-        <v>57802</v>
+        <v>7912</v>
       </c>
       <c r="H115" s="2">
-        <v>41979</v>
+        <v>8178</v>
       </c>
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
       <c r="M115" s="2">
-        <f t="shared" si="62"/>
-        <v>115852</v>
+        <f t="shared" si="64"/>
+        <v>10751</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2">
-        <f t="shared" si="49"/>
-        <v>184681</v>
+        <f t="shared" si="51"/>
+        <v>27008</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B116" s="2">
-        <v>48042</v>
+        <v>97532</v>
       </c>
       <c r="C116" s="2">
-        <v>49360</v>
+        <v>63083</v>
       </c>
       <c r="D116" s="2">
-        <v>71211</v>
+        <v>43964</v>
       </c>
       <c r="E116" s="2">
-        <v>74400</v>
+        <v>115852</v>
       </c>
       <c r="F116" s="2">
-        <v>65402</v>
+        <v>84900</v>
       </c>
       <c r="G116" s="2">
-        <v>58892</v>
+        <v>57802</v>
       </c>
       <c r="H116" s="2">
-        <v>59460</v>
+        <v>41979</v>
       </c>
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
       <c r="M116" s="2">
-        <f t="shared" si="62"/>
-        <v>74400</v>
+        <f t="shared" si="64"/>
+        <v>115852</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2">
-        <f t="shared" si="49"/>
-        <v>183754</v>
+        <f t="shared" si="51"/>
+        <v>184681</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="B117" s="2">
-        <v>11151</v>
+        <v>48042</v>
       </c>
       <c r="C117" s="2">
-        <v>7870</v>
+        <v>49360</v>
       </c>
       <c r="D117" s="2">
-        <v>5622</v>
-      </c>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
+        <v>71211</v>
+      </c>
+      <c r="E117" s="2">
+        <v>74400</v>
+      </c>
+      <c r="F117" s="2">
+        <v>65402</v>
+      </c>
+      <c r="G117" s="2">
+        <v>58892</v>
+      </c>
+      <c r="H117" s="2">
+        <v>59460</v>
+      </c>
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
       <c r="M117" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
+        <v>74400</v>
+      </c>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2">
+        <f t="shared" si="51"/>
+        <v>183754</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>112</v>
+      </c>
+      <c r="B118" s="2">
+        <v>11151</v>
+      </c>
+      <c r="C118" s="2">
+        <v>7870</v>
+      </c>
+      <c r="D118" s="2">
+        <v>5622</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="M118" s="2">
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="N117" s="2"/>
-      <c r="O117" s="2"/>
-    </row>
-    <row r="118" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B118" s="3">
-        <f t="shared" ref="B118:I118" si="63">SUM(B111:B117)</f>
+      <c r="N118" s="2"/>
+      <c r="O118" s="2"/>
+    </row>
+    <row r="119" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B119" s="3">
+        <f t="shared" ref="B119:I119" si="65">SUM(B112:B118)</f>
         <v>660239</v>
       </c>
-      <c r="C118" s="3">
-        <f t="shared" si="63"/>
+      <c r="C119" s="3">
+        <f t="shared" si="65"/>
         <v>778002</v>
       </c>
-      <c r="D118" s="3">
-        <f t="shared" si="63"/>
+      <c r="D119" s="3">
+        <f t="shared" si="65"/>
         <v>885404</v>
       </c>
-      <c r="E118" s="3">
-        <f t="shared" si="63"/>
+      <c r="E119" s="3">
+        <f t="shared" si="65"/>
         <v>1152401</v>
       </c>
-      <c r="F118" s="3">
-        <f t="shared" si="63"/>
+      <c r="F119" s="3">
+        <f t="shared" si="65"/>
         <v>1247738</v>
       </c>
-      <c r="G118" s="3">
-        <f t="shared" si="63"/>
+      <c r="G119" s="3">
+        <f t="shared" si="65"/>
         <v>1343420</v>
       </c>
-      <c r="H118" s="3">
-        <f t="shared" si="63"/>
+      <c r="H119" s="3">
+        <f t="shared" si="65"/>
         <v>1212027</v>
       </c>
-      <c r="I118" s="3">
-        <f t="shared" si="63"/>
+      <c r="I119" s="3">
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="J118" s="3"/>
-      <c r="M118" s="3">
-        <f>SUM(M111:M117)</f>
+      <c r="J119" s="3"/>
+      <c r="M119" s="3">
+        <f>SUM(M112:M118)</f>
         <v>1152401</v>
       </c>
-      <c r="N118" s="3"/>
-      <c r="O118" s="3">
-        <f>SUM(O111:O117)</f>
+      <c r="N119" s="3"/>
+      <c r="O119" s="3">
+        <f>SUM(O112:O118)</f>
         <v>3803185</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>93</v>
-      </c>
-      <c r="B119" s="2">
-        <v>93445</v>
-      </c>
-      <c r="C119" s="2">
-        <v>87052</v>
-      </c>
-      <c r="D119" s="2">
-        <v>87591</v>
-      </c>
-      <c r="E119" s="2">
-        <v>106407</v>
-      </c>
-      <c r="F119" s="2">
-        <v>105440</v>
-      </c>
-      <c r="G119" s="2">
-        <v>116666</v>
-      </c>
-      <c r="H119" s="2">
-        <v>131134</v>
-      </c>
-      <c r="I119" s="2"/>
-      <c r="J119" s="2"/>
-      <c r="M119" s="2">
-        <f t="shared" ref="M119:M122" si="64">E119</f>
-        <v>106407</v>
-      </c>
-      <c r="N119" s="2"/>
-      <c r="O119" s="2">
-        <f t="shared" si="49"/>
-        <v>353240</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B120" s="2">
-        <v>45770</v>
+        <v>93445</v>
       </c>
       <c r="C120" s="2">
-        <v>42168</v>
+        <v>87052</v>
       </c>
       <c r="D120" s="2">
-        <v>38688</v>
+        <v>87591</v>
       </c>
       <c r="E120" s="2">
-        <v>50964</v>
+        <v>106407</v>
       </c>
       <c r="F120" s="2">
-        <v>47693</v>
+        <v>105440</v>
       </c>
       <c r="G120" s="2">
-        <v>35415</v>
+        <v>116666</v>
       </c>
       <c r="H120" s="2">
-        <v>34814</v>
+        <v>131134</v>
       </c>
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
       <c r="M120" s="2">
-        <f t="shared" si="64"/>
-        <v>50964</v>
+        <f t="shared" ref="M120:M123" si="66">E120</f>
+        <v>106407</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2">
-        <f t="shared" si="49"/>
-        <v>117922</v>
+        <f t="shared" si="51"/>
+        <v>353240</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="B121" s="2">
-        <v>9567</v>
+        <v>45770</v>
       </c>
       <c r="C121" s="2">
-        <v>9569</v>
+        <v>42168</v>
       </c>
       <c r="D121" s="2">
-        <v>9561</v>
+        <v>38688</v>
       </c>
       <c r="E121" s="2">
-        <v>22607</v>
+        <v>50964</v>
       </c>
       <c r="F121" s="2">
-        <v>21740</v>
+        <v>47693</v>
       </c>
       <c r="G121" s="2">
-        <v>21662</v>
+        <v>35415</v>
       </c>
       <c r="H121" s="2">
-        <v>19701</v>
+        <v>34814</v>
       </c>
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
       <c r="M121" s="2">
-        <f t="shared" si="64"/>
-        <v>22607</v>
+        <f t="shared" si="66"/>
+        <v>50964</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="2">
-        <f t="shared" si="49"/>
-        <v>63103</v>
+        <f t="shared" si="51"/>
+        <v>117922</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="B122" s="2">
-        <v>5051</v>
+        <v>9567</v>
       </c>
       <c r="C122" s="2">
-        <v>3543</v>
+        <v>9569</v>
       </c>
       <c r="D122" s="2">
-        <v>2661</v>
+        <v>9561</v>
       </c>
       <c r="E122" s="2">
-        <v>2240</v>
+        <v>22607</v>
       </c>
       <c r="F122" s="2">
-        <v>2455</v>
+        <v>21740</v>
       </c>
       <c r="G122" s="2">
-        <v>43820</v>
+        <v>21662</v>
       </c>
       <c r="H122" s="2">
-        <v>43527</v>
+        <v>19701</v>
       </c>
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
       <c r="M122" s="2">
-        <f t="shared" si="64"/>
-        <v>2240</v>
+        <f t="shared" si="66"/>
+        <v>22607</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
+        <v>63103</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>91</v>
+      </c>
+      <c r="B123" s="2">
+        <v>5051</v>
+      </c>
+      <c r="C123" s="2">
+        <v>3543</v>
+      </c>
+      <c r="D123" s="2">
+        <v>2661</v>
+      </c>
+      <c r="E123" s="2">
+        <v>2240</v>
+      </c>
+      <c r="F123" s="2">
+        <v>2455</v>
+      </c>
+      <c r="G123" s="2">
+        <v>43820</v>
+      </c>
+      <c r="H123" s="2">
+        <v>43527</v>
+      </c>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
+      <c r="M123" s="2">
+        <f t="shared" si="66"/>
+        <v>2240</v>
+      </c>
+      <c r="N123" s="2"/>
+      <c r="O123" s="2">
+        <f t="shared" si="51"/>
         <v>89802</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B123" s="3">
-        <f>SUM(B119:B122)</f>
-        <v>153833</v>
-      </c>
-      <c r="C123" s="3">
-        <f t="shared" ref="C123:F123" si="65">SUM(C119:C122)</f>
-        <v>142332</v>
-      </c>
-      <c r="D123" s="3">
-        <f t="shared" si="65"/>
-        <v>138501</v>
-      </c>
-      <c r="E123" s="3">
-        <f t="shared" si="65"/>
-        <v>182218</v>
-      </c>
-      <c r="F123" s="3">
-        <f t="shared" si="65"/>
-        <v>177328</v>
-      </c>
-      <c r="G123" s="3">
-        <f t="shared" ref="G123:I123" si="66">SUM(G119:G122)</f>
-        <v>217563</v>
-      </c>
-      <c r="H123" s="3">
-        <f t="shared" si="66"/>
-        <v>229176</v>
-      </c>
-      <c r="I123" s="3">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="J123" s="3"/>
-      <c r="M123" s="3">
-        <f t="shared" ref="M123" si="67">SUM(M119:M122)</f>
-        <v>182218</v>
-      </c>
-      <c r="N123" s="3"/>
-      <c r="O123" s="3">
-        <f t="shared" si="49"/>
-        <v>624067</v>
       </c>
     </row>
     <row r="124" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B124" s="3">
-        <f>B123+B118</f>
-        <v>814072</v>
+        <f>SUM(B120:B123)</f>
+        <v>153833</v>
       </c>
       <c r="C124" s="3">
-        <f t="shared" ref="C124:F124" si="68">C123+C118</f>
-        <v>920334</v>
+        <f t="shared" ref="C124:F124" si="67">SUM(C120:C123)</f>
+        <v>142332</v>
       </c>
       <c r="D124" s="3">
+        <f t="shared" si="67"/>
+        <v>138501</v>
+      </c>
+      <c r="E124" s="3">
+        <f t="shared" si="67"/>
+        <v>182218</v>
+      </c>
+      <c r="F124" s="3">
+        <f t="shared" si="67"/>
+        <v>177328</v>
+      </c>
+      <c r="G124" s="3">
+        <f t="shared" ref="G124:I124" si="68">SUM(G120:G123)</f>
+        <v>217563</v>
+      </c>
+      <c r="H124" s="3">
         <f t="shared" si="68"/>
-        <v>1023905</v>
-      </c>
-      <c r="E124" s="3">
+        <v>229176</v>
+      </c>
+      <c r="I124" s="3">
         <f t="shared" si="68"/>
-        <v>1334619</v>
-      </c>
-      <c r="F124" s="3">
-        <f t="shared" si="68"/>
-        <v>1425066</v>
-      </c>
-      <c r="G124" s="3">
-        <f t="shared" ref="G124:I124" si="69">G123+G118</f>
-        <v>1560983</v>
-      </c>
-      <c r="H124" s="3">
-        <f t="shared" si="69"/>
-        <v>1441203</v>
-      </c>
-      <c r="I124" s="3">
-        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="J124" s="3"/>
       <c r="M124" s="3">
-        <f t="shared" ref="M124" si="70">M123+M118</f>
-        <v>1334619</v>
+        <f t="shared" ref="M124" si="69">SUM(M120:M123)</f>
+        <v>182218</v>
       </c>
       <c r="N124" s="3"/>
       <c r="O124" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
+        <v>624067</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B125" s="3">
+        <f>B124+B119</f>
+        <v>814072</v>
+      </c>
+      <c r="C125" s="3">
+        <f t="shared" ref="C125:F125" si="70">C124+C119</f>
+        <v>920334</v>
+      </c>
+      <c r="D125" s="3">
+        <f t="shared" si="70"/>
+        <v>1023905</v>
+      </c>
+      <c r="E125" s="3">
+        <f t="shared" si="70"/>
+        <v>1334619</v>
+      </c>
+      <c r="F125" s="3">
+        <f t="shared" si="70"/>
+        <v>1425066</v>
+      </c>
+      <c r="G125" s="3">
+        <f t="shared" ref="G125:I125" si="71">G124+G119</f>
+        <v>1560983</v>
+      </c>
+      <c r="H125" s="3">
+        <f t="shared" si="71"/>
+        <v>1441203</v>
+      </c>
+      <c r="I125" s="3">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="J125" s="3"/>
+      <c r="M125" s="3">
+        <f t="shared" ref="M125" si="72">M124+M119</f>
+        <v>1334619</v>
+      </c>
+      <c r="N125" s="3"/>
+      <c r="O125" s="3">
+        <f t="shared" si="51"/>
         <v>4427252</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>98</v>
-      </c>
-      <c r="B125" s="2">
-        <v>256207</v>
-      </c>
-      <c r="C125" s="2">
-        <v>256984</v>
-      </c>
-      <c r="D125" s="2">
-        <v>257881</v>
-      </c>
-      <c r="E125" s="2">
-        <v>258657</v>
-      </c>
-      <c r="F125" s="2">
-        <v>258700</v>
-      </c>
-      <c r="G125" s="2">
-        <v>259911</v>
-      </c>
-      <c r="H125" s="2">
-        <v>261011</v>
-      </c>
-      <c r="I125" s="2"/>
-      <c r="J125" s="2"/>
-      <c r="M125" s="2">
-        <f t="shared" ref="M125:M127" si="71">E125</f>
-        <v>258657</v>
-      </c>
-      <c r="N125" s="2"/>
-      <c r="O125" s="2">
-        <f t="shared" si="49"/>
-        <v>779622</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B126" s="2">
-        <v>311749</v>
+        <v>256207</v>
       </c>
       <c r="C126" s="2">
-        <v>343070</v>
+        <v>256984</v>
       </c>
       <c r="D126" s="2">
-        <v>373263</v>
+        <v>257881</v>
       </c>
       <c r="E126" s="2">
-        <v>397225</v>
+        <v>258657</v>
       </c>
       <c r="F126" s="2">
-        <v>406666</v>
+        <v>258700</v>
       </c>
       <c r="G126" s="2">
-        <v>402362</v>
+        <v>259911</v>
       </c>
       <c r="H126" s="2">
-        <v>404075</v>
+        <v>261011</v>
       </c>
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
       <c r="M126" s="2">
-        <f t="shared" si="71"/>
-        <v>397225</v>
+        <f t="shared" ref="M126:M128" si="73">E126</f>
+        <v>258657</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2">
-        <f t="shared" si="49"/>
-        <v>1213103</v>
+        <f t="shared" si="51"/>
+        <v>779622</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B127" s="2">
-        <v>-3923</v>
+        <v>311749</v>
       </c>
       <c r="C127" s="2">
-        <v>-3373</v>
+        <v>343070</v>
       </c>
       <c r="D127" s="2">
-        <v>-5311</v>
+        <v>373263</v>
       </c>
       <c r="E127" s="2">
-        <v>1760</v>
+        <v>397225</v>
       </c>
       <c r="F127" s="2">
-        <v>-2765</v>
+        <v>406666</v>
       </c>
       <c r="G127" s="2">
-        <v>-2707</v>
+        <v>402362</v>
       </c>
       <c r="H127" s="2">
-        <v>3114</v>
+        <v>404075</v>
       </c>
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
       <c r="M127" s="2">
-        <f t="shared" si="71"/>
-        <v>1760</v>
+        <f t="shared" si="73"/>
+        <v>397225</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
+        <v>1213103</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>96</v>
+      </c>
+      <c r="B128" s="2">
+        <v>-3923</v>
+      </c>
+      <c r="C128" s="2">
+        <v>-3373</v>
+      </c>
+      <c r="D128" s="2">
+        <v>-5311</v>
+      </c>
+      <c r="E128" s="2">
+        <v>1760</v>
+      </c>
+      <c r="F128" s="2">
+        <v>-2765</v>
+      </c>
+      <c r="G128" s="2">
+        <v>-2707</v>
+      </c>
+      <c r="H128" s="2">
+        <v>3114</v>
+      </c>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+      <c r="M128" s="2">
+        <f t="shared" si="73"/>
+        <v>1760</v>
+      </c>
+      <c r="N128" s="2"/>
+      <c r="O128" s="2">
+        <f t="shared" si="51"/>
         <v>-2358</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B128" s="3">
-        <f>SUM(B125:B127)</f>
-        <v>564033</v>
-      </c>
-      <c r="C128" s="3">
-        <f t="shared" ref="C128:F128" si="72">SUM(C125:C127)</f>
-        <v>596681</v>
-      </c>
-      <c r="D128" s="3">
-        <f t="shared" si="72"/>
-        <v>625833</v>
-      </c>
-      <c r="E128" s="3">
-        <f t="shared" si="72"/>
-        <v>657642</v>
-      </c>
-      <c r="F128" s="3">
-        <f t="shared" si="72"/>
-        <v>662601</v>
-      </c>
-      <c r="G128" s="3">
-        <f t="shared" ref="G128:I128" si="73">SUM(G125:G127)</f>
-        <v>659566</v>
-      </c>
-      <c r="H128" s="3">
-        <f t="shared" si="73"/>
-        <v>668200</v>
-      </c>
-      <c r="I128" s="3">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="J128" s="3"/>
-      <c r="M128" s="3">
-        <f t="shared" si="48"/>
-        <v>2444189</v>
-      </c>
-      <c r="N128" s="3"/>
-      <c r="O128" s="3">
-        <f t="shared" si="49"/>
-        <v>1990367</v>
       </c>
     </row>
     <row r="129" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B129" s="3">
-        <f>B128+B124</f>
-        <v>1378105</v>
+        <f>SUM(B126:B128)</f>
+        <v>564033</v>
       </c>
       <c r="C129" s="3">
-        <f t="shared" ref="C129:F129" si="74">C128+C124</f>
-        <v>1517015</v>
+        <f t="shared" ref="C129:F129" si="74">SUM(C126:C128)</f>
+        <v>596681</v>
       </c>
       <c r="D129" s="3">
         <f t="shared" si="74"/>
-        <v>1649738</v>
+        <v>625833</v>
       </c>
       <c r="E129" s="3">
         <f t="shared" si="74"/>
-        <v>1992261</v>
+        <v>657642</v>
       </c>
       <c r="F129" s="3">
         <f t="shared" si="74"/>
-        <v>2087667</v>
+        <v>662601</v>
       </c>
       <c r="G129" s="3">
-        <f t="shared" ref="G129:I129" si="75">G128+G124</f>
-        <v>2220549</v>
+        <f t="shared" ref="G129:I129" si="75">SUM(G126:G128)</f>
+        <v>659566</v>
       </c>
       <c r="H129" s="3">
         <f t="shared" si="75"/>
-        <v>2109403</v>
+        <v>668200</v>
       </c>
       <c r="I129" s="3">
         <f t="shared" si="75"/>
@@ -5746,106 +5743,153 @@
       </c>
       <c r="J129" s="3"/>
       <c r="M129" s="3">
-        <f t="shared" si="48"/>
-        <v>6537119</v>
+        <f t="shared" si="50"/>
+        <v>2444189</v>
       </c>
       <c r="N129" s="3"/>
       <c r="O129" s="3">
-        <f t="shared" si="49"/>
-        <v>6417619</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B131" s="3">
-        <f>B100-B112</f>
-        <v>411204</v>
-      </c>
-      <c r="C131" s="3">
-        <f t="shared" ref="C131:F131" si="76">C100-C112</f>
-        <v>383699</v>
-      </c>
-      <c r="D131" s="3">
+        <f t="shared" si="51"/>
+        <v>1990367</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B130" s="3">
+        <f>B129+B125</f>
+        <v>1378105</v>
+      </c>
+      <c r="C130" s="3">
+        <f t="shared" ref="C130:F130" si="76">C129+C125</f>
+        <v>1517015</v>
+      </c>
+      <c r="D130" s="3">
         <f t="shared" si="76"/>
-        <v>365478</v>
-      </c>
-      <c r="E131" s="3">
+        <v>1649738</v>
+      </c>
+      <c r="E130" s="3">
         <f t="shared" si="76"/>
-        <v>409184</v>
-      </c>
-      <c r="F131" s="3">
+        <v>1992261</v>
+      </c>
+      <c r="F130" s="3">
         <f t="shared" si="76"/>
-        <v>404763</v>
-      </c>
-      <c r="G131" s="3">
-        <f t="shared" ref="G131:I131" si="77">G100-G112</f>
-        <v>359318</v>
-      </c>
-      <c r="H131" s="3">
+        <v>2087667</v>
+      </c>
+      <c r="G130" s="3">
+        <f t="shared" ref="G130:I130" si="77">G129+G125</f>
+        <v>2220549</v>
+      </c>
+      <c r="H130" s="3">
         <f t="shared" si="77"/>
-        <v>364867</v>
-      </c>
-      <c r="I131" s="3">
+        <v>2109403</v>
+      </c>
+      <c r="I130" s="3">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="J131" s="3"/>
-      <c r="M131" s="3">
-        <f t="shared" ref="M131" si="78">M100-M112</f>
-        <v>409184</v>
-      </c>
-      <c r="N131" s="3"/>
-      <c r="O131" s="3">
-        <f t="shared" si="49"/>
-        <v>1128948</v>
+      <c r="J130" s="3"/>
+      <c r="M130" s="3">
+        <f t="shared" si="50"/>
+        <v>6537119</v>
+      </c>
+      <c r="N130" s="3"/>
+      <c r="O130" s="3">
+        <f t="shared" si="51"/>
+        <v>6417619</v>
       </c>
     </row>
     <row r="132" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B132" s="6">
-        <f>B100/B112</f>
+        <v>99</v>
+      </c>
+      <c r="B132" s="3">
+        <f>B101-B113</f>
+        <v>411204</v>
+      </c>
+      <c r="C132" s="3">
+        <f t="shared" ref="C132:F132" si="78">C101-C113</f>
+        <v>383699</v>
+      </c>
+      <c r="D132" s="3">
+        <f t="shared" si="78"/>
+        <v>365478</v>
+      </c>
+      <c r="E132" s="3">
+        <f t="shared" si="78"/>
+        <v>409184</v>
+      </c>
+      <c r="F132" s="3">
+        <f t="shared" si="78"/>
+        <v>404763</v>
+      </c>
+      <c r="G132" s="3">
+        <f t="shared" ref="G132:I132" si="79">G101-G113</f>
+        <v>359318</v>
+      </c>
+      <c r="H132" s="3">
+        <f t="shared" si="79"/>
+        <v>364867</v>
+      </c>
+      <c r="I132" s="3">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="J132" s="3"/>
+      <c r="M132" s="3">
+        <f t="shared" ref="M132" si="80">M101-M113</f>
+        <v>409184</v>
+      </c>
+      <c r="N132" s="3"/>
+      <c r="O132" s="3">
+        <f t="shared" si="51"/>
+        <v>1128948</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B133" s="6">
+        <f>B101/B113</f>
         <v>1.9283305113443956</v>
       </c>
-      <c r="C132" s="6">
-        <f t="shared" ref="C132:F132" si="79">C100/C112</f>
+      <c r="C133" s="6">
+        <f t="shared" ref="C133:F133" si="81">C101/C113</f>
         <v>1.6440842129293907</v>
       </c>
-      <c r="D132" s="6">
-        <f t="shared" si="79"/>
+      <c r="D133" s="6">
+        <f t="shared" si="81"/>
         <v>1.5179603463669733</v>
       </c>
-      <c r="E132" s="6">
-        <f t="shared" si="79"/>
+      <c r="E133" s="6">
+        <f t="shared" si="81"/>
         <v>1.4577790805127506</v>
       </c>
-      <c r="F132" s="6">
-        <f t="shared" si="79"/>
+      <c r="F133" s="6">
+        <f t="shared" si="81"/>
         <v>1.3948911169669433</v>
       </c>
-      <c r="G132" s="6">
-        <f t="shared" ref="G132:I132" si="80">G100/G112</f>
+      <c r="G133" s="6">
+        <f t="shared" ref="G133:I133" si="82">G101/G113</f>
         <v>1.3075194276128856</v>
       </c>
-      <c r="H132" s="6">
-        <f t="shared" si="80"/>
+      <c r="H133" s="6">
+        <f t="shared" si="82"/>
         <v>1.3480821315352391</v>
       </c>
-      <c r="I132" s="6" t="e">
-        <f t="shared" si="80"/>
+      <c r="I133" s="6" t="e">
+        <f t="shared" si="82"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J132" s="6"/>
-      <c r="M132" s="6">
-        <f t="shared" ref="M132" si="81">M100/M112</f>
+      <c r="J133" s="6"/>
+      <c r="M133" s="6">
+        <f t="shared" ref="M133" si="83">M101/M113</f>
         <v>1.4577790805127506</v>
       </c>
-      <c r="N132" s="6"/>
-      <c r="O132" s="6" t="e">
-        <f t="shared" si="49"/>
+      <c r="N133" s="6"/>
+      <c r="O133" s="6" t="e">
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/TITN/TITN.xlsx
+++ b/TITN/TITN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32906c935fa0eb4f/models/TITN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1198" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26474916-D6A4-4C89-B658-694697C9DD72}"/>
+  <xr:revisionPtr revIDLastSave="1199" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB4006EC-5526-42E1-A0B5-3B8AA3CC7AB0}"/>
   <bookViews>
     <workbookView xWindow="19800" yWindow="1330" windowWidth="17580" windowHeight="19410" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -488,9 +488,6 @@
     <t>Peer Group (according to some guy on seeking alpha):</t>
   </si>
   <si>
-    <t>Quarter</t>
-  </si>
-  <si>
     <t>use for scripting</t>
   </si>
   <si>
@@ -510,6 +507,9 @@
   </si>
   <si>
     <t>Rental and other Rev</t>
+  </si>
+  <si>
+    <t>Timeframe</t>
   </si>
 </sst>
 </file>
@@ -1041,10 +1041,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49AC6758-3054-45BD-A746-0979BE500444}">
   <dimension ref="A1:R133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A97" sqref="A97"/>
-      <selection pane="topRight" activeCell="A47" sqref="A47"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1064,36 +1064,36 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" t="s">
         <v>143</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" t="s">
+        <v>143</v>
+      </c>
+      <c r="M1" t="s">
         <v>144</v>
-      </c>
-      <c r="C1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H1" t="s">
-        <v>144</v>
-      </c>
-      <c r="M1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B44" s="2">
         <v>429376</v>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B45" s="2">
         <v>96606</v>
@@ -2505,7 +2505,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B46" s="2">
         <v>34933</v>
@@ -2546,7 +2546,7 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B47" s="2">
         <v>8716</v>

--- a/TITN/TITN.xlsx
+++ b/TITN/TITN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32906c935fa0eb4f/models/TITN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1199" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB4006EC-5526-42E1-A0B5-3B8AA3CC7AB0}"/>
+  <xr:revisionPtr revIDLastSave="1206" documentId="11_F25DC773A252ABDACC104889191A52245ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C904AAE-F94B-44E9-8DB3-F35FCD6BEB19}"/>
   <bookViews>
-    <workbookView xWindow="19800" yWindow="1330" windowWidth="17580" windowHeight="19410" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3460" yWindow="3810" windowWidth="18000" windowHeight="12750" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="151">
   <si>
     <t>Headquarters: West Fargo, ND</t>
   </si>
@@ -510,6 +510,9 @@
   </si>
   <si>
     <t>Timeframe</t>
+  </si>
+  <si>
+    <t>xxx</t>
   </si>
 </sst>
 </file>
@@ -559,7 +562,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -567,11 +570,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -588,6 +600,7 @@
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="39" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,10 +616,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1039,12 +1048,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49AC6758-3054-45BD-A746-0979BE500444}">
-  <dimension ref="A1:R133"/>
+  <dimension ref="A1:Q133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection activeCell="A97" sqref="A97"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3"/>
+      <selection pane="topRight" activeCell="N42" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1057,12 +1066,10 @@
     <col min="8" max="9" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.7265625" customWidth="1"/>
     <col min="12" max="12" width="9.90625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.90625" customWidth="1"/>
-    <col min="15" max="15" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>142</v>
       </c>
@@ -1087,11 +1094,14 @@
       <c r="H1" t="s">
         <v>143</v>
       </c>
+      <c r="J1" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>149</v>
       </c>
@@ -1119,48 +1129,64 @@
       <c r="I2" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="J2" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="K2" s="1">
         <v>2022</v>
       </c>
       <c r="M2" s="1">
         <v>2023</v>
       </c>
-      <c r="O2" s="1">
+      <c r="N2" s="1">
         <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J3" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>114</v>
       </c>
       <c r="E4">
         <v>148</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="M4">
         <f t="shared" ref="M4:M11" si="0">E4</f>
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>113</v>
       </c>
       <c r="E5" s="4">
         <v>3338</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="0"/>
         <v>3338</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>125</v>
       </c>
       <c r="E6" s="12">
         <f>(M49+M50)/AVERAGE(B101:E101)</f>
         <v>2.0386239605066807</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="K6" s="12"/>
       <c r="M6" s="12">
@@ -1168,12 +1194,15 @@
         <v>2.0386239605066807</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>126</v>
       </c>
       <c r="E7" s="9">
         <v>2.2000000000000002</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="K7" s="9">
         <v>3.3</v>
@@ -1183,7 +1212,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>129</v>
       </c>
@@ -1210,6 +1239,10 @@
       <c r="G8" s="13">
         <f t="shared" si="1"/>
         <v>0.23519300831676221</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="J8" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="K8" s="13"/>
       <c r="M8" s="13">
@@ -1217,7 +1250,7 @@
         <v>0.31402500326162869</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>130</v>
       </c>
@@ -1229,6 +1262,9 @@
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
+      <c r="J9" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="K9" s="11">
         <v>51.7</v>
       </c>
@@ -1237,12 +1273,15 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>127</v>
       </c>
       <c r="E10" s="9">
         <v>0.79</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="K10" s="9">
         <v>0.82699999999999996</v>
@@ -1252,12 +1291,15 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>128</v>
       </c>
       <c r="E11" s="10">
         <v>0.10100000000000001</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="K11" s="10"/>
       <c r="M11" s="10">
@@ -1265,16 +1307,22 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
       <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J12" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J13" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1301,7 +1349,9 @@
         <v>358430</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="J14" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L14" s="2">
         <v>1624010</v>
       </c>
@@ -1309,13 +1359,12 @@
         <f>SUM(B14:E14)</f>
         <v>1624010</v>
       </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2">
+      <c r="N14" s="2">
         <f>SUM(F14:I14)</f>
         <v>1009699</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1342,7 +1391,9 @@
         <v>53770</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="J15" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L15" s="2">
         <v>221140</v>
       </c>
@@ -1350,13 +1401,12 @@
         <f t="shared" ref="M15:M79" si="3">SUM(B15:E15)</f>
         <v>221140</v>
       </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2">
-        <f t="shared" ref="O15:O79" si="4">SUM(F15:I15)</f>
+      <c r="N15" s="2">
+        <f>SUM(F15:I15)</f>
         <v>153709</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1383,7 +1433,9 @@
         <v>41893</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="J16" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L16" s="2">
         <v>245423</v>
       </c>
@@ -1391,13 +1443,12 @@
         <f t="shared" si="3"/>
         <v>245423</v>
       </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2">
-        <f t="shared" si="4"/>
+      <c r="N16" s="2">
+        <f>SUM(F16:I16)</f>
         <v>138538</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1418,7 +1469,9 @@
         <v>41054</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="J17" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L17" s="2">
         <v>54743</v>
       </c>
@@ -1426,13 +1479,12 @@
         <f t="shared" si="3"/>
         <v>54743</v>
       </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2">
-        <f t="shared" si="4"/>
+      <c r="N17" s="2">
+        <f>SUM(F17:I17)</f>
         <v>126523</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1441,34 +1493,36 @@
         <v>429376</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" ref="C18:I18" si="5">SUM(C14:C17)</f>
+        <f t="shared" ref="C18:I18" si="4">SUM(C14:C17)</f>
         <v>480122</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>521775</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>714043</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>468089</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>465233</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>495147</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J18" s="3"/>
+      <c r="J18" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L18" s="3">
         <f>SUM(L14:L17)</f>
         <v>2145316</v>
@@ -1478,15 +1532,11 @@
         <v>2145316</v>
       </c>
       <c r="N18" s="3">
-        <f>SUM(N14:N17)</f>
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <f t="shared" si="4"/>
+        <f>SUM(F18:I18)</f>
         <v>1428469</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1513,7 +1563,9 @@
         <v>84763</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="J19" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L19" s="2">
         <v>293554</v>
       </c>
@@ -1521,13 +1573,12 @@
         <f t="shared" si="3"/>
         <v>293554</v>
       </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2">
-        <f t="shared" si="4"/>
+      <c r="N19" s="2">
+        <f>SUM(F19:I19)</f>
         <v>235158</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1554,7 +1605,9 @@
         <v>13704</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="J20" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L20" s="2">
         <v>51019</v>
       </c>
@@ -1562,13 +1615,12 @@
         <f t="shared" si="3"/>
         <v>51019</v>
       </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2">
-        <f t="shared" si="4"/>
+      <c r="N20" s="2">
+        <f>SUM(F20:I20)</f>
         <v>36583</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1595,7 +1647,9 @@
         <v>16290</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="J21" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L21" s="2">
         <v>54356</v>
       </c>
@@ -1603,13 +1657,12 @@
         <f t="shared" si="3"/>
         <v>54356</v>
       </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2">
-        <f t="shared" si="4"/>
+      <c r="N21" s="2">
+        <f>SUM(F21:I21)</f>
         <v>46221</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1630,7 +1683,9 @@
         <v>6329</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="J22" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L22" s="2">
         <v>11912</v>
       </c>
@@ -1638,13 +1693,12 @@
         <f t="shared" si="3"/>
         <v>11912</v>
       </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2">
-        <f t="shared" si="4"/>
+      <c r="N22" s="2">
+        <f>SUM(F22:I22)</f>
         <v>21155</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -1653,49 +1707,50 @@
         <v>96606</v>
       </c>
       <c r="C23" s="3">
-        <f t="shared" ref="C23:I23" si="6">SUM(C19:C22)</f>
+        <f t="shared" ref="C23:I23" si="5">SUM(C19:C22)</f>
         <v>108510</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>114962</v>
       </c>
       <c r="E23" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>90763</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>108226</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>109805</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>121086</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J23" s="3"/>
+      <c r="J23" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L23" s="3">
-        <f t="shared" ref="L23" si="7">SUM(L19:L22)</f>
+        <f t="shared" ref="L23" si="6">SUM(L19:L22)</f>
         <v>410841</v>
       </c>
       <c r="M23" s="3">
         <f t="shared" si="3"/>
         <v>410841</v>
       </c>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3">
-        <f t="shared" si="4"/>
+      <c r="N23" s="3">
+        <f>SUM(F23:I23)</f>
         <v>339117</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1722,7 +1777,9 @@
         <v>37275</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="J24" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L24" s="2">
         <v>117087</v>
       </c>
@@ -1730,13 +1787,12 @@
         <f t="shared" si="3"/>
         <v>117087</v>
       </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2">
-        <f t="shared" si="4"/>
+      <c r="N24" s="2">
+        <f>SUM(F24:I24)</f>
         <v>104788</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -1763,7 +1819,9 @@
         <v>7730</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="J25" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L25" s="2">
         <v>26913</v>
       </c>
@@ -1771,13 +1829,12 @@
         <f t="shared" si="3"/>
         <v>26913</v>
       </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2">
-        <f t="shared" si="4"/>
+      <c r="N25" s="2">
+        <f>SUM(F25:I25)</f>
         <v>21744</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1804,7 +1861,9 @@
         <v>3516</v>
       </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="J26" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L26" s="2">
         <v>10437</v>
       </c>
@@ -1812,13 +1871,12 @@
         <f t="shared" si="3"/>
         <v>10437</v>
       </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2">
-        <f t="shared" si="4"/>
+      <c r="N26" s="2">
+        <f>SUM(F26:I26)</f>
         <v>9349</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1839,7 +1897,9 @@
         <v>2601</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="J27" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L27" s="2">
         <v>2878</v>
       </c>
@@ -1847,13 +1907,12 @@
         <f t="shared" si="3"/>
         <v>2878</v>
       </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2">
-        <f t="shared" si="4"/>
+      <c r="N27" s="2">
+        <f>SUM(F27:I27)</f>
         <v>7588</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -1862,49 +1921,50 @@
         <v>34933</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" ref="C28:I28" si="8">SUM(C24:C27)</f>
+        <f t="shared" ref="C28:I28" si="7">SUM(C24:C27)</f>
         <v>42478</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44767</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>35137</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>45079</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>47268</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>51122</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J28" s="3"/>
+      <c r="J28" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L28" s="3">
-        <f t="shared" ref="L28" si="9">SUM(L24:L27)</f>
+        <f t="shared" ref="L28" si="8">SUM(L24:L27)</f>
         <v>157315</v>
       </c>
       <c r="M28" s="3">
         <f t="shared" si="3"/>
         <v>157315</v>
       </c>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3">
-        <f t="shared" si="4"/>
+      <c r="N28" s="3">
+        <f>SUM(F28:I28)</f>
         <v>143469</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1931,7 +1991,9 @@
         <v>1056</v>
       </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
+      <c r="J29" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L29" s="2">
         <v>5180</v>
       </c>
@@ -1939,13 +2001,12 @@
         <f t="shared" si="3"/>
         <v>5180</v>
       </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2">
-        <f t="shared" si="4"/>
+      <c r="N29" s="2">
+        <f>SUM(F29:I29)</f>
         <v>2931</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1972,7 +2033,9 @@
         <v>490</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="J30" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L30" s="2">
         <v>1998</v>
       </c>
@@ -1980,13 +2043,12 @@
         <f t="shared" si="3"/>
         <v>1998</v>
       </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2">
-        <f t="shared" si="4"/>
+      <c r="N30" s="2">
+        <f>SUM(F30:I30)</f>
         <v>1326</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -2013,7 +2075,9 @@
         <v>196</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
+      <c r="J31" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L31" s="2">
         <v>760</v>
       </c>
@@ -2021,13 +2085,12 @@
         <f t="shared" si="3"/>
         <v>760</v>
       </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2">
-        <f t="shared" si="4"/>
+      <c r="N31" s="2">
+        <f>SUM(F31:I31)</f>
         <v>547</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -2048,7 +2111,9 @@
         <v>151</v>
       </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+      <c r="J32" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L32" s="2">
         <v>276</v>
       </c>
@@ -2056,13 +2121,12 @@
         <f t="shared" si="3"/>
         <v>276</v>
       </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2">
-        <f t="shared" si="4"/>
+      <c r="N32" s="2">
+        <f>SUM(F32:I32)</f>
         <v>586</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -2071,49 +2135,50 @@
         <v>1886</v>
       </c>
       <c r="C33" s="3">
-        <f t="shared" ref="C33:I33" si="10">SUM(C29:C32)</f>
+        <f t="shared" ref="C33:I33" si="9">SUM(C29:C32)</f>
         <v>2016</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2198</v>
       </c>
       <c r="E33" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2114</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1495</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2002</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1893</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J33" s="3"/>
+      <c r="J33" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L33" s="3">
-        <f t="shared" ref="L33" si="11">SUM(L29:L32)</f>
+        <f t="shared" ref="L33" si="10">SUM(L29:L32)</f>
         <v>8214</v>
       </c>
       <c r="M33" s="3">
         <f t="shared" si="3"/>
         <v>8214</v>
       </c>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3">
-        <f t="shared" si="4"/>
+      <c r="N33" s="3">
+        <f>SUM(F33:I33)</f>
         <v>5390</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -2140,7 +2205,9 @@
         <v>498</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
+      <c r="J34" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L34" s="2">
         <v>4432</v>
       </c>
@@ -2148,13 +2215,12 @@
         <f t="shared" si="3"/>
         <v>4432</v>
       </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2">
-        <f t="shared" si="4"/>
+      <c r="N34" s="2">
+        <f>SUM(F34:I34)</f>
         <v>1169</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -2181,7 +2247,9 @@
         <v>9591</v>
       </c>
       <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
+      <c r="J35" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L35" s="2">
         <v>31393</v>
       </c>
@@ -2189,13 +2257,12 @@
         <f t="shared" si="3"/>
         <v>31393</v>
       </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2">
-        <f t="shared" si="4"/>
+      <c r="N35" s="2">
+        <f>SUM(F35:I35)</f>
         <v>23606</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -2222,7 +2289,9 @@
         <v>487</v>
       </c>
       <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
+      <c r="J36" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L36" s="2">
         <v>934</v>
       </c>
@@ -2230,13 +2299,12 @@
         <f t="shared" si="3"/>
         <v>934</v>
       </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2">
-        <f t="shared" si="4"/>
+      <c r="N36" s="2">
+        <f>SUM(F36:I36)</f>
         <v>981</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -2252,19 +2320,20 @@
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
+      <c r="J37" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2">
-        <f t="shared" si="4"/>
+      <c r="N37" s="2">
+        <f>SUM(F37:I37)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
@@ -2273,19 +2342,19 @@
         <v>6830</v>
       </c>
       <c r="C38" s="3">
-        <f t="shared" ref="C38:F38" si="12">SUM(C34:C37)</f>
+        <f t="shared" ref="C38:F38" si="11">SUM(C34:C37)</f>
         <v>9442</v>
       </c>
       <c r="D38" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>10413</v>
       </c>
       <c r="E38" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>10074</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>5814</v>
       </c>
       <c r="G38" s="3">
@@ -2293,29 +2362,30 @@
         <v>9366</v>
       </c>
       <c r="H38" s="3">
-        <f t="shared" ref="H38:I38" si="13">SUM(H34:H37)</f>
+        <f t="shared" ref="H38:I38" si="12">SUM(H34:H37)</f>
         <v>10576</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J38" s="3"/>
+      <c r="J38" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L38" s="3">
-        <f t="shared" ref="L38" si="14">SUM(L34:L37)</f>
+        <f t="shared" ref="L38" si="13">SUM(L34:L37)</f>
         <v>36759</v>
       </c>
       <c r="M38" s="3">
         <f t="shared" si="3"/>
         <v>36759</v>
       </c>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3">
-        <f t="shared" si="4"/>
+      <c r="N38" s="3">
+        <f>SUM(F38:I38)</f>
         <v>25756</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
@@ -2324,66 +2394,69 @@
         <v>569631</v>
       </c>
       <c r="C39" s="3">
-        <f t="shared" ref="C39:F39" si="15">C38+C33+C28+C23+C18</f>
+        <f t="shared" ref="C39:F39" si="14">C38+C33+C28+C23+C18</f>
         <v>642568</v>
       </c>
       <c r="D39" s="3">
+        <f t="shared" si="14"/>
+        <v>694115</v>
+      </c>
+      <c r="E39" s="3">
+        <f t="shared" si="14"/>
+        <v>852131</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="14"/>
+        <v>628703</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" ref="G39:N39" si="15">G38+G33+G28+G23+G18</f>
+        <v>633674</v>
+      </c>
+      <c r="H39" s="3">
         <f t="shared" si="15"/>
-        <v>694115</v>
-      </c>
-      <c r="E39" s="3">
+        <v>679824</v>
+      </c>
+      <c r="I39" s="3">
         <f t="shared" si="15"/>
-        <v>852131</v>
-      </c>
-      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="L39" s="3">
+        <f t="shared" ref="L39" si="16">L38+L33+L28+L23+L18</f>
+        <v>2758445</v>
+      </c>
+      <c r="M39" s="3">
         <f t="shared" si="15"/>
-        <v>628703</v>
-      </c>
-      <c r="G39" s="3">
-        <f t="shared" ref="G39:O39" si="16">G38+G33+G28+G23+G18</f>
-        <v>633674</v>
-      </c>
-      <c r="H39" s="3">
-        <f t="shared" si="16"/>
-        <v>679824</v>
-      </c>
-      <c r="I39" s="3">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="3"/>
-      <c r="L39" s="3">
-        <f t="shared" ref="L39" si="17">L38+L33+L28+L23+L18</f>
         <v>2758445</v>
       </c>
-      <c r="M39" s="3">
-        <f t="shared" si="16"/>
-        <v>2758445</v>
-      </c>
       <c r="N39" s="3">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="O39" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1942201</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J40" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="str">
         <f>B2</f>
         <v>Q123</v>
       </c>
       <c r="C41" s="1" t="str">
-        <f t="shared" ref="C41:E41" si="18">C2</f>
+        <f t="shared" ref="C41:E41" si="17">C2</f>
         <v>Q223</v>
       </c>
       <c r="D41" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>Q323</v>
       </c>
       <c r="E41" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>Q423</v>
       </c>
       <c r="F41" s="1" t="str">
@@ -2391,37 +2464,46 @@
         <v>Q124</v>
       </c>
       <c r="G41" s="1" t="str">
-        <f t="shared" ref="G41:O41" si="19">G2</f>
+        <f t="shared" ref="G41:N41" si="18">G2</f>
         <v>Q224</v>
       </c>
       <c r="H41" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>Q324</v>
       </c>
       <c r="I41" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>Q424</v>
       </c>
+      <c r="J41" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M41" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>2023</v>
       </c>
-      <c r="O41" s="1">
-        <f t="shared" si="19"/>
+      <c r="N41" s="1">
+        <f t="shared" si="18"/>
         <v>2024</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J42" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J43" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>145</v>
       </c>
@@ -2448,7 +2530,9 @@
         <v>495147</v>
       </c>
       <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
+      <c r="J44" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L44" s="2">
         <v>2145316</v>
       </c>
@@ -2456,13 +2540,12 @@
         <f t="shared" si="3"/>
         <v>2145316</v>
       </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2">
-        <f t="shared" si="4"/>
+      <c r="N44" s="2">
+        <f>SUM(F44:I44)</f>
         <v>1428469</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>146</v>
       </c>
@@ -2476,7 +2559,7 @@
         <v>114962</v>
       </c>
       <c r="E45" s="2">
-        <f t="shared" ref="E45:E47" si="20">L45-D45-C45-B45</f>
+        <f t="shared" ref="E45:E47" si="19">L45-D45-C45-B45</f>
         <v>90763</v>
       </c>
       <c r="F45" s="2">
@@ -2489,7 +2572,9 @@
         <v>121086</v>
       </c>
       <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
+      <c r="J45" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L45" s="2">
         <v>410841</v>
       </c>
@@ -2497,13 +2582,12 @@
         <f t="shared" si="3"/>
         <v>410841</v>
       </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2">
-        <f t="shared" si="4"/>
+      <c r="N45" s="2">
+        <f>SUM(F45:I45)</f>
         <v>339117</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>147</v>
       </c>
@@ -2517,7 +2601,7 @@
         <v>44767</v>
       </c>
       <c r="E46" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>35137</v>
       </c>
       <c r="F46" s="2">
@@ -2530,7 +2614,9 @@
         <v>51122</v>
       </c>
       <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
+      <c r="J46" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L46" s="2">
         <v>157315</v>
       </c>
@@ -2538,13 +2624,12 @@
         <f t="shared" si="3"/>
         <v>157315</v>
       </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2">
-        <f t="shared" si="4"/>
+      <c r="N46" s="2">
+        <f>SUM(F46:I46)</f>
         <v>143469</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>148</v>
       </c>
@@ -2558,7 +2643,7 @@
         <v>12611</v>
       </c>
       <c r="E47" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>12188</v>
       </c>
       <c r="F47" s="2">
@@ -2571,7 +2656,9 @@
         <v>12469</v>
       </c>
       <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
+      <c r="J47" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L47" s="2">
         <v>44973</v>
       </c>
@@ -2579,13 +2666,12 @@
         <f t="shared" si="3"/>
         <v>44973</v>
       </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2">
-        <f t="shared" si="4"/>
+      <c r="N47" s="2">
+        <f>SUM(F47:I47)</f>
         <v>31146</v>
       </c>
     </row>
-    <row r="48" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>3</v>
       </c>
@@ -2594,34 +2680,36 @@
         <v>569631</v>
       </c>
       <c r="C48" s="3">
-        <f t="shared" ref="C48:I48" si="21">SUM(C44:C47)</f>
+        <f t="shared" ref="C48:I48" si="20">SUM(C44:C47)</f>
         <v>642568</v>
       </c>
       <c r="D48" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>694115</v>
       </c>
       <c r="E48" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>852131</v>
       </c>
       <c r="F48" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>628703</v>
       </c>
       <c r="G48" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>633674</v>
       </c>
       <c r="H48" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>679824</v>
       </c>
       <c r="I48" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="J48" s="3"/>
+      <c r="J48" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L48" s="3">
         <f>SUM(L44:L47)</f>
         <v>2758445</v>
@@ -2630,13 +2718,12 @@
         <f t="shared" si="3"/>
         <v>2758445</v>
       </c>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3">
-        <f t="shared" si="4"/>
+      <c r="N48" s="3">
+        <f>SUM(F48:I48)</f>
         <v>1942201</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -2662,6 +2749,9 @@
       <c r="H49" s="2">
         <v>458345</v>
       </c>
+      <c r="J49" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L49" s="2">
         <v>1864558</v>
       </c>
@@ -2669,13 +2759,12 @@
         <f t="shared" si="3"/>
         <v>1864558</v>
       </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2">
-        <f t="shared" si="4"/>
+      <c r="N49" s="2">
+        <f>SUM(F49:I49)</f>
         <v>1292820</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -2689,7 +2778,7 @@
         <v>78585</v>
       </c>
       <c r="E50" s="2">
-        <f t="shared" ref="E50:E52" si="22">L50-D50-C50-B50</f>
+        <f t="shared" ref="E50:E52" si="21">L50-D50-C50-B50</f>
         <v>63147</v>
       </c>
       <c r="F50" s="2">
@@ -2700,6 +2789,9 @@
       </c>
       <c r="H50" s="2">
         <v>83542</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="L50" s="2">
         <v>279921</v>
@@ -2708,13 +2800,12 @@
         <f t="shared" si="3"/>
         <v>279921</v>
       </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2">
-        <f t="shared" si="4"/>
+      <c r="N50" s="2">
+        <f>SUM(F50:I50)</f>
         <v>230932</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -2728,7 +2819,7 @@
         <v>14393</v>
       </c>
       <c r="E51" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>12971</v>
       </c>
       <c r="F51" s="2">
@@ -2739,6 +2830,9 @@
       </c>
       <c r="H51" s="2">
         <v>17833</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="L51" s="2">
         <v>53981</v>
@@ -2747,13 +2841,12 @@
         <f t="shared" si="3"/>
         <v>53981</v>
       </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2">
-        <f t="shared" si="4"/>
+      <c r="N51" s="2">
+        <f>SUM(F51:I51)</f>
         <v>50753</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -2767,7 +2860,7 @@
         <v>8198</v>
       </c>
       <c r="E52" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>8081</v>
       </c>
       <c r="F52" s="2">
@@ -2778,6 +2871,9 @@
       </c>
       <c r="H52" s="2">
         <v>9610</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="L52" s="2">
         <v>28631</v>
@@ -2786,13 +2882,12 @@
         <f t="shared" si="3"/>
         <v>28631</v>
       </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2">
-        <f t="shared" si="4"/>
+      <c r="N52" s="2">
+        <f>SUM(F52:I52)</f>
         <v>23068</v>
       </c>
     </row>
-    <row r="53" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>10</v>
       </c>
@@ -2801,34 +2896,36 @@
         <v>451051</v>
       </c>
       <c r="C53" s="3">
-        <f t="shared" ref="C53:I53" si="23">SUM(C49:C52)</f>
+        <f t="shared" ref="C53:I53" si="22">SUM(C49:C52)</f>
         <v>509169</v>
       </c>
       <c r="D53" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>555774</v>
       </c>
       <c r="E53" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>711097</v>
       </c>
       <c r="F53" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>506948</v>
       </c>
       <c r="G53" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>521295</v>
       </c>
       <c r="H53" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>569330</v>
       </c>
       <c r="I53" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="J53" s="3"/>
+      <c r="J53" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L53" s="3">
         <f>SUM(L49:L52)</f>
         <v>2227091</v>
@@ -2837,13 +2934,12 @@
         <f t="shared" si="3"/>
         <v>2227091</v>
       </c>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3">
-        <f t="shared" si="4"/>
+      <c r="N53" s="3">
+        <f>SUM(F53:I53)</f>
         <v>1597573</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>11</v>
       </c>
@@ -2852,206 +2948,210 @@
         <v>61114</v>
       </c>
       <c r="C54" s="3">
-        <f t="shared" ref="C54:O54" si="24">C44-C49</f>
+        <f t="shared" ref="C54:N54" si="23">C44-C49</f>
         <v>65322</v>
       </c>
       <c r="D54" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>67177</v>
       </c>
       <c r="E54" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>87145</v>
       </c>
       <c r="F54" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>55850</v>
       </c>
       <c r="G54" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>42997</v>
       </c>
       <c r="H54" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>36802</v>
       </c>
       <c r="I54" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J54" s="3"/>
+      <c r="J54" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="K54" s="3"/>
       <c r="L54" s="3">
-        <f t="shared" ref="L54" si="25">L44-L49</f>
+        <f t="shared" ref="L54" si="24">L44-L49</f>
         <v>280758</v>
       </c>
       <c r="M54" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>280758</v>
       </c>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3">
-        <f t="shared" si="24"/>
+      <c r="N54" s="3">
+        <f t="shared" si="23"/>
         <v>135649</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B55" s="3">
-        <f t="shared" ref="B55:B57" si="26">B45-B50</f>
+        <f t="shared" ref="B55:B57" si="25">B45-B50</f>
         <v>31503</v>
       </c>
       <c r="C55" s="3">
-        <f t="shared" ref="C55:O55" si="27">C45-C50</f>
+        <f t="shared" ref="C55:N55" si="26">C45-C50</f>
         <v>35424</v>
       </c>
       <c r="D55" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>36377</v>
       </c>
       <c r="E55" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>27616</v>
       </c>
       <c r="F55" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>35075</v>
       </c>
       <c r="G55" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>35566</v>
       </c>
       <c r="H55" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>37544</v>
       </c>
       <c r="I55" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="J55" s="3"/>
+      <c r="J55" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="K55" s="3"/>
       <c r="L55" s="3">
-        <f t="shared" ref="L55" si="28">L45-L50</f>
+        <f t="shared" ref="L55" si="27">L45-L50</f>
         <v>130920</v>
       </c>
       <c r="M55" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>130920</v>
       </c>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3">
-        <f t="shared" si="27"/>
+      <c r="N55" s="3">
+        <f t="shared" si="26"/>
         <v>108185</v>
       </c>
     </row>
-    <row r="56" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B56" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>22524</v>
       </c>
       <c r="C56" s="3">
-        <f t="shared" ref="C56:O56" si="29">C46-C51</f>
+        <f t="shared" ref="C56:N56" si="28">C46-C51</f>
         <v>28270</v>
       </c>
       <c r="D56" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>30374</v>
       </c>
       <c r="E56" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>22166</v>
       </c>
       <c r="F56" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>28303</v>
       </c>
       <c r="G56" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>31124</v>
       </c>
       <c r="H56" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>33289</v>
       </c>
       <c r="I56" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="J56" s="3"/>
+      <c r="J56" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="K56" s="3"/>
       <c r="L56" s="3">
-        <f t="shared" ref="L56" si="30">L46-L51</f>
+        <f t="shared" ref="L56" si="29">L46-L51</f>
         <v>103334</v>
       </c>
       <c r="M56" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>103334</v>
       </c>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3">
-        <f t="shared" si="29"/>
+      <c r="N56" s="3">
+        <f t="shared" si="28"/>
         <v>92716</v>
       </c>
     </row>
-    <row r="57" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B57" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>3439</v>
       </c>
       <c r="C57" s="3">
-        <f t="shared" ref="C57:O57" si="31">C47-C52</f>
+        <f t="shared" ref="C57:N57" si="30">C47-C52</f>
         <v>4383</v>
       </c>
       <c r="D57" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>4413</v>
       </c>
       <c r="E57" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>4107</v>
       </c>
       <c r="F57" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>2527</v>
       </c>
       <c r="G57" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>2692</v>
       </c>
       <c r="H57" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>2859</v>
       </c>
       <c r="I57" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="J57" s="3"/>
+      <c r="J57" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="K57" s="3"/>
       <c r="L57" s="3">
-        <f t="shared" ref="L57" si="32">L47-L52</f>
+        <f t="shared" ref="L57" si="31">L47-L52</f>
         <v>16342</v>
       </c>
       <c r="M57" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>16342</v>
       </c>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3">
-        <f t="shared" si="31"/>
+      <c r="N57" s="3">
+        <f t="shared" si="30"/>
         <v>8078</v>
       </c>
     </row>
-    <row r="58" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>15</v>
       </c>
@@ -3060,49 +3160,50 @@
         <v>118580</v>
       </c>
       <c r="C58" s="3">
-        <f t="shared" ref="C58:I58" si="33">SUM(C54:C57)</f>
+        <f t="shared" ref="C58:I58" si="32">SUM(C54:C57)</f>
         <v>133399</v>
       </c>
       <c r="D58" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>138341</v>
       </c>
       <c r="E58" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>141034</v>
       </c>
       <c r="F58" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>121755</v>
       </c>
       <c r="G58" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>112379</v>
       </c>
       <c r="H58" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>110494</v>
       </c>
       <c r="I58" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="J58" s="3"/>
+      <c r="J58" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L58" s="3">
-        <f t="shared" ref="L58" si="34">SUM(L54:L57)</f>
+        <f t="shared" ref="L58" si="33">SUM(L54:L57)</f>
         <v>531354</v>
       </c>
       <c r="M58" s="3">
         <f t="shared" si="3"/>
         <v>531354</v>
       </c>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3">
-        <f t="shared" si="4"/>
+      <c r="N58" s="3">
+        <f>SUM(F58:I58)</f>
         <v>344628</v>
       </c>
     </row>
-    <row r="59" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>16</v>
       </c>
@@ -3116,7 +3217,7 @@
         <v>92115</v>
       </c>
       <c r="E59" s="2">
-        <f t="shared" ref="E59" si="35">L59-D59-C59-B59</f>
+        <f t="shared" ref="E59" si="34">L59-D59-C59-B59</f>
         <v>100328</v>
       </c>
       <c r="F59" s="2">
@@ -3127,6 +3228,9 @@
       </c>
       <c r="H59" s="2">
         <v>98773</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="L59" s="2">
         <v>362509</v>
@@ -3135,12 +3239,12 @@
         <f>SUM(B59:E59)</f>
         <v>362509</v>
       </c>
-      <c r="O59" s="2">
+      <c r="N59" s="2">
         <f>SUM(F59:I59)</f>
         <v>293087</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>104</v>
       </c>
@@ -3154,18 +3258,19 @@
       </c>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
+      <c r="J60" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M60" s="2">
-        <f t="shared" ref="M60:M61" si="36">SUM(B60:E60)</f>
+        <f t="shared" ref="M60:M61" si="35">SUM(B60:E60)</f>
         <v>0</v>
       </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2">
-        <f t="shared" ref="O60:O61" si="37">SUM(F60:I60)</f>
+      <c r="N60" s="2">
+        <f>SUM(F60:I60)</f>
         <v>531</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>105</v>
       </c>
@@ -3176,17 +3281,19 @@
       <c r="H61">
         <v>264</v>
       </c>
+      <c r="J61" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M61" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2">
-        <f t="shared" si="37"/>
+      <c r="N61" s="2">
+        <f>SUM(F61:I61)</f>
         <v>1206</v>
       </c>
     </row>
-    <row r="62" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>17</v>
       </c>
@@ -3195,50 +3302,51 @@
         <v>37265</v>
       </c>
       <c r="C62" s="3">
-        <f t="shared" ref="C62:O62" si="38">C58-C59-C60-C61</f>
+        <f t="shared" ref="C62:N62" si="36">C58-C59-C60-C61</f>
         <v>44648</v>
       </c>
       <c r="D62" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>46226</v>
       </c>
       <c r="E62" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>40706</v>
       </c>
       <c r="F62" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>22597</v>
       </c>
       <c r="G62" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>15750</v>
       </c>
       <c r="H62" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>11457</v>
       </c>
       <c r="I62" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J62" s="3"/>
+      <c r="J62" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="K62" s="3"/>
       <c r="L62" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>168845</v>
       </c>
       <c r="M62" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>168845</v>
       </c>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3">
-        <f t="shared" si="38"/>
+      <c r="N62" s="3">
+        <f t="shared" si="36"/>
         <v>49804</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>18</v>
       </c>
@@ -3252,7 +3360,7 @@
         <v>-235</v>
       </c>
       <c r="E63" s="2">
-        <f t="shared" ref="E63:E67" si="39">L63-D63-C63-B63</f>
+        <f t="shared" ref="E63:E67" si="37">L63-D63-C63-B63</f>
         <v>2174</v>
       </c>
       <c r="F63" s="2">
@@ -3265,7 +3373,9 @@
         <v>3097</v>
       </c>
       <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
+      <c r="J63" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="K63" s="2"/>
       <c r="L63" s="2">
         <v>3300</v>
@@ -3274,16 +3384,15 @@
         <f t="shared" si="3"/>
         <v>3300</v>
       </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2">
-        <f t="shared" si="4"/>
+      <c r="N63" s="2">
+        <f>SUM(F63:I63)</f>
         <v>-4239</v>
       </c>
+      <c r="O63" s="2"/>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
-      <c r="R63" s="2"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -3297,7 +3406,7 @@
         <v>-4045</v>
       </c>
       <c r="E64" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>-6028</v>
       </c>
       <c r="F64" s="2">
@@ -3310,7 +3419,9 @@
         <v>-9993</v>
       </c>
       <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
+      <c r="J64" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="K64" s="2"/>
       <c r="L64" s="2">
         <v>-13802</v>
@@ -3319,16 +3430,15 @@
         <f t="shared" si="3"/>
         <v>-13802</v>
       </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2">
-        <f t="shared" si="4"/>
+      <c r="N64" s="2">
+        <f>SUM(F64:I64)</f>
         <v>-26275</v>
       </c>
+      <c r="O64" s="2"/>
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
-      <c r="R64" s="2"/>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>19</v>
       </c>
@@ -3342,7 +3452,7 @@
         <v>-1494</v>
       </c>
       <c r="E65" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>-3294</v>
       </c>
       <c r="F65" s="2">
@@ -3355,7 +3465,9 @@
         <v>-4286</v>
       </c>
       <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
+      <c r="J65" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="K65" s="2"/>
       <c r="L65" s="2">
         <v>-7303</v>
@@ -3364,16 +3476,15 @@
         <f t="shared" si="3"/>
         <v>-7303</v>
       </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2">
-        <f t="shared" si="4"/>
+      <c r="N65" s="2">
+        <f>SUM(F65:I65)</f>
         <v>-10479</v>
       </c>
+      <c r="O65" s="2"/>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
-      <c r="R65" s="2"/>
-    </row>
-    <row r="66" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>21</v>
       </c>
@@ -3382,49 +3493,50 @@
         <v>35439</v>
       </c>
       <c r="C66" s="3">
-        <f t="shared" ref="C66:L66" si="40">C62+SUM(C63:C65)</f>
+        <f t="shared" ref="C66:L66" si="38">C62+SUM(C63:C65)</f>
         <v>41591</v>
       </c>
       <c r="D66" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>40452</v>
       </c>
       <c r="E66" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>33558</v>
       </c>
       <c r="F66" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>12786</v>
       </c>
       <c r="G66" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>-4250</v>
       </c>
       <c r="H66" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>275</v>
       </c>
       <c r="I66" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="J66" s="3"/>
+      <c r="J66" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L66" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>151040</v>
       </c>
       <c r="M66" s="3">
         <f t="shared" si="3"/>
         <v>151040</v>
       </c>
-      <c r="N66" s="3"/>
-      <c r="O66" s="3">
-        <f t="shared" si="4"/>
+      <c r="N66" s="3">
+        <f>SUM(F66:I66)</f>
         <v>8811</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>59</v>
       </c>
@@ -3438,7 +3550,7 @@
         <v>10259</v>
       </c>
       <c r="E67" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>9596</v>
       </c>
       <c r="F67" s="2">
@@ -3449,6 +3561,9 @@
       </c>
       <c r="H67" s="2">
         <v>-1438</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="L67" s="2">
         <v>38599</v>
@@ -3457,13 +3572,12 @@
         <f t="shared" si="3"/>
         <v>38599</v>
       </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2">
-        <f t="shared" si="4"/>
+      <c r="N67" s="2">
+        <f>SUM(F67:I67)</f>
         <v>1961</v>
       </c>
     </row>
-    <row r="68" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3472,59 +3586,62 @@
         <v>26965</v>
       </c>
       <c r="C68" s="3">
-        <f t="shared" ref="C68:L68" si="41">C66-C67</f>
+        <f t="shared" ref="C68:L68" si="39">C66-C67</f>
         <v>31321</v>
       </c>
       <c r="D68" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>30193</v>
       </c>
       <c r="E68" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>23962</v>
       </c>
       <c r="F68" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>9441</v>
       </c>
       <c r="G68" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>-4304</v>
       </c>
       <c r="H68" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>1713</v>
       </c>
       <c r="I68" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J68" s="3"/>
+      <c r="J68" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L68" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>112441</v>
       </c>
       <c r="M68" s="3">
         <f t="shared" si="3"/>
         <v>112441</v>
       </c>
-      <c r="N68" s="3"/>
-      <c r="O68" s="3">
-        <f t="shared" si="4"/>
+      <c r="N68" s="3">
+        <f>SUM(F68:I68)</f>
         <v>6850</v>
       </c>
     </row>
-    <row r="69" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
+      <c r="J69" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3533,43 +3650,46 @@
         <v>1.2015952943273474</v>
       </c>
       <c r="C70" s="5">
-        <f t="shared" ref="C70:F70" si="42">C68/C73</f>
+        <f t="shared" ref="C70:F70" si="40">C68/C73</f>
         <v>1.3935308773803168</v>
       </c>
       <c r="D70" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>1.3411958066808813</v>
       </c>
       <c r="E70" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>1.0653092073089405</v>
       </c>
       <c r="F70" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>0.41881820601543784</v>
       </c>
       <c r="G70" s="5">
-        <f t="shared" ref="G70:I70" si="43">G68/G73</f>
+        <f t="shared" ref="G70:I70" si="41">G68/G73</f>
         <v>-0.19029933236061369</v>
       </c>
       <c r="H70" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>7.569263399761389E-2</v>
       </c>
       <c r="I70" s="5" t="e">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="J70" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M70" s="5">
-        <f t="shared" ref="M70" si="44">M68/M73</f>
+        <f t="shared" ref="M70" si="42">M68/M73</f>
         <v>4.998933001378207</v>
       </c>
-      <c r="O70" s="5" t="e">
-        <f t="shared" si="4"/>
+      <c r="N70" s="5" t="e">
+        <f>SUM(F70:I70)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3578,53 +3698,58 @@
         <v>1.201220598717035</v>
       </c>
       <c r="C71" s="5">
-        <f t="shared" ref="C71:F71" si="45">C68/C74</f>
+        <f t="shared" ref="C71:F71" si="43">C68/C74</f>
         <v>1.3930350471446362</v>
       </c>
       <c r="D71" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>1.3408979881867034</v>
       </c>
       <c r="E71" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>1.0650251122272101</v>
       </c>
       <c r="F71" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>0.41874390135722522</v>
       </c>
       <c r="G71" s="5">
-        <f t="shared" ref="G71:I71" si="46">G68/G74</f>
+        <f t="shared" ref="G71:I71" si="44">G68/G74</f>
         <v>-0.19029933236061369</v>
       </c>
       <c r="H71" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>7.569263399761389E-2</v>
       </c>
       <c r="I71" s="5" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="J71" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M71" s="5">
-        <f t="shared" ref="M71" si="47">M68/M74</f>
+        <f t="shared" ref="M71" si="45">M68/M74</f>
         <v>4.9975998933285926</v>
       </c>
-      <c r="O71" s="5" t="e">
-        <f t="shared" si="4"/>
+      <c r="N71" s="5" t="e">
+        <f>SUM(F71:I71)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
+      <c r="J72" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>63</v>
       </c>
@@ -3649,11 +3774,14 @@
       <c r="H73" s="4">
         <v>22631</v>
       </c>
+      <c r="J73" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M73" s="4">
         <v>22493</v>
       </c>
     </row>
-    <row r="74" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>64</v>
       </c>
@@ -3678,68 +3806,79 @@
       <c r="H74" s="4">
         <v>22631</v>
       </c>
+      <c r="J74" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M74" s="4">
         <v>22499</v>
       </c>
     </row>
-    <row r="75" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
+      <c r="J75" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B76" s="1" t="str">
         <f>B41</f>
         <v>Q123</v>
       </c>
       <c r="C76" s="1" t="str">
-        <f t="shared" ref="C76:O76" si="48">C41</f>
+        <f t="shared" ref="C76:N76" si="46">C41</f>
         <v>Q223</v>
       </c>
       <c r="D76" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>Q323</v>
       </c>
       <c r="E76" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>Q423</v>
       </c>
       <c r="F76" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>Q124</v>
       </c>
       <c r="G76" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>Q224</v>
       </c>
       <c r="H76" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>Q324</v>
       </c>
       <c r="I76" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>Q424</v>
       </c>
+      <c r="J76" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M76" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>2023</v>
       </c>
-      <c r="O76" s="1">
-        <f t="shared" si="48"/>
+      <c r="N76" s="1">
+        <f t="shared" si="46"/>
         <v>2024</v>
       </c>
     </row>
-    <row r="77" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="J77" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>47</v>
       </c>
@@ -3755,7 +3894,7 @@
         <v>30192</v>
       </c>
       <c r="E78" s="2">
-        <f t="shared" ref="E78:E94" si="49">L78-D78-C78-B78</f>
+        <f t="shared" ref="E78:E94" si="47">L78-D78-C78-B78</f>
         <v>23962</v>
       </c>
       <c r="F78" s="2">
@@ -3769,6 +3908,9 @@
         <f>6850-G78-F78</f>
         <v>1714</v>
       </c>
+      <c r="J78" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L78" s="2">
         <v>112441</v>
       </c>
@@ -3776,13 +3918,12 @@
         <f t="shared" si="3"/>
         <v>112441</v>
       </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2">
-        <f t="shared" si="4"/>
+      <c r="N78" s="2">
+        <f>SUM(F78:I78)</f>
         <v>6850</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>48</v>
       </c>
@@ -3798,7 +3939,7 @@
         <v>8234</v>
       </c>
       <c r="E79" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>8608</v>
       </c>
       <c r="F79" s="2">
@@ -3812,6 +3953,9 @@
         <f>28687-G79-F79</f>
         <v>10274</v>
       </c>
+      <c r="J79" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L79" s="2">
         <v>31479</v>
       </c>
@@ -3819,13 +3963,12 @@
         <f t="shared" si="3"/>
         <v>31479</v>
       </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2">
-        <f t="shared" si="4"/>
+      <c r="N79" s="2">
+        <f>SUM(F79:I79)</f>
         <v>28687</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>106</v>
       </c>
@@ -3840,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="F80" s="2"/>
@@ -3852,20 +3995,22 @@
         <f>1737-G80-F80</f>
         <v>264</v>
       </c>
+      <c r="J80" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L80" s="2">
         <v>0</v>
       </c>
       <c r="M80" s="2">
-        <f t="shared" ref="M80:M130" si="50">SUM(B80:E80)</f>
+        <f t="shared" ref="M80:M130" si="48">SUM(B80:E80)</f>
         <v>0</v>
       </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2">
-        <f t="shared" ref="O80:O133" si="51">SUM(F80:I80)</f>
+      <c r="N80" s="2">
+        <f>SUM(F80:I80)</f>
         <v>1737</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>49</v>
       </c>
@@ -3881,7 +4026,7 @@
         <v>-1236</v>
       </c>
       <c r="E81" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>6641</v>
       </c>
       <c r="F81" s="2">
@@ -3895,20 +4040,22 @@
         <f>-3003-G81-F81</f>
         <v>-2353</v>
       </c>
+      <c r="J81" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L81" s="2">
         <v>2910</v>
       </c>
       <c r="M81" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>2910</v>
       </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2">
-        <f t="shared" si="51"/>
+      <c r="N81" s="2">
+        <f>SUM(F81:I81)</f>
         <v>-3003</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>50</v>
       </c>
@@ -3924,7 +4071,7 @@
         <v>896</v>
       </c>
       <c r="E82" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>781</v>
       </c>
       <c r="F82" s="2">
@@ -3938,20 +4085,22 @@
         <f>3203-G82-F82</f>
         <v>1104</v>
       </c>
+      <c r="J82" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L82" s="2">
         <v>3120</v>
       </c>
       <c r="M82" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>3120</v>
       </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2">
-        <f t="shared" si="51"/>
+      <c r="N82" s="2">
+        <f>SUM(F82:I82)</f>
         <v>3203</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>110</v>
       </c>
@@ -3967,7 +4116,7 @@
         <v>77</v>
       </c>
       <c r="E83" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>86</v>
       </c>
       <c r="F83" s="2">
@@ -3981,20 +4130,22 @@
         <f>537-G83-F83</f>
         <v>44</v>
       </c>
+      <c r="J83" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L83" s="2">
         <v>292</v>
       </c>
       <c r="M83" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>292</v>
       </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2">
-        <f t="shared" si="51"/>
+      <c r="N83" s="2">
+        <f>SUM(F83:I83)</f>
         <v>537</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>111</v>
       </c>
@@ -4002,20 +4153,22 @@
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>-1349</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
+      <c r="J84" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L84" s="2">
         <v>-1349</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>109</v>
       </c>
@@ -4026,7 +4179,7 @@
         <v>7004</v>
       </c>
       <c r="E85" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="F85" s="2"/>
@@ -4035,20 +4188,22 @@
         <f>6532-G85-F85</f>
         <v>6532</v>
       </c>
+      <c r="J85" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L85" s="2">
         <v>7004</v>
       </c>
       <c r="M85" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>7004</v>
       </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2">
-        <f t="shared" si="51"/>
+      <c r="N85" s="2">
+        <f>SUM(F85:I85)</f>
         <v>6532</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>107</v>
       </c>
@@ -4063,7 +4218,7 @@
         <v>0</v>
       </c>
       <c r="E86" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="F86" s="2"/>
@@ -4075,20 +4230,22 @@
         <f>11159-G86-F86</f>
         <v>0</v>
       </c>
+      <c r="J86" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L86" s="2">
         <v>0</v>
       </c>
       <c r="M86" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2">
-        <f t="shared" si="51"/>
+      <c r="N86" s="2">
+        <f>SUM(F86:I86)</f>
         <v>11159</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>108</v>
       </c>
@@ -4103,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="E87" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="F87" s="2"/>
@@ -4115,20 +4272,22 @@
         <f>-3585-G87-F87</f>
         <v>0</v>
       </c>
+      <c r="J87" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L87" s="2">
         <v>0</v>
       </c>
       <c r="M87" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2">
-        <f t="shared" si="51"/>
+      <c r="N87" s="2">
+        <f>SUM(F87:I87)</f>
         <v>-3585</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>51</v>
       </c>
@@ -4144,7 +4303,7 @@
         <v>-4626</v>
       </c>
       <c r="E88" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>2340</v>
       </c>
       <c r="F88" s="2">
@@ -4158,21 +4317,23 @@
         <f>-1255-G88-F88</f>
         <v>-8574</v>
       </c>
+      <c r="J88" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L88" s="2">
         <f>7968-M85</f>
         <v>964</v>
       </c>
       <c r="M88" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>964</v>
       </c>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2">
-        <f t="shared" si="51"/>
+      <c r="N88" s="2">
+        <f>SUM(F88:I88)</f>
         <v>-1255</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>52</v>
       </c>
@@ -4188,7 +4349,7 @@
         <v>-11324</v>
       </c>
       <c r="E89" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>-16144</v>
       </c>
       <c r="F89" s="2">
@@ -4202,20 +4363,22 @@
         <f>12541-G89-F89</f>
         <v>-5958</v>
       </c>
+      <c r="J89" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L89" s="2">
         <v>-48091</v>
       </c>
       <c r="M89" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>-48091</v>
       </c>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2">
-        <f t="shared" si="51"/>
+      <c r="N89" s="2">
+        <f>SUM(F89:I89)</f>
         <v>12541</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>53</v>
       </c>
@@ -4231,7 +4394,7 @@
         <v>-1766</v>
       </c>
       <c r="E90" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>-5159</v>
       </c>
       <c r="F90" s="2">
@@ -4245,20 +4408,22 @@
         <f>9124-G90-F90</f>
         <v>-177</v>
       </c>
+      <c r="J90" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L90" s="2">
         <v>615</v>
       </c>
       <c r="M90" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>615</v>
       </c>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2">
-        <f t="shared" si="51"/>
+      <c r="N90" s="2">
+        <f>SUM(F90:I90)</f>
         <v>9124</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>54</v>
       </c>
@@ -4274,7 +4439,7 @@
         <v>-95716</v>
       </c>
       <c r="E91" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>-117552</v>
       </c>
       <c r="F91" s="2">
@@ -4288,20 +4453,22 @@
         <f>-114485-G91-F91</f>
         <v>127628</v>
       </c>
+      <c r="J91" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L91" s="2">
         <v>-476389</v>
       </c>
       <c r="M91" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>-476389</v>
       </c>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2">
-        <f t="shared" si="51"/>
+      <c r="N91" s="2">
+        <f>SUM(F91:I91)</f>
         <v>-114485</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>55</v>
       </c>
@@ -4317,7 +4484,7 @@
         <v>124062</v>
       </c>
       <c r="E92" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>93143</v>
       </c>
       <c r="F92" s="2">
@@ -4331,20 +4498,22 @@
         <f>78714-G92-F92</f>
         <v>-127389</v>
       </c>
+      <c r="J92" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L92" s="2">
         <v>368111</v>
       </c>
       <c r="M92" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>368111</v>
       </c>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2">
-        <f t="shared" si="51"/>
+      <c r="N92" s="2">
+        <f>SUM(F92:I92)</f>
         <v>78714</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>56</v>
       </c>
@@ -4360,7 +4529,7 @@
         <v>-18943</v>
       </c>
       <c r="E93" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>61883</v>
       </c>
       <c r="F93" s="2">
@@ -4374,20 +4543,22 @@
         <f>-76838-G93-F93</f>
         <v>-18512</v>
       </c>
+      <c r="J93" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L93" s="2">
         <v>-15542</v>
       </c>
       <c r="M93" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>-15542</v>
       </c>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2">
-        <f t="shared" si="51"/>
+      <c r="N93" s="2">
+        <f>SUM(F93:I93)</f>
         <v>-76838</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>57</v>
       </c>
@@ -4403,7 +4574,7 @@
         <v>3780</v>
       </c>
       <c r="E94" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>-7459</v>
       </c>
       <c r="F94" s="2">
@@ -4417,20 +4588,22 @@
         <f>-16113-G94-F94</f>
         <v>6575</v>
       </c>
+      <c r="J94" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L94" s="2">
         <v>-17845</v>
       </c>
       <c r="M94" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>-17845</v>
       </c>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2">
-        <f t="shared" si="51"/>
+      <c r="N94" s="2">
+        <f>SUM(F94:I94)</f>
         <v>-16113</v>
       </c>
     </row>
-    <row r="95" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>58</v>
       </c>
@@ -4439,101 +4612,107 @@
         <v>-77704</v>
       </c>
       <c r="C95" s="3">
-        <f t="shared" ref="C95:L95" si="52">SUM(C78:C94)</f>
+        <f t="shared" ref="C95:L95" si="49">SUM(C78:C94)</f>
         <v>-44991</v>
       </c>
       <c r="D95" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>40634</v>
       </c>
       <c r="E95" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>49781</v>
       </c>
       <c r="F95" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>-32354</v>
       </c>
       <c r="G95" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>-15013</v>
       </c>
       <c r="H95" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>-8828</v>
       </c>
       <c r="I95" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="J95" s="3"/>
+      <c r="J95" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="L95" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>-32280</v>
       </c>
       <c r="M95" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>-32280</v>
       </c>
-      <c r="N95" s="3"/>
-      <c r="O95" s="3">
-        <f t="shared" si="51"/>
+      <c r="N95" s="3">
+        <f>SUM(F95:I95)</f>
         <v>-56195</v>
       </c>
     </row>
-    <row r="96" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
+      <c r="J96" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B97" s="1" t="str">
         <f>B76</f>
         <v>Q123</v>
       </c>
       <c r="C97" s="1" t="str">
-        <f t="shared" ref="C97:O97" si="53">C76</f>
+        <f t="shared" ref="C97:N97" si="50">C76</f>
         <v>Q223</v>
       </c>
       <c r="D97" s="1" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="50"/>
         <v>Q323</v>
       </c>
       <c r="E97" s="1" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="50"/>
         <v>Q423</v>
       </c>
       <c r="F97" s="1" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="50"/>
         <v>Q124</v>
       </c>
       <c r="G97" s="1" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="50"/>
         <v>Q224</v>
       </c>
       <c r="H97" s="1" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="50"/>
         <v>Q324</v>
       </c>
       <c r="I97" s="1" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="50"/>
         <v>Q424</v>
       </c>
+      <c r="J97" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M97" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="50"/>
         <v>2023</v>
       </c>
-      <c r="O97" s="1">
-        <f t="shared" si="53"/>
+      <c r="N97" s="1">
+        <f t="shared" si="50"/>
         <v>2024</v>
       </c>
     </row>
-    <row r="98" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>79</v>
       </c>
@@ -4542,11 +4721,13 @@
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
+      <c r="J98" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>65</v>
       </c>
@@ -4572,18 +4753,19 @@
         <v>23420</v>
       </c>
       <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
+      <c r="J99" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M99" s="2">
         <f>E99</f>
         <v>38066</v>
       </c>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2">
-        <f t="shared" si="51"/>
+      <c r="N99" s="2">
+        <f>SUM(F99:I99)</f>
         <v>90323</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>66</v>
       </c>
@@ -4609,18 +4791,19 @@
         <v>140295</v>
       </c>
       <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
+      <c r="J100" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M100" s="2">
-        <f t="shared" ref="M100:M102" si="54">E100</f>
+        <f t="shared" ref="M100:M102" si="51">E100</f>
         <v>153657</v>
       </c>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2">
-        <f t="shared" si="51"/>
+      <c r="N100" s="2">
+        <f>SUM(F100:I100)</f>
         <v>406213</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>67</v>
       </c>
@@ -4646,18 +4829,19 @@
         <v>1413088</v>
       </c>
       <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
+      <c r="J101" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M101" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="51"/>
         <v>1303030</v>
       </c>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2">
-        <f t="shared" si="51"/>
+      <c r="N101" s="2">
+        <f>SUM(F101:I101)</f>
         <v>4370608</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>68</v>
       </c>
@@ -4683,18 +4867,19 @@
         <v>19896</v>
       </c>
       <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
+      <c r="J102" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M102" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="51"/>
         <v>24262</v>
       </c>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2">
-        <f t="shared" si="51"/>
+      <c r="N102" s="2">
+        <f>SUM(F102:I102)</f>
         <v>53544</v>
       </c>
     </row>
-    <row r="103" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>69</v>
       </c>
@@ -4703,11 +4888,11 @@
         <v>1043587</v>
       </c>
       <c r="C103" s="3">
-        <f t="shared" ref="C103:I103" si="55">SUM(C99:C102)</f>
+        <f t="shared" ref="C103:I103" si="52">SUM(C99:C102)</f>
         <v>1165488</v>
       </c>
       <c r="D103" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="52"/>
         <v>1285548</v>
       </c>
       <c r="E103" s="3">
@@ -4715,33 +4900,34 @@
         <v>1519015</v>
       </c>
       <c r="F103" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="52"/>
         <v>1614889</v>
       </c>
       <c r="G103" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="52"/>
         <v>1709100</v>
       </c>
       <c r="H103" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="52"/>
         <v>1596699</v>
       </c>
       <c r="I103" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="J103" s="3"/>
+      <c r="J103" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M103" s="3">
-        <f t="shared" ref="M103" si="56">SUM(M99:M102)</f>
+        <f t="shared" ref="M103" si="53">SUM(M99:M102)</f>
         <v>1519015</v>
       </c>
-      <c r="N103" s="3"/>
-      <c r="O103" s="3">
-        <f t="shared" si="51"/>
+      <c r="N103" s="3">
+        <f>SUM(F103:I103)</f>
         <v>4920688</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>73</v>
       </c>
@@ -4767,18 +4953,19 @@
         <v>357056</v>
       </c>
       <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
+      <c r="J104" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M104" s="2">
-        <f t="shared" ref="M104:M109" si="57">E104</f>
+        <f t="shared" ref="M104:M109" si="54">E104</f>
         <v>298774</v>
       </c>
-      <c r="N104" s="2"/>
-      <c r="O104" s="2">
-        <f t="shared" si="51"/>
+      <c r="N104" s="2">
+        <f>SUM(F104:I104)</f>
         <v>1018874</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>74</v>
       </c>
@@ -4804,18 +4991,19 @@
         <v>37520</v>
       </c>
       <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
+      <c r="J105" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M105" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="54"/>
         <v>54699</v>
       </c>
-      <c r="N105" s="2"/>
-      <c r="O105" s="2">
-        <f t="shared" si="51"/>
+      <c r="N105" s="2">
+        <f>SUM(F105:I105)</f>
         <v>127021</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>49</v>
       </c>
@@ -4841,18 +5029,19 @@
         <v>535</v>
       </c>
       <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
+      <c r="J106" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M106" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="54"/>
         <v>529</v>
       </c>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2">
-        <f t="shared" si="51"/>
+      <c r="N106" s="2">
+        <f>SUM(F106:I106)</f>
         <v>1564</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>75</v>
       </c>
@@ -4878,18 +5067,19 @@
         <v>63865</v>
       </c>
       <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
+      <c r="J107" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M107" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="54"/>
         <v>64105</v>
       </c>
-      <c r="N107" s="2"/>
-      <c r="O107" s="2">
-        <f t="shared" si="51"/>
+      <c r="N107" s="2">
+        <f>SUM(F107:I107)</f>
         <v>189773</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>76</v>
       </c>
@@ -4915,18 +5105,19 @@
         <v>52074</v>
       </c>
       <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
+      <c r="J108" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M108" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="54"/>
         <v>53356</v>
       </c>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2">
-        <f t="shared" si="51"/>
+      <c r="N108" s="2">
+        <f>SUM(F108:I108)</f>
         <v>154742</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>51</v>
       </c>
@@ -4952,18 +5143,19 @@
         <v>1654</v>
       </c>
       <c r="I109" s="2"/>
-      <c r="J109" s="2"/>
+      <c r="J109" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M109" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="54"/>
         <v>1783</v>
       </c>
-      <c r="N109" s="2"/>
-      <c r="O109" s="2">
-        <f t="shared" si="51"/>
+      <c r="N109" s="2">
+        <f>SUM(F109:I109)</f>
         <v>4957</v>
       </c>
     </row>
-    <row r="110" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>77</v>
       </c>
@@ -4972,45 +5164,46 @@
         <v>334518</v>
       </c>
       <c r="C110" s="3">
-        <f t="shared" ref="C110:F110" si="58">SUM(C104:C109)</f>
+        <f t="shared" ref="C110:F110" si="55">SUM(C104:C109)</f>
         <v>351528</v>
       </c>
       <c r="D110" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="55"/>
         <v>364190</v>
       </c>
       <c r="E110" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="55"/>
         <v>473246</v>
       </c>
       <c r="F110" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="55"/>
         <v>472778</v>
       </c>
       <c r="G110" s="3">
-        <f t="shared" ref="G110:I110" si="59">SUM(G104:G109)</f>
+        <f t="shared" ref="G110:I110" si="56">SUM(G104:G109)</f>
         <v>511449</v>
       </c>
       <c r="H110" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>512704</v>
       </c>
       <c r="I110" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="J110" s="3"/>
+      <c r="J110" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M110" s="3">
-        <f t="shared" ref="M110" si="60">SUM(M104:M109)</f>
+        <f t="shared" ref="M110" si="57">SUM(M104:M109)</f>
         <v>473246</v>
       </c>
-      <c r="N110" s="3"/>
-      <c r="O110" s="3">
-        <f t="shared" si="51"/>
+      <c r="N110" s="3">
+        <f>SUM(F110:I110)</f>
         <v>1496931</v>
       </c>
     </row>
-    <row r="111" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>78</v>
       </c>
@@ -5019,15 +5212,15 @@
         <v>1378105</v>
       </c>
       <c r="C111" s="3">
-        <f t="shared" ref="C111:E111" si="61">C103+C110</f>
+        <f t="shared" ref="C111:E111" si="58">C103+C110</f>
         <v>1517016</v>
       </c>
       <c r="D111" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="58"/>
         <v>1649738</v>
       </c>
       <c r="E111" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="58"/>
         <v>1992261</v>
       </c>
       <c r="F111" s="3">
@@ -5035,29 +5228,30 @@
         <v>2087667</v>
       </c>
       <c r="G111" s="3">
-        <f t="shared" ref="G111:I111" si="62">G103+G110</f>
+        <f t="shared" ref="G111:I111" si="59">G103+G110</f>
         <v>2220549</v>
       </c>
       <c r="H111" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="59"/>
         <v>2109403</v>
       </c>
       <c r="I111" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
-      <c r="J111" s="3"/>
+      <c r="J111" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M111" s="3">
-        <f t="shared" ref="M111" si="63">M103+M110</f>
+        <f t="shared" ref="M111" si="60">M103+M110</f>
         <v>1992261</v>
       </c>
-      <c r="N111" s="3"/>
-      <c r="O111" s="3">
-        <f t="shared" si="51"/>
+      <c r="N111" s="3">
+        <f>SUM(F111:I111)</f>
         <v>6417619</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>82</v>
       </c>
@@ -5083,18 +5277,19 @@
         <v>44689</v>
       </c>
       <c r="I112" s="2"/>
-      <c r="J112" s="2"/>
+      <c r="J112" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M112" s="2">
-        <f t="shared" ref="M112:M118" si="64">E112</f>
+        <f t="shared" ref="M112:M118" si="61">E112</f>
         <v>43846</v>
       </c>
-      <c r="N112" s="2"/>
-      <c r="O112" s="2">
-        <f t="shared" si="51"/>
+      <c r="N112" s="2">
+        <f>SUM(F112:I112)</f>
         <v>132752</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>83</v>
       </c>
@@ -5120,18 +5315,19 @@
         <v>1048221</v>
       </c>
       <c r="I113" s="2"/>
-      <c r="J113" s="2"/>
+      <c r="J113" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M113" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>893846</v>
       </c>
-      <c r="N113" s="2"/>
-      <c r="O113" s="2">
-        <f t="shared" si="51"/>
+      <c r="N113" s="2">
+        <f>SUM(F113:I113)</f>
         <v>3241660</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>84</v>
       </c>
@@ -5157,18 +5353,19 @@
         <v>9500</v>
       </c>
       <c r="I114" s="2"/>
-      <c r="J114" s="2"/>
+      <c r="J114" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M114" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>13706</v>
       </c>
-      <c r="N114" s="2"/>
-      <c r="O114" s="2">
-        <f t="shared" si="51"/>
+      <c r="N114" s="2">
+        <f>SUM(F114:I114)</f>
         <v>33330</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>85</v>
       </c>
@@ -5194,18 +5391,19 @@
         <v>8178</v>
       </c>
       <c r="I115" s="2"/>
-      <c r="J115" s="2"/>
+      <c r="J115" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M115" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>10751</v>
       </c>
-      <c r="N115" s="2"/>
-      <c r="O115" s="2">
-        <f t="shared" si="51"/>
+      <c r="N115" s="2">
+        <f>SUM(F115:I115)</f>
         <v>27008</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>86</v>
       </c>
@@ -5231,18 +5429,19 @@
         <v>41979</v>
       </c>
       <c r="I116" s="2"/>
-      <c r="J116" s="2"/>
+      <c r="J116" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M116" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>115852</v>
       </c>
-      <c r="N116" s="2"/>
-      <c r="O116" s="2">
-        <f t="shared" si="51"/>
+      <c r="N116" s="2">
+        <f>SUM(F116:I116)</f>
         <v>184681</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>87</v>
       </c>
@@ -5268,18 +5467,19 @@
         <v>59460</v>
       </c>
       <c r="I117" s="2"/>
-      <c r="J117" s="2"/>
+      <c r="J117" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M117" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>74400</v>
       </c>
-      <c r="N117" s="2"/>
-      <c r="O117" s="2">
-        <f t="shared" si="51"/>
+      <c r="N117" s="2">
+        <f>SUM(F117:I117)</f>
         <v>183754</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>112</v>
       </c>
@@ -5297,62 +5497,64 @@
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
-      <c r="J118" s="2"/>
+      <c r="J118" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M118" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="N118" s="2"/>
-      <c r="O118" s="2"/>
-    </row>
-    <row r="119" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B119" s="3">
-        <f t="shared" ref="B119:I119" si="65">SUM(B112:B118)</f>
+        <f t="shared" ref="B119:I119" si="62">SUM(B112:B118)</f>
         <v>660239</v>
       </c>
       <c r="C119" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="62"/>
         <v>778002</v>
       </c>
       <c r="D119" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="62"/>
         <v>885404</v>
       </c>
       <c r="E119" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="62"/>
         <v>1152401</v>
       </c>
       <c r="F119" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="62"/>
         <v>1247738</v>
       </c>
       <c r="G119" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="62"/>
         <v>1343420</v>
       </c>
       <c r="H119" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="62"/>
         <v>1212027</v>
       </c>
       <c r="I119" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="J119" s="3"/>
+      <c r="J119" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M119" s="3">
         <f>SUM(M112:M118)</f>
         <v>1152401</v>
       </c>
-      <c r="N119" s="3"/>
-      <c r="O119" s="3">
-        <f>SUM(O112:O118)</f>
+      <c r="N119" s="3">
+        <f>SUM(N112:N118)</f>
         <v>3803185</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>89</v>
       </c>
@@ -5378,18 +5580,19 @@
         <v>131134</v>
       </c>
       <c r="I120" s="2"/>
-      <c r="J120" s="2"/>
+      <c r="J120" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M120" s="2">
-        <f t="shared" ref="M120:M123" si="66">E120</f>
+        <f t="shared" ref="M120:M123" si="63">E120</f>
         <v>106407</v>
       </c>
-      <c r="N120" s="2"/>
-      <c r="O120" s="2">
-        <f t="shared" si="51"/>
+      <c r="N120" s="2">
+        <f>SUM(F120:I120)</f>
         <v>353240</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>90</v>
       </c>
@@ -5415,18 +5618,19 @@
         <v>34814</v>
       </c>
       <c r="I121" s="2"/>
-      <c r="J121" s="2"/>
+      <c r="J121" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M121" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="63"/>
         <v>50964</v>
       </c>
-      <c r="N121" s="2"/>
-      <c r="O121" s="2">
-        <f t="shared" si="51"/>
+      <c r="N121" s="2">
+        <f>SUM(F121:I121)</f>
         <v>117922</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>49</v>
       </c>
@@ -5452,18 +5656,19 @@
         <v>19701</v>
       </c>
       <c r="I122" s="2"/>
-      <c r="J122" s="2"/>
+      <c r="J122" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M122" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="63"/>
         <v>22607</v>
       </c>
-      <c r="N122" s="2"/>
-      <c r="O122" s="2">
-        <f t="shared" si="51"/>
+      <c r="N122" s="2">
+        <f>SUM(F122:I122)</f>
         <v>63103</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>91</v>
       </c>
@@ -5489,18 +5694,19 @@
         <v>43527</v>
       </c>
       <c r="I123" s="2"/>
-      <c r="J123" s="2"/>
+      <c r="J123" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M123" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="63"/>
         <v>2240</v>
       </c>
-      <c r="N123" s="2"/>
-      <c r="O123" s="2">
-        <f t="shared" si="51"/>
+      <c r="N123" s="2">
+        <f>SUM(F123:I123)</f>
         <v>89802</v>
       </c>
     </row>
-    <row r="124" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>92</v>
       </c>
@@ -5509,45 +5715,46 @@
         <v>153833</v>
       </c>
       <c r="C124" s="3">
-        <f t="shared" ref="C124:F124" si="67">SUM(C120:C123)</f>
+        <f t="shared" ref="C124:F124" si="64">SUM(C120:C123)</f>
         <v>142332</v>
       </c>
       <c r="D124" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="64"/>
         <v>138501</v>
       </c>
       <c r="E124" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="64"/>
         <v>182218</v>
       </c>
       <c r="F124" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="64"/>
         <v>177328</v>
       </c>
       <c r="G124" s="3">
-        <f t="shared" ref="G124:I124" si="68">SUM(G120:G123)</f>
+        <f t="shared" ref="G124:I124" si="65">SUM(G120:G123)</f>
         <v>217563</v>
       </c>
       <c r="H124" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="65"/>
         <v>229176</v>
       </c>
       <c r="I124" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="J124" s="3"/>
+      <c r="J124" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M124" s="3">
-        <f t="shared" ref="M124" si="69">SUM(M120:M123)</f>
+        <f t="shared" ref="M124" si="66">SUM(M120:M123)</f>
         <v>182218</v>
       </c>
-      <c r="N124" s="3"/>
-      <c r="O124" s="3">
-        <f t="shared" si="51"/>
+      <c r="N124" s="3">
+        <f>SUM(F124:I124)</f>
         <v>624067</v>
       </c>
     </row>
-    <row r="125" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>93</v>
       </c>
@@ -5556,45 +5763,46 @@
         <v>814072</v>
       </c>
       <c r="C125" s="3">
-        <f t="shared" ref="C125:F125" si="70">C124+C119</f>
+        <f t="shared" ref="C125:F125" si="67">C124+C119</f>
         <v>920334</v>
       </c>
       <c r="D125" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="67"/>
         <v>1023905</v>
       </c>
       <c r="E125" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="67"/>
         <v>1334619</v>
       </c>
       <c r="F125" s="3">
-        <f t="shared" si="70"/>
+        <f t="shared" si="67"/>
         <v>1425066</v>
       </c>
       <c r="G125" s="3">
-        <f t="shared" ref="G125:I125" si="71">G124+G119</f>
+        <f t="shared" ref="G125:I125" si="68">G124+G119</f>
         <v>1560983</v>
       </c>
       <c r="H125" s="3">
-        <f t="shared" si="71"/>
+        <f t="shared" si="68"/>
         <v>1441203</v>
       </c>
       <c r="I125" s="3">
-        <f t="shared" si="71"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="J125" s="3"/>
+      <c r="J125" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M125" s="3">
-        <f t="shared" ref="M125" si="72">M124+M119</f>
+        <f t="shared" ref="M125" si="69">M124+M119</f>
         <v>1334619</v>
       </c>
-      <c r="N125" s="3"/>
-      <c r="O125" s="3">
-        <f t="shared" si="51"/>
+      <c r="N125" s="3">
+        <f>SUM(F125:I125)</f>
         <v>4427252</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>94</v>
       </c>
@@ -5620,18 +5828,19 @@
         <v>261011</v>
       </c>
       <c r="I126" s="2"/>
-      <c r="J126" s="2"/>
+      <c r="J126" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M126" s="2">
-        <f t="shared" ref="M126:M128" si="73">E126</f>
+        <f t="shared" ref="M126:M128" si="70">E126</f>
         <v>258657</v>
       </c>
-      <c r="N126" s="2"/>
-      <c r="O126" s="2">
-        <f t="shared" si="51"/>
+      <c r="N126" s="2">
+        <f>SUM(F126:I126)</f>
         <v>779622</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>95</v>
       </c>
@@ -5657,18 +5866,19 @@
         <v>404075</v>
       </c>
       <c r="I127" s="2"/>
-      <c r="J127" s="2"/>
+      <c r="J127" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M127" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="70"/>
         <v>397225</v>
       </c>
-      <c r="N127" s="2"/>
-      <c r="O127" s="2">
-        <f t="shared" si="51"/>
+      <c r="N127" s="2">
+        <f>SUM(F127:I127)</f>
         <v>1213103</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>96</v>
       </c>
@@ -5694,18 +5904,19 @@
         <v>3114</v>
       </c>
       <c r="I128" s="2"/>
-      <c r="J128" s="2"/>
+      <c r="J128" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M128" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="70"/>
         <v>1760</v>
       </c>
-      <c r="N128" s="2"/>
-      <c r="O128" s="2">
-        <f t="shared" si="51"/>
+      <c r="N128" s="2">
+        <f>SUM(F128:I128)</f>
         <v>-2358</v>
       </c>
     </row>
-    <row r="129" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>97</v>
       </c>
@@ -5714,45 +5925,46 @@
         <v>564033</v>
       </c>
       <c r="C129" s="3">
-        <f t="shared" ref="C129:F129" si="74">SUM(C126:C128)</f>
+        <f t="shared" ref="C129:F129" si="71">SUM(C126:C128)</f>
         <v>596681</v>
       </c>
       <c r="D129" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="71"/>
         <v>625833</v>
       </c>
       <c r="E129" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="71"/>
         <v>657642</v>
       </c>
       <c r="F129" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="71"/>
         <v>662601</v>
       </c>
       <c r="G129" s="3">
-        <f t="shared" ref="G129:I129" si="75">SUM(G126:G128)</f>
+        <f t="shared" ref="G129:I129" si="72">SUM(G126:G128)</f>
         <v>659566</v>
       </c>
       <c r="H129" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="72"/>
         <v>668200</v>
       </c>
       <c r="I129" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="J129" s="3"/>
+      <c r="J129" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M129" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>2444189</v>
       </c>
-      <c r="N129" s="3"/>
-      <c r="O129" s="3">
-        <f t="shared" si="51"/>
+      <c r="N129" s="3">
+        <f>SUM(F129:I129)</f>
         <v>1990367</v>
       </c>
     </row>
-    <row r="130" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>98</v>
       </c>
@@ -5761,45 +5973,51 @@
         <v>1378105</v>
       </c>
       <c r="C130" s="3">
-        <f t="shared" ref="C130:F130" si="76">C129+C125</f>
+        <f t="shared" ref="C130:F130" si="73">C129+C125</f>
         <v>1517015</v>
       </c>
       <c r="D130" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="73"/>
         <v>1649738</v>
       </c>
       <c r="E130" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="73"/>
         <v>1992261</v>
       </c>
       <c r="F130" s="3">
-        <f t="shared" si="76"/>
+        <f t="shared" si="73"/>
         <v>2087667</v>
       </c>
       <c r="G130" s="3">
-        <f t="shared" ref="G130:I130" si="77">G129+G125</f>
+        <f t="shared" ref="G130:I130" si="74">G129+G125</f>
         <v>2220549</v>
       </c>
       <c r="H130" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="74"/>
         <v>2109403</v>
       </c>
       <c r="I130" s="3">
-        <f t="shared" si="77"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="J130" s="3"/>
+      <c r="J130" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M130" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>6537119</v>
       </c>
-      <c r="N130" s="3"/>
-      <c r="O130" s="3">
-        <f t="shared" si="51"/>
+      <c r="N130" s="3">
+        <f>SUM(F130:I130)</f>
         <v>6417619</v>
       </c>
     </row>
-    <row r="132" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J131" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>99</v>
       </c>
@@ -5808,45 +6026,46 @@
         <v>411204</v>
       </c>
       <c r="C132" s="3">
-        <f t="shared" ref="C132:F132" si="78">C101-C113</f>
+        <f t="shared" ref="C132:F132" si="75">C101-C113</f>
         <v>383699</v>
       </c>
       <c r="D132" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="75"/>
         <v>365478</v>
       </c>
       <c r="E132" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="75"/>
         <v>409184</v>
       </c>
       <c r="F132" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="75"/>
         <v>404763</v>
       </c>
       <c r="G132" s="3">
-        <f t="shared" ref="G132:I132" si="79">G101-G113</f>
+        <f t="shared" ref="G132:I132" si="76">G101-G113</f>
         <v>359318</v>
       </c>
       <c r="H132" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="76"/>
         <v>364867</v>
       </c>
       <c r="I132" s="3">
-        <f t="shared" si="79"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
-      <c r="J132" s="3"/>
+      <c r="J132" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M132" s="3">
-        <f t="shared" ref="M132" si="80">M101-M113</f>
+        <f t="shared" ref="M132" si="77">M101-M113</f>
         <v>409184</v>
       </c>
-      <c r="N132" s="3"/>
-      <c r="O132" s="3">
-        <f t="shared" si="51"/>
+      <c r="N132" s="3">
+        <f>SUM(F132:I132)</f>
         <v>1128948</v>
       </c>
     </row>
-    <row r="133" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>100</v>
       </c>
@@ -5855,41 +6074,42 @@
         <v>1.9283305113443956</v>
       </c>
       <c r="C133" s="6">
-        <f t="shared" ref="C133:F133" si="81">C101/C113</f>
+        <f t="shared" ref="C133:F133" si="78">C101/C113</f>
         <v>1.6440842129293907</v>
       </c>
       <c r="D133" s="6">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>1.5179603463669733</v>
       </c>
       <c r="E133" s="6">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>1.4577790805127506</v>
       </c>
       <c r="F133" s="6">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>1.3948911169669433</v>
       </c>
       <c r="G133" s="6">
-        <f t="shared" ref="G133:I133" si="82">G101/G113</f>
+        <f t="shared" ref="G133:I133" si="79">G101/G113</f>
         <v>1.3075194276128856</v>
       </c>
       <c r="H133" s="6">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>1.3480821315352391</v>
       </c>
       <c r="I133" s="6" t="e">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J133" s="6"/>
+      <c r="J133" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="M133" s="6">
-        <f t="shared" ref="M133" si="83">M101/M113</f>
+        <f t="shared" ref="M133" si="80">M101/M113</f>
         <v>1.4577790805127506</v>
       </c>
-      <c r="N133" s="6"/>
-      <c r="O133" s="6" t="e">
-        <f t="shared" si="51"/>
+      <c r="N133" s="6" t="e">
+        <f>SUM(F133:I133)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
